--- a/README.xlsx
+++ b/README.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="97">
   <si>
     <t>JDK 9</t>
   </si>
@@ -101,12 +101,72 @@
     <t>Link</t>
   </si>
   <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>API</t>
+  </si>
+  <si>
+    <t>core-libs / java.net</t>
+  </si>
+  <si>
+    <t>JEP 110: HTTP 2 Client</t>
+  </si>
+  <si>
+    <t>JVM</t>
+  </si>
+  <si>
+    <t>hotspot / runtime</t>
+  </si>
+  <si>
+    <t>JEP 143: Improve Contended Locking</t>
+  </si>
+  <si>
+    <t>hotspot / svc</t>
+  </si>
+  <si>
+    <t>JEP 158: Unified JVM Logging</t>
+  </si>
+  <si>
     <t>Language</t>
   </si>
   <si>
+    <t>core-libs / java.lang</t>
+  </si>
+  <si>
+    <t>JEP 102: Process API Updates</t>
+  </si>
+  <si>
+    <t>Process API Updates</t>
+  </si>
+  <si>
+    <t>HTTP 2 Client</t>
+  </si>
+  <si>
+    <t>Improve Contended Locking</t>
+  </si>
+  <si>
+    <t>Unified JVM Logging</t>
+  </si>
+  <si>
+    <t>Variable Handles</t>
+  </si>
+  <si>
+    <t>Segmented Code Cache</t>
+  </si>
+  <si>
+    <t>The Modular JDK</t>
+  </si>
+  <si>
+    <t>Modular Source Code</t>
+  </si>
+  <si>
     <t>Milling Project Coin</t>
   </si>
   <si>
+    <t>Remove GC Combinations Deprecated in JDK 8</t>
+  </si>
+  <si>
     <t>Tiered Attribution for javac</t>
   </si>
   <si>
@@ -116,82 +176,130 @@
     <t>Annotations Pipeline 2.0</t>
   </si>
   <si>
+    <t>Datagram Transport Layer Security (DTLS)</t>
+  </si>
+  <si>
+    <t>Modular Run-Time Images</t>
+  </si>
+  <si>
+    <t>Simplified Doclet API</t>
+  </si>
+  <si>
+    <t>jshell: The Java Shell (Read-Eval-Print Loop)</t>
+  </si>
+  <si>
+    <t>New Version-String Scheme</t>
+  </si>
+  <si>
+    <t>HTML5 Javadoc</t>
+  </si>
+  <si>
+    <t>Javadoc Search</t>
+  </si>
+  <si>
+    <t>UTF-8 Property Files</t>
+  </si>
+  <si>
+    <t>Unicode 7.0</t>
+  </si>
+  <si>
+    <t>Add More Diagnostic Commands</t>
+  </si>
+  <si>
+    <t>Create PKCS12 Keystores by Default</t>
+  </si>
+  <si>
+    <t>Remove Launch-Time JRE Version Selection</t>
+  </si>
+  <si>
+    <t>Improve Secure Application Performance</t>
+  </si>
+  <si>
+    <t>Generate Run-Time Compiler Tests Automatically</t>
+  </si>
+  <si>
+    <t>Test Class-File Attributes Generated by javac</t>
+  </si>
+  <si>
+    <t>Parser API for Nashorn</t>
+  </si>
+  <si>
+    <t>Linux/AArch64 Port</t>
+  </si>
+  <si>
+    <t>Multi-Release JAR Files</t>
+  </si>
+  <si>
+    <t>Java-Level JVM Compiler Interface</t>
+  </si>
+  <si>
+    <t>TLS Application-Layer Protocol Negotiation Extension</t>
+  </si>
+  <si>
+    <t>Validate JVM Command-Line Flag Arguments</t>
+  </si>
+  <si>
+    <t>Leverage CPU Instructions for GHASH and RSA</t>
+  </si>
+  <si>
+    <t>Make G1 the Default Garbage Collector</t>
+  </si>
+  <si>
+    <t>Multi-Resolution Images</t>
+  </si>
+  <si>
+    <t>Use CLDR Locale Data by Default</t>
+  </si>
+  <si>
+    <t>Stack-Walking API</t>
+  </si>
+  <si>
+    <t>Encapsulate Most Internal APIs</t>
+  </si>
+  <si>
+    <t>TIFF Image I/O</t>
+  </si>
+  <si>
+    <t>Platform Logging API and Service</t>
+  </si>
+  <si>
+    <t>Unicode 8.0</t>
+  </si>
+  <si>
+    <t>XML Catalogs</t>
+  </si>
+  <si>
+    <t>Convenience Factory Methods for Collections</t>
+  </si>
+  <si>
+    <t>Reserved Stack Areas for Critical Sections</t>
+  </si>
+  <si>
+    <t>Unified GC Logging</t>
+  </si>
+  <si>
+    <t>DRBG-Based SecureRandom Implementations</t>
+  </si>
+  <si>
+    <t>Enhanced Method Handles</t>
+  </si>
+  <si>
     <t>Enhanced Deprecation</t>
   </si>
   <si>
+    <t>Additional Tests for Humongous Objects in G1</t>
+  </si>
+  <si>
     <t>Indify String Concatenation</t>
   </si>
   <si>
-    <t>API</t>
-  </si>
-  <si>
-    <t>Datagram Transport Layer Security (DTLS)</t>
-  </si>
-  <si>
-    <t>Simplified Doclet API</t>
-  </si>
-  <si>
-    <t>New Version-String Scheme</t>
-  </si>
-  <si>
-    <t>HTML5 Javadoc</t>
-  </si>
-  <si>
-    <t>Javadoc Search</t>
-  </si>
-  <si>
-    <t>UTF-8 Property Files</t>
-  </si>
-  <si>
-    <t>Unicode 7.0</t>
-  </si>
-  <si>
-    <t>Create PKCS12 Keystores by Default</t>
-  </si>
-  <si>
-    <t>Remove Launch-Time JRE Version Selection</t>
-  </si>
-  <si>
-    <t>Improve Secure Application Performance</t>
-  </si>
-  <si>
-    <t>Multi-Release JAR Files</t>
-  </si>
-  <si>
-    <t>TLS Application-Layer Protocol Negotiation Extension</t>
-  </si>
-  <si>
-    <t>Leverage CPU Instructions for GHASH and RSA</t>
-  </si>
-  <si>
-    <t>Multi-Resolution Images</t>
-  </si>
-  <si>
-    <t>Use CLDR Locale Data by Default</t>
-  </si>
-  <si>
-    <t>Stack-Walking API</t>
-  </si>
-  <si>
-    <t>TIFF Image I/O</t>
-  </si>
-  <si>
-    <t>Platform Logging API and Service</t>
-  </si>
-  <si>
-    <t>Unicode 8.0</t>
-  </si>
-  <si>
-    <t>XML Catalogs</t>
-  </si>
-  <si>
-    <t>Convenience Factory Methods for Collections</t>
-  </si>
-  <si>
-    <t>DRBG-Based SecureRandom Implementations</t>
-  </si>
-  <si>
-    <t>Enhanced Method Handles</t>
+    <t>jlink: The Java Linker</t>
+  </si>
+  <si>
+    <t>New HotSpot Build System</t>
+  </si>
+  <si>
+    <t>Spin-Wait Hints</t>
   </si>
   <si>
     <t>SHA-3 Hash Algorithms</t>
@@ -203,118 +311,7 @@
     <t>Filter Incoming Serialization Data</t>
   </si>
   <si>
-    <t>JVM</t>
-  </si>
-  <si>
-    <t>Improve Contended Locking</t>
-  </si>
-  <si>
-    <t>Unified JVM Logging</t>
-  </si>
-  <si>
-    <t>Compiler Control</t>
-  </si>
-  <si>
-    <t>Variable Handles</t>
-  </si>
-  <si>
-    <t>Segmented Code Cache</t>
-  </si>
-  <si>
-    <t>Java-Level JVM Compiler Interface</t>
-  </si>
-  <si>
-    <t>Validate JVM Command-Line Flag Arguments</t>
-  </si>
-  <si>
-    <t>Make G1 the Default Garbage Collector</t>
-  </si>
-  <si>
-    <t>Encapsulate Most Internal APIs</t>
-  </si>
-  <si>
-    <t>Reserved Stack Areas for Critical Sections</t>
-  </si>
-  <si>
-    <t>Unified GC Logging</t>
-  </si>
-  <si>
-    <t>Spin-Wait Hints</t>
-  </si>
-  <si>
-    <t>GC</t>
-  </si>
-  <si>
-    <t>Remove GC Combinations Deprecated in JDK 8</t>
-  </si>
-  <si>
-    <t>Additional Tests for Humongous Objects in G1</t>
-  </si>
-  <si>
     <t>Deprecate the Concurrent Mark Sweep (CMS) Garbage Collector</t>
-  </si>
-  <si>
-    <t>Tool</t>
-  </si>
-  <si>
-    <t>Smart Java Compilation, Phase Two</t>
-  </si>
-  <si>
-    <t>The Modular JDK</t>
-  </si>
-  <si>
-    <t>Modular Source Code</t>
-  </si>
-  <si>
-    <t>Elide Deprecation Warnings on Import Statements</t>
-  </si>
-  <si>
-    <t>Resolve Lint and Doclint Warnings</t>
-  </si>
-  <si>
-    <t>Modular Run-Time Images</t>
-  </si>
-  <si>
-    <t>jshell: The Java Shell (Read-Eval-Print Loop)</t>
-  </si>
-  <si>
-    <t>Add More Diagnostic Commands</t>
-  </si>
-  <si>
-    <t>Generate Run-Time Compiler Tests Automatically</t>
-  </si>
-  <si>
-    <t>Test Class-File Attributes Generated by javac</t>
-  </si>
-  <si>
-    <t>Parser API for Nashorn</t>
-  </si>
-  <si>
-    <t>Remove the JVM TI hprof Agent</t>
-  </si>
-  <si>
-    <t>Remove the jhat Tool</t>
-  </si>
-  <si>
-    <t>Compile for Older Platform Versions</t>
-  </si>
-  <si>
-    <t>jlink: The Java Linker</t>
-  </si>
-  <si>
-    <t>New HotSpot Build System</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Process API Updates</t>
-  </si>
-  <si>
-    <t>HTTP 2 Client</t>
-  </si>
-  <si>
-    <t>Linux/AArch64 Port</t>
   </si>
   <si>
     <t>Linux/s390x Port</t>
@@ -956,14 +953,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1299,56 +1293,56 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" s="5" customFormat="1" spans="2:18">
-      <c r="B1" s="5" t="s">
+    <row r="1" s="4" customFormat="1" spans="2:18">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1428,1097 +1422,322 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E72"/>
+  <dimension ref="A1:F72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D80" sqref="D80"/>
+      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.45454545454546" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="2" width="9.54545454545454" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.72727272727273" style="1" customWidth="1"/>
-    <col min="4" max="4" width="66.9090909090909" style="1" customWidth="1"/>
-    <col min="5" max="5" width="77" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.72727272727273" style="1"/>
+    <col min="1" max="1" width="9.54545454545454" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.1818181818182" style="1" customWidth="1"/>
+    <col min="3" max="3" width="4.81818181818182" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.18181818181818" style="1" customWidth="1"/>
+    <col min="5" max="7" width="38.8181818181818" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.45454545454546" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" spans="1:5">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="2" customFormat="1" spans="1:6">
+      <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="C2" s="1">
-        <v>213</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="4" t="str">
-        <f>HYPERLINK("https://openjdk.org/jeps/"&amp;C2,"JEP "&amp;C2&amp;": "&amp;D2)</f>
-        <v>JEP 213: Milling Project Coin</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>110</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="3" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/110","JEP 110: HTTP 2 Client")</f>
+        <v>JEP 110: HTTP 2 Client</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="C3" s="1">
-        <v>215</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="4" t="str">
-        <f t="shared" ref="E3:E34" si="0">HYPERLINK("https://openjdk.org/jeps/"&amp;C3,"JEP "&amp;C3&amp;": "&amp;D3)</f>
-        <v>JEP 215: Tiered Attribution for javac</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>143</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="3" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/143","JEP 143: Improve Contended Locking")</f>
+        <v>JEP 143: Improve Contended Locking</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="C4" s="1">
-        <v>216</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>JEP 216: Process Import Statements Correctly</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>158</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="3" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/158","JEP 158: Unified JVM Logging")</f>
+        <v>JEP 158: Unified JVM Logging</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="C5" s="1">
-        <v>217</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>JEP 217: Annotations Pipeline 2.0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="1">
-        <v>277</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>JEP 277: Enhanced Deprecation</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="1">
-        <v>280</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>JEP 280: Indify String Concatenation</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="1">
-        <v>219</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>JEP 219: Datagram Transport Layer Security (DTLS)</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="1">
-        <v>221</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>JEP 221: Simplified Doclet API</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="1">
-        <v>223</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>JEP 223: New Version-String Scheme</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="1">
-        <v>224</v>
-      </c>
-      <c r="D11" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="3" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/102","JEP 102: Process API Updates")</f>
+        <v>JEP 102: Process API Updates</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>JEP 224: HTML5 Javadoc</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="1">
-        <v>225</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>JEP 225: Javadoc Search</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="1">
-        <v>226</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>JEP 226: UTF-8 Property Files</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="1">
-        <v>227</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>JEP 227: Unicode 7.0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="1">
-        <v>229</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>JEP 229: Create PKCS12 Keystores by Default</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="1">
-        <v>231</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>JEP 231: Remove Launch-Time JRE Version Selection</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="1">
-        <v>232</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>JEP 232: Improve Secure Application Performance</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="1">
-        <v>238</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>JEP 238: Multi-Release JAR Files</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="1">
-        <v>244</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>JEP 244: TLS Application-Layer Protocol Negotiation Extension</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="1">
-        <v>246</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E20" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>JEP 246: Leverage CPU Instructions for GHASH and RSA</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="1">
-        <v>251</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>JEP 251: Multi-Resolution Images</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="1">
-        <v>252</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E22" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>JEP 252: Use CLDR Locale Data by Default</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="1">
-        <v>259</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E23" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>JEP 259: Stack-Walking API</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="1">
-        <v>262</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E24" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>JEP 262: TIFF Image I/O</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="1">
-        <v>264</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E25" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>JEP 264: Platform Logging API and Service</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="1">
-        <v>267</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E26" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>JEP 267: Unicode 8.0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="1">
-        <v>268</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E27" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>JEP 268: XML Catalogs</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="1">
-        <v>269</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E28" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>JEP 269: Convenience Factory Methods for Collections</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" s="1">
-        <v>273</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E29" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>JEP 273: DRBG-Based SecureRandom Implementations</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" s="1">
-        <v>274</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E30" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>JEP 274: Enhanced Method Handles</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" s="1">
-        <v>287</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E31" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>JEP 287: SHA-3 Hash Algorithms</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32" s="1">
-        <v>288</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E32" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>JEP 288: Disable SHA-1 Certificates</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C33" s="1">
-        <v>290</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E33" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>JEP 290: Filter Incoming Serialization Data</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C34" s="1">
-        <v>143</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E34" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>JEP 143: Improve Contended Locking</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C35" s="1">
-        <v>158</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E35" s="4" t="str">
-        <f>HYPERLINK("https://openjdk.org/jeps/"&amp;C35,"JEP "&amp;C35&amp;": "&amp;D35)</f>
-        <v>JEP 158: Unified JVM Logging</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C36" s="1">
-        <v>165</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E36" s="4" t="str">
-        <f>HYPERLINK("https://openjdk.org/jeps/"&amp;C36,"JEP "&amp;C36&amp;": "&amp;D36)</f>
-        <v>JEP 165: Compiler Control</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C37" s="1">
-        <v>193</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E37" s="4" t="str">
-        <f>HYPERLINK("https://openjdk.org/jeps/"&amp;C37,"JEP "&amp;C37&amp;": "&amp;D37)</f>
-        <v>JEP 193: Variable Handles</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C38" s="1">
-        <v>197</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E38" s="4" t="str">
-        <f>HYPERLINK("https://openjdk.org/jeps/"&amp;C38,"JEP "&amp;C38&amp;": "&amp;D38)</f>
-        <v>JEP 197: Segmented Code Cache</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C39" s="1">
-        <v>243</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E39" s="4" t="str">
-        <f>HYPERLINK("https://openjdk.org/jeps/"&amp;C39,"JEP "&amp;C39&amp;": "&amp;D39)</f>
-        <v>JEP 243: Java-Level JVM Compiler Interface</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C40" s="1">
-        <v>245</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E40" s="4" t="str">
-        <f>HYPERLINK("https://openjdk.org/jeps/"&amp;C40,"JEP "&amp;C40&amp;": "&amp;D40)</f>
-        <v>JEP 245: Validate JVM Command-Line Flag Arguments</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C41" s="1">
-        <v>248</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E41" s="4" t="str">
-        <f>HYPERLINK("https://openjdk.org/jeps/"&amp;C41,"JEP "&amp;C41&amp;": "&amp;D41)</f>
-        <v>JEP 248: Make G1 the Default Garbage Collector</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C42" s="1">
-        <v>260</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E42" s="4" t="str">
-        <f>HYPERLINK("https://openjdk.org/jeps/"&amp;C42,"JEP "&amp;C42&amp;": "&amp;D42)</f>
-        <v>JEP 260: Encapsulate Most Internal APIs</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C43" s="1">
-        <v>270</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E43" s="4" t="str">
-        <f>HYPERLINK("https://openjdk.org/jeps/"&amp;C43,"JEP "&amp;C43&amp;": "&amp;D43)</f>
-        <v>JEP 270: Reserved Stack Areas for Critical Sections</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C44" s="1">
-        <v>271</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E44" s="4" t="str">
-        <f>HYPERLINK("https://openjdk.org/jeps/"&amp;C44,"JEP "&amp;C44&amp;": "&amp;D44)</f>
-        <v>JEP 271: Unified GC Logging</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C45" s="1">
-        <v>285</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E45" s="4" t="str">
-        <f>HYPERLINK("https://openjdk.org/jeps/"&amp;C45,"JEP "&amp;C45&amp;": "&amp;D45)</f>
-        <v>JEP 285: Spin-Wait Hints</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C46" s="1">
-        <v>214</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E46" s="4" t="str">
-        <f>HYPERLINK("https://openjdk.org/jeps/"&amp;C46,"JEP "&amp;C46&amp;": "&amp;D46)</f>
-        <v>JEP 214: Remove GC Combinations Deprecated in JDK 8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C47" s="1">
-        <v>248</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E47" s="4" t="str">
-        <f>HYPERLINK("https://openjdk.org/jeps/"&amp;C47,"JEP "&amp;C47&amp;": "&amp;D47)</f>
-        <v>JEP 248: Make G1 the Default Garbage Collector</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C48" s="1">
-        <v>278</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E48" s="4" t="str">
-        <f>HYPERLINK("https://openjdk.org/jeps/"&amp;C48,"JEP "&amp;C48&amp;": "&amp;D48)</f>
-        <v>JEP 278: Additional Tests for Humongous Objects in G1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C49" s="1">
-        <v>291</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E49" s="4" t="str">
-        <f>HYPERLINK("https://openjdk.org/jeps/"&amp;C49,"JEP "&amp;C49&amp;": "&amp;D49)</f>
-        <v>JEP 291: Deprecate the Concurrent Mark Sweep (CMS) Garbage Collector</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C50" s="1">
-        <v>199</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E50" s="4" t="str">
-        <f>HYPERLINK("https://openjdk.org/jeps/"&amp;C50,"JEP "&amp;C50&amp;": "&amp;D50)</f>
-        <v>JEP 199: Smart Java Compilation, Phase Two</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C51" s="1">
-        <v>200</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E51" s="4" t="str">
-        <f>HYPERLINK("https://openjdk.org/jeps/"&amp;C51,"JEP "&amp;C51&amp;": "&amp;D51)</f>
-        <v>JEP 200: The Modular JDK</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C52" s="1">
-        <v>201</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E52" s="4" t="str">
-        <f>HYPERLINK("https://openjdk.org/jeps/"&amp;C52,"JEP "&amp;C52&amp;": "&amp;D52)</f>
-        <v>JEP 201: Modular Source Code</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C53" s="1">
-        <v>211</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E53" s="4" t="str">
-        <f>HYPERLINK("https://openjdk.org/jeps/"&amp;C53,"JEP "&amp;C53&amp;": "&amp;D53)</f>
-        <v>JEP 211: Elide Deprecation Warnings on Import Statements</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C54" s="1">
-        <v>212</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E54" s="4" t="str">
-        <f>HYPERLINK("https://openjdk.org/jeps/"&amp;C54,"JEP "&amp;C54&amp;": "&amp;D54)</f>
-        <v>JEP 212: Resolve Lint and Doclint Warnings</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C55" s="1">
-        <v>220</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E55" s="4" t="str">
-        <f>HYPERLINK("https://openjdk.org/jeps/"&amp;C55,"JEP "&amp;C55&amp;": "&amp;D55)</f>
-        <v>JEP 220: Modular Run-Time Images</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C56" s="1">
-        <v>222</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E56" s="4" t="str">
-        <f>HYPERLINK("https://openjdk.org/jeps/"&amp;C56,"JEP "&amp;C56&amp;": "&amp;D56)</f>
-        <v>JEP 222: jshell: The Java Shell (Read-Eval-Print Loop)</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C57" s="1">
-        <v>228</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E57" s="4" t="str">
-        <f>HYPERLINK("https://openjdk.org/jeps/"&amp;C57,"JEP "&amp;C57&amp;": "&amp;D57)</f>
-        <v>JEP 228: Add More Diagnostic Commands</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C58" s="1">
-        <v>233</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E58" s="4" t="str">
-        <f>HYPERLINK("https://openjdk.org/jeps/"&amp;C58,"JEP "&amp;C58&amp;": "&amp;D58)</f>
-        <v>JEP 233: Generate Run-Time Compiler Tests Automatically</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C59" s="1">
-        <v>235</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E59" s="4" t="str">
-        <f>HYPERLINK("https://openjdk.org/jeps/"&amp;C59,"JEP "&amp;C59&amp;": "&amp;D59)</f>
-        <v>JEP 235: Test Class-File Attributes Generated by javac</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C60" s="1">
-        <v>236</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E60" s="4" t="str">
-        <f>HYPERLINK("https://openjdk.org/jeps/"&amp;C60,"JEP "&amp;C60&amp;": "&amp;D60)</f>
-        <v>JEP 236: Parser API for Nashorn</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C61" s="1">
-        <v>240</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E61" s="4"/>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C62" s="1">
-        <v>241</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E62" s="4"/>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C63" s="1">
-        <v>247</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E63" s="4"/>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C64" s="1">
-        <v>282</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E64" s="4" t="str">
-        <f t="shared" ref="E64:E72" si="1">HYPERLINK("https://openjdk.org/jeps/"&amp;C64,"JEP "&amp;C64&amp;": "&amp;D64)</f>
-        <v>JEP 282: jlink: The Java Linker</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C65" s="1">
-        <v>284</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E65" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>JEP 284: New HotSpot Build System</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C66" s="1">
-        <v>102</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E66" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>JEP 102: Process API Updates</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C67" s="1">
-        <v>110</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E67" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>JEP 110: HTTP 2 Client</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C68" s="1">
-        <v>237</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E68" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>JEP 237: Linux/AArch64 Port</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C69" s="1">
-        <v>294</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E69" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>JEP 294: Linux/s390x Port</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C70" s="1">
-        <v>297</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E70" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>JEP 297: Unified arm32/arm64 Port</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C71" s="1">
-        <v>298</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E71" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>JEP 298: Remove Demos and Samples</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C72" s="1">
-        <v>299</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E72" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>JEP 299: Reorganize Documentation</v>
-      </c>
+    </row>
+    <row r="6" spans="5:5">
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="5:5">
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="5:5">
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="5:5">
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="5:5">
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="5:5">
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="5:5">
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="5:5">
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="5:5">
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="5:5">
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="5:5">
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="5:5">
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="5:5">
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="5:5">
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="5:5">
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="5:5">
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="5:5">
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="5:5">
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="5:5">
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="5:5">
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="5:5">
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="5:5">
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="5:5">
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="5:5">
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="5:5">
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="5:5">
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="5:5">
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="5:5">
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="5:5">
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="5:5">
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" spans="5:5">
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" spans="5:5">
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" spans="5:5">
+      <c r="E38" s="3"/>
+    </row>
+    <row r="39" spans="5:5">
+      <c r="E39" s="3"/>
+    </row>
+    <row r="40" spans="5:5">
+      <c r="E40" s="3"/>
+    </row>
+    <row r="41" spans="5:5">
+      <c r="E41" s="3"/>
+    </row>
+    <row r="42" spans="5:5">
+      <c r="E42" s="3"/>
+    </row>
+    <row r="43" spans="5:5">
+      <c r="E43" s="3"/>
+    </row>
+    <row r="44" spans="5:5">
+      <c r="E44" s="3"/>
+    </row>
+    <row r="45" spans="5:5">
+      <c r="E45" s="3"/>
+    </row>
+    <row r="46" spans="5:5">
+      <c r="E46" s="3"/>
+    </row>
+    <row r="47" spans="5:5">
+      <c r="E47" s="3"/>
+    </row>
+    <row r="48" spans="5:5">
+      <c r="E48" s="3"/>
+    </row>
+    <row r="49" spans="5:5">
+      <c r="E49" s="3"/>
+    </row>
+    <row r="50" spans="5:5">
+      <c r="E50" s="3"/>
+    </row>
+    <row r="51" spans="5:5">
+      <c r="E51" s="3"/>
+    </row>
+    <row r="52" spans="5:5">
+      <c r="E52" s="3"/>
+    </row>
+    <row r="53" spans="5:5">
+      <c r="E53" s="3"/>
+    </row>
+    <row r="54" spans="5:5">
+      <c r="E54" s="3"/>
+    </row>
+    <row r="55" spans="5:5">
+      <c r="E55" s="3"/>
+    </row>
+    <row r="56" spans="5:5">
+      <c r="E56" s="3"/>
+    </row>
+    <row r="57" spans="5:5">
+      <c r="E57" s="3"/>
+    </row>
+    <row r="58" spans="5:5">
+      <c r="E58" s="3"/>
+    </row>
+    <row r="59" spans="5:5">
+      <c r="E59" s="3"/>
+    </row>
+    <row r="60" spans="5:5">
+      <c r="E60" s="3"/>
+    </row>
+    <row r="61" spans="5:5">
+      <c r="E61" s="3"/>
+    </row>
+    <row r="62" spans="5:5">
+      <c r="E62" s="3"/>
+    </row>
+    <row r="63" spans="5:5">
+      <c r="E63" s="3"/>
+    </row>
+    <row r="64" spans="5:5">
+      <c r="E64" s="3"/>
+    </row>
+    <row r="65" spans="5:5">
+      <c r="E65" s="3"/>
+    </row>
+    <row r="66" spans="5:5">
+      <c r="E66" s="3"/>
+    </row>
+    <row r="67" spans="5:5">
+      <c r="E67" s="3"/>
+    </row>
+    <row r="68" spans="5:5">
+      <c r="E68" s="3"/>
+    </row>
+    <row r="69" spans="5:5">
+      <c r="E69" s="3"/>
+    </row>
+    <row r="70" spans="5:5">
+      <c r="E70" s="3"/>
+    </row>
+    <row r="71" spans="5:5">
+      <c r="E71" s="3"/>
+    </row>
+    <row r="72" spans="5:5">
+      <c r="E72" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2542,7 +1761,7 @@
         <v>102</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>91</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2550,7 +1769,7 @@
         <v>110</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>92</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2558,7 +1777,7 @@
         <v>143</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2566,7 +1785,7 @@
         <v>158</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2574,7 +1793,7 @@
         <v>193</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2582,7 +1801,7 @@
         <v>197</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2590,7 +1809,7 @@
         <v>200</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2598,7 +1817,7 @@
         <v>201</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2606,7 +1825,7 @@
         <v>213</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2614,7 +1833,7 @@
         <v>214</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2622,7 +1841,7 @@
         <v>215</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2630,7 +1849,7 @@
         <v>216</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2638,7 +1857,7 @@
         <v>217</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2646,7 +1865,7 @@
         <v>219</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2654,7 +1873,7 @@
         <v>220</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -2662,7 +1881,7 @@
         <v>221</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2670,7 +1889,7 @@
         <v>222</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2678,7 +1897,7 @@
         <v>223</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -2686,7 +1905,7 @@
         <v>224</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -2694,7 +1913,7 @@
         <v>225</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -2702,7 +1921,7 @@
         <v>226</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2710,7 +1929,7 @@
         <v>227</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2718,7 +1937,7 @@
         <v>228</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -2726,7 +1945,7 @@
         <v>229</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -2734,7 +1953,7 @@
         <v>231</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -2742,7 +1961,7 @@
         <v>232</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -2750,7 +1969,7 @@
         <v>233</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -2758,7 +1977,7 @@
         <v>235</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -2766,7 +1985,7 @@
         <v>236</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -2774,7 +1993,7 @@
         <v>237</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -2782,7 +2001,7 @@
         <v>238</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -2790,7 +2009,7 @@
         <v>243</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2798,7 +2017,7 @@
         <v>244</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -2806,7 +2025,7 @@
         <v>245</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -2814,7 +2033,7 @@
         <v>246</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -2822,7 +2041,7 @@
         <v>248</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -2830,7 +2049,7 @@
         <v>248</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -2838,7 +2057,7 @@
         <v>251</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -2846,7 +2065,7 @@
         <v>252</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -2854,7 +2073,7 @@
         <v>259</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -2862,7 +2081,7 @@
         <v>260</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -2870,7 +2089,7 @@
         <v>262</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -2878,7 +2097,7 @@
         <v>264</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -2886,7 +2105,7 @@
         <v>267</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -2894,7 +2113,7 @@
         <v>268</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -2902,7 +2121,7 @@
         <v>269</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -2910,7 +2129,7 @@
         <v>270</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -2918,7 +2137,7 @@
         <v>271</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -2926,7 +2145,7 @@
         <v>273</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -2934,7 +2153,7 @@
         <v>274</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -2942,7 +2161,7 @@
         <v>277</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -2950,7 +2169,7 @@
         <v>278</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -2958,7 +2177,7 @@
         <v>280</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -2966,7 +2185,7 @@
         <v>282</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -2974,7 +2193,7 @@
         <v>284</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -2982,7 +2201,7 @@
         <v>285</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -2990,7 +2209,7 @@
         <v>287</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -2998,7 +2217,7 @@
         <v>288</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -3006,7 +2225,7 @@
         <v>290</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -3014,7 +2233,7 @@
         <v>291</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -3022,7 +2241,7 @@
         <v>294</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -3030,7 +2249,7 @@
         <v>297</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -3038,7 +2257,7 @@
         <v>298</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -3046,7 +2265,7 @@
         <v>299</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/README.xlsx
+++ b/README.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="242">
   <si>
     <t>JDK 9</t>
   </si>
@@ -104,226 +104,661 @@
     <t>Title</t>
   </si>
   <si>
+    <t>The Modular JDK</t>
+  </si>
+  <si>
+    <t>Modular Source Code</t>
+  </si>
+  <si>
+    <t>Modular Run-Time Images</t>
+  </si>
+  <si>
+    <t>New Version-String Scheme</t>
+  </si>
+  <si>
+    <t>Encapsulate Most Internal APIs</t>
+  </si>
+  <si>
+    <t>Module System</t>
+  </si>
+  <si>
+    <t>Reserved Stack Areas for Critical Sections</t>
+  </si>
+  <si>
+    <t>Improve Test-Failure Troubleshooting</t>
+  </si>
+  <si>
     <t>API</t>
   </si>
   <si>
+    <t>core-libs</t>
+  </si>
+  <si>
+    <t>Stack-Walking API</t>
+  </si>
+  <si>
+    <t>JEP 259: Stack-Walking API</t>
+  </si>
+  <si>
+    <t>core-libs / java.io:serialization</t>
+  </si>
+  <si>
+    <t>Filter Incoming Serialization Data</t>
+  </si>
+  <si>
+    <t>JEP 290: Filter Incoming Serialization Data</t>
+  </si>
+  <si>
+    <t>core-libs / java.lang.invoke</t>
+  </si>
+  <si>
+    <t>Enhanced Method Handles</t>
+  </si>
+  <si>
+    <t>JEP 274: Enhanced Method Handles</t>
+  </si>
+  <si>
+    <t>Dynamic Linking of Language-Defined Object Models</t>
+  </si>
+  <si>
+    <t>JEP 276: Dynamic Linking of Language-Defined Object Models</t>
+  </si>
+  <si>
     <t>core-libs / java.net</t>
   </si>
   <si>
+    <t>HTTP 2 Client</t>
+  </si>
+  <si>
     <t>JEP 110: HTTP 2 Client</t>
   </si>
   <si>
+    <t>core-libs / java.util.concurrent</t>
+  </si>
+  <si>
+    <t>More Concurrency Updates</t>
+  </si>
+  <si>
+    <t>JEP 266: More Concurrency Updates</t>
+  </si>
+  <si>
+    <t>core-libs / java.util.logging</t>
+  </si>
+  <si>
+    <t>Platform Logging API and Service</t>
+  </si>
+  <si>
+    <t>JEP 264: Platform Logging API and Service</t>
+  </si>
+  <si>
+    <t>core-libs / java.util:collections</t>
+  </si>
+  <si>
+    <t>Convenience Factory Methods for Collections</t>
+  </si>
+  <si>
+    <t>JEP 269: Convenience Factory Methods for Collections</t>
+  </si>
+  <si>
+    <t>core-libs / java.util:i18n</t>
+  </si>
+  <si>
+    <t>UTF-8 Property Files</t>
+  </si>
+  <si>
+    <t>JEP 226: UTF-8 Property Files</t>
+  </si>
+  <si>
+    <t>Use CLDR Locale Data by Default</t>
+  </si>
+  <si>
+    <t>JEP 252: Use CLDR Locale Data by Default</t>
+  </si>
+  <si>
+    <t>core-libs / jdk.nashorn</t>
+  </si>
+  <si>
+    <t>Parser API for Nashorn</t>
+  </si>
+  <si>
+    <t>JEP 236: Parser API for Nashorn</t>
+  </si>
+  <si>
+    <t>Implement Selected ECMAScript 6 Features in Nashorn</t>
+  </si>
+  <si>
+    <t>JEP 292: Implement Selected ECMAScript 6 Features in Nashorn</t>
+  </si>
+  <si>
+    <t>security-libs / java.security</t>
+  </si>
+  <si>
+    <t>Create PKCS12 Keystores by Default</t>
+  </si>
+  <si>
+    <t>JEP 229: Create PKCS12 Keystores by Default</t>
+  </si>
+  <si>
+    <t>Improve Secure Application Performance</t>
+  </si>
+  <si>
+    <t>JEP 232: Improve Secure Application Performance</t>
+  </si>
+  <si>
+    <t>DRBG-Based SecureRandom Implementations</t>
+  </si>
+  <si>
+    <t>JEP 273: DRBG-Based SecureRandom Implementations</t>
+  </si>
+  <si>
+    <t>SHA-3 Hash Algorithms</t>
+  </si>
+  <si>
+    <t>JEP 287: SHA-3 Hash Algorithms</t>
+  </si>
+  <si>
+    <t>Disable SHA-1 Certificates</t>
+  </si>
+  <si>
+    <t>JEP 288: Disable SHA-1 Certificates</t>
+  </si>
+  <si>
+    <t>security-libs / javax.crypto</t>
+  </si>
+  <si>
+    <t>Leverage CPU Instructions for GHASH and RSA</t>
+  </si>
+  <si>
+    <t>JEP 246: Leverage CPU Instructions for GHASH and RSA</t>
+  </si>
+  <si>
+    <t>security-libs / javax.net.ssl</t>
+  </si>
+  <si>
+    <t>Datagram Transport Layer Security (DTLS)</t>
+  </si>
+  <si>
+    <t>JEP 219: Datagram Transport Layer Security (DTLS)</t>
+  </si>
+  <si>
+    <t>TLS Application-Layer Protocol Negotiation Extension</t>
+  </si>
+  <si>
+    <t>JEP 244: TLS Application-Layer Protocol Negotiation Extension</t>
+  </si>
+  <si>
+    <t>OCSP Stapling for TLS</t>
+  </si>
+  <si>
+    <t>JEP 249: OCSP Stapling for TLS</t>
+  </si>
+  <si>
+    <t>GC</t>
+  </si>
+  <si>
+    <t>hotspot / gc</t>
+  </si>
+  <si>
+    <t>Remove GC Combinations Deprecated in JDK 8</t>
+  </si>
+  <si>
+    <t>JEP 214: Remove GC Combinations Deprecated in JDK 8</t>
+  </si>
+  <si>
+    <t>Make G1 the Default Garbage Collector</t>
+  </si>
+  <si>
+    <t>JEP 248: Make G1 the Default Garbage Collector</t>
+  </si>
+  <si>
+    <t>Unified GC Logging</t>
+  </si>
+  <si>
+    <t>JEP 271: Unified GC Logging</t>
+  </si>
+  <si>
+    <t>Additional Tests for Humongous Objects in G1</t>
+  </si>
+  <si>
+    <t>JEP 278: Additional Tests for Humongous Objects in G1</t>
+  </si>
+  <si>
+    <t>Deprecate the Concurrent Mark Sweep (CMS) Garbage Collector</t>
+  </si>
+  <si>
+    <t>JEP 291: Deprecate the Concurrent Mark Sweep (CMS) Garbage Collector</t>
+  </si>
+  <si>
     <t>JVM</t>
   </si>
   <si>
+    <t>hotspot / compiler</t>
+  </si>
+  <si>
+    <t>Compiler Control</t>
+  </si>
+  <si>
+    <t>JEP 165: Compiler Control</t>
+  </si>
+  <si>
+    <t>Segmented Code Cache</t>
+  </si>
+  <si>
+    <t>JEP 197: Segmented Code Cache</t>
+  </si>
+  <si>
+    <t>Generate Run-Time Compiler Tests Automatically</t>
+  </si>
+  <si>
+    <t>JEP 233: Generate Run-Time Compiler Tests Automatically</t>
+  </si>
+  <si>
+    <t>Linux/AArch64 Port</t>
+  </si>
+  <si>
+    <t>JEP 237: Linux/AArch64 Port</t>
+  </si>
+  <si>
+    <t>Java-Level JVM Compiler Interface</t>
+  </si>
+  <si>
+    <t>JEP 243: Java-Level JVM Compiler Interface</t>
+  </si>
+  <si>
+    <t>Linux/s390x Port</t>
+  </si>
+  <si>
+    <t>JEP 294: Linux/s390x Port</t>
+  </si>
+  <si>
+    <t>Ahead-of-Time Compilation</t>
+  </si>
+  <si>
+    <t>JEP 295: Ahead-of-Time Compilation</t>
+  </si>
+  <si>
+    <t>Unified arm32/arm64 Port</t>
+  </si>
+  <si>
+    <t>JEP 297: Unified arm32/arm64 Port</t>
+  </si>
+  <si>
     <t>hotspot / runtime</t>
   </si>
   <si>
+    <t>Improve Contended Locking</t>
+  </si>
+  <si>
     <t>JEP 143: Improve Contended Locking</t>
   </si>
   <si>
+    <t>Validate JVM Command-Line Flag Arguments</t>
+  </si>
+  <si>
+    <t>JEP 245: Validate JVM Command-Line Flag Arguments</t>
+  </si>
+  <si>
+    <t>Store Interned Strings in CDS Archives</t>
+  </si>
+  <si>
+    <t>JEP 250: Store Interned Strings in CDS Archives</t>
+  </si>
+  <si>
     <t>hotspot / svc</t>
   </si>
   <si>
+    <t>Unified JVM Logging</t>
+  </si>
+  <si>
     <t>JEP 158: Unified JVM Logging</t>
   </si>
   <si>
+    <t>Add More Diagnostic Commands</t>
+  </si>
+  <si>
+    <t>JEP 228: Add More Diagnostic Commands</t>
+  </si>
+  <si>
+    <t>hotspot / test</t>
+  </si>
+  <si>
+    <t>HotSpot C++ Unit-Test Framework</t>
+  </si>
+  <si>
+    <t>JEP 281: HotSpot C++ Unit-Test Framework</t>
+  </si>
+  <si>
     <t>Language</t>
   </si>
   <si>
     <t>core-libs / java.lang</t>
   </si>
   <si>
+    <t>Process API Updates</t>
+  </si>
+  <si>
     <t>JEP 102: Process API Updates</t>
   </si>
   <si>
-    <t>Process API Updates</t>
-  </si>
-  <si>
-    <t>HTTP 2 Client</t>
-  </si>
-  <si>
-    <t>Improve Contended Locking</t>
-  </si>
-  <si>
-    <t>Unified JVM Logging</t>
-  </si>
-  <si>
     <t>Variable Handles</t>
   </si>
   <si>
-    <t>Segmented Code Cache</t>
-  </si>
-  <si>
-    <t>The Modular JDK</t>
-  </si>
-  <si>
-    <t>Modular Source Code</t>
+    <t>JEP 193: Variable Handles</t>
+  </si>
+  <si>
+    <t>Unicode 7.0</t>
+  </si>
+  <si>
+    <t>JEP 227: Unicode 7.0</t>
+  </si>
+  <si>
+    <t>Compact Strings</t>
+  </si>
+  <si>
+    <t>JEP 254: Compact Strings</t>
+  </si>
+  <si>
+    <t>Unicode 8.0</t>
+  </si>
+  <si>
+    <t>JEP 267: Unicode 8.0</t>
+  </si>
+  <si>
+    <t>Enhanced Deprecation</t>
+  </si>
+  <si>
+    <t>JEP 277: Enhanced Deprecation</t>
+  </si>
+  <si>
+    <t>Spin-Wait Hints</t>
+  </si>
+  <si>
+    <t>JEP 285: Spin-Wait Hints</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>client-libs</t>
+  </si>
+  <si>
+    <t>Deprecate the Applet API</t>
+  </si>
+  <si>
+    <t>JEP 289: Deprecate the Applet API</t>
+  </si>
+  <si>
+    <t>client-libs / 2d</t>
+  </si>
+  <si>
+    <t>Multi-Resolution Images</t>
+  </si>
+  <si>
+    <t>JEP 251: Multi-Resolution Images</t>
+  </si>
+  <si>
+    <t>HarfBuzz Font-Layout Engine</t>
+  </si>
+  <si>
+    <t>JEP 258: HarfBuzz Font-Layout Engine</t>
+  </si>
+  <si>
+    <t>Marlin Graphics Renderer</t>
+  </si>
+  <si>
+    <t>JEP 265: Marlin Graphics Renderer</t>
+  </si>
+  <si>
+    <t>client-libs / java.awt</t>
+  </si>
+  <si>
+    <t>HiDPI Graphics on Windows and Linux</t>
+  </si>
+  <si>
+    <t>JEP 263: HiDPI Graphics on Windows and Linux</t>
+  </si>
+  <si>
+    <t>Platform-Specific Desktop Features</t>
+  </si>
+  <si>
+    <t>JEP 272: Platform-Specific Desktop Features</t>
+  </si>
+  <si>
+    <t>client-libs / java.beans</t>
+  </si>
+  <si>
+    <t>BeanInfo Annotations</t>
+  </si>
+  <si>
+    <t>JEP 256: BeanInfo Annotations</t>
+  </si>
+  <si>
+    <t>client-libs / javax.imageio</t>
+  </si>
+  <si>
+    <t>TIFF Image I/O</t>
+  </si>
+  <si>
+    <t>JEP 262: TIFF Image I/O</t>
+  </si>
+  <si>
+    <t>core-svc / tools</t>
+  </si>
+  <si>
+    <t>Remove the JVM TI hprof Agent</t>
+  </si>
+  <si>
+    <t>JEP 240: Remove the JVM TI hprof Agent</t>
+  </si>
+  <si>
+    <t>Remove the jhat Tool</t>
+  </si>
+  <si>
+    <t>JEP 241: Remove the jhat Tool</t>
+  </si>
+  <si>
+    <t>deploy / packager</t>
+  </si>
+  <si>
+    <t>Modular Java Application Packaging</t>
+  </si>
+  <si>
+    <t>JEP 275: Modular Java Application Packaging</t>
+  </si>
+  <si>
+    <t>docs</t>
+  </si>
+  <si>
+    <t>Reorganize Documentation</t>
+  </si>
+  <si>
+    <t>JEP 299: Reorganize Documentation</t>
+  </si>
+  <si>
+    <t>infrastructure</t>
+  </si>
+  <si>
+    <t>Remove Demos and Samples</t>
+  </si>
+  <si>
+    <t>JEP 298: Remove Demos and Samples</t>
+  </si>
+  <si>
+    <t>infrastructure / build</t>
+  </si>
+  <si>
+    <t>New HotSpot Build System</t>
+  </si>
+  <si>
+    <t>JEP 284: New HotSpot Build System</t>
+  </si>
+  <si>
+    <t>javafx / controls</t>
+  </si>
+  <si>
+    <t>Prepare JavaFX UI Controls &amp; CSS APIs for Modularization</t>
+  </si>
+  <si>
+    <t>JEP 253: Prepare JavaFX UI Controls &amp; CSS APIs for Modularization</t>
+  </si>
+  <si>
+    <t>javafx / media</t>
+  </si>
+  <si>
+    <t>Update JavaFX/Media to Newer Version of GStreamer</t>
+  </si>
+  <si>
+    <t>JEP 257: Update JavaFX/Media to Newer Version of GStreamer</t>
+  </si>
+  <si>
+    <t>javafx / window-toolkit</t>
+  </si>
+  <si>
+    <t>Enable GTK 3 on Linux</t>
+  </si>
+  <si>
+    <t>JEP 283: Enable GTK 3 on Linux</t>
+  </si>
+  <si>
+    <t>xml / jaxp</t>
+  </si>
+  <si>
+    <t>Merge Selected Xerces 2.11.0 Updates into JAXP</t>
+  </si>
+  <si>
+    <t>JEP 255: Merge Selected Xerces 2.11.0 Updates into JAXP</t>
+  </si>
+  <si>
+    <t>XML Catalogs</t>
+  </si>
+  <si>
+    <t>JEP 268: XML Catalogs</t>
+  </si>
+  <si>
+    <t>Tool</t>
+  </si>
+  <si>
+    <t>tools</t>
+  </si>
+  <si>
+    <t>Resolve Lint and Doclint Warnings</t>
+  </si>
+  <si>
+    <t>JEP 212: Resolve Lint and Doclint Warnings</t>
+  </si>
+  <si>
+    <t>tools / jar</t>
+  </si>
+  <si>
+    <t>Multi-Release JAR Files</t>
+  </si>
+  <si>
+    <t>JEP 238: Multi-Release JAR Files</t>
+  </si>
+  <si>
+    <t>tools / javac</t>
+  </si>
+  <si>
+    <t>Smart Java Compilation, Phase Two</t>
+  </si>
+  <si>
+    <t>JEP 199: Smart Java Compilation, Phase Two</t>
+  </si>
+  <si>
+    <t>Elide Deprecation Warnings on Import Statements</t>
+  </si>
+  <si>
+    <t>JEP 211: Elide Deprecation Warnings on Import Statements</t>
   </si>
   <si>
     <t>Milling Project Coin</t>
   </si>
   <si>
-    <t>Remove GC Combinations Deprecated in JDK 8</t>
+    <t>JEP 213: Milling Project Coin</t>
   </si>
   <si>
     <t>Tiered Attribution for javac</t>
   </si>
   <si>
+    <t>JEP 215: Tiered Attribution for javac</t>
+  </si>
+  <si>
     <t>Process Import Statements Correctly</t>
   </si>
   <si>
+    <t>JEP 216: Process Import Statements Correctly</t>
+  </si>
+  <si>
     <t>Annotations Pipeline 2.0</t>
   </si>
   <si>
-    <t>Datagram Transport Layer Security (DTLS)</t>
-  </si>
-  <si>
-    <t>Modular Run-Time Images</t>
+    <t>JEP 217: Annotations Pipeline 2.0</t>
+  </si>
+  <si>
+    <t>Test Class-File Attributes Generated by javac</t>
+  </si>
+  <si>
+    <t>JEP 235: Test Class-File Attributes Generated by javac</t>
+  </si>
+  <si>
+    <t>Compile for Older Platform Versions</t>
+  </si>
+  <si>
+    <t>JEP 247: Compile for Older Platform Versions</t>
+  </si>
+  <si>
+    <t>Indify String Concatenation</t>
+  </si>
+  <si>
+    <t>JEP 280: Indify String Concatenation</t>
+  </si>
+  <si>
+    <t>tools / javadoc(tool)</t>
   </si>
   <si>
     <t>Simplified Doclet API</t>
   </si>
   <si>
+    <t>JEP 221: Simplified Doclet API</t>
+  </si>
+  <si>
+    <t>HTML5 Javadoc</t>
+  </si>
+  <si>
+    <t>JEP 224: HTML5 Javadoc</t>
+  </si>
+  <si>
+    <t>Javadoc Search</t>
+  </si>
+  <si>
+    <t>JEP 225: Javadoc Search</t>
+  </si>
+  <si>
+    <t>tools / jlink</t>
+  </si>
+  <si>
+    <t>jlink: The Java Linker</t>
+  </si>
+  <si>
+    <t>JEP 282: jlink: The Java Linker</t>
+  </si>
+  <si>
+    <t>tools / jshell</t>
+  </si>
+  <si>
     <t>jshell: The Java Shell (Read-Eval-Print Loop)</t>
   </si>
   <si>
-    <t>New Version-String Scheme</t>
-  </si>
-  <si>
-    <t>HTML5 Javadoc</t>
-  </si>
-  <si>
-    <t>Javadoc Search</t>
-  </si>
-  <si>
-    <t>UTF-8 Property Files</t>
-  </si>
-  <si>
-    <t>Unicode 7.0</t>
-  </si>
-  <si>
-    <t>Add More Diagnostic Commands</t>
-  </si>
-  <si>
-    <t>Create PKCS12 Keystores by Default</t>
+    <t>JEP 222: jshell: The Java Shell (Read-Eval-Print Loop)</t>
+  </si>
+  <si>
+    <t>tools / launcher</t>
   </si>
   <si>
     <t>Remove Launch-Time JRE Version Selection</t>
   </si>
   <si>
-    <t>Improve Secure Application Performance</t>
-  </si>
-  <si>
-    <t>Generate Run-Time Compiler Tests Automatically</t>
-  </si>
-  <si>
-    <t>Test Class-File Attributes Generated by javac</t>
-  </si>
-  <si>
-    <t>Parser API for Nashorn</t>
-  </si>
-  <si>
-    <t>Linux/AArch64 Port</t>
-  </si>
-  <si>
-    <t>Multi-Release JAR Files</t>
-  </si>
-  <si>
-    <t>Java-Level JVM Compiler Interface</t>
-  </si>
-  <si>
-    <t>TLS Application-Layer Protocol Negotiation Extension</t>
-  </si>
-  <si>
-    <t>Validate JVM Command-Line Flag Arguments</t>
-  </si>
-  <si>
-    <t>Leverage CPU Instructions for GHASH and RSA</t>
-  </si>
-  <si>
-    <t>Make G1 the Default Garbage Collector</t>
-  </si>
-  <si>
-    <t>Multi-Resolution Images</t>
-  </si>
-  <si>
-    <t>Use CLDR Locale Data by Default</t>
-  </si>
-  <si>
-    <t>Stack-Walking API</t>
-  </si>
-  <si>
-    <t>Encapsulate Most Internal APIs</t>
-  </si>
-  <si>
-    <t>TIFF Image I/O</t>
-  </si>
-  <si>
-    <t>Platform Logging API and Service</t>
-  </si>
-  <si>
-    <t>Unicode 8.0</t>
-  </si>
-  <si>
-    <t>XML Catalogs</t>
-  </si>
-  <si>
-    <t>Convenience Factory Methods for Collections</t>
-  </si>
-  <si>
-    <t>Reserved Stack Areas for Critical Sections</t>
-  </si>
-  <si>
-    <t>Unified GC Logging</t>
-  </si>
-  <si>
-    <t>DRBG-Based SecureRandom Implementations</t>
-  </si>
-  <si>
-    <t>Enhanced Method Handles</t>
-  </si>
-  <si>
-    <t>Enhanced Deprecation</t>
-  </si>
-  <si>
-    <t>Additional Tests for Humongous Objects in G1</t>
-  </si>
-  <si>
-    <t>Indify String Concatenation</t>
-  </si>
-  <si>
-    <t>jlink: The Java Linker</t>
-  </si>
-  <si>
-    <t>New HotSpot Build System</t>
-  </si>
-  <si>
-    <t>Spin-Wait Hints</t>
-  </si>
-  <si>
-    <t>SHA-3 Hash Algorithms</t>
-  </si>
-  <si>
-    <t>Disable SHA-1 Certificates</t>
-  </si>
-  <si>
-    <t>Filter Incoming Serialization Data</t>
-  </si>
-  <si>
-    <t>Deprecate the Concurrent Mark Sweep (CMS) Garbage Collector</t>
-  </si>
-  <si>
-    <t>Linux/s390x Port</t>
-  </si>
-  <si>
-    <t>Unified arm32/arm64 Port</t>
-  </si>
-  <si>
-    <t>Remove Demos and Samples</t>
-  </si>
-  <si>
-    <t>Reorganize Documentation</t>
+    <t>JEP 231: Remove Launch-Time JRE Version Selection</t>
   </si>
 </sst>
 </file>
@@ -1422,23 +1857,24 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F72"/>
+  <dimension ref="A1:F92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomRight" activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.45454545454546" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="9.54545454545454" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.1818181818182" style="1" customWidth="1"/>
+    <col min="2" max="2" width="37.6363636363636" style="1" customWidth="1"/>
     <col min="3" max="3" width="4.81818181818182" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.18181818181818" style="1" customWidth="1"/>
-    <col min="5" max="7" width="38.8181818181818" style="1" customWidth="1"/>
+    <col min="4" max="4" width="66.9090909090909" style="1" customWidth="1"/>
+    <col min="5" max="6" width="77" style="1" customWidth="1"/>
+    <col min="7" max="7" width="38.8181818181818" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9.45454545454546" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1462,282 +1898,1820 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="3:5">
+      <c r="C2" s="1">
+        <v>200</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="3:5">
+      <c r="C3" s="1">
+        <v>201</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="1">
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="3:5">
+      <c r="C4" s="1">
+        <v>220</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="3:5">
+      <c r="C5" s="1">
+        <v>223</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="3:5">
+      <c r="C6" s="1">
+        <v>260</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="3:5">
+      <c r="C7" s="1">
+        <v>261</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="3:5">
+      <c r="C8" s="1">
+        <v>270</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="3:5">
+      <c r="C9" s="1">
+        <v>279</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="1">
+        <v>259</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="3" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/259","JEP 259: Stack-Walking API")</f>
+        <v>JEP 259: Stack-Walking API</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="1">
+        <v>290</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="3" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/290","JEP 290: Filter Incoming Serialization Data")</f>
+        <v>JEP 290: Filter Incoming Serialization Data</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="1">
+        <v>274</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="3" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/274","JEP 274: Enhanced Method Handles")</f>
+        <v>JEP 274: Enhanced Method Handles</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="1">
+        <v>276</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="3" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/276","JEP 276: Dynamic Linking of Language-Defined Object Models")</f>
+        <v>JEP 276: Dynamic Linking of Language-Defined Object Models</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="1">
         <v>110</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="3" t="str">
+      <c r="D14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/110","JEP 110: HTTP 2 Client")</f>
         <v>JEP 110: HTTP 2 Client</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="F14" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="1">
+        <v>266</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="3" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/266","JEP 266: More Concurrency Updates")</f>
+        <v>JEP 266: More Concurrency Updates</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="1">
+        <v>264</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="3" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/264","JEP 264: Platform Logging API and Service")</f>
+        <v>JEP 264: Platform Logging API and Service</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="1">
+        <v>269</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="3" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/269","JEP 269: Convenience Factory Methods for Collections")</f>
+        <v>JEP 269: Convenience Factory Methods for Collections</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="1">
+        <v>226</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="3" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/226","JEP 226: UTF-8 Property Files")</f>
+        <v>JEP 226: UTF-8 Property Files</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="1">
+        <v>252</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="3" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/252","JEP 252: Use CLDR Locale Data by Default")</f>
+        <v>JEP 252: Use CLDR Locale Data by Default</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="1">
+        <v>236</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="3" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/236","JEP 236: Parser API for Nashorn")</f>
+        <v>JEP 236: Parser API for Nashorn</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="1">
+        <v>292</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="3" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/292","JEP 292: Implement Selected ECMAScript 6 Features in Nashorn")</f>
+        <v>JEP 292: Implement Selected ECMAScript 6 Features in Nashorn</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="1">
+        <v>229</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="3" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/229","JEP 229: Create PKCS12 Keystores by Default")</f>
+        <v>JEP 229: Create PKCS12 Keystores by Default</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="1">
+        <v>232</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" s="3" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/232","JEP 232: Improve Secure Application Performance")</f>
+        <v>JEP 232: Improve Secure Application Performance</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="1">
+        <v>273</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" s="3" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/273","JEP 273: DRBG-Based SecureRandom Implementations")</f>
+        <v>JEP 273: DRBG-Based SecureRandom Implementations</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="1">
+        <v>287</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E25" s="3" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/287","JEP 287: SHA-3 Hash Algorithms")</f>
+        <v>JEP 287: SHA-3 Hash Algorithms</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="1">
+        <v>288</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E26" s="3" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/288","JEP 288: Disable SHA-1 Certificates")</f>
+        <v>JEP 288: Disable SHA-1 Certificates</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="1">
+        <v>246</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E27" s="3" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/246","JEP 246: Leverage CPU Instructions for GHASH and RSA")</f>
+        <v>JEP 246: Leverage CPU Instructions for GHASH and RSA</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="1">
+        <v>219</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E28" s="3" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/219","JEP 219: Datagram Transport Layer Security (DTLS)")</f>
+        <v>JEP 219: Datagram Transport Layer Security (DTLS)</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" s="1">
+        <v>244</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E29" s="3" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/244","JEP 244: TLS Application-Layer Protocol Negotiation Extension")</f>
+        <v>JEP 244: TLS Application-Layer Protocol Negotiation Extension</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" s="1">
+        <v>249</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E30" s="3" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/249","JEP 249: OCSP Stapling for TLS")</f>
+        <v>JEP 249: OCSP Stapling for TLS</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31" s="1">
+        <v>214</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E31" s="3" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/214","JEP 214: Remove GC Combinations Deprecated in JDK 8")</f>
+        <v>JEP 214: Remove GC Combinations Deprecated in JDK 8</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" s="1">
+        <v>248</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E32" s="3" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/248","JEP 248: Make G1 the Default Garbage Collector")</f>
+        <v>JEP 248: Make G1 the Default Garbage Collector</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" s="1">
+        <v>271</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E33" s="3" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/271","JEP 271: Unified GC Logging")</f>
+        <v>JEP 271: Unified GC Logging</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" s="1">
+        <v>278</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E34" s="3" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/278","JEP 278: Additional Tests for Humongous Objects in G1")</f>
+        <v>JEP 278: Additional Tests for Humongous Objects in G1</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35" s="1">
+        <v>291</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E35" s="3" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/291","JEP 291: Deprecate the Concurrent Mark Sweep (CMS) Garbage Collector")</f>
+        <v>JEP 291: Deprecate the Concurrent Mark Sweep (CMS) Garbage Collector</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C36" s="1">
+        <v>165</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E36" s="3" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/165","JEP 165: Compiler Control")</f>
+        <v>JEP 165: Compiler Control</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C37" s="1">
+        <v>197</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E37" s="3" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/197","JEP 197: Segmented Code Cache")</f>
+        <v>JEP 197: Segmented Code Cache</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C38" s="1">
+        <v>233</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E38" s="3" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/233","JEP 233: Generate Run-Time Compiler Tests Automatically")</f>
+        <v>JEP 233: Generate Run-Time Compiler Tests Automatically</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C39" s="1">
+        <v>237</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E39" s="3" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/237","JEP 237: Linux/AArch64 Port")</f>
+        <v>JEP 237: Linux/AArch64 Port</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C40" s="1">
+        <v>243</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E40" s="3" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/243","JEP 243: Java-Level JVM Compiler Interface")</f>
+        <v>JEP 243: Java-Level JVM Compiler Interface</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C41" s="1">
+        <v>294</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E41" s="3" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/294","JEP 294: Linux/s390x Port")</f>
+        <v>JEP 294: Linux/s390x Port</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C42" s="1">
+        <v>295</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E42" s="3" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/295","JEP 295: Ahead-of-Time Compilation")</f>
+        <v>JEP 295: Ahead-of-Time Compilation</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C43" s="1">
+        <v>297</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E43" s="3" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/297","JEP 297: Unified arm32/arm64 Port")</f>
+        <v>JEP 297: Unified arm32/arm64 Port</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C44" s="1">
         <v>143</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="3" t="str">
+      <c r="D44" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E44" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/143","JEP 143: Improve Contended Locking")</f>
         <v>JEP 143: Improve Contended Locking</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="F44" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C45" s="1">
+        <v>245</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E45" s="3" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/245","JEP 245: Validate JVM Command-Line Flag Arguments")</f>
+        <v>JEP 245: Validate JVM Command-Line Flag Arguments</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C46" s="1">
+        <v>250</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E46" s="3" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/250","JEP 250: Store Interned Strings in CDS Archives")</f>
+        <v>JEP 250: Store Interned Strings in CDS Archives</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C47" s="1">
         <v>158</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="3" t="str">
+      <c r="D47" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E47" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/158","JEP 158: Unified JVM Logging")</f>
         <v>JEP 158: Unified JVM Logging</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="F47" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C48" s="1">
+        <v>228</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E48" s="3" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/228","JEP 228: Add More Diagnostic Commands")</f>
+        <v>JEP 228: Add More Diagnostic Commands</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C49" s="1">
+        <v>281</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E49" s="3" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/281","JEP 281: HotSpot C++ Unit-Test Framework")</f>
+        <v>JEP 281: HotSpot C++ Unit-Test Framework</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C50" s="1">
         <v>102</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="3" t="str">
+      <c r="D50" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E50" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/102","JEP 102: Process API Updates")</f>
         <v>JEP 102: Process API Updates</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="5:5">
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="5:5">
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="5:5">
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="5:5">
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="5:5">
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="5:5">
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="5:5">
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="5:5">
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="5:5">
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="5:5">
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="5:5">
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="5:5">
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="5:5">
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="5:5">
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="5:5">
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="5:5">
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="5:5">
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="5:5">
-      <c r="E23" s="3"/>
-    </row>
-    <row r="24" spans="5:5">
-      <c r="E24" s="3"/>
-    </row>
-    <row r="25" spans="5:5">
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" spans="5:5">
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" spans="5:5">
-      <c r="E27" s="3"/>
-    </row>
-    <row r="28" spans="5:5">
-      <c r="E28" s="3"/>
-    </row>
-    <row r="29" spans="5:5">
-      <c r="E29" s="3"/>
-    </row>
-    <row r="30" spans="5:5">
-      <c r="E30" s="3"/>
-    </row>
-    <row r="31" spans="5:5">
-      <c r="E31" s="3"/>
-    </row>
-    <row r="32" spans="5:5">
-      <c r="E32" s="3"/>
-    </row>
-    <row r="33" spans="5:5">
-      <c r="E33" s="3"/>
-    </row>
-    <row r="34" spans="5:5">
-      <c r="E34" s="3"/>
-    </row>
-    <row r="35" spans="5:5">
-      <c r="E35" s="3"/>
-    </row>
-    <row r="36" spans="5:5">
-      <c r="E36" s="3"/>
-    </row>
-    <row r="37" spans="5:5">
-      <c r="E37" s="3"/>
-    </row>
-    <row r="38" spans="5:5">
-      <c r="E38" s="3"/>
-    </row>
-    <row r="39" spans="5:5">
-      <c r="E39" s="3"/>
-    </row>
-    <row r="40" spans="5:5">
-      <c r="E40" s="3"/>
-    </row>
-    <row r="41" spans="5:5">
-      <c r="E41" s="3"/>
-    </row>
-    <row r="42" spans="5:5">
-      <c r="E42" s="3"/>
-    </row>
-    <row r="43" spans="5:5">
-      <c r="E43" s="3"/>
-    </row>
-    <row r="44" spans="5:5">
-      <c r="E44" s="3"/>
-    </row>
-    <row r="45" spans="5:5">
-      <c r="E45" s="3"/>
-    </row>
-    <row r="46" spans="5:5">
-      <c r="E46" s="3"/>
-    </row>
-    <row r="47" spans="5:5">
-      <c r="E47" s="3"/>
-    </row>
-    <row r="48" spans="5:5">
-      <c r="E48" s="3"/>
-    </row>
-    <row r="49" spans="5:5">
-      <c r="E49" s="3"/>
-    </row>
-    <row r="50" spans="5:5">
-      <c r="E50" s="3"/>
-    </row>
-    <row r="51" spans="5:5">
-      <c r="E51" s="3"/>
-    </row>
-    <row r="52" spans="5:5">
-      <c r="E52" s="3"/>
-    </row>
-    <row r="53" spans="5:5">
-      <c r="E53" s="3"/>
-    </row>
-    <row r="54" spans="5:5">
-      <c r="E54" s="3"/>
-    </row>
-    <row r="55" spans="5:5">
-      <c r="E55" s="3"/>
-    </row>
-    <row r="56" spans="5:5">
-      <c r="E56" s="3"/>
-    </row>
-    <row r="57" spans="5:5">
-      <c r="E57" s="3"/>
-    </row>
-    <row r="58" spans="5:5">
-      <c r="E58" s="3"/>
-    </row>
-    <row r="59" spans="5:5">
-      <c r="E59" s="3"/>
-    </row>
-    <row r="60" spans="5:5">
-      <c r="E60" s="3"/>
-    </row>
-    <row r="61" spans="5:5">
-      <c r="E61" s="3"/>
-    </row>
-    <row r="62" spans="5:5">
-      <c r="E62" s="3"/>
-    </row>
-    <row r="63" spans="5:5">
-      <c r="E63" s="3"/>
-    </row>
-    <row r="64" spans="5:5">
-      <c r="E64" s="3"/>
-    </row>
-    <row r="65" spans="5:5">
-      <c r="E65" s="3"/>
-    </row>
-    <row r="66" spans="5:5">
-      <c r="E66" s="3"/>
-    </row>
-    <row r="67" spans="5:5">
-      <c r="E67" s="3"/>
-    </row>
-    <row r="68" spans="5:5">
-      <c r="E68" s="3"/>
-    </row>
-    <row r="69" spans="5:5">
-      <c r="E69" s="3"/>
-    </row>
-    <row r="70" spans="5:5">
-      <c r="E70" s="3"/>
-    </row>
-    <row r="71" spans="5:5">
-      <c r="E71" s="3"/>
-    </row>
-    <row r="72" spans="5:5">
-      <c r="E72" s="3"/>
+      <c r="F50" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C51" s="1">
+        <v>193</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E51" s="3" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/193","JEP 193: Variable Handles")</f>
+        <v>JEP 193: Variable Handles</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C52" s="1">
+        <v>227</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E52" s="3" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/227","JEP 227: Unicode 7.0")</f>
+        <v>JEP 227: Unicode 7.0</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C53" s="1">
+        <v>254</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E53" s="3" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/254","JEP 254: Compact Strings")</f>
+        <v>JEP 254: Compact Strings</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C54" s="1">
+        <v>267</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E54" s="3" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/267","JEP 267: Unicode 8.0")</f>
+        <v>JEP 267: Unicode 8.0</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C55" s="1">
+        <v>277</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E55" s="3" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/277","JEP 277: Enhanced Deprecation")</f>
+        <v>JEP 277: Enhanced Deprecation</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C56" s="1">
+        <v>285</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E56" s="3" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/285","JEP 285: Spin-Wait Hints")</f>
+        <v>JEP 285: Spin-Wait Hints</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C57" s="1">
+        <v>289</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E57" s="3" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/289","JEP 289: Deprecate the Applet API")</f>
+        <v>JEP 289: Deprecate the Applet API</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C58" s="1">
+        <v>251</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E58" s="3" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/251","JEP 251: Multi-Resolution Images")</f>
+        <v>JEP 251: Multi-Resolution Images</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C59" s="1">
+        <v>258</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E59" s="3" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/258","JEP 258: HarfBuzz Font-Layout Engine")</f>
+        <v>JEP 258: HarfBuzz Font-Layout Engine</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C60" s="1">
+        <v>265</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E60" s="3" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/265","JEP 265: Marlin Graphics Renderer")</f>
+        <v>JEP 265: Marlin Graphics Renderer</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C61" s="1">
+        <v>263</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E61" s="3" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/263","JEP 263: HiDPI Graphics on Windows and Linux")</f>
+        <v>JEP 263: HiDPI Graphics on Windows and Linux</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C62" s="1">
+        <v>272</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E62" s="3" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/272","JEP 272: Platform-Specific Desktop Features")</f>
+        <v>JEP 272: Platform-Specific Desktop Features</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C63" s="1">
+        <v>256</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E63" s="3" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/256","JEP 256: BeanInfo Annotations")</f>
+        <v>JEP 256: BeanInfo Annotations</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C64" s="1">
+        <v>262</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E64" s="3" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/262","JEP 262: TIFF Image I/O")</f>
+        <v>JEP 262: TIFF Image I/O</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C65" s="1">
+        <v>240</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E65" s="3" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/240","JEP 240: Remove the JVM TI hprof Agent")</f>
+        <v>JEP 240: Remove the JVM TI hprof Agent</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C66" s="1">
+        <v>241</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E66" s="3" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/241","JEP 241: Remove the jhat Tool")</f>
+        <v>JEP 241: Remove the jhat Tool</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C67" s="1">
+        <v>275</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E67" s="3" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/275","JEP 275: Modular Java Application Packaging")</f>
+        <v>JEP 275: Modular Java Application Packaging</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C68" s="1">
+        <v>299</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E68" s="3" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/299","JEP 299: Reorganize Documentation")</f>
+        <v>JEP 299: Reorganize Documentation</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C69" s="1">
+        <v>298</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E69" s="3" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/298","JEP 298: Remove Demos and Samples")</f>
+        <v>JEP 298: Remove Demos and Samples</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C70" s="1">
+        <v>284</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E70" s="3" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/284","JEP 284: New HotSpot Build System")</f>
+        <v>JEP 284: New HotSpot Build System</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C71" s="1">
+        <v>253</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E71" s="3" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/253","JEP 253: Prepare JavaFX UI Controls &amp; CSS APIs for Modularization")</f>
+        <v>JEP 253: Prepare JavaFX UI Controls &amp; CSS APIs for Modularization</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C72" s="1">
+        <v>257</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E72" s="3" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/257","JEP 257: Update JavaFX/Media to Newer Version of GStreamer")</f>
+        <v>JEP 257: Update JavaFX/Media to Newer Version of GStreamer</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C73" s="1">
+        <v>283</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E73" s="1" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/283","JEP 283: Enable GTK 3 on Linux")</f>
+        <v>JEP 283: Enable GTK 3 on Linux</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C74" s="1">
+        <v>255</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E74" s="1" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/255","JEP 255: Merge Selected Xerces 2.11.0 Updates into JAXP")</f>
+        <v>JEP 255: Merge Selected Xerces 2.11.0 Updates into JAXP</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C75" s="1">
+        <v>268</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E75" s="1" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/268","JEP 268: XML Catalogs")</f>
+        <v>JEP 268: XML Catalogs</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C76" s="1">
+        <v>212</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E76" s="1" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/212","JEP 212: Resolve Lint and Doclint Warnings")</f>
+        <v>JEP 212: Resolve Lint and Doclint Warnings</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C77" s="1">
+        <v>238</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E77" s="1" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/238","JEP 238: Multi-Release JAR Files")</f>
+        <v>JEP 238: Multi-Release JAR Files</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C78" s="1">
+        <v>199</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E78" s="1" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/199","JEP 199: Smart Java Compilation, Phase Two")</f>
+        <v>JEP 199: Smart Java Compilation, Phase Two</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C79" s="1">
+        <v>211</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E79" s="1" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/211","JEP 211: Elide Deprecation Warnings on Import Statements")</f>
+        <v>JEP 211: Elide Deprecation Warnings on Import Statements</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C80" s="1">
+        <v>213</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E80" s="1" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/213","JEP 213: Milling Project Coin")</f>
+        <v>JEP 213: Milling Project Coin</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C81" s="1">
+        <v>215</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E81" s="1" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/215","JEP 215: Tiered Attribution for javac")</f>
+        <v>JEP 215: Tiered Attribution for javac</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C82" s="1">
+        <v>216</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E82" s="1" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/216","JEP 216: Process Import Statements Correctly")</f>
+        <v>JEP 216: Process Import Statements Correctly</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C83" s="1">
+        <v>217</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E83" s="1" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/217","JEP 217: Annotations Pipeline 2.0")</f>
+        <v>JEP 217: Annotations Pipeline 2.0</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C84" s="1">
+        <v>235</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E84" s="1" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/235","JEP 235: Test Class-File Attributes Generated by javac")</f>
+        <v>JEP 235: Test Class-File Attributes Generated by javac</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C85" s="1">
+        <v>247</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E85" s="1" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/247","JEP 247: Compile for Older Platform Versions")</f>
+        <v>JEP 247: Compile for Older Platform Versions</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C86" s="1">
+        <v>280</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E86" s="1" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/280","JEP 280: Indify String Concatenation")</f>
+        <v>JEP 280: Indify String Concatenation</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C87" s="1">
+        <v>221</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E87" s="1" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/221","JEP 221: Simplified Doclet API")</f>
+        <v>JEP 221: Simplified Doclet API</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C88" s="1">
+        <v>224</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E88" s="1" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/224","JEP 224: HTML5 Javadoc")</f>
+        <v>JEP 224: HTML5 Javadoc</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C89" s="1">
+        <v>225</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E89" s="1" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/225","JEP 225: Javadoc Search")</f>
+        <v>JEP 225: Javadoc Search</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C90" s="1">
+        <v>282</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E90" s="1" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/282","JEP 282: jlink: The Java Linker")</f>
+        <v>JEP 282: jlink: The Java Linker</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C91" s="1">
+        <v>222</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E91" s="1" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/222","JEP 222: jshell: The Java Shell (Read-Eval-Print Loop)")</f>
+        <v>JEP 222: jshell: The Java Shell (Read-Eval-Print Loop)</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C92" s="1">
+        <v>231</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E92" s="1" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/231","JEP 231: Remove Launch-Time JRE Version Selection")</f>
+        <v>JEP 231: Remove Launch-Time JRE Version Selection</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>241</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1761,7 +3735,7 @@
         <v>102</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1769,7 +3743,7 @@
         <v>110</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1777,7 +3751,7 @@
         <v>143</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>36</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1785,7 +3759,7 @@
         <v>158</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>37</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1793,7 +3767,7 @@
         <v>193</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>38</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1801,7 +3775,7 @@
         <v>197</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>39</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1809,7 +3783,7 @@
         <v>200</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1817,7 +3791,7 @@
         <v>201</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1825,7 +3799,7 @@
         <v>213</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>42</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1833,7 +3807,7 @@
         <v>214</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1841,7 +3815,7 @@
         <v>215</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>44</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1849,7 +3823,7 @@
         <v>216</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>45</v>
+        <v>216</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1857,7 +3831,7 @@
         <v>217</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>46</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1865,7 +3839,7 @@
         <v>219</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1873,7 +3847,7 @@
         <v>220</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1881,7 +3855,7 @@
         <v>221</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>49</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1889,7 +3863,7 @@
         <v>222</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>50</v>
+        <v>237</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1897,7 +3871,7 @@
         <v>223</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1905,7 +3879,7 @@
         <v>224</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>52</v>
+        <v>229</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1913,7 +3887,7 @@
         <v>225</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>53</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1921,7 +3895,7 @@
         <v>226</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1929,7 +3903,7 @@
         <v>227</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>55</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1937,7 +3911,7 @@
         <v>228</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>56</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1945,7 +3919,7 @@
         <v>229</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1953,7 +3927,7 @@
         <v>231</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>58</v>
+        <v>240</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1961,7 +3935,7 @@
         <v>232</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1969,7 +3943,7 @@
         <v>233</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1977,7 +3951,7 @@
         <v>235</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>61</v>
+        <v>220</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1985,7 +3959,7 @@
         <v>236</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1993,7 +3967,7 @@
         <v>237</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -2001,7 +3975,7 @@
         <v>238</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>64</v>
+        <v>205</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -2009,7 +3983,7 @@
         <v>243</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2017,7 +3991,7 @@
         <v>244</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -2025,7 +3999,7 @@
         <v>245</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>67</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -2033,7 +4007,7 @@
         <v>246</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -2041,7 +4015,7 @@
         <v>248</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -2049,7 +4023,7 @@
         <v>248</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -2057,7 +4031,7 @@
         <v>251</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>70</v>
+        <v>152</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -2065,7 +4039,7 @@
         <v>252</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -2073,7 +4047,7 @@
         <v>259</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -2081,7 +4055,7 @@
         <v>260</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -2089,7 +4063,7 @@
         <v>262</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>74</v>
+        <v>167</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -2097,7 +4071,7 @@
         <v>264</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -2105,7 +4079,7 @@
         <v>267</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>76</v>
+        <v>141</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -2113,7 +4087,7 @@
         <v>268</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>77</v>
+        <v>198</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -2121,7 +4095,7 @@
         <v>269</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -2129,7 +4103,7 @@
         <v>270</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -2137,7 +4111,7 @@
         <v>271</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -2145,7 +4119,7 @@
         <v>273</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -2153,7 +4127,7 @@
         <v>274</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -2161,7 +4135,7 @@
         <v>277</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>83</v>
+        <v>143</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -2169,7 +4143,7 @@
         <v>278</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -2177,7 +4151,7 @@
         <v>280</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>85</v>
+        <v>224</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -2185,7 +4159,7 @@
         <v>282</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>86</v>
+        <v>234</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -2193,7 +4167,7 @@
         <v>284</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>87</v>
+        <v>184</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -2201,7 +4175,7 @@
         <v>285</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>88</v>
+        <v>145</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -2209,7 +4183,7 @@
         <v>287</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -2217,7 +4191,7 @@
         <v>288</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -2225,7 +4199,7 @@
         <v>290</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -2233,7 +4207,7 @@
         <v>291</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -2241,7 +4215,7 @@
         <v>294</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -2249,7 +4223,7 @@
         <v>297</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -2257,7 +4231,7 @@
         <v>298</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>95</v>
+        <v>181</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -2265,7 +4239,7 @@
         <v>299</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>96</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/README.xlsx
+++ b/README.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22400" windowHeight="10080" activeTab="5"/>
+    <workbookView windowWidth="22400" windowHeight="10080" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Language" sheetId="1" r:id="rId1"/>
@@ -37,9 +37,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="382">
   <si>
     <t>Feature</t>
+  </si>
+  <si>
+    <t>Remarks</t>
   </si>
   <si>
     <t>JDK 9</t>
@@ -152,10 +155,22 @@
     <t>String Templates</t>
   </si>
   <si>
+    <t>https://javaalmanac.io/features/stringtemplates/</t>
+  </si>
+  <si>
     <t>Preview
 JEP 430</t>
   </si>
   <si>
+    <t>2nd
+Preview
+JEP 459</t>
+  </si>
+  <si>
+    <t>Withdrawn
+JEP 465</t>
+  </si>
+  <si>
     <t>Release</t>
   </si>
   <si>
@@ -723,51 +738,51 @@
     <t>Text Blocks (Preview)</t>
   </si>
   <si>
+    <t>Foreign-Memory Access API (Incubator)</t>
+  </si>
+  <si>
+    <t>core-libs / java.nio</t>
+  </si>
+  <si>
+    <t>Non-Volatile Mapped Byte Buffers</t>
+  </si>
+  <si>
+    <t>NUMA-Aware Memory Allocation for G1</t>
+  </si>
+  <si>
+    <t>Remove the Concurrent Mark Sweep (CMS) Garbage Collector</t>
+  </si>
+  <si>
+    <t>ZGC on macOS</t>
+  </si>
+  <si>
+    <t>ZGC on Windows</t>
+  </si>
+  <si>
+    <t>Deprecate the ParallelScavenge + SerialOld GC Combination</t>
+  </si>
+  <si>
+    <t>JFR Event Streaming</t>
+  </si>
+  <si>
+    <t>Helpful NullPointerExceptions</t>
+  </si>
+  <si>
+    <t>Pattern Matching for instanceof (Preview)</t>
+  </si>
+  <si>
+    <t>Records (Preview)</t>
+  </si>
+  <si>
+    <t>Switch Expressions (Standard)</t>
+  </si>
+  <si>
+    <t>Text Blocks (Second Preview)</t>
+  </si>
+  <si>
     <t>Deprecate the Solaris and SPARC Ports</t>
   </si>
   <si>
-    <t>Foreign-Memory Access API (Incubator)</t>
-  </si>
-  <si>
-    <t>core-libs / java.nio</t>
-  </si>
-  <si>
-    <t>Non-Volatile Mapped Byte Buffers</t>
-  </si>
-  <si>
-    <t>NUMA-Aware Memory Allocation for G1</t>
-  </si>
-  <si>
-    <t>Remove the Concurrent Mark Sweep (CMS) Garbage Collector</t>
-  </si>
-  <si>
-    <t>ZGC on macOS</t>
-  </si>
-  <si>
-    <t>ZGC on Windows</t>
-  </si>
-  <si>
-    <t>Deprecate the ParallelScavenge + SerialOld GC Combination</t>
-  </si>
-  <si>
-    <t>JFR Event Streaming</t>
-  </si>
-  <si>
-    <t>Helpful NullPointerExceptions</t>
-  </si>
-  <si>
-    <t>Pattern Matching for instanceof (Preview)</t>
-  </si>
-  <si>
-    <t>Records (Preview)</t>
-  </si>
-  <si>
-    <t>Switch Expressions (Standard)</t>
-  </si>
-  <si>
-    <t>Text Blocks (Second Preview)</t>
-  </si>
-  <si>
     <t>Remove the Pack200 Tools and API</t>
   </si>
   <si>
@@ -777,121 +792,415 @@
     <t>Packaging Tool (Incubator)</t>
   </si>
   <si>
+    <t>Foreign-Memory Access API (Second Incubator)</t>
+  </si>
+  <si>
+    <t>Hidden Classes</t>
+  </si>
+  <si>
+    <t>Reimplement the Legacy DatagramSocket API</t>
+  </si>
+  <si>
+    <t>core-libs / java.rmi</t>
+  </si>
+  <si>
+    <t>Deprecate RMI Activation for Removal</t>
+  </si>
+  <si>
+    <t>Remove the Nashorn JavaScript Engine</t>
+  </si>
+  <si>
+    <t>Edwards-Curve Digital Signature Algorithm (EdDSA)</t>
+  </si>
+  <si>
+    <t>ZGC: A Scalable Low-Latency Garbage Collector</t>
+  </si>
+  <si>
+    <t>Shenandoah: A Low-Pause-Time Garbage Collector</t>
+  </si>
+  <si>
+    <t>hotspot / other</t>
+  </si>
+  <si>
+    <t>Remove the Solaris and SPARC Ports</t>
+  </si>
+  <si>
+    <t>Disable and Deprecate Biased Locking</t>
+  </si>
+  <si>
+    <t>Sealed Classes (Preview)</t>
+  </si>
+  <si>
+    <t>Pattern Matching for instanceof (Second Preview)</t>
+  </si>
+  <si>
+    <t>Text Blocks</t>
+  </si>
+  <si>
+    <t>Records (Second Preview)</t>
+  </si>
+  <si>
+    <t>Foreign Linker API (Incubator)</t>
+  </si>
+  <si>
+    <t>Foreign-Memory Access API (Third Incubator)</t>
+  </si>
+  <si>
+    <t>Unix-Domain Socket Channels</t>
+  </si>
+  <si>
+    <t>ZGC: Concurrent Thread-Stack Processing</t>
+  </si>
+  <si>
+    <t>Vector API (Incubator)</t>
+  </si>
+  <si>
+    <t>Enable C++14 Language Features</t>
+  </si>
+  <si>
+    <t>Alpine Linux Port</t>
+  </si>
+  <si>
+    <t>Elastic Metaspace</t>
+  </si>
+  <si>
+    <t>Windows/AArch64 Port</t>
+  </si>
+  <si>
+    <t>Pattern Matching for instanceof</t>
+  </si>
+  <si>
+    <t>Records</t>
+  </si>
+  <si>
+    <t>Sealed Classes (Second Preview)</t>
+  </si>
+  <si>
+    <t>Migrate from Mercurial to Git</t>
+  </si>
+  <si>
+    <t>Migrate to GitHub</t>
+  </si>
+  <si>
+    <t>Warnings for Value-Based Classes</t>
+  </si>
+  <si>
+    <t>Strongly Encapsulate JDK Internals by Default</t>
+  </si>
+  <si>
+    <t>Packaging Tool</t>
+  </si>
+  <si>
+    <t>Foreign Function &amp; Memory API (Incubator)</t>
+  </si>
+  <si>
+    <t>Vector API (Second Incubator)</t>
+  </si>
+  <si>
+    <t>Context-Specific Deserialization Filters</t>
+  </si>
+  <si>
+    <t>Remove RMI Activation</t>
+  </si>
+  <si>
+    <t>core-libs / java.util</t>
+  </si>
+  <si>
+    <t>Enhanced Pseudo-Random Number Generators</t>
+  </si>
+  <si>
+    <t>Deprecate the Security Manager for Removal</t>
+  </si>
+  <si>
+    <t>Remove the Experimental AOT and JIT Compiler</t>
+  </si>
+  <si>
+    <t>macOS/AArch64 Port</t>
+  </si>
+  <si>
+    <t>Restore Always-Strict Floating-Point Semantics</t>
+  </si>
+  <si>
+    <t>Pattern Matching for switch (Preview)</t>
+  </si>
+  <si>
+    <t>Sealed Classes</t>
+  </si>
+  <si>
+    <t>New macOS Rendering Pipeline</t>
+  </si>
+  <si>
+    <t>Deprecate the Applet API for Removal</t>
+  </si>
+  <si>
+    <t>Strongly Encapsulate JDK Internals</t>
+  </si>
+  <si>
+    <t>Vector API (Third Incubator)</t>
+  </si>
+  <si>
+    <t>Foreign Function &amp; Memory API (Second Incubator)</t>
+  </si>
+  <si>
+    <t>core-libs / java.lang:reflect</t>
+  </si>
+  <si>
+    <t>Reimplement Core Reflection with Method Handles</t>
+  </si>
+  <si>
+    <t>Simple Web Server</t>
+  </si>
+  <si>
+    <t>Internet-Address Resolution SPI</t>
+  </si>
+  <si>
+    <t>core-libs / java.nio.charsets</t>
+  </si>
+  <si>
+    <t>UTF-8 by Default</t>
+  </si>
+  <si>
+    <t>Deprecate Finalization for Removal</t>
+  </si>
+  <si>
+    <t>Pattern Matching for switch (Second Preview)</t>
+  </si>
+  <si>
+    <t>Code Snippets in Java API Documentation</t>
+  </si>
+  <si>
+    <t>Foreign Function &amp; Memory API (Preview)</t>
+  </si>
+  <si>
+    <t>Virtual Threads (Preview)</t>
+  </si>
+  <si>
+    <t>Vector API (Fourth Incubator)</t>
+  </si>
+  <si>
+    <t>Structured Concurrency (Incubator)</t>
+  </si>
+  <si>
+    <t>Linux/RISC-V Port</t>
+  </si>
+  <si>
+    <t>Record Patterns (Preview)</t>
+  </si>
+  <si>
+    <t>Pattern Matching for switch (Third Preview)</t>
+  </si>
+  <si>
+    <t>Scoped Values (Incubator)</t>
+  </si>
+  <si>
+    <t>Foreign Function &amp; Memory API (Second Preview)</t>
+  </si>
+  <si>
+    <t>Virtual Threads (Second Preview)</t>
+  </si>
+  <si>
+    <t>Structured Concurrency (Second Incubator)</t>
+  </si>
+  <si>
+    <t>Vector API (Fifth Incubator)</t>
+  </si>
+  <si>
+    <t>Record Patterns (Second Preview)</t>
+  </si>
+  <si>
+    <t>Pattern Matching for switch (Fourth Preview)</t>
+  </si>
+  <si>
+    <t>Foreign Function &amp; Memory API (Third Preview)</t>
+  </si>
+  <si>
+    <t>Virtual Threads</t>
+  </si>
+  <si>
+    <t>Scoped Values (Preview)</t>
+  </si>
+  <si>
+    <t>Structured Concurrency (Preview)</t>
+  </si>
+  <si>
+    <t>Sequenced Collections</t>
+  </si>
+  <si>
+    <t>Key Encapsulation Mechanism API</t>
+  </si>
+  <si>
+    <t>Generational ZGC</t>
+  </si>
+  <si>
+    <t>Deprecate the Windows 32-bit x86 Port for Removal</t>
+  </si>
+  <si>
+    <t>Prepare to Disallow the Dynamic Loading of Agents</t>
+  </si>
+  <si>
+    <t>String Templates (Preview)</t>
+  </si>
+  <si>
+    <t>Unnamed Patterns and Variables (Preview)</t>
+  </si>
+  <si>
+    <t>Unnamed Classes and Instance Main Methods (Preview)</t>
+  </si>
+  <si>
     <t>Vector API (Sixth Incubator)</t>
   </si>
   <si>
-    <t>Foreign Function &amp; Memory API (Third Preview)</t>
-  </si>
-  <si>
-    <t>Virtual Threads</t>
-  </si>
-  <si>
-    <t>Scoped Values (Preview)</t>
-  </si>
-  <si>
-    <t>Structured Concurrency (Preview)</t>
-  </si>
-  <si>
-    <t>Sequenced Collections</t>
-  </si>
-  <si>
-    <t>Generational ZGC</t>
-  </si>
-  <si>
-    <t>hotspot / other</t>
-  </si>
-  <si>
-    <t>Deprecate the Windows 32-bit x86 Port for Removal</t>
-  </si>
-  <si>
-    <t>Prepare to Disallow the Dynamic Loading of Agents</t>
-  </si>
-  <si>
-    <t>Key Encapsulation Mechanism API</t>
-  </si>
-  <si>
-    <t>String Templates (Preview)</t>
-  </si>
-  <si>
-    <t>Unnamed Patterns and Variables (Preview)</t>
-  </si>
-  <si>
-    <t>Unnamed Classes and Instance Main Methods (Preview)</t>
-  </si>
-  <si>
-    <t>Scoped Values (Incubator)</t>
-  </si>
-  <si>
-    <t>Foreign Function &amp; Memory API (Second Preview)</t>
-  </si>
-  <si>
-    <t>Virtual Threads (Second Preview)</t>
-  </si>
-  <si>
-    <t>Structured Concurrency (Second Incubator)</t>
-  </si>
-  <si>
-    <t>Vector API (Fifth Incubator)</t>
-  </si>
-  <si>
-    <t>Record Patterns (Second Preview)</t>
-  </si>
-  <si>
-    <t>Pattern Matching for switch (Fourth Preview)</t>
-  </si>
-  <si>
-    <t>Foreign Function &amp; Memory API (Preview)</t>
-  </si>
-  <si>
-    <t>Virtual Threads (Preview)</t>
-  </si>
-  <si>
-    <t>Vector API (Fourth Incubator)</t>
-  </si>
-  <si>
-    <t>Structured Concurrency (Incubator)</t>
-  </si>
-  <si>
-    <t>Linux/RISC-V Port</t>
-  </si>
-  <si>
-    <t>Record Patterns (Preview)</t>
-  </si>
-  <si>
-    <t>Pattern Matching for switch (Third Preview)</t>
-  </si>
-  <si>
-    <t>Vector API (Third Incubator)</t>
-  </si>
-  <si>
-    <t>Foreign Function &amp; Memory API (Second Incubator)</t>
-  </si>
-  <si>
-    <t>Deprecate Finalization for Removal</t>
-  </si>
-  <si>
-    <t>core-libs / java.lang:reflect</t>
-  </si>
-  <si>
-    <t>Reimplement Core Reflection with Method Handles</t>
-  </si>
-  <si>
-    <t>Simple Web Server</t>
-  </si>
-  <si>
-    <t>Internet-Address Resolution SPI</t>
-  </si>
-  <si>
-    <t>core-libs / java.nio.charsets</t>
-  </si>
-  <si>
-    <t>UTF-8 by Default</t>
-  </si>
-  <si>
-    <t>Pattern Matching for switch (Second Preview)</t>
-  </si>
-  <si>
-    <t>Code Snippets in Java API Documentation</t>
+    <t>Vector API (Seventh Incubator)</t>
+  </si>
+  <si>
+    <t>Structured Concurrency (Second Preview)</t>
+  </si>
+  <si>
+    <t>Scoped Values (Second Preview)</t>
+  </si>
+  <si>
+    <t>core-libs / java.lang.classfile</t>
+  </si>
+  <si>
+    <t>Class-File API (Preview)</t>
+  </si>
+  <si>
+    <t>core-libs / java.lang.foreign</t>
+  </si>
+  <si>
+    <t>Foreign Function &amp; Memory API</t>
+  </si>
+  <si>
+    <t>core-libs / java.util.stream</t>
+  </si>
+  <si>
+    <t>Stream Gatherers (Preview)</t>
+  </si>
+  <si>
+    <t>Region Pinning for G1</t>
+  </si>
+  <si>
+    <t>Statements before super(...) (Preview)</t>
+  </si>
+  <si>
+    <t>Unnamed Variables &amp; Patterns</t>
+  </si>
+  <si>
+    <t>String Templates (Second Preview)</t>
+  </si>
+  <si>
+    <t>Implicitly Declared Classes and Instance Main Methods (Second Preview)</t>
+  </si>
+  <si>
+    <t>Launch Multi-File Source-Code Programs</t>
+  </si>
+  <si>
+    <t>Vector API (Eighth Incubator)</t>
+  </si>
+  <si>
+    <t>Deprecate the Memory-Access Methods in sun.misc.Unsafe for Removal</t>
+  </si>
+  <si>
+    <t>Structured Concurrency (Third Preview)</t>
+  </si>
+  <si>
+    <t>Scoped Values (Third Preview)</t>
+  </si>
+  <si>
+    <t>Class-File API (Second Preview)</t>
+  </si>
+  <si>
+    <t>ZGC: Generational Mode by Default</t>
+  </si>
+  <si>
+    <t>Primitive Types in Patterns, instanceof, and switch (Preview)</t>
+  </si>
+  <si>
+    <t>Module Import Declarations (Preview)</t>
+  </si>
+  <si>
+    <t>Implicitly Declared Classes and Instance Main Methods (Third Preview)</t>
+  </si>
+  <si>
+    <t>Flexible Constructor Bodies (Second Preview)</t>
+  </si>
+  <si>
+    <t>Markdown Documentation Comments</t>
+  </si>
+  <si>
+    <t>Stream Gatherers (Second Preview)</t>
+  </si>
+  <si>
+    <t>Prepare to Restrict the Use of JNI</t>
+  </si>
+  <si>
+    <t>Scoped Values (Fourth Preview)</t>
+  </si>
+  <si>
+    <t>Vector API (Ninth Incubator)</t>
+  </si>
+  <si>
+    <t>Warn upon Use of Memory-Access Methods in sun.misc.Unsafe</t>
+  </si>
+  <si>
+    <t>Structured Concurrency (Fourth Preview)</t>
+  </si>
+  <si>
+    <t>Class-File API</t>
+  </si>
+  <si>
+    <t>Stream Gatherers</t>
+  </si>
+  <si>
+    <t>Permanently Disable the Security Manager</t>
+  </si>
+  <si>
+    <t>Quantum-Resistant Module-Lattice-Based Digital Signature Algorithm</t>
+  </si>
+  <si>
+    <t>Key Derivation Function API (Preview)</t>
+  </si>
+  <si>
+    <t>Quantum-Resistant Module-Lattice-Based Key Encapsulation Mechanism</t>
+  </si>
+  <si>
+    <t>Generational Shenandoah (Experimental)</t>
+  </si>
+  <si>
+    <t>ZGC: Remove the Non-Generational Mode</t>
+  </si>
+  <si>
+    <t>Late Barrier Expansion for G1</t>
+  </si>
+  <si>
+    <t>Remove the Windows 32-bit x86 Port</t>
+  </si>
+  <si>
+    <t>Deprecate the 32-bit x86 Port for Removal</t>
+  </si>
+  <si>
+    <t>Compact Object Headers (Experimental)</t>
+  </si>
+  <si>
+    <t>Ahead-of-Time Class Loading &amp; Linking</t>
+  </si>
+  <si>
+    <t>Synchronize Virtual Threads without Pinning</t>
+  </si>
+  <si>
+    <t>Primitive Types in Patterns, instanceof, and switch (Second Preview)</t>
+  </si>
+  <si>
+    <t>Flexible Constructor Bodies (Third Preview)</t>
+  </si>
+  <si>
+    <t>Module Import Declarations (Second Preview)</t>
+  </si>
+  <si>
+    <t>Simple Source Files and Instance Main Methods (Fourth Preview)</t>
+  </si>
+  <si>
+    <t>Linking Run-Time Images without JMODs</t>
   </si>
 </sst>
 </file>
@@ -1521,7 +1830,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1537,22 +1846,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1874,138 +2171,155 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="46.6363636363636" style="8" customWidth="1"/>
-    <col min="2" max="18" width="9.63636363636364" style="9" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="9"/>
+    <col min="1" max="2" width="46.6363636363636" style="2" customWidth="1"/>
+    <col min="3" max="16" width="9.63636363636364" style="6" customWidth="1"/>
+    <col min="17" max="17" width="11.2090909090909" style="6" customWidth="1"/>
+    <col min="18" max="19" width="9.63636363636364" style="6" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="1" spans="1:18">
-      <c r="A1" s="10" t="s">
+    <row r="1" s="5" customFormat="1" spans="1:19">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="P1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="Q1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="R1" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" ht="42" spans="1:14">
-      <c r="A2" s="8" t="s">
+      <c r="S1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="11" t="s">
+    </row>
+    <row r="2" ht="42" spans="1:15">
+      <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="M2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="N2" s="7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" ht="42" spans="1:14">
-      <c r="A3" s="8" t="s">
+      <c r="O2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="11" t="s">
+    </row>
+    <row r="3" ht="42" spans="1:15">
+      <c r="A3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="M3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="N3" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" ht="28" spans="1:14">
-      <c r="A4" s="8" t="s">
+      <c r="O3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="N4" s="11" t="s">
+    </row>
+    <row r="4" ht="28" spans="1:15">
+      <c r="A4" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" ht="28" spans="1:14">
-      <c r="A5" s="8" t="s">
+      <c r="O4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="N5" s="11" t="s">
+    </row>
+    <row r="5" ht="28" spans="1:15">
+      <c r="A5" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="6" ht="28" spans="1:14">
-      <c r="A6" s="8" t="s">
+      <c r="O5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="N6" s="11" t="s">
+    </row>
+    <row r="6" ht="42" spans="1:17">
+      <c r="A6" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="B6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1" display="https://javaalmanac.io/features/stringtemplates/"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -2067,12 +2381,12 @@
   <sheetPr/>
   <dimension ref="A1:E121"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.45454545454546" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -2089,33 +2403,33 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E2" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/289","JEP 289")</f>
@@ -2124,16 +2438,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E3" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/259","JEP 259")</f>
@@ -2142,16 +2456,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E4" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/290","JEP 290")</f>
@@ -2160,16 +2474,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E5" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/102","JEP 102")</f>
@@ -2178,16 +2492,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E6" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/274","JEP 274")</f>
@@ -2196,16 +2510,16 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E7" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/276","JEP 276")</f>
@@ -2214,16 +2528,16 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E8" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/110","JEP 110")</f>
@@ -2232,16 +2546,16 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E9" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/266","JEP 266")</f>
@@ -2250,16 +2564,16 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E10" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/264","JEP 264")</f>
@@ -2268,16 +2582,16 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E11" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/269","JEP 269")</f>
@@ -2286,16 +2600,16 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E12" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/226","JEP 226")</f>
@@ -2304,16 +2618,16 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E13" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/252","JEP 252")</f>
@@ -2322,16 +2636,16 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E14" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/236","JEP 236")</f>
@@ -2340,16 +2654,16 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E15" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/292","JEP 292")</f>
@@ -2358,16 +2672,16 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E16" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/229","JEP 229")</f>
@@ -2376,16 +2690,16 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E17" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/232","JEP 232")</f>
@@ -2394,16 +2708,16 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E18" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/273","JEP 273")</f>
@@ -2412,16 +2726,16 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E19" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/287","JEP 287")</f>
@@ -2430,16 +2744,16 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E20" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/288","JEP 288")</f>
@@ -2448,16 +2762,16 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E21" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/246","JEP 246")</f>
@@ -2466,16 +2780,16 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E22" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/219","JEP 219")</f>
@@ -2484,16 +2798,16 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E23" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/244","JEP 244")</f>
@@ -2502,16 +2816,16 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E24" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/249","JEP 249")</f>
@@ -2520,16 +2834,16 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E25" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/214","JEP 214")</f>
@@ -2538,16 +2852,16 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E26" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/248","JEP 248")</f>
@@ -2556,16 +2870,16 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E27" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/271","JEP 271")</f>
@@ -2574,16 +2888,16 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E28" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/278","JEP 278")</f>
@@ -2592,16 +2906,16 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E29" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/291","JEP 291")</f>
@@ -2610,16 +2924,16 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E30" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/254","JEP 254")</f>
@@ -2628,14 +2942,14 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E31" s="4" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/200","JEP 200")</f>
@@ -2644,14 +2958,14 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E32" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/201","JEP 201")</f>
@@ -2660,14 +2974,14 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E33" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/220","JEP 220")</f>
@@ -2676,14 +2990,14 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E34" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/261","JEP 261")</f>
@@ -2692,16 +3006,16 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E35" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/165","JEP 165")</f>
@@ -2710,16 +3024,16 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E36" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/197","JEP 197")</f>
@@ -2728,16 +3042,16 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E37" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/233","JEP 233")</f>
@@ -2746,16 +3060,16 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E38" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/237","JEP 237")</f>
@@ -2764,16 +3078,16 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E39" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/243","JEP 243")</f>
@@ -2782,16 +3096,16 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E40" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/294","JEP 294")</f>
@@ -2800,16 +3114,16 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E41" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/295","JEP 295")</f>
@@ -2818,16 +3132,16 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E42" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/297","JEP 297")</f>
@@ -2836,16 +3150,16 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E43" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/143","JEP 143")</f>
@@ -2854,16 +3168,16 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E44" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/245","JEP 245")</f>
@@ -2872,16 +3186,16 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E45" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/250","JEP 250")</f>
@@ -2890,16 +3204,16 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E46" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/158","JEP 158")</f>
@@ -2908,16 +3222,16 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E47" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/228","JEP 228")</f>
@@ -2926,16 +3240,16 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E48" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/281","JEP 281")</f>
@@ -2944,16 +3258,16 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E49" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/193","JEP 193")</f>
@@ -2962,16 +3276,16 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E50" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/227","JEP 227")</f>
@@ -2980,16 +3294,16 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E51" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/267","JEP 267")</f>
@@ -2998,16 +3312,16 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E52" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/277","JEP 277")</f>
@@ -3016,16 +3330,16 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E53" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/285","JEP 285")</f>
@@ -3034,16 +3348,16 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E54" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/251","JEP 251")</f>
@@ -3052,16 +3366,16 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E55" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/258","JEP 258")</f>
@@ -3070,16 +3384,16 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E56" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/265","JEP 265")</f>
@@ -3088,16 +3402,16 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E57" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/263","JEP 263")</f>
@@ -3106,16 +3420,16 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E58" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/272","JEP 272")</f>
@@ -3124,16 +3438,16 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E59" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/256","JEP 256")</f>
@@ -3142,16 +3456,16 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E60" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/262","JEP 262")</f>
@@ -3160,16 +3474,16 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E61" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/240","JEP 240")</f>
@@ -3178,16 +3492,16 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E62" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/241","JEP 241")</f>
@@ -3196,16 +3510,16 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E63" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/275","JEP 275")</f>
@@ -3214,16 +3528,16 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E64" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/299","JEP 299")</f>
@@ -3232,16 +3546,16 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E65" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/298","JEP 298")</f>
@@ -3250,16 +3564,16 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E66" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/284","JEP 284")</f>
@@ -3268,16 +3582,16 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E67" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/253","JEP 253")</f>
@@ -3286,16 +3600,16 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E68" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/257","JEP 257")</f>
@@ -3304,16 +3618,16 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E69" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/283","JEP 283")</f>
@@ -3322,16 +3636,16 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E70" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/255","JEP 255")</f>
@@ -3340,16 +3654,16 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E71" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/268","JEP 268")</f>
@@ -3358,14 +3672,14 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E72" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/223","JEP 223")</f>
@@ -3374,14 +3688,14 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E73" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/260","JEP 260")</f>
@@ -3390,14 +3704,14 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E74" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/270","JEP 270")</f>
@@ -3406,14 +3720,14 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E75" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/279","JEP 279")</f>
@@ -3422,16 +3736,16 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E76" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/212","JEP 212")</f>
@@ -3440,16 +3754,16 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E77" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/238","JEP 238")</f>
@@ -3458,16 +3772,16 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E78" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/199","JEP 199")</f>
@@ -3476,16 +3790,16 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E79" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/211","JEP 211")</f>
@@ -3494,16 +3808,16 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E80" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/213","JEP 213")</f>
@@ -3512,16 +3826,16 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E81" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/215","JEP 215")</f>
@@ -3530,16 +3844,16 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E82" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/216","JEP 216")</f>
@@ -3548,16 +3862,16 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E83" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/217","JEP 217")</f>
@@ -3566,16 +3880,16 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E84" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/235","JEP 235")</f>
@@ -3584,16 +3898,16 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E85" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/247","JEP 247")</f>
@@ -3602,16 +3916,16 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E86" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/280","JEP 280")</f>
@@ -3620,16 +3934,16 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E87" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/221","JEP 221")</f>
@@ -3638,16 +3952,16 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E88" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/224","JEP 224")</f>
@@ -3656,16 +3970,16 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E89" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/225","JEP 225")</f>
@@ -3674,16 +3988,16 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E90" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/282","JEP 282")</f>
@@ -3692,16 +4006,16 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E91" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/222","JEP 222")</f>
@@ -3710,16 +4024,16 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E92" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/231","JEP 231")</f>
@@ -3728,232 +4042,232 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D93" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="E93" s="6" t="str">
+        <v>3</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E93" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/314","JEP 314")</f>
         <v>JEP 314</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B94" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D94" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="E94" s="6" t="str">
+        <v>3</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E94" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/319","JEP 319")</f>
         <v>JEP 319</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B95" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D95" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E95" s="6" t="str">
+        <v>3</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E95" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/304","JEP 304")</f>
         <v>JEP 304</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B96" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C96" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D96" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="E96" s="6" t="str">
+        <v>3</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E96" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/307","JEP 307")</f>
         <v>JEP 307</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B97" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C97" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D97" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="E97" s="6" t="str">
+        <v>3</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E97" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/316","JEP 316")</f>
         <v>JEP 316</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B98" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C98" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D98" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="E98" s="6" t="str">
+        <v>3</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E98" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/317","JEP 317")</f>
         <v>JEP 317</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B99" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C99" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="D99" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="E99" s="6" t="str">
+        <v>3</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E99" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/310","JEP 310")</f>
         <v>JEP 310</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="D100" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="E100" s="6" t="str">
+        <v>3</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E100" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/312","JEP 312")</f>
         <v>JEP 312</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B101" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D101" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="E101" s="6" t="str">
+        <v>3</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E101" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/322","JEP 322")</f>
         <v>JEP 322</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B102" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C102" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="D102" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="E102" s="6" t="str">
+        <v>3</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E102" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/286","JEP 286")</f>
         <v>JEP 286</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B103" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C103" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="D103" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="E103" s="6" t="str">
+        <v>3</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E103" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/296","JEP 296")</f>
         <v>JEP 296</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B104" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C104" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="D104" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="E104" s="6" t="str">
+        <v>3</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E104" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/313","JEP 313")</f>
         <v>JEP 313</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="E105" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/321","JEP 321")</f>
@@ -3962,16 +4276,16 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E106" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/335","JEP 335")</f>
@@ -3980,16 +4294,16 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="E107" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/324","JEP 324")</f>
@@ -3998,16 +4312,16 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="E108" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/329","JEP 329")</f>
@@ -4016,16 +4330,16 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="E109" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/332","JEP 332")</f>
@@ -4034,16 +4348,16 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E110" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/318","JEP 318")</f>
@@ -4052,16 +4366,16 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="E111" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/333","JEP 333")</f>
@@ -4070,16 +4384,16 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E112" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/315","JEP 315")</f>
@@ -4088,16 +4402,16 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="E113" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/328","JEP 328")</f>
@@ -4106,16 +4420,16 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="E114" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/331","JEP 331")</f>
@@ -4124,16 +4438,16 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="E115" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/181","JEP 181")</f>
@@ -4142,16 +4456,16 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="E116" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/309","JEP 309")</f>
@@ -4160,16 +4474,16 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="E117" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/327","JEP 327")</f>
@@ -4178,16 +4492,16 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="E118" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/320","JEP 320")</f>
@@ -4196,16 +4510,16 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="E119" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/323","JEP 323")</f>
@@ -4214,16 +4528,16 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E120" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/336","JEP 336")</f>
@@ -4232,16 +4546,16 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="E121" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/330","JEP 330")</f>
@@ -4263,10 +4577,14 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -4280,33 +4598,33 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="E2" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/334","JEP 334")</f>
@@ -4315,16 +4633,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="E3" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/189","JEP 189")</f>
@@ -4333,16 +4651,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="E4" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/344","JEP 344")</f>
@@ -4351,16 +4669,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="E5" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/346","JEP 346")</f>
@@ -4369,16 +4687,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E6" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/340","JEP 340")</f>
@@ -4387,16 +4705,16 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="E7" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/341","JEP 341")</f>
@@ -4405,16 +4723,16 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="E8" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/230","JEP 230")</f>
@@ -4423,16 +4741,16 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="E9" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/325","JEP 325")</f>
@@ -4441,16 +4759,16 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="E10" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/353","JEP 353")</f>
@@ -4459,16 +4777,16 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="E11" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/351","JEP 351")</f>
@@ -4477,16 +4795,16 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="E12" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/350","JEP 350")</f>
@@ -4495,16 +4813,16 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="E13" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/354","JEP 354")</f>
@@ -4513,16 +4831,16 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="E14" s="3" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/355","JEP 355")</f>
@@ -4531,265 +4849,265 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>115</v>
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>46</v>
       </c>
       <c r="D15" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="E15" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/370","JEP 370")</f>
+        <v>JEP 370</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s">
+        <v>228</v>
+      </c>
+      <c r="D16" t="s">
+        <v>229</v>
+      </c>
+      <c r="E16" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/352","JEP 352")</f>
+        <v>JEP 352</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" t="s">
+        <v>230</v>
+      </c>
+      <c r="E17" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/345","JEP 345")</f>
+        <v>JEP 345</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" t="s">
+        <v>231</v>
+      </c>
+      <c r="E18" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/363","JEP 363")</f>
+        <v>JEP 363</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" t="s">
+        <v>232</v>
+      </c>
+      <c r="E19" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/364","JEP 364")</f>
+        <v>JEP 364</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" t="s">
+        <v>233</v>
+      </c>
+      <c r="E20" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/365","JEP 365")</f>
+        <v>JEP 365</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" t="s">
+        <v>234</v>
+      </c>
+      <c r="E21" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/366","JEP 366")</f>
+        <v>JEP 366</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" t="s">
+        <v>201</v>
+      </c>
+      <c r="D22" t="s">
+        <v>235</v>
+      </c>
+      <c r="E22" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/349","JEP 349")</f>
+        <v>JEP 349</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" t="s">
+        <v>104</v>
+      </c>
+      <c r="D23" t="s">
+        <v>236</v>
+      </c>
+      <c r="E23" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/358","JEP 358")</f>
+        <v>JEP 358</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" t="s">
+        <v>119</v>
+      </c>
+      <c r="C24" t="s">
+        <v>221</v>
+      </c>
+      <c r="D24" t="s">
+        <v>237</v>
+      </c>
+      <c r="E24" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/305","JEP 305")</f>
+        <v>JEP 305</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" t="s">
+        <v>119</v>
+      </c>
+      <c r="C25" t="s">
+        <v>221</v>
+      </c>
+      <c r="D25" t="s">
+        <v>238</v>
+      </c>
+      <c r="E25" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/359","JEP 359")</f>
+        <v>JEP 359</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" t="s">
+        <v>119</v>
+      </c>
+      <c r="C26" t="s">
+        <v>221</v>
+      </c>
+      <c r="D26" t="s">
+        <v>239</v>
+      </c>
+      <c r="E26" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/361","JEP 361")</f>
+        <v>JEP 361</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" t="s">
+        <v>119</v>
+      </c>
+      <c r="C27" t="s">
+        <v>221</v>
+      </c>
+      <c r="D27" t="s">
+        <v>240</v>
+      </c>
+      <c r="E27" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/368","JEP 368")</f>
+        <v>JEP 368</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" t="s">
+        <v>119</v>
+      </c>
+      <c r="D28" t="s">
+        <v>241</v>
+      </c>
+      <c r="E28" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/362","JEP 362")</f>
         <v>JEP 362</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" t="s">
-        <v>224</v>
-      </c>
-      <c r="E16" t="str">
-        <f>HYPERLINK("https://openjdk.org/jeps/370","JEP 370")</f>
-        <v>JEP 370</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" t="s">
-        <v>225</v>
-      </c>
-      <c r="D17" t="s">
-        <v>226</v>
-      </c>
-      <c r="E17" t="str">
-        <f>HYPERLINK("https://openjdk.org/jeps/352","JEP 352")</f>
-        <v>JEP 352</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" t="s">
-        <v>77</v>
-      </c>
-      <c r="C18" t="s">
-        <v>78</v>
-      </c>
-      <c r="D18" t="s">
-        <v>227</v>
-      </c>
-      <c r="E18" t="str">
-        <f>HYPERLINK("https://openjdk.org/jeps/345","JEP 345")</f>
-        <v>JEP 345</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" t="s">
-        <v>77</v>
-      </c>
-      <c r="C19" t="s">
-        <v>78</v>
-      </c>
-      <c r="D19" t="s">
-        <v>228</v>
-      </c>
-      <c r="E19" t="str">
-        <f>HYPERLINK("https://openjdk.org/jeps/363","JEP 363")</f>
-        <v>JEP 363</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" t="s">
-        <v>77</v>
-      </c>
-      <c r="C20" t="s">
-        <v>78</v>
-      </c>
-      <c r="D20" t="s">
-        <v>229</v>
-      </c>
-      <c r="E20" t="str">
-        <f>HYPERLINK("https://openjdk.org/jeps/364","JEP 364")</f>
-        <v>JEP 364</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" t="s">
-        <v>77</v>
-      </c>
-      <c r="C21" t="s">
-        <v>78</v>
-      </c>
-      <c r="D21" t="s">
-        <v>230</v>
-      </c>
-      <c r="E21" t="str">
-        <f>HYPERLINK("https://openjdk.org/jeps/365","JEP 365")</f>
-        <v>JEP 365</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" t="s">
-        <v>77</v>
-      </c>
-      <c r="C22" t="s">
-        <v>78</v>
-      </c>
-      <c r="D22" t="s">
-        <v>231</v>
-      </c>
-      <c r="E22" t="str">
-        <f>HYPERLINK("https://openjdk.org/jeps/366","JEP 366")</f>
-        <v>JEP 366</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" t="s">
-        <v>90</v>
-      </c>
-      <c r="C23" t="s">
-        <v>197</v>
-      </c>
-      <c r="D23" t="s">
-        <v>232</v>
-      </c>
-      <c r="E23" t="str">
-        <f>HYPERLINK("https://openjdk.org/jeps/349","JEP 349")</f>
-        <v>JEP 349</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24" t="s">
-        <v>90</v>
-      </c>
-      <c r="C24" t="s">
-        <v>100</v>
-      </c>
-      <c r="D24" t="s">
-        <v>233</v>
-      </c>
-      <c r="E24" t="str">
-        <f>HYPERLINK("https://openjdk.org/jeps/358","JEP 358")</f>
-        <v>JEP 358</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25" t="s">
-        <v>115</v>
-      </c>
-      <c r="C25" t="s">
-        <v>217</v>
-      </c>
-      <c r="D25" t="s">
-        <v>234</v>
-      </c>
-      <c r="E25" t="str">
-        <f>HYPERLINK("https://openjdk.org/jeps/305","JEP 305")</f>
-        <v>JEP 305</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" t="s">
-        <v>115</v>
-      </c>
-      <c r="C26" t="s">
-        <v>217</v>
-      </c>
-      <c r="D26" t="s">
-        <v>235</v>
-      </c>
-      <c r="E26" t="str">
-        <f>HYPERLINK("https://openjdk.org/jeps/359","JEP 359")</f>
-        <v>JEP 359</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27" t="s">
-        <v>115</v>
-      </c>
-      <c r="C27" t="s">
-        <v>217</v>
-      </c>
-      <c r="D27" t="s">
-        <v>236</v>
-      </c>
-      <c r="E27" t="str">
-        <f>HYPERLINK("https://openjdk.org/jeps/361","JEP 361")</f>
-        <v>JEP 361</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" t="s">
-        <v>6</v>
-      </c>
-      <c r="B28" t="s">
-        <v>115</v>
-      </c>
-      <c r="C28" t="s">
-        <v>217</v>
-      </c>
-      <c r="D28" t="s">
-        <v>237</v>
-      </c>
-      <c r="E28" t="str">
-        <f>HYPERLINK("https://openjdk.org/jeps/368","JEP 368")</f>
-        <v>JEP 368</v>
-      </c>
-    </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C29" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D29" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="E29" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/367","JEP 367")</f>
@@ -4798,23 +5116,830 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C30" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D30" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="E30" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/343","JEP 343")</f>
         <v>JEP 343</v>
       </c>
     </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" t="s">
+        <v>245</v>
+      </c>
+      <c r="E31" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/383","JEP 383")</f>
+        <v>JEP 383</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" t="s">
+        <v>246</v>
+      </c>
+      <c r="E32" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/371","JEP 371")</f>
+        <v>JEP 371</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" t="s">
+        <v>247</v>
+      </c>
+      <c r="E33" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/373","JEP 373")</f>
+        <v>JEP 373</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" t="s">
+        <v>248</v>
+      </c>
+      <c r="D34" t="s">
+        <v>249</v>
+      </c>
+      <c r="E34" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/385","JEP 385")</f>
+        <v>JEP 385</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" t="s">
+        <v>66</v>
+      </c>
+      <c r="D35" t="s">
+        <v>250</v>
+      </c>
+      <c r="E35" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/372","JEP 372")</f>
+        <v>JEP 372</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" t="s">
+        <v>75</v>
+      </c>
+      <c r="D36" t="s">
+        <v>251</v>
+      </c>
+      <c r="E36" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/339","JEP 339")</f>
+        <v>JEP 339</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37" t="s">
+        <v>82</v>
+      </c>
+      <c r="D37" t="s">
+        <v>252</v>
+      </c>
+      <c r="E37" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/377","JEP 377")</f>
+        <v>JEP 377</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" t="s">
+        <v>82</v>
+      </c>
+      <c r="D38" t="s">
+        <v>253</v>
+      </c>
+      <c r="E38" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/379","JEP 379")</f>
+        <v>JEP 379</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" t="s">
+        <v>94</v>
+      </c>
+      <c r="C39" t="s">
+        <v>254</v>
+      </c>
+      <c r="D39" t="s">
+        <v>255</v>
+      </c>
+      <c r="E39" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/381","JEP 381")</f>
+        <v>JEP 381</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" t="s">
+        <v>104</v>
+      </c>
+      <c r="D40" t="s">
+        <v>256</v>
+      </c>
+      <c r="E40" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/374","JEP 374")</f>
+        <v>JEP 374</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" t="s">
+        <v>113</v>
+      </c>
+      <c r="C41" t="s">
+        <v>221</v>
+      </c>
+      <c r="D41" t="s">
+        <v>257</v>
+      </c>
+      <c r="E41" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/360","JEP 360")</f>
+        <v>JEP 360</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" t="s">
+        <v>113</v>
+      </c>
+      <c r="C42" t="s">
+        <v>221</v>
+      </c>
+      <c r="D42" t="s">
+        <v>258</v>
+      </c>
+      <c r="E42" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/375","JEP 375")</f>
+        <v>JEP 375</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" t="s">
+        <v>113</v>
+      </c>
+      <c r="C43" t="s">
+        <v>221</v>
+      </c>
+      <c r="D43" t="s">
+        <v>259</v>
+      </c>
+      <c r="E43" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/378","JEP 378")</f>
+        <v>JEP 378</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" t="s">
+        <v>113</v>
+      </c>
+      <c r="C44" t="s">
+        <v>221</v>
+      </c>
+      <c r="D44" t="s">
+        <v>260</v>
+      </c>
+      <c r="E44" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/384","JEP 384")</f>
+        <v>JEP 384</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45" t="s">
+        <v>46</v>
+      </c>
+      <c r="D45" t="s">
+        <v>261</v>
+      </c>
+      <c r="E45" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/389","JEP 389")</f>
+        <v>JEP 389</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" t="s">
+        <v>43</v>
+      </c>
+      <c r="C46" t="s">
+        <v>46</v>
+      </c>
+      <c r="D46" t="s">
+        <v>262</v>
+      </c>
+      <c r="E46" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/393","JEP 393")</f>
+        <v>JEP 393</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47" t="s">
+        <v>43</v>
+      </c>
+      <c r="C47" t="s">
+        <v>228</v>
+      </c>
+      <c r="D47" t="s">
+        <v>263</v>
+      </c>
+      <c r="E47" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/380","JEP 380")</f>
+        <v>JEP 380</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48" t="s">
+        <v>81</v>
+      </c>
+      <c r="C48" t="s">
+        <v>82</v>
+      </c>
+      <c r="D48" t="s">
+        <v>264</v>
+      </c>
+      <c r="E48" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/376","JEP 376")</f>
+        <v>JEP 376</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49" t="s">
+        <v>94</v>
+      </c>
+      <c r="C49" t="s">
+        <v>95</v>
+      </c>
+      <c r="D49" t="s">
+        <v>265</v>
+      </c>
+      <c r="E49" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/338","JEP 338")</f>
+        <v>JEP 338</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>9</v>
+      </c>
+      <c r="B50" t="s">
+        <v>94</v>
+      </c>
+      <c r="C50" t="s">
+        <v>254</v>
+      </c>
+      <c r="D50" t="s">
+        <v>266</v>
+      </c>
+      <c r="E50" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/347","JEP 347")</f>
+        <v>JEP 347</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51" t="s">
+        <v>94</v>
+      </c>
+      <c r="C51" t="s">
+        <v>104</v>
+      </c>
+      <c r="D51" t="s">
+        <v>267</v>
+      </c>
+      <c r="E51" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/386","JEP 386")</f>
+        <v>JEP 386</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52" t="s">
+        <v>94</v>
+      </c>
+      <c r="C52" t="s">
+        <v>104</v>
+      </c>
+      <c r="D52" t="s">
+        <v>268</v>
+      </c>
+      <c r="E52" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/387","JEP 387")</f>
+        <v>JEP 387</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53" t="s">
+        <v>94</v>
+      </c>
+      <c r="C53" t="s">
+        <v>104</v>
+      </c>
+      <c r="D53" t="s">
+        <v>269</v>
+      </c>
+      <c r="E53" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/388","JEP 388")</f>
+        <v>JEP 388</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54" t="s">
+        <v>113</v>
+      </c>
+      <c r="C54" t="s">
+        <v>221</v>
+      </c>
+      <c r="D54" t="s">
+        <v>270</v>
+      </c>
+      <c r="E54" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/394","JEP 394")</f>
+        <v>JEP 394</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55" t="s">
+        <v>113</v>
+      </c>
+      <c r="C55" t="s">
+        <v>221</v>
+      </c>
+      <c r="D55" t="s">
+        <v>271</v>
+      </c>
+      <c r="E55" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/395","JEP 395")</f>
+        <v>JEP 395</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>9</v>
+      </c>
+      <c r="B56" t="s">
+        <v>113</v>
+      </c>
+      <c r="C56" t="s">
+        <v>221</v>
+      </c>
+      <c r="D56" t="s">
+        <v>272</v>
+      </c>
+      <c r="E56" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/397","JEP 397")</f>
+        <v>JEP 397</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57" t="s">
+        <v>119</v>
+      </c>
+      <c r="C57" t="s">
+        <v>138</v>
+      </c>
+      <c r="D57" t="s">
+        <v>273</v>
+      </c>
+      <c r="E57" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/357","JEP 357")</f>
+        <v>JEP 357</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>9</v>
+      </c>
+      <c r="B58" t="s">
+        <v>119</v>
+      </c>
+      <c r="C58" t="s">
+        <v>138</v>
+      </c>
+      <c r="D58" t="s">
+        <v>274</v>
+      </c>
+      <c r="E58" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/369","JEP 369")</f>
+        <v>JEP 369</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59" t="s">
+        <v>119</v>
+      </c>
+      <c r="D59" t="s">
+        <v>275</v>
+      </c>
+      <c r="E59" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/390","JEP 390")</f>
+        <v>JEP 390</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>9</v>
+      </c>
+      <c r="B60" t="s">
+        <v>119</v>
+      </c>
+      <c r="D60" t="s">
+        <v>276</v>
+      </c>
+      <c r="E60" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/396","JEP 396")</f>
+        <v>JEP 396</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>9</v>
+      </c>
+      <c r="B61" t="s">
+        <v>155</v>
+      </c>
+      <c r="C61" t="s">
+        <v>243</v>
+      </c>
+      <c r="D61" t="s">
+        <v>277</v>
+      </c>
+      <c r="E61" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/392","JEP 392")</f>
+        <v>JEP 392</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>10</v>
+      </c>
+      <c r="B62" t="s">
+        <v>43</v>
+      </c>
+      <c r="C62" t="s">
+        <v>46</v>
+      </c>
+      <c r="D62" t="s">
+        <v>278</v>
+      </c>
+      <c r="E62" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/412","JEP 412")</f>
+        <v>JEP 412</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>10</v>
+      </c>
+      <c r="B63" t="s">
+        <v>43</v>
+      </c>
+      <c r="C63" t="s">
+        <v>46</v>
+      </c>
+      <c r="D63" t="s">
+        <v>279</v>
+      </c>
+      <c r="E63" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/414","JEP 414")</f>
+        <v>JEP 414</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>10</v>
+      </c>
+      <c r="B64" t="s">
+        <v>43</v>
+      </c>
+      <c r="C64" t="s">
+        <v>48</v>
+      </c>
+      <c r="D64" t="s">
+        <v>280</v>
+      </c>
+      <c r="E64" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/415","JEP 415")</f>
+        <v>JEP 415</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B65" t="s">
+        <v>43</v>
+      </c>
+      <c r="C65" t="s">
+        <v>248</v>
+      </c>
+      <c r="D65" t="s">
+        <v>281</v>
+      </c>
+      <c r="E65" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/407","JEP 407")</f>
+        <v>JEP 407</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
+        <v>10</v>
+      </c>
+      <c r="B66" t="s">
+        <v>43</v>
+      </c>
+      <c r="C66" t="s">
+        <v>282</v>
+      </c>
+      <c r="D66" t="s">
+        <v>283</v>
+      </c>
+      <c r="E66" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/356","JEP 356")</f>
+        <v>JEP 356</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
+        <v>10</v>
+      </c>
+      <c r="B67" t="s">
+        <v>43</v>
+      </c>
+      <c r="C67" t="s">
+        <v>69</v>
+      </c>
+      <c r="D67" t="s">
+        <v>284</v>
+      </c>
+      <c r="E67" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/411","JEP 411")</f>
+        <v>JEP 411</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
+        <v>10</v>
+      </c>
+      <c r="B68" t="s">
+        <v>94</v>
+      </c>
+      <c r="C68" t="s">
+        <v>95</v>
+      </c>
+      <c r="D68" t="s">
+        <v>285</v>
+      </c>
+      <c r="E68" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/410","JEP 410")</f>
+        <v>JEP 410</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="s">
+        <v>10</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69" t="s">
+        <v>104</v>
+      </c>
+      <c r="D69" t="s">
+        <v>286</v>
+      </c>
+      <c r="E69" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/391","JEP 391")</f>
+        <v>JEP 391</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="s">
+        <v>10</v>
+      </c>
+      <c r="B70" t="s">
+        <v>113</v>
+      </c>
+      <c r="C70" t="s">
+        <v>221</v>
+      </c>
+      <c r="D70" t="s">
+        <v>287</v>
+      </c>
+      <c r="E70" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/306","JEP 306")</f>
+        <v>JEP 306</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" t="s">
+        <v>10</v>
+      </c>
+      <c r="B71" t="s">
+        <v>113</v>
+      </c>
+      <c r="C71" t="s">
+        <v>221</v>
+      </c>
+      <c r="D71" t="s">
+        <v>288</v>
+      </c>
+      <c r="E71" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/406","JEP 406")</f>
+        <v>JEP 406</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" t="s">
+        <v>10</v>
+      </c>
+      <c r="B72" t="s">
+        <v>113</v>
+      </c>
+      <c r="C72" t="s">
+        <v>221</v>
+      </c>
+      <c r="D72" t="s">
+        <v>289</v>
+      </c>
+      <c r="E72" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/409","JEP 409")</f>
+        <v>JEP 409</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" t="s">
+        <v>10</v>
+      </c>
+      <c r="B73" t="s">
+        <v>119</v>
+      </c>
+      <c r="C73" t="s">
+        <v>120</v>
+      </c>
+      <c r="D73" t="s">
+        <v>290</v>
+      </c>
+      <c r="E73" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/382","JEP 382")</f>
+        <v>JEP 382</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" t="s">
+        <v>10</v>
+      </c>
+      <c r="B74" t="s">
+        <v>119</v>
+      </c>
+      <c r="C74" t="s">
+        <v>124</v>
+      </c>
+      <c r="D74" t="s">
+        <v>291</v>
+      </c>
+      <c r="E74" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/398","JEP 398")</f>
+        <v>JEP 398</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" t="s">
+        <v>10</v>
+      </c>
+      <c r="B75" t="s">
+        <v>119</v>
+      </c>
+      <c r="D75" t="s">
+        <v>292</v>
+      </c>
+      <c r="E75" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/403","JEP 403")</f>
+        <v>JEP 403</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState ref="A2:E75">
+    <sortCondition ref="A2:A75"/>
+    <sortCondition ref="B2:B75"/>
+    <sortCondition ref="C2:C75"/>
+    <sortCondition ref="E2:E75"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -4825,8 +5950,12 @@
   <sheetPr/>
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -4840,283 +5969,289 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>241</v>
+        <v>293</v>
       </c>
       <c r="E2" t="str">
-        <f>HYPERLINK("https://openjdk.org/jeps/448","JEP 448")</f>
-        <v>JEP 448</v>
+        <f>HYPERLINK("https://openjdk.org/jeps/417","JEP 417")</f>
+        <v>JEP 417</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s">
-        <v>242</v>
+        <v>294</v>
       </c>
       <c r="E3" t="str">
-        <f>HYPERLINK("https://openjdk.org/jeps/442","JEP 442")</f>
-        <v>JEP 442</v>
+        <f>HYPERLINK("https://openjdk.org/jeps/419","JEP 419")</f>
+        <v>JEP 419</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>295</v>
       </c>
       <c r="D4" t="s">
-        <v>243</v>
+        <v>296</v>
       </c>
       <c r="E4" t="str">
-        <f>HYPERLINK("https://openjdk.org/jeps/444","JEP 444")</f>
-        <v>JEP 444</v>
+        <f>HYPERLINK("https://openjdk.org/jeps/416","JEP 416")</f>
+        <v>JEP 416</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D5" t="s">
-        <v>244</v>
+        <v>297</v>
       </c>
       <c r="E5" t="str">
-        <f>HYPERLINK("https://openjdk.org/jeps/446","JEP 446")</f>
-        <v>JEP 446</v>
+        <f>HYPERLINK("https://openjdk.org/jeps/408","JEP 408")</f>
+        <v>JEP 408</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D6" t="s">
-        <v>245</v>
+        <v>298</v>
       </c>
       <c r="E6" t="str">
-        <f>HYPERLINK("https://openjdk.org/jeps/453","JEP 453")</f>
-        <v>JEP 453</v>
+        <f>HYPERLINK("https://openjdk.org/jeps/418","JEP 418")</f>
+        <v>JEP 418</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>299</v>
       </c>
       <c r="D7" t="s">
-        <v>246</v>
+        <v>300</v>
       </c>
       <c r="E7" t="str">
-        <f>HYPERLINK("https://openjdk.org/jeps/431","JEP 431")</f>
-        <v>JEP 431</v>
+        <f>HYPERLINK("https://openjdk.org/jeps/400","JEP 400")</f>
+        <v>JEP 400</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="C8" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>247</v>
+        <v>301</v>
       </c>
       <c r="E8" t="str">
-        <f>HYPERLINK("https://openjdk.org/jeps/439","JEP 439")</f>
-        <v>JEP 439</v>
+        <f>HYPERLINK("https://openjdk.org/jeps/421","JEP 421")</f>
+        <v>JEP 421</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="C9" t="s">
-        <v>248</v>
+        <v>221</v>
       </c>
       <c r="D9" t="s">
-        <v>249</v>
+        <v>302</v>
       </c>
       <c r="E9" t="str">
-        <f>HYPERLINK("https://openjdk.org/jeps/449","JEP 449")</f>
-        <v>JEP 449</v>
+        <f>HYPERLINK("https://openjdk.org/jeps/420","JEP 420")</f>
+        <v>JEP 420</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>90</v>
+        <v>155</v>
       </c>
       <c r="C10" t="s">
-        <v>104</v>
+        <v>170</v>
       </c>
       <c r="D10" t="s">
-        <v>250</v>
+        <v>303</v>
       </c>
       <c r="E10" t="str">
-        <f>HYPERLINK("https://openjdk.org/jeps/451","JEP 451")</f>
-        <v>JEP 451</v>
+        <f>HYPERLINK("https://openjdk.org/jeps/413","JEP 413")</f>
+        <v>JEP 413</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="D11" t="s">
-        <v>251</v>
+        <v>304</v>
       </c>
       <c r="E11" t="str">
-        <f>HYPERLINK("https://openjdk.org/jeps/452","JEP 452")</f>
-        <v>JEP 452</v>
+        <f>HYPERLINK("https://openjdk.org/jeps/424","JEP 424")</f>
+        <v>JEP 424</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>109</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>217</v>
+        <v>46</v>
       </c>
       <c r="D12" t="s">
-        <v>252</v>
+        <v>305</v>
       </c>
       <c r="E12" t="str">
-        <f>HYPERLINK("https://openjdk.org/jeps/430","JEP 430")</f>
-        <v>JEP 430</v>
+        <f>HYPERLINK("https://openjdk.org/jeps/425","JEP 425")</f>
+        <v>JEP 425</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>109</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>217</v>
+        <v>46</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>306</v>
       </c>
       <c r="E13" t="str">
-        <f>HYPERLINK("https://openjdk.org/jeps/440","JEP 440")</f>
-        <v>JEP 440</v>
+        <f>HYPERLINK("https://openjdk.org/jeps/426","JEP 426")</f>
+        <v>JEP 426</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>109</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>217</v>
+        <v>46</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>307</v>
       </c>
       <c r="E14" t="str">
-        <f>HYPERLINK("https://openjdk.org/jeps/441","JEP 441")</f>
-        <v>JEP 441</v>
+        <f>HYPERLINK("https://openjdk.org/jeps/428","JEP 428")</f>
+        <v>JEP 428</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="C15" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
       <c r="D15" t="s">
-        <v>253</v>
+        <v>308</v>
       </c>
       <c r="E15" t="str">
-        <f>HYPERLINK("https://openjdk.org/jeps/443","JEP 443")</f>
-        <v>JEP 443</v>
+        <f>HYPERLINK("https://openjdk.org/jeps/422","JEP 422")</f>
+        <v>JEP 422</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="C16" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D16" t="s">
-        <v>254</v>
+        <v>309</v>
       </c>
       <c r="E16" t="str">
-        <f>HYPERLINK("https://openjdk.org/jeps/445","JEP 445")</f>
-        <v>JEP 445</v>
+        <f>HYPERLINK("https://openjdk.org/jeps/405","JEP 405")</f>
+        <v>JEP 405</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -5124,416 +6259,416 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>119</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>221</v>
       </c>
       <c r="D17" t="s">
-        <v>255</v>
+        <v>310</v>
       </c>
       <c r="E17" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/427","JEP 427")</f>
+        <v>JEP 427</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" t="s">
+        <v>311</v>
+      </c>
+      <c r="E18" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/429","JEP 429")</f>
         <v>JEP 429</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" t="s">
-        <v>256</v>
-      </c>
-      <c r="E18" t="str">
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" t="s">
+        <v>312</v>
+      </c>
+      <c r="E19" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/434","JEP 434")</f>
         <v>JEP 434</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" t="s">
-        <v>257</v>
-      </c>
-      <c r="E19" t="str">
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" t="s">
+        <v>313</v>
+      </c>
+      <c r="E20" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/436","JEP 436")</f>
         <v>JEP 436</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" t="s">
-        <v>258</v>
-      </c>
-      <c r="E20" t="str">
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" t="s">
+        <v>314</v>
+      </c>
+      <c r="E21" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/437","JEP 437")</f>
         <v>JEP 437</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" t="s">
-        <v>259</v>
-      </c>
-      <c r="E21" t="str">
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" t="s">
+        <v>315</v>
+      </c>
+      <c r="E22" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/438","JEP 438")</f>
         <v>JEP 438</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" t="s">
-        <v>115</v>
-      </c>
-      <c r="C22" t="s">
-        <v>217</v>
-      </c>
-      <c r="D22" t="s">
-        <v>260</v>
-      </c>
-      <c r="E22" t="str">
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" t="s">
+        <v>119</v>
+      </c>
+      <c r="C23" t="s">
+        <v>221</v>
+      </c>
+      <c r="D23" t="s">
+        <v>316</v>
+      </c>
+      <c r="E23" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/432","JEP 432")</f>
         <v>JEP 432</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
-      <c r="A23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" t="s">
-        <v>115</v>
-      </c>
-      <c r="C23" t="s">
-        <v>217</v>
-      </c>
-      <c r="D23" t="s">
-        <v>261</v>
-      </c>
-      <c r="E23" t="str">
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" t="s">
+        <v>119</v>
+      </c>
+      <c r="C24" t="s">
+        <v>221</v>
+      </c>
+      <c r="D24" t="s">
+        <v>317</v>
+      </c>
+      <c r="E24" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/433","JEP 433")</f>
         <v>JEP 433</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" t="s">
-        <v>42</v>
-      </c>
-      <c r="D24" t="s">
-        <v>262</v>
-      </c>
-      <c r="E24" t="str">
-        <f>HYPERLINK("https://openjdk.org/jeps/424","JEP 424")</f>
-        <v>JEP 424</v>
-      </c>
-    </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C25" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D25" t="s">
-        <v>263</v>
+        <v>318</v>
       </c>
       <c r="E25" t="str">
-        <f>HYPERLINK("https://openjdk.org/jeps/425","JEP 425")</f>
-        <v>JEP 425</v>
+        <f>HYPERLINK("https://openjdk.org/jeps/442","JEP 442")</f>
+        <v>JEP 442</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C26" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D26" t="s">
-        <v>264</v>
+        <v>319</v>
       </c>
       <c r="E26" t="str">
-        <f>HYPERLINK("https://openjdk.org/jeps/426","JEP 426")</f>
-        <v>JEP 426</v>
+        <f>HYPERLINK("https://openjdk.org/jeps/444","JEP 444")</f>
+        <v>JEP 444</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C27" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D27" t="s">
-        <v>265</v>
+        <v>320</v>
       </c>
       <c r="E27" t="str">
-        <f>HYPERLINK("https://openjdk.org/jeps/428","JEP 428")</f>
-        <v>JEP 428</v>
+        <f>HYPERLINK("https://openjdk.org/jeps/446","JEP 446")</f>
+        <v>JEP 446</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B28" t="s">
-        <v>90</v>
+        <v>43</v>
       </c>
       <c r="C28" t="s">
-        <v>248</v>
+        <v>46</v>
       </c>
       <c r="D28" t="s">
-        <v>266</v>
+        <v>321</v>
       </c>
       <c r="E28" t="str">
-        <f>HYPERLINK("https://openjdk.org/jeps/422","JEP 422")</f>
-        <v>JEP 422</v>
+        <f>HYPERLINK("https://openjdk.org/jeps/453","JEP 453")</f>
+        <v>JEP 453</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B29" t="s">
-        <v>115</v>
+        <v>43</v>
       </c>
       <c r="C29" t="s">
-        <v>217</v>
+        <v>61</v>
       </c>
       <c r="D29" t="s">
-        <v>267</v>
+        <v>322</v>
       </c>
       <c r="E29" t="str">
-        <f>HYPERLINK("https://openjdk.org/jeps/405","JEP 405")</f>
-        <v>JEP 405</v>
+        <f>HYPERLINK("https://openjdk.org/jeps/431","JEP 431")</f>
+        <v>JEP 431</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B30" t="s">
-        <v>115</v>
+        <v>43</v>
       </c>
       <c r="C30" t="s">
-        <v>217</v>
+        <v>75</v>
       </c>
       <c r="D30" t="s">
-        <v>268</v>
+        <v>323</v>
       </c>
       <c r="E30" t="str">
-        <f>HYPERLINK("https://openjdk.org/jeps/427","JEP 427")</f>
-        <v>JEP 427</v>
+        <f>HYPERLINK("https://openjdk.org/jeps/452","JEP 452")</f>
+        <v>JEP 452</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B31" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="C31" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="D31" t="s">
-        <v>269</v>
+        <v>324</v>
       </c>
       <c r="E31" t="str">
-        <f>HYPERLINK("https://openjdk.org/jeps/417","JEP 417")</f>
-        <v>JEP 417</v>
+        <f>HYPERLINK("https://openjdk.org/jeps/439","JEP 439")</f>
+        <v>JEP 439</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="C32" t="s">
-        <v>42</v>
+        <v>254</v>
       </c>
       <c r="D32" t="s">
-        <v>270</v>
+        <v>325</v>
       </c>
       <c r="E32" t="str">
-        <f>HYPERLINK("https://openjdk.org/jeps/419","JEP 419")</f>
-        <v>JEP 419</v>
+        <f>HYPERLINK("https://openjdk.org/jeps/449","JEP 449")</f>
+        <v>JEP 449</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B33" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="C33" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="D33" t="s">
-        <v>271</v>
+        <v>326</v>
       </c>
       <c r="E33" t="str">
-        <f>HYPERLINK("https://openjdk.org/jeps/421","JEP 421")</f>
-        <v>JEP 421</v>
+        <f>HYPERLINK("https://openjdk.org/jeps/451","JEP 451")</f>
+        <v>JEP 451</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B34" t="s">
-        <v>39</v>
+        <v>113</v>
       </c>
       <c r="C34" t="s">
-        <v>272</v>
+        <v>221</v>
       </c>
       <c r="D34" t="s">
-        <v>273</v>
+        <v>327</v>
       </c>
       <c r="E34" t="str">
-        <f>HYPERLINK("https://openjdk.org/jeps/416","JEP 416")</f>
-        <v>JEP 416</v>
+        <f>HYPERLINK("https://openjdk.org/jeps/430","JEP 430")</f>
+        <v>JEP 430</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B35" t="s">
-        <v>39</v>
+        <v>113</v>
       </c>
       <c r="C35" t="s">
-        <v>51</v>
+        <v>221</v>
       </c>
       <c r="D35" t="s">
-        <v>274</v>
+        <v>25</v>
       </c>
       <c r="E35" t="str">
-        <f>HYPERLINK("https://openjdk.org/jeps/408","JEP 408")</f>
-        <v>JEP 408</v>
+        <f>HYPERLINK("https://openjdk.org/jeps/440","JEP 440")</f>
+        <v>JEP 440</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B36" t="s">
-        <v>39</v>
+        <v>113</v>
       </c>
       <c r="C36" t="s">
-        <v>51</v>
+        <v>221</v>
       </c>
       <c r="D36" t="s">
-        <v>275</v>
+        <v>19</v>
       </c>
       <c r="E36" t="str">
-        <f>HYPERLINK("https://openjdk.org/jeps/418","JEP 418")</f>
-        <v>JEP 418</v>
+        <f>HYPERLINK("https://openjdk.org/jeps/441","JEP 441")</f>
+        <v>JEP 441</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B37" t="s">
-        <v>39</v>
+        <v>113</v>
       </c>
       <c r="C37" t="s">
-        <v>276</v>
+        <v>221</v>
       </c>
       <c r="D37" t="s">
-        <v>277</v>
+        <v>328</v>
       </c>
       <c r="E37" t="str">
-        <f>HYPERLINK("https://openjdk.org/jeps/400","JEP 400")</f>
-        <v>JEP 400</v>
+        <f>HYPERLINK("https://openjdk.org/jeps/443","JEP 443")</f>
+        <v>JEP 443</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B38" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C38" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D38" t="s">
-        <v>278</v>
+        <v>329</v>
       </c>
       <c r="E38" t="str">
-        <f>HYPERLINK("https://openjdk.org/jeps/420","JEP 420")</f>
-        <v>JEP 420</v>
+        <f>HYPERLINK("https://openjdk.org/jeps/445","JEP 445")</f>
+        <v>JEP 445</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" t="s">
-        <v>151</v>
-      </c>
-      <c r="C39" t="s">
-        <v>166</v>
+        <v>14</v>
       </c>
       <c r="D39" t="s">
-        <v>279</v>
+        <v>330</v>
       </c>
       <c r="E39" t="str">
-        <f>HYPERLINK("https://openjdk.org/jeps/413","JEP 413")</f>
-        <v>JEP 413</v>
+        <f>HYPERLINK("https://openjdk.org/jeps/448","JEP 448")</f>
+        <v>JEP 448</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:E39">
+    <sortCondition ref="A2:A39"/>
+    <sortCondition ref="B2:B39"/>
+    <sortCondition ref="C2:C39"/>
+    <sortCondition ref="E2:E39"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -5542,32 +6677,907 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="9.18181818181818" customWidth="1"/>
+    <col min="2" max="2" width="10.3636363636364" customWidth="1"/>
+    <col min="3" max="3" width="35.3636363636364" customWidth="1"/>
+    <col min="4" max="4" width="79.2727272727273" customWidth="1"/>
+    <col min="5" max="5" width="12.8181818181818" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>331</v>
+      </c>
+      <c r="E2" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/460","JEP 460")</f>
+        <v>JEP 460</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" t="s">
+        <v>332</v>
+      </c>
+      <c r="E3" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/462","JEP 462")</f>
+        <v>JEP 462</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" t="s">
+        <v>333</v>
+      </c>
+      <c r="E4" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/464","JEP 464")</f>
+        <v>JEP 464</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s">
+        <v>334</v>
+      </c>
+      <c r="D5" t="s">
+        <v>335</v>
+      </c>
+      <c r="E5" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/457","JEP 457")</f>
+        <v>JEP 457</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s">
+        <v>336</v>
+      </c>
+      <c r="D6" t="s">
+        <v>337</v>
+      </c>
+      <c r="E6" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/454","JEP 454")</f>
+        <v>JEP 454</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s">
+        <v>338</v>
+      </c>
+      <c r="D7" t="s">
+        <v>339</v>
+      </c>
+      <c r="E7" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/461","JEP 461")</f>
+        <v>JEP 461</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" t="s">
+        <v>340</v>
+      </c>
+      <c r="E8" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/423","JEP 423")</f>
+        <v>JEP 423</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" t="s">
+        <v>221</v>
+      </c>
+      <c r="D9" t="s">
+        <v>341</v>
+      </c>
+      <c r="E9" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/447","JEP 447")</f>
+        <v>JEP 447</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" t="s">
+        <v>221</v>
+      </c>
+      <c r="D10" t="s">
+        <v>342</v>
+      </c>
+      <c r="E10" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/456","JEP 456")</f>
+        <v>JEP 456</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11" t="s">
+        <v>221</v>
+      </c>
+      <c r="D11" t="s">
+        <v>343</v>
+      </c>
+      <c r="E11" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/459","JEP 459")</f>
+        <v>JEP 459</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" t="s">
+        <v>221</v>
+      </c>
+      <c r="D12" t="s">
+        <v>344</v>
+      </c>
+      <c r="E12" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/463","JEP 463")</f>
+        <v>JEP 463</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>155</v>
+      </c>
+      <c r="C13" t="s">
+        <v>178</v>
+      </c>
+      <c r="D13" t="s">
+        <v>345</v>
+      </c>
+      <c r="E13" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/458","JEP 458")</f>
+        <v>JEP 458</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" t="s">
+        <v>346</v>
+      </c>
+      <c r="E14" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/469","JEP 469")</f>
+        <v>JEP 469</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" t="s">
+        <v>347</v>
+      </c>
+      <c r="E15" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/471","JEP 471")</f>
+        <v>JEP 471</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" t="s">
+        <v>348</v>
+      </c>
+      <c r="E16" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/480","JEP 480")</f>
+        <v>JEP 480</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" t="s">
+        <v>349</v>
+      </c>
+      <c r="E17" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/481","JEP 481")</f>
+        <v>JEP 481</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" t="s">
+        <v>334</v>
+      </c>
+      <c r="D18" t="s">
+        <v>350</v>
+      </c>
+      <c r="E18" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/466","JEP 466")</f>
+        <v>JEP 466</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" t="s">
+        <v>351</v>
+      </c>
+      <c r="E19" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/474","JEP 474")</f>
+        <v>JEP 474</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C20" t="s">
+        <v>221</v>
+      </c>
+      <c r="D20" t="s">
+        <v>352</v>
+      </c>
+      <c r="E20" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/455","JEP 455")</f>
+        <v>JEP 455</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" t="s">
+        <v>113</v>
+      </c>
+      <c r="C21" t="s">
+        <v>221</v>
+      </c>
+      <c r="D21" t="s">
+        <v>353</v>
+      </c>
+      <c r="E21" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/476","JEP 476")</f>
+        <v>JEP 476</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" t="s">
+        <v>113</v>
+      </c>
+      <c r="C22" t="s">
+        <v>221</v>
+      </c>
+      <c r="D22" t="s">
+        <v>354</v>
+      </c>
+      <c r="E22" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/477","JEP 477")</f>
+        <v>JEP 477</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" t="s">
+        <v>113</v>
+      </c>
+      <c r="C23" t="s">
+        <v>221</v>
+      </c>
+      <c r="D23" t="s">
+        <v>355</v>
+      </c>
+      <c r="E23" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/482","JEP 482")</f>
+        <v>JEP 482</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" t="s">
+        <v>155</v>
+      </c>
+      <c r="C24" t="s">
+        <v>170</v>
+      </c>
+      <c r="D24" t="s">
+        <v>356</v>
+      </c>
+      <c r="E24" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/467","JEP 467")</f>
+        <v>JEP 467</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" t="s">
+        <v>357</v>
+      </c>
+      <c r="E25" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/473","JEP 473")</f>
+        <v>JEP 473</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" t="s">
+        <v>358</v>
+      </c>
+      <c r="E26" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/472","JEP 472")</f>
+        <v>JEP 472</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" t="s">
+        <v>359</v>
+      </c>
+      <c r="E27" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/487","JEP 487")</f>
+        <v>JEP 487</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" t="s">
+        <v>360</v>
+      </c>
+      <c r="E28" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/489","JEP 489")</f>
+        <v>JEP 489</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" t="s">
+        <v>361</v>
+      </c>
+      <c r="E29" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/498","JEP 498")</f>
+        <v>JEP 498</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" t="s">
+        <v>362</v>
+      </c>
+      <c r="E30" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/499","JEP 499")</f>
+        <v>JEP 499</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" t="s">
+        <v>334</v>
+      </c>
+      <c r="D31" t="s">
+        <v>363</v>
+      </c>
+      <c r="E31" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/484","JEP 484")</f>
+        <v>JEP 484</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" t="s">
+        <v>338</v>
+      </c>
+      <c r="D32" t="s">
+        <v>364</v>
+      </c>
+      <c r="E32" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/485","JEP 485")</f>
+        <v>JEP 485</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" t="s">
+        <v>365</v>
+      </c>
+      <c r="E33" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/486","JEP 486")</f>
+        <v>JEP 486</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" t="s">
+        <v>366</v>
+      </c>
+      <c r="E34" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/497","JEP 497")</f>
+        <v>JEP 497</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" t="s">
+        <v>367</v>
+      </c>
+      <c r="E35" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/478","JEP 478")</f>
+        <v>JEP 478</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" t="s">
+        <v>75</v>
+      </c>
+      <c r="D36" t="s">
+        <v>368</v>
+      </c>
+      <c r="E36" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/496","JEP 496")</f>
+        <v>JEP 496</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37" t="s">
+        <v>82</v>
+      </c>
+      <c r="D37" t="s">
+        <v>369</v>
+      </c>
+      <c r="E37" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/404","JEP 404")</f>
+        <v>JEP 404</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" t="s">
+        <v>82</v>
+      </c>
+      <c r="D38" t="s">
+        <v>370</v>
+      </c>
+      <c r="E38" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/490","JEP 490")</f>
+        <v>JEP 490</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39" t="s">
+        <v>94</v>
+      </c>
+      <c r="C39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D39" t="s">
+        <v>371</v>
+      </c>
+      <c r="E39" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/475","JEP 475")</f>
+        <v>JEP 475</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>17</v>
+      </c>
+      <c r="B40" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" t="s">
+        <v>254</v>
+      </c>
+      <c r="D40" t="s">
+        <v>372</v>
+      </c>
+      <c r="E40" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/479","JEP 479")</f>
+        <v>JEP 479</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41" t="s">
+        <v>94</v>
+      </c>
+      <c r="C41" t="s">
+        <v>254</v>
+      </c>
+      <c r="D41" t="s">
+        <v>373</v>
+      </c>
+      <c r="E41" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/501","JEP 501")</f>
+        <v>JEP 501</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B42" t="s">
+        <v>94</v>
+      </c>
+      <c r="C42" t="s">
+        <v>104</v>
+      </c>
+      <c r="D42" t="s">
+        <v>374</v>
+      </c>
+      <c r="E42" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/450","JEP 450")</f>
+        <v>JEP 450</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>17</v>
+      </c>
+      <c r="B43" t="s">
+        <v>94</v>
+      </c>
+      <c r="C43" t="s">
+        <v>104</v>
+      </c>
+      <c r="D43" t="s">
+        <v>375</v>
+      </c>
+      <c r="E43" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/483","JEP 483")</f>
+        <v>JEP 483</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>17</v>
+      </c>
+      <c r="B44" t="s">
+        <v>94</v>
+      </c>
+      <c r="C44" t="s">
+        <v>104</v>
+      </c>
+      <c r="D44" t="s">
+        <v>376</v>
+      </c>
+      <c r="E44" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/491","JEP 491")</f>
+        <v>JEP 491</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>17</v>
+      </c>
+      <c r="B45" t="s">
+        <v>113</v>
+      </c>
+      <c r="C45" t="s">
+        <v>221</v>
+      </c>
+      <c r="D45" t="s">
+        <v>377</v>
+      </c>
+      <c r="E45" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/488","JEP 488")</f>
+        <v>JEP 488</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>17</v>
+      </c>
+      <c r="B46" t="s">
+        <v>113</v>
+      </c>
+      <c r="C46" t="s">
+        <v>221</v>
+      </c>
+      <c r="D46" t="s">
+        <v>378</v>
+      </c>
+      <c r="E46" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/492","JEP 492")</f>
+        <v>JEP 492</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>17</v>
+      </c>
+      <c r="B47" t="s">
+        <v>113</v>
+      </c>
+      <c r="C47" t="s">
+        <v>221</v>
+      </c>
+      <c r="D47" t="s">
+        <v>379</v>
+      </c>
+      <c r="E47" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/494","JEP 494")</f>
+        <v>JEP 494</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>17</v>
+      </c>
+      <c r="B48" t="s">
+        <v>113</v>
+      </c>
+      <c r="C48" t="s">
+        <v>221</v>
+      </c>
+      <c r="D48" t="s">
+        <v>380</v>
+      </c>
+      <c r="E48" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/495","JEP 495")</f>
+        <v>JEP 495</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49" t="s">
+        <v>155</v>
+      </c>
+      <c r="C49" t="s">
+        <v>174</v>
+      </c>
+      <c r="D49" t="s">
+        <v>381</v>
+      </c>
+      <c r="E49" t="str">
+        <f>HYPERLINK("https://openjdk.org/jeps/493","JEP 493")</f>
+        <v>JEP 493</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:E49">
+    <sortCondition ref="A2:A49"/>
+    <sortCondition ref="B2:B49"/>
+    <sortCondition ref="C2:C49"/>
+    <sortCondition ref="E2:E49"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/README.xlsx
+++ b/README.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21550" windowHeight="10080" activeTab="7"/>
+    <workbookView windowWidth="21550" windowHeight="10080"/>
   </bookViews>
   <sheets>
     <sheet name="Language" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1312" uniqueCount="467">
   <si>
     <t>Feature</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>Switch Expressions</t>
+  </si>
+  <si>
+    <t>https://javaalmanac.io/features/switch/</t>
   </si>
   <si>
     <t>Preview
@@ -115,6 +118,9 @@
     <t>Text Blocks</t>
   </si>
   <si>
+    <t>https://javaalmanac.io/features/textblocks/</t>
+  </si>
+  <si>
     <t>Preview
 JEP 355</t>
   </si>
@@ -131,6 +137,9 @@
     <t>Records</t>
   </si>
   <si>
+    <t>https://javaalmanac.io/features/records/</t>
+  </si>
+  <si>
     <t>Preview
 JEP 359</t>
   </si>
@@ -147,6 +156,9 @@
     <t>Pattern Matching for instanceof</t>
   </si>
   <si>
+    <t>https://javaalmanac.io/features/instanceof-patterns/</t>
+  </si>
+  <si>
     <t>Preview
 JEP 305</t>
   </si>
@@ -163,6 +175,9 @@
     <t>Sealed Classes</t>
   </si>
   <si>
+    <t>https://javaalmanac.io/features/sealedtypes/</t>
+  </si>
+  <si>
     <t>Preview
 JEP 360</t>
   </si>
@@ -179,6 +194,9 @@
     <t>Pattern Matching for switch</t>
   </si>
   <si>
+    <t>https://javaalmanac.io/features/typepatterns/</t>
+  </si>
+  <si>
     <t>Preview
 JEP 406</t>
   </si>
@@ -205,6 +223,9 @@
     <t>Record Patterns</t>
   </si>
   <si>
+    <t>https://javaalmanac.io/features/recordpatterns/</t>
+  </si>
+  <si>
     <t>Preview
 JEP 405</t>
   </si>
@@ -221,18 +242,26 @@
     <t>Unnamed Patterns and Variables</t>
   </si>
   <si>
+    <t>https://javaalmanac.io/features/unnamedvariables/</t>
+  </si>
+  <si>
     <t>Preview
 JEP 443</t>
   </si>
   <si>
-    <t>Unnamed Classes and Instance Main Methods</t>
+    <t>Standard
+JEP 456</t>
+  </si>
+  <si>
+    <t>Simple Source Files and Instance Main Methods</t>
+  </si>
+  <si>
+    <t>JEP 445: Unnamed Classes and Instance Main Methods (Preview) - JDK 21
+https://javaalmanac.io/features/jep445/</t>
   </si>
   <si>
     <t>Preview
 JEP 445</t>
-  </si>
-  <si>
-    <t>Simple Source Files and Instance Main Methods</t>
   </si>
   <si>
     <t>2nd
@@ -2211,7 +2240,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2252,9 +2281,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2264,9 +2290,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2279,12 +2302,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2294,12 +2311,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2317,41 +2328,20 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2675,873 +2665,862 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AG20"/>
+  <dimension ref="A1:AG19"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6363636363636" defaultRowHeight="50" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="63.0909090909091" style="30" customWidth="1"/>
-    <col min="2" max="2" width="54.5454545454545" style="31" customWidth="1"/>
-    <col min="3" max="33" width="10.6363636363636" style="32" customWidth="1"/>
-    <col min="34" max="16384" width="10.6363636363636" style="33" customWidth="1"/>
+    <col min="1" max="1" width="63.0909090909091" style="24" customWidth="1"/>
+    <col min="2" max="2" width="54.5454545454545" style="25" customWidth="1"/>
+    <col min="3" max="33" width="10.6363636363636" style="26" customWidth="1"/>
+    <col min="34" max="16384" width="10.6363636363636" style="27" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="10" customFormat="1" customHeight="1" spans="1:33">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="H1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="J1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="34" t="s">
+      <c r="K1" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="34" t="s">
+      <c r="L1" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="34" t="s">
+      <c r="M1" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="34" t="s">
+      <c r="N1" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="34" t="s">
+      <c r="O1" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="34" t="s">
+      <c r="P1" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="34" t="s">
+      <c r="Q1" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="34" t="s">
+      <c r="R1" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="34" t="s">
+      <c r="S1" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="34"/>
-      <c r="AG1" s="34"/>
-    </row>
-    <row r="2" s="26" customFormat="1" customHeight="1" spans="1:33">
-      <c r="A2" s="35" t="s">
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="28"/>
+      <c r="AC1" s="28"/>
+      <c r="AD1" s="28"/>
+      <c r="AE1" s="28"/>
+      <c r="AF1" s="28"/>
+      <c r="AG1" s="28"/>
+    </row>
+    <row r="2" s="22" customFormat="1" customHeight="1" spans="1:33">
+      <c r="A2" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="38" t="s">
+      <c r="B2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="37" t="s">
+      <c r="G2" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="47"/>
-      <c r="U2" s="47"/>
-      <c r="V2" s="47"/>
-      <c r="W2" s="47"/>
-      <c r="X2" s="47"/>
-      <c r="Y2" s="47"/>
-      <c r="Z2" s="47"/>
-      <c r="AA2" s="47"/>
-      <c r="AB2" s="47"/>
-      <c r="AC2" s="47"/>
-      <c r="AD2" s="47"/>
-      <c r="AE2" s="47"/>
-      <c r="AF2" s="47"/>
-      <c r="AG2" s="47"/>
-    </row>
-    <row r="3" s="27" customFormat="1" customHeight="1" spans="1:33">
-      <c r="A3" s="39" t="s">
+      <c r="H2" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="42" t="s">
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="34"/>
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="34"/>
+    </row>
+    <row r="3" s="23" customFormat="1" customHeight="1" spans="1:33">
+      <c r="A3" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="42" t="s">
+      <c r="B3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="41" t="s">
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="46"/>
-      <c r="S3" s="46"/>
-      <c r="T3" s="48"/>
-      <c r="U3" s="48"/>
-      <c r="V3" s="48"/>
-      <c r="W3" s="48"/>
-      <c r="X3" s="48"/>
-      <c r="Y3" s="48"/>
-      <c r="Z3" s="48"/>
-      <c r="AA3" s="48"/>
-      <c r="AB3" s="48"/>
-      <c r="AC3" s="48"/>
-      <c r="AD3" s="48"/>
-      <c r="AE3" s="48"/>
-      <c r="AF3" s="48"/>
-      <c r="AG3" s="48"/>
-    </row>
-    <row r="4" s="26" customFormat="1" customHeight="1" spans="1:33">
-      <c r="A4" s="35" t="s">
+      <c r="H3" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="38" t="s">
+      <c r="I3" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="38" t="s">
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="35"/>
+      <c r="U3" s="35"/>
+      <c r="V3" s="35"/>
+      <c r="W3" s="35"/>
+      <c r="X3" s="35"/>
+      <c r="Y3" s="35"/>
+      <c r="Z3" s="35"/>
+      <c r="AA3" s="35"/>
+      <c r="AB3" s="35"/>
+      <c r="AC3" s="35"/>
+      <c r="AD3" s="35"/>
+      <c r="AE3" s="35"/>
+      <c r="AF3" s="35"/>
+      <c r="AG3" s="35"/>
+    </row>
+    <row r="4" s="22" customFormat="1" customHeight="1" spans="1:33">
+      <c r="A4" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="37" t="s">
+      <c r="B4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="45"/>
-      <c r="S4" s="45"/>
-      <c r="T4" s="47"/>
-      <c r="U4" s="47"/>
-      <c r="V4" s="47"/>
-      <c r="W4" s="47"/>
-      <c r="X4" s="47"/>
-      <c r="Y4" s="47"/>
-      <c r="Z4" s="47"/>
-      <c r="AA4" s="47"/>
-      <c r="AB4" s="47"/>
-      <c r="AC4" s="47"/>
-      <c r="AD4" s="47"/>
-      <c r="AE4" s="47"/>
-      <c r="AF4" s="47"/>
-      <c r="AG4" s="47"/>
-    </row>
-    <row r="5" s="27" customFormat="1" customHeight="1" spans="1:33">
-      <c r="A5" s="39" t="s">
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="42" t="s">
+      <c r="I4" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="42" t="s">
+      <c r="J4" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="41" t="s">
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="34"/>
+      <c r="U4" s="34"/>
+      <c r="V4" s="34"/>
+      <c r="W4" s="34"/>
+      <c r="X4" s="34"/>
+      <c r="Y4" s="34"/>
+      <c r="Z4" s="34"/>
+      <c r="AA4" s="34"/>
+      <c r="AB4" s="34"/>
+      <c r="AC4" s="34"/>
+      <c r="AD4" s="34"/>
+      <c r="AE4" s="34"/>
+      <c r="AF4" s="34"/>
+      <c r="AG4" s="34"/>
+    </row>
+    <row r="5" s="23" customFormat="1" customHeight="1" spans="1:33">
+      <c r="A5" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="46"/>
-      <c r="Q5" s="46"/>
-      <c r="R5" s="46"/>
-      <c r="S5" s="46"/>
-      <c r="T5" s="48"/>
-      <c r="U5" s="48"/>
-      <c r="V5" s="48"/>
-      <c r="W5" s="48"/>
-      <c r="X5" s="48"/>
-      <c r="Y5" s="48"/>
-      <c r="Z5" s="48"/>
-      <c r="AA5" s="48"/>
-      <c r="AB5" s="48"/>
-      <c r="AC5" s="48"/>
-      <c r="AD5" s="48"/>
-      <c r="AE5" s="48"/>
-      <c r="AF5" s="48"/>
-      <c r="AG5" s="48"/>
-    </row>
-    <row r="6" s="26" customFormat="1" customHeight="1" spans="1:33">
-      <c r="A6" s="35" t="s">
+      <c r="B5" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="38" t="s">
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="J6" s="38" t="s">
+      <c r="I5" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="K6" s="37" t="s">
+      <c r="J5" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="L6" s="37"/>
-      <c r="M6" s="37"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="37"/>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="45"/>
-      <c r="R6" s="45"/>
-      <c r="S6" s="45"/>
-      <c r="T6" s="47"/>
-      <c r="U6" s="47"/>
-      <c r="V6" s="47"/>
-      <c r="W6" s="47"/>
-      <c r="X6" s="47"/>
-      <c r="Y6" s="47"/>
-      <c r="Z6" s="47"/>
-      <c r="AA6" s="47"/>
-      <c r="AB6" s="47"/>
-      <c r="AC6" s="47"/>
-      <c r="AD6" s="47"/>
-      <c r="AE6" s="47"/>
-      <c r="AF6" s="47"/>
-      <c r="AG6" s="47"/>
-    </row>
-    <row r="7" s="27" customFormat="1" customHeight="1" spans="1:33">
-      <c r="A7" s="39" t="s">
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="35"/>
+      <c r="V5" s="35"/>
+      <c r="W5" s="35"/>
+      <c r="X5" s="35"/>
+      <c r="Y5" s="35"/>
+      <c r="Z5" s="35"/>
+      <c r="AA5" s="35"/>
+      <c r="AB5" s="35"/>
+      <c r="AC5" s="35"/>
+      <c r="AD5" s="35"/>
+      <c r="AE5" s="35"/>
+      <c r="AF5" s="35"/>
+      <c r="AG5" s="35"/>
+    </row>
+    <row r="6" s="22" customFormat="1" customHeight="1" spans="1:33">
+      <c r="A6" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="42" t="s">
+      <c r="B6" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="L7" s="42" t="s">
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="M7" s="42" t="s">
+      <c r="J6" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="N7" s="42" t="s">
+      <c r="K6" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="O7" s="41" t="s">
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="29"/>
+      <c r="T6" s="34"/>
+      <c r="U6" s="34"/>
+      <c r="V6" s="34"/>
+      <c r="W6" s="34"/>
+      <c r="X6" s="34"/>
+      <c r="Y6" s="34"/>
+      <c r="Z6" s="34"/>
+      <c r="AA6" s="34"/>
+      <c r="AB6" s="34"/>
+      <c r="AC6" s="34"/>
+      <c r="AD6" s="34"/>
+      <c r="AE6" s="34"/>
+      <c r="AF6" s="34"/>
+      <c r="AG6" s="34"/>
+    </row>
+    <row r="7" s="23" customFormat="1" customHeight="1" spans="1:33">
+      <c r="A7" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="P7" s="46"/>
-      <c r="Q7" s="46"/>
-      <c r="R7" s="46"/>
-      <c r="S7" s="46"/>
-      <c r="T7" s="48"/>
-      <c r="U7" s="48"/>
-      <c r="V7" s="48"/>
-      <c r="W7" s="48"/>
-      <c r="X7" s="48"/>
-      <c r="Y7" s="48"/>
-      <c r="Z7" s="48"/>
-      <c r="AA7" s="48"/>
-      <c r="AB7" s="48"/>
-      <c r="AC7" s="48"/>
-      <c r="AD7" s="48"/>
-      <c r="AE7" s="48"/>
-      <c r="AF7" s="48"/>
-      <c r="AG7" s="48"/>
-    </row>
-    <row r="8" s="26" customFormat="1" customHeight="1" spans="1:33">
-      <c r="A8" s="35" t="s">
+      <c r="B7" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="38" t="s">
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="N8" s="38" t="s">
+      <c r="L7" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="O8" s="37" t="s">
+      <c r="M7" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="P8" s="45"/>
-      <c r="Q8" s="45"/>
-      <c r="R8" s="45"/>
-      <c r="S8" s="45"/>
-      <c r="T8" s="47"/>
-      <c r="U8" s="47"/>
-      <c r="V8" s="47"/>
-      <c r="W8" s="47"/>
-      <c r="X8" s="47"/>
-      <c r="Y8" s="47"/>
-      <c r="Z8" s="47"/>
-      <c r="AA8" s="47"/>
-      <c r="AB8" s="47"/>
-      <c r="AC8" s="47"/>
-      <c r="AD8" s="47"/>
-      <c r="AE8" s="47"/>
-      <c r="AF8" s="47"/>
-      <c r="AG8" s="47"/>
-    </row>
-    <row r="9" s="27" customFormat="1" customHeight="1" spans="1:33">
-      <c r="A9" s="39" t="s">
+      <c r="N7" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="40"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="41"/>
-      <c r="O9" s="42" t="s">
+      <c r="O7" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="P9" s="46"/>
-      <c r="Q9" s="46"/>
-      <c r="R9" s="46"/>
-      <c r="S9" s="46"/>
-      <c r="T9" s="48"/>
-      <c r="U9" s="48"/>
-      <c r="V9" s="48"/>
-      <c r="W9" s="48"/>
-      <c r="X9" s="48"/>
-      <c r="Y9" s="48"/>
-      <c r="Z9" s="48"/>
-      <c r="AA9" s="48"/>
-      <c r="AB9" s="48"/>
-      <c r="AC9" s="48"/>
-      <c r="AD9" s="48"/>
-      <c r="AE9" s="48"/>
-      <c r="AF9" s="48"/>
-      <c r="AG9" s="48"/>
-    </row>
-    <row r="10" s="26" customFormat="1" customHeight="1" spans="1:33">
-      <c r="A10" s="35" t="s">
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="35"/>
+      <c r="U7" s="35"/>
+      <c r="V7" s="35"/>
+      <c r="W7" s="35"/>
+      <c r="X7" s="35"/>
+      <c r="Y7" s="35"/>
+      <c r="Z7" s="35"/>
+      <c r="AA7" s="35"/>
+      <c r="AB7" s="35"/>
+      <c r="AC7" s="35"/>
+      <c r="AD7" s="35"/>
+      <c r="AE7" s="35"/>
+      <c r="AF7" s="35"/>
+      <c r="AG7" s="35"/>
+    </row>
+    <row r="8" s="22" customFormat="1" customHeight="1" spans="1:33">
+      <c r="A8" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="37"/>
-      <c r="N10" s="37"/>
-      <c r="O10" s="38" t="s">
+      <c r="B8" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="P10" s="45"/>
-      <c r="Q10" s="45"/>
-      <c r="R10" s="45"/>
-      <c r="S10" s="45"/>
-      <c r="T10" s="47"/>
-      <c r="U10" s="47"/>
-      <c r="V10" s="47"/>
-      <c r="W10" s="47"/>
-      <c r="X10" s="47"/>
-      <c r="Y10" s="47"/>
-      <c r="Z10" s="47"/>
-      <c r="AA10" s="47"/>
-      <c r="AB10" s="47"/>
-      <c r="AC10" s="47"/>
-      <c r="AD10" s="47"/>
-      <c r="AE10" s="47"/>
-      <c r="AF10" s="47"/>
-      <c r="AG10" s="47"/>
-    </row>
-    <row r="11" s="27" customFormat="1" customHeight="1" spans="1:33">
-      <c r="A11" s="39" t="s">
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="41"/>
-      <c r="O11" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="P11" s="42" t="s">
+      <c r="N8" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="Q11" s="42" t="s">
+      <c r="O8" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="R11" s="42" t="s">
+      <c r="P8" s="29"/>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="29"/>
+      <c r="T8" s="34"/>
+      <c r="U8" s="34"/>
+      <c r="V8" s="34"/>
+      <c r="W8" s="34"/>
+      <c r="X8" s="34"/>
+      <c r="Y8" s="34"/>
+      <c r="Z8" s="34"/>
+      <c r="AA8" s="34"/>
+      <c r="AB8" s="34"/>
+      <c r="AC8" s="34"/>
+      <c r="AD8" s="34"/>
+      <c r="AE8" s="34"/>
+      <c r="AF8" s="34"/>
+      <c r="AG8" s="34"/>
+    </row>
+    <row r="9" s="23" customFormat="1" customHeight="1" spans="1:33">
+      <c r="A9" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="S11" s="46"/>
-      <c r="T11" s="48"/>
-      <c r="U11" s="48"/>
-      <c r="V11" s="48"/>
-      <c r="W11" s="48"/>
-      <c r="X11" s="48"/>
-      <c r="Y11" s="48"/>
-      <c r="Z11" s="48"/>
-      <c r="AA11" s="48"/>
-      <c r="AB11" s="48"/>
-      <c r="AC11" s="48"/>
-      <c r="AD11" s="48"/>
-      <c r="AE11" s="48"/>
-      <c r="AF11" s="48"/>
-      <c r="AG11" s="48"/>
-    </row>
-    <row r="12" s="26" customFormat="1" customHeight="1" spans="1:33">
-      <c r="A12" s="35" t="s">
+      <c r="B9" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="37"/>
-      <c r="N12" s="37"/>
-      <c r="O12" s="38" t="s">
+      <c r="P9" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="P12" s="38" t="s">
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30"/>
+      <c r="S9" s="30"/>
+      <c r="T9" s="35"/>
+      <c r="U9" s="35"/>
+      <c r="V9" s="35"/>
+      <c r="W9" s="35"/>
+      <c r="X9" s="35"/>
+      <c r="Y9" s="35"/>
+      <c r="Z9" s="35"/>
+      <c r="AA9" s="35"/>
+      <c r="AB9" s="35"/>
+      <c r="AC9" s="35"/>
+      <c r="AD9" s="35"/>
+      <c r="AE9" s="35"/>
+      <c r="AF9" s="35"/>
+      <c r="AG9" s="35"/>
+    </row>
+    <row r="10" s="23" customFormat="1" customHeight="1" spans="1:33">
+      <c r="A10" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="Q12" s="38" t="s">
+      <c r="B10" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="R12" s="45"/>
-      <c r="S12" s="45"/>
-      <c r="T12" s="47"/>
-      <c r="U12" s="47"/>
-      <c r="V12" s="47"/>
-      <c r="W12" s="47"/>
-      <c r="X12" s="47"/>
-      <c r="Y12" s="47"/>
-      <c r="Z12" s="47"/>
-      <c r="AA12" s="47"/>
-      <c r="AB12" s="47"/>
-      <c r="AC12" s="47"/>
-      <c r="AD12" s="47"/>
-      <c r="AE12" s="47"/>
-      <c r="AF12" s="47"/>
-      <c r="AG12" s="47"/>
-    </row>
-    <row r="13" s="27" customFormat="1" customHeight="1" spans="1:33">
-      <c r="A13" s="39" t="s">
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="40"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="41"/>
-      <c r="N13" s="41"/>
-      <c r="O13" s="41"/>
-      <c r="P13" s="42" t="s">
+      <c r="P10" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="Q13" s="42" t="s">
+      <c r="Q10" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="R13" s="42" t="s">
+      <c r="R10" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="S13" s="46"/>
-      <c r="T13" s="48"/>
-      <c r="U13" s="48"/>
-      <c r="V13" s="48"/>
-      <c r="W13" s="48"/>
-      <c r="X13" s="48"/>
-      <c r="Y13" s="48"/>
-      <c r="Z13" s="48"/>
-      <c r="AA13" s="48"/>
-      <c r="AB13" s="48"/>
-      <c r="AC13" s="48"/>
-      <c r="AD13" s="48"/>
-      <c r="AE13" s="48"/>
-      <c r="AF13" s="48"/>
-      <c r="AG13" s="48"/>
-    </row>
-    <row r="14" s="26" customFormat="1" customHeight="1" spans="1:33">
-      <c r="A14" s="35" t="s">
+      <c r="S10" s="30"/>
+      <c r="T10" s="35"/>
+      <c r="U10" s="35"/>
+      <c r="V10" s="35"/>
+      <c r="W10" s="35"/>
+      <c r="X10" s="35"/>
+      <c r="Y10" s="35"/>
+      <c r="Z10" s="35"/>
+      <c r="AA10" s="35"/>
+      <c r="AB10" s="35"/>
+      <c r="AC10" s="35"/>
+      <c r="AD10" s="35"/>
+      <c r="AE10" s="35"/>
+      <c r="AF10" s="35"/>
+      <c r="AG10" s="35"/>
+    </row>
+    <row r="11" s="22" customFormat="1" customHeight="1" spans="1:33">
+      <c r="A11" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="37"/>
-      <c r="N14" s="37"/>
-      <c r="O14" s="37"/>
-      <c r="P14" s="45"/>
-      <c r="Q14" s="38" t="s">
+      <c r="B11" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="R14" s="38" t="s">
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="S14" s="45"/>
-      <c r="T14" s="47"/>
-      <c r="U14" s="47"/>
-      <c r="V14" s="47"/>
-      <c r="W14" s="47"/>
-      <c r="X14" s="47"/>
-      <c r="Y14" s="47"/>
-      <c r="Z14" s="47"/>
-      <c r="AA14" s="47"/>
-      <c r="AB14" s="47"/>
-      <c r="AC14" s="47"/>
-      <c r="AD14" s="47"/>
-      <c r="AE14" s="47"/>
-      <c r="AF14" s="47"/>
-      <c r="AG14" s="47"/>
-    </row>
-    <row r="15" s="27" customFormat="1" customHeight="1" spans="1:33">
-      <c r="A15" s="39" t="s">
+      <c r="P11" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="41"/>
-      <c r="N15" s="41"/>
-      <c r="O15" s="41"/>
-      <c r="P15" s="46"/>
-      <c r="Q15" s="42" t="s">
+      <c r="Q11" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="R15" s="42" t="s">
+      <c r="R11" s="29"/>
+      <c r="S11" s="29"/>
+      <c r="T11" s="34"/>
+      <c r="U11" s="34"/>
+      <c r="V11" s="34"/>
+      <c r="W11" s="34"/>
+      <c r="X11" s="34"/>
+      <c r="Y11" s="34"/>
+      <c r="Z11" s="34"/>
+      <c r="AA11" s="34"/>
+      <c r="AB11" s="34"/>
+      <c r="AC11" s="34"/>
+      <c r="AD11" s="34"/>
+      <c r="AE11" s="34"/>
+      <c r="AF11" s="34"/>
+      <c r="AG11" s="34"/>
+    </row>
+    <row r="12" s="23" customFormat="1" customHeight="1" spans="1:33">
+      <c r="A12" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="S15" s="46"/>
-      <c r="T15" s="48"/>
-      <c r="U15" s="48"/>
-      <c r="V15" s="48"/>
-      <c r="W15" s="48"/>
-      <c r="X15" s="48"/>
-      <c r="Y15" s="48"/>
-      <c r="Z15" s="48"/>
-      <c r="AA15" s="48"/>
-      <c r="AB15" s="48"/>
-      <c r="AC15" s="48"/>
-      <c r="AD15" s="48"/>
-      <c r="AE15" s="48"/>
-      <c r="AF15" s="48"/>
-      <c r="AG15" s="48"/>
-    </row>
-    <row r="16" s="28" customFormat="1" customHeight="1" spans="1:33">
-      <c r="A16" s="2"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="43"/>
-      <c r="N16" s="43"/>
-      <c r="O16" s="43"/>
-      <c r="P16" s="43"/>
-      <c r="Q16" s="43"/>
-      <c r="R16" s="43"/>
-      <c r="S16" s="43"/>
-      <c r="T16" s="43"/>
-      <c r="U16" s="43"/>
-      <c r="V16" s="43"/>
-      <c r="W16" s="43"/>
-      <c r="X16" s="43"/>
-      <c r="Y16" s="43"/>
-      <c r="Z16" s="43"/>
-      <c r="AA16" s="43"/>
-      <c r="AB16" s="43"/>
-      <c r="AC16" s="43"/>
-      <c r="AD16" s="43"/>
-      <c r="AE16" s="43"/>
-      <c r="AF16" s="43"/>
-      <c r="AG16" s="43"/>
-    </row>
-    <row r="17" s="29" customFormat="1" customHeight="1" spans="1:33">
-      <c r="A17" s="3"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="44"/>
-      <c r="M17" s="44"/>
-      <c r="N17" s="44"/>
-      <c r="O17" s="44"/>
-      <c r="P17" s="44"/>
-      <c r="Q17" s="44"/>
-      <c r="R17" s="44"/>
-      <c r="S17" s="44"/>
-      <c r="T17" s="44"/>
-      <c r="U17" s="44"/>
-      <c r="V17" s="44"/>
-      <c r="W17" s="44"/>
-      <c r="X17" s="44"/>
-      <c r="Y17" s="44"/>
-      <c r="Z17" s="44"/>
-      <c r="AA17" s="44"/>
-      <c r="AB17" s="44"/>
-      <c r="AC17" s="44"/>
-      <c r="AD17" s="44"/>
-      <c r="AE17" s="44"/>
-      <c r="AF17" s="44"/>
-      <c r="AG17" s="44"/>
-    </row>
-    <row r="18" s="28" customFormat="1" customHeight="1" spans="1:33">
-      <c r="A18" s="2"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="43"/>
-      <c r="N18" s="43"/>
-      <c r="O18" s="43"/>
-      <c r="P18" s="43"/>
-      <c r="Q18" s="43"/>
-      <c r="R18" s="43"/>
-      <c r="S18" s="43"/>
-      <c r="T18" s="43"/>
-      <c r="U18" s="43"/>
-      <c r="V18" s="43"/>
-      <c r="W18" s="43"/>
-      <c r="X18" s="43"/>
-      <c r="Y18" s="43"/>
-      <c r="Z18" s="43"/>
-      <c r="AA18" s="43"/>
-      <c r="AB18" s="43"/>
-      <c r="AC18" s="43"/>
-      <c r="AD18" s="43"/>
-      <c r="AE18" s="43"/>
-      <c r="AF18" s="43"/>
-      <c r="AG18" s="43"/>
-    </row>
-    <row r="19" s="29" customFormat="1" customHeight="1" spans="1:33">
-      <c r="A19" s="3"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="44"/>
-      <c r="K19" s="44"/>
-      <c r="L19" s="44"/>
-      <c r="M19" s="44"/>
-      <c r="N19" s="44"/>
-      <c r="O19" s="44"/>
-      <c r="P19" s="44"/>
-      <c r="Q19" s="44"/>
-      <c r="R19" s="44"/>
-      <c r="S19" s="44"/>
-      <c r="T19" s="44"/>
-      <c r="U19" s="44"/>
-      <c r="V19" s="44"/>
-      <c r="W19" s="44"/>
-      <c r="X19" s="44"/>
-      <c r="Y19" s="44"/>
-      <c r="Z19" s="44"/>
-      <c r="AA19" s="44"/>
-      <c r="AB19" s="44"/>
-      <c r="AC19" s="44"/>
-      <c r="AD19" s="44"/>
-      <c r="AE19" s="44"/>
-      <c r="AF19" s="44"/>
-      <c r="AG19" s="44"/>
-    </row>
-    <row r="20" s="28" customFormat="1" customHeight="1" spans="1:33">
-      <c r="A20" s="2"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="43"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="43"/>
-      <c r="N20" s="43"/>
-      <c r="O20" s="43"/>
-      <c r="P20" s="43"/>
-      <c r="Q20" s="43"/>
-      <c r="R20" s="43"/>
-      <c r="S20" s="43"/>
-      <c r="T20" s="43"/>
-      <c r="U20" s="43"/>
-      <c r="V20" s="43"/>
-      <c r="W20" s="43"/>
-      <c r="X20" s="43"/>
-      <c r="Y20" s="43"/>
-      <c r="Z20" s="43"/>
-      <c r="AA20" s="43"/>
-      <c r="AB20" s="43"/>
-      <c r="AC20" s="43"/>
-      <c r="AD20" s="43"/>
-      <c r="AE20" s="43"/>
-      <c r="AF20" s="43"/>
-      <c r="AG20" s="43"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q12" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="R12" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="S12" s="30"/>
+      <c r="T12" s="35"/>
+      <c r="U12" s="35"/>
+      <c r="V12" s="35"/>
+      <c r="W12" s="35"/>
+      <c r="X12" s="35"/>
+      <c r="Y12" s="35"/>
+      <c r="Z12" s="35"/>
+      <c r="AA12" s="35"/>
+      <c r="AB12" s="35"/>
+      <c r="AC12" s="35"/>
+      <c r="AD12" s="35"/>
+      <c r="AE12" s="35"/>
+      <c r="AF12" s="35"/>
+      <c r="AG12" s="35"/>
+    </row>
+    <row r="13" s="22" customFormat="1" customHeight="1" spans="1:33">
+      <c r="A13" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="32"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="R13" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="S13" s="29"/>
+      <c r="T13" s="34"/>
+      <c r="U13" s="34"/>
+      <c r="V13" s="34"/>
+      <c r="W13" s="34"/>
+      <c r="X13" s="34"/>
+      <c r="Y13" s="34"/>
+      <c r="Z13" s="34"/>
+      <c r="AA13" s="34"/>
+      <c r="AB13" s="34"/>
+      <c r="AC13" s="34"/>
+      <c r="AD13" s="34"/>
+      <c r="AE13" s="34"/>
+      <c r="AF13" s="34"/>
+      <c r="AG13" s="34"/>
+    </row>
+    <row r="14" s="23" customFormat="1" customHeight="1" spans="1:33">
+      <c r="A14" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="33"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="R14" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="S14" s="30"/>
+      <c r="T14" s="35"/>
+      <c r="U14" s="35"/>
+      <c r="V14" s="35"/>
+      <c r="W14" s="35"/>
+      <c r="X14" s="35"/>
+      <c r="Y14" s="35"/>
+      <c r="Z14" s="35"/>
+      <c r="AA14" s="35"/>
+      <c r="AB14" s="35"/>
+      <c r="AC14" s="35"/>
+      <c r="AD14" s="35"/>
+      <c r="AE14" s="35"/>
+      <c r="AF14" s="35"/>
+      <c r="AG14" s="35"/>
+    </row>
+    <row r="15" s="11" customFormat="1" customHeight="1" spans="1:33">
+      <c r="A15" s="2"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="34"/>
+      <c r="Q15" s="34"/>
+      <c r="R15" s="34"/>
+      <c r="S15" s="34"/>
+      <c r="T15" s="34"/>
+      <c r="U15" s="34"/>
+      <c r="V15" s="34"/>
+      <c r="W15" s="34"/>
+      <c r="X15" s="34"/>
+      <c r="Y15" s="34"/>
+      <c r="Z15" s="34"/>
+      <c r="AA15" s="34"/>
+      <c r="AB15" s="34"/>
+      <c r="AC15" s="34"/>
+      <c r="AD15" s="34"/>
+      <c r="AE15" s="34"/>
+      <c r="AF15" s="34"/>
+      <c r="AG15" s="34"/>
+    </row>
+    <row r="16" s="12" customFormat="1" customHeight="1" spans="1:33">
+      <c r="A16" s="3"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="35"/>
+      <c r="R16" s="35"/>
+      <c r="S16" s="35"/>
+      <c r="T16" s="35"/>
+      <c r="U16" s="35"/>
+      <c r="V16" s="35"/>
+      <c r="W16" s="35"/>
+      <c r="X16" s="35"/>
+      <c r="Y16" s="35"/>
+      <c r="Z16" s="35"/>
+      <c r="AA16" s="35"/>
+      <c r="AB16" s="35"/>
+      <c r="AC16" s="35"/>
+      <c r="AD16" s="35"/>
+      <c r="AE16" s="35"/>
+      <c r="AF16" s="35"/>
+      <c r="AG16" s="35"/>
+    </row>
+    <row r="17" s="11" customFormat="1" customHeight="1" spans="1:33">
+      <c r="A17" s="2"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="34"/>
+      <c r="S17" s="34"/>
+      <c r="T17" s="34"/>
+      <c r="U17" s="34"/>
+      <c r="V17" s="34"/>
+      <c r="W17" s="34"/>
+      <c r="X17" s="34"/>
+      <c r="Y17" s="34"/>
+      <c r="Z17" s="34"/>
+      <c r="AA17" s="34"/>
+      <c r="AB17" s="34"/>
+      <c r="AC17" s="34"/>
+      <c r="AD17" s="34"/>
+      <c r="AE17" s="34"/>
+      <c r="AF17" s="34"/>
+      <c r="AG17" s="34"/>
+    </row>
+    <row r="18" s="12" customFormat="1" customHeight="1" spans="1:33">
+      <c r="A18" s="3"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="35"/>
+      <c r="R18" s="35"/>
+      <c r="S18" s="35"/>
+      <c r="T18" s="35"/>
+      <c r="U18" s="35"/>
+      <c r="V18" s="35"/>
+      <c r="W18" s="35"/>
+      <c r="X18" s="35"/>
+      <c r="Y18" s="35"/>
+      <c r="Z18" s="35"/>
+      <c r="AA18" s="35"/>
+      <c r="AB18" s="35"/>
+      <c r="AC18" s="35"/>
+      <c r="AD18" s="35"/>
+      <c r="AE18" s="35"/>
+      <c r="AF18" s="35"/>
+      <c r="AG18" s="35"/>
+    </row>
+    <row r="19" s="11" customFormat="1" customHeight="1" spans="1:33">
+      <c r="A19" s="2"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="34"/>
+      <c r="P19" s="34"/>
+      <c r="Q19" s="34"/>
+      <c r="R19" s="34"/>
+      <c r="S19" s="34"/>
+      <c r="T19" s="34"/>
+      <c r="U19" s="34"/>
+      <c r="V19" s="34"/>
+      <c r="W19" s="34"/>
+      <c r="X19" s="34"/>
+      <c r="Y19" s="34"/>
+      <c r="Z19" s="34"/>
+      <c r="AA19" s="34"/>
+      <c r="AB19" s="34"/>
+      <c r="AC19" s="34"/>
+      <c r="AD19" s="34"/>
+      <c r="AE19" s="34"/>
+      <c r="AF19" s="34"/>
+      <c r="AG19" s="34"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B12" r:id="rId1" display="https://javaalmanac.io/features/stringtemplates/"/>
+    <hyperlink ref="B11" r:id="rId1" display="https://javaalmanac.io/features/stringtemplates/"/>
+    <hyperlink ref="B9" r:id="rId2" display="https://javaalmanac.io/features/unnamedvariables/"/>
+    <hyperlink ref="B2" r:id="rId3" display="https://javaalmanac.io/features/switch/"/>
+    <hyperlink ref="B3" r:id="rId4" display="https://javaalmanac.io/features/textblocks/"/>
+    <hyperlink ref="B4" r:id="rId5" display="https://javaalmanac.io/features/records/"/>
+    <hyperlink ref="B5" r:id="rId6" display="https://javaalmanac.io/features/instanceof-patterns/"/>
+    <hyperlink ref="B6" r:id="rId7" display="https://javaalmanac.io/features/sealedtypes/"/>
+    <hyperlink ref="B7" r:id="rId8" display="https://javaalmanac.io/features/typepatterns/"/>
+    <hyperlink ref="B8" r:id="rId9" display="https://javaalmanac.io/features/recordpatterns/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3559,15 +3538,15 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A$1:A$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6363636363636" defaultRowHeight="50" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="33.1818181818182" style="13" customWidth="1"/>
-    <col min="2" max="2" width="87.1818181818182" style="13" customWidth="1"/>
-    <col min="3" max="19" width="10.6363636363636" style="14" customWidth="1"/>
-    <col min="20" max="16384" width="10.6363636363636" style="15" customWidth="1"/>
+    <col min="1" max="1" width="33.1818181818182" style="9" customWidth="1"/>
+    <col min="2" max="2" width="87.1818181818182" style="9" customWidth="1"/>
+    <col min="3" max="19" width="10.6363636363636" style="13" customWidth="1"/>
+    <col min="20" max="16384" width="10.6363636363636" style="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="10" customFormat="1" customHeight="1" spans="1:19">
@@ -3577,661 +3556,661 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="L1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="M1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="N1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="O1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="P1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="Q1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="16" t="s">
+      <c r="R1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="16" t="s">
+      <c r="S1" s="15" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" s="11" customFormat="1" customHeight="1" spans="1:19">
-      <c r="A2" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
+      <c r="A2" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
     </row>
     <row r="3" s="12" customFormat="1" customHeight="1" spans="1:19">
-      <c r="A3" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23"/>
-      <c r="S3" s="23"/>
+      <c r="A3" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
     </row>
     <row r="4" s="11" customFormat="1" customHeight="1" spans="1:19">
-      <c r="A4" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="I4" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="J4" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
+      <c r="A4" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
     </row>
     <row r="5" s="12" customFormat="1" customHeight="1" spans="1:19">
-      <c r="A5" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
-      <c r="S5" s="23"/>
+      <c r="A5" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
     </row>
     <row r="6" s="11" customFormat="1" customHeight="1" spans="1:19">
-      <c r="A6" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="L6" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="M6" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="N6" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
+      <c r="A6" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="L6" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="M6" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="N6" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
     </row>
     <row r="7" s="12" customFormat="1" customHeight="1" spans="1:19">
-      <c r="A7" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="K7" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="L7" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="M7" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="N7" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="O7" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="P7" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q7" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="R7" s="25" t="s">
+      <c r="A7" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="S7" s="23"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="K7" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="L7" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="M7" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="N7" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="O7" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="P7" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q7" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="R7" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="S7" s="20"/>
     </row>
     <row r="8" s="11" customFormat="1" customHeight="1" spans="1:19">
-      <c r="A8" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="N8" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="O8" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="P8" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q8" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="R8" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="S8" s="20"/>
+      <c r="A8" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="N8" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="O8" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="P8" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q8" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="R8" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="S8" s="18"/>
     </row>
     <row r="9" s="12" customFormat="1" customHeight="1" spans="1:19">
-      <c r="A9" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="N9" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23"/>
-      <c r="S9" s="23"/>
+      <c r="A9" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="N9" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
     </row>
     <row r="10" s="11" customFormat="1" customHeight="1" spans="1:19">
-      <c r="A10" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="O10" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="P10" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q10" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="R10" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="S10" s="20"/>
+      <c r="A10" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="O10" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="P10" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q10" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="R10" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="S10" s="18"/>
     </row>
     <row r="11" s="12" customFormat="1" customHeight="1" spans="1:19">
-      <c r="A11" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q11" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="R11" s="23"/>
-      <c r="S11" s="23"/>
+      <c r="A11" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q11" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
     </row>
     <row r="12" s="11" customFormat="1" customHeight="1" spans="1:19">
-      <c r="A12" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q12" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="R12" s="20"/>
-      <c r="S12" s="20"/>
+      <c r="A12" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q12" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18"/>
     </row>
     <row r="13" s="12" customFormat="1" customHeight="1" spans="1:19">
-      <c r="A13" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="S13" s="23"/>
+      <c r="A13" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="S13" s="20"/>
     </row>
     <row r="14" s="11" customFormat="1" customHeight="1" spans="1:19">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="20"/>
-      <c r="S14" s="20"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="18"/>
     </row>
     <row r="15" s="12" customFormat="1" customHeight="1" spans="1:19">
-      <c r="A15" s="22"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
-      <c r="S15" s="23"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
     </row>
     <row r="16" s="11" customFormat="1" customHeight="1" spans="1:19">
-      <c r="A16" s="18"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="20"/>
-      <c r="S16" s="20"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="18"/>
+      <c r="S16" s="18"/>
     </row>
     <row r="17" s="12" customFormat="1" customHeight="1" spans="1:19">
-      <c r="A17" s="22"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
-      <c r="S17" s="23"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="20"/>
     </row>
     <row r="18" s="11" customFormat="1" customHeight="1" spans="1:19">
-      <c r="A18" s="18"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="20"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="20"/>
-      <c r="Q18" s="20"/>
-      <c r="R18" s="20"/>
-      <c r="S18" s="20"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="18"/>
     </row>
     <row r="19" s="12" customFormat="1" customHeight="1" spans="1:19">
-      <c r="A19" s="22"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="23"/>
-      <c r="S19" s="23"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="20"/>
     </row>
     <row r="20" s="11" customFormat="1" customHeight="1" spans="1:19">
-      <c r="A20" s="18"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="20"/>
-      <c r="Q20" s="20"/>
-      <c r="R20" s="20"/>
-      <c r="S20" s="20"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="18"/>
     </row>
     <row r="21" s="12" customFormat="1" customHeight="1" spans="1:19">
-      <c r="A21" s="22"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="23"/>
-      <c r="S21" s="23"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="20"/>
+      <c r="R21" s="20"/>
+      <c r="S21" s="20"/>
     </row>
     <row r="22" s="11" customFormat="1" customHeight="1" spans="1:19">
-      <c r="A22" s="18"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="20"/>
-      <c r="Q22" s="20"/>
-      <c r="R22" s="20"/>
-      <c r="S22" s="20"/>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="18"/>
+      <c r="S22" s="18"/>
     </row>
     <row r="23" s="12" customFormat="1" customHeight="1" spans="1:19">
-      <c r="A23" s="22"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="23"/>
-      <c r="O23" s="23"/>
-      <c r="P23" s="23"/>
-      <c r="Q23" s="23"/>
-      <c r="R23" s="23"/>
-      <c r="S23" s="23"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="20"/>
+      <c r="R23" s="20"/>
+      <c r="S23" s="20"/>
     </row>
     <row r="24" s="11" customFormat="1" customHeight="1" spans="1:19">
-      <c r="A24" s="18"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="20"/>
-      <c r="O24" s="20"/>
-      <c r="P24" s="20"/>
-      <c r="Q24" s="20"/>
-      <c r="R24" s="20"/>
-      <c r="S24" s="20"/>
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="18"/>
+      <c r="S24" s="18"/>
     </row>
     <row r="25" s="12" customFormat="1" customHeight="1" spans="1:19">
-      <c r="A25" s="22"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="23"/>
-      <c r="O25" s="23"/>
-      <c r="P25" s="23"/>
-      <c r="Q25" s="23"/>
-      <c r="R25" s="23"/>
-      <c r="S25" s="23"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="20"/>
+      <c r="S25" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4439,33 +4418,33 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="E2" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/289","JEP 289")</f>
@@ -4475,16 +4454,16 @@
     </row>
     <row r="3" s="3" customFormat="1" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="E3" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/259","JEP 259")</f>
@@ -4494,16 +4473,16 @@
     </row>
     <row r="4" s="2" customFormat="1" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="E4" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/290","JEP 290")</f>
@@ -4513,16 +4492,16 @@
     </row>
     <row r="5" s="3" customFormat="1" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="E5" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/102","JEP 102")</f>
@@ -4532,16 +4511,16 @@
     </row>
     <row r="6" s="2" customFormat="1" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="E6" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/274","JEP 274")</f>
@@ -4551,16 +4530,16 @@
     </row>
     <row r="7" s="3" customFormat="1" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="E7" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/276","JEP 276")</f>
@@ -4570,16 +4549,16 @@
     </row>
     <row r="8" s="2" customFormat="1" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="E8" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/110","JEP 110")</f>
@@ -4589,16 +4568,16 @@
     </row>
     <row r="9" s="3" customFormat="1" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="E9" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/266","JEP 266")</f>
@@ -4608,16 +4587,16 @@
     </row>
     <row r="10" s="2" customFormat="1" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="E10" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/264","JEP 264")</f>
@@ -4627,16 +4606,16 @@
     </row>
     <row r="11" s="3" customFormat="1" spans="1:6">
       <c r="A11" s="3" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="E11" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/269","JEP 269")</f>
@@ -4646,16 +4625,16 @@
     </row>
     <row r="12" s="2" customFormat="1" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="E12" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/226","JEP 226")</f>
@@ -4665,16 +4644,16 @@
     </row>
     <row r="13" s="3" customFormat="1" spans="1:6">
       <c r="A13" s="3" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="E13" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/252","JEP 252")</f>
@@ -4684,16 +4663,16 @@
     </row>
     <row r="14" s="2" customFormat="1" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="E14" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/236","JEP 236")</f>
@@ -4703,16 +4682,16 @@
     </row>
     <row r="15" s="3" customFormat="1" spans="1:6">
       <c r="A15" s="3" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="E15" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/292","JEP 292")</f>
@@ -4722,16 +4701,16 @@
     </row>
     <row r="16" s="2" customFormat="1" spans="1:6">
       <c r="A16" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="E16" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/229","JEP 229")</f>
@@ -4741,16 +4720,16 @@
     </row>
     <row r="17" s="3" customFormat="1" spans="1:6">
       <c r="A17" s="3" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E17" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/232","JEP 232")</f>
@@ -4760,16 +4739,16 @@
     </row>
     <row r="18" s="2" customFormat="1" spans="1:6">
       <c r="A18" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="E18" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/273","JEP 273")</f>
@@ -4779,16 +4758,16 @@
     </row>
     <row r="19" s="3" customFormat="1" spans="1:6">
       <c r="A19" s="3" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="E19" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/287","JEP 287")</f>
@@ -4798,16 +4777,16 @@
     </row>
     <row r="20" s="2" customFormat="1" spans="1:6">
       <c r="A20" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="E20" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/288","JEP 288")</f>
@@ -4817,16 +4796,16 @@
     </row>
     <row r="21" s="3" customFormat="1" spans="1:6">
       <c r="A21" s="3" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="E21" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/246","JEP 246")</f>
@@ -4836,16 +4815,16 @@
     </row>
     <row r="22" s="2" customFormat="1" spans="1:6">
       <c r="A22" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="E22" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/219","JEP 219")</f>
@@ -4855,16 +4834,16 @@
     </row>
     <row r="23" s="3" customFormat="1" spans="1:6">
       <c r="A23" s="3" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="E23" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/244","JEP 244")</f>
@@ -4874,16 +4853,16 @@
     </row>
     <row r="24" s="2" customFormat="1" spans="1:6">
       <c r="A24" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="E24" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/249","JEP 249")</f>
@@ -4893,16 +4872,16 @@
     </row>
     <row r="25" s="3" customFormat="1" spans="1:6">
       <c r="A25" s="3" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="E25" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/214","JEP 214")</f>
@@ -4912,16 +4891,16 @@
     </row>
     <row r="26" s="2" customFormat="1" spans="1:6">
       <c r="A26" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="E26" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/248","JEP 248")</f>
@@ -4931,16 +4910,16 @@
     </row>
     <row r="27" s="3" customFormat="1" spans="1:6">
       <c r="A27" s="3" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="E27" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/271","JEP 271")</f>
@@ -4950,16 +4929,16 @@
     </row>
     <row r="28" s="2" customFormat="1" spans="1:6">
       <c r="A28" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="E28" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/278","JEP 278")</f>
@@ -4969,16 +4948,16 @@
     </row>
     <row r="29" s="3" customFormat="1" spans="1:6">
       <c r="A29" s="3" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="E29" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/291","JEP 291")</f>
@@ -4988,16 +4967,16 @@
     </row>
     <row r="30" s="2" customFormat="1" spans="1:6">
       <c r="A30" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="E30" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/254","JEP 254")</f>
@@ -5007,14 +4986,14 @@
     </row>
     <row r="31" s="3" customFormat="1" spans="1:6">
       <c r="A31" s="3" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="E31" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/200","JEP 200")</f>
@@ -5024,14 +5003,14 @@
     </row>
     <row r="32" s="2" customFormat="1" spans="1:6">
       <c r="A32" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="E32" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/201","JEP 201")</f>
@@ -5041,14 +5020,14 @@
     </row>
     <row r="33" s="3" customFormat="1" spans="1:6">
       <c r="A33" s="3" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="E33" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/220","JEP 220")</f>
@@ -5058,14 +5037,14 @@
     </row>
     <row r="34" s="2" customFormat="1" spans="1:6">
       <c r="A34" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="E34" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/261","JEP 261")</f>
@@ -5075,16 +5054,16 @@
     </row>
     <row r="35" s="3" customFormat="1" spans="1:6">
       <c r="A35" s="3" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="E35" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/165","JEP 165")</f>
@@ -5094,16 +5073,16 @@
     </row>
     <row r="36" s="2" customFormat="1" spans="1:6">
       <c r="A36" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="E36" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/197","JEP 197")</f>
@@ -5113,16 +5092,16 @@
     </row>
     <row r="37" s="3" customFormat="1" spans="1:6">
       <c r="A37" s="3" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="E37" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/233","JEP 233")</f>
@@ -5132,16 +5111,16 @@
     </row>
     <row r="38" s="2" customFormat="1" spans="1:6">
       <c r="A38" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="E38" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/237","JEP 237")</f>
@@ -5151,16 +5130,16 @@
     </row>
     <row r="39" s="3" customFormat="1" spans="1:6">
       <c r="A39" s="3" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="E39" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/243","JEP 243")</f>
@@ -5170,16 +5149,16 @@
     </row>
     <row r="40" s="2" customFormat="1" spans="1:6">
       <c r="A40" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="E40" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/294","JEP 294")</f>
@@ -5189,16 +5168,16 @@
     </row>
     <row r="41" s="3" customFormat="1" spans="1:6">
       <c r="A41" s="3" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="E41" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/295","JEP 295")</f>
@@ -5208,16 +5187,16 @@
     </row>
     <row r="42" s="2" customFormat="1" spans="1:6">
       <c r="A42" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="E42" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/297","JEP 297")</f>
@@ -5227,16 +5206,16 @@
     </row>
     <row r="43" s="3" customFormat="1" spans="1:6">
       <c r="A43" s="3" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="E43" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/143","JEP 143")</f>
@@ -5246,16 +5225,16 @@
     </row>
     <row r="44" s="2" customFormat="1" spans="1:6">
       <c r="A44" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="E44" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/245","JEP 245")</f>
@@ -5265,16 +5244,16 @@
     </row>
     <row r="45" s="3" customFormat="1" spans="1:6">
       <c r="A45" s="3" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="E45" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/250","JEP 250")</f>
@@ -5284,16 +5263,16 @@
     </row>
     <row r="46" s="2" customFormat="1" spans="1:6">
       <c r="A46" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="E46" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/158","JEP 158")</f>
@@ -5303,16 +5282,16 @@
     </row>
     <row r="47" s="3" customFormat="1" spans="1:6">
       <c r="A47" s="3" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="E47" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/228","JEP 228")</f>
@@ -5322,16 +5301,16 @@
     </row>
     <row r="48" s="2" customFormat="1" spans="1:6">
       <c r="A48" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="E48" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/281","JEP 281")</f>
@@ -5341,16 +5320,16 @@
     </row>
     <row r="49" s="3" customFormat="1" spans="1:6">
       <c r="A49" s="3" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="E49" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/193","JEP 193")</f>
@@ -5360,16 +5339,16 @@
     </row>
     <row r="50" s="2" customFormat="1" spans="1:6">
       <c r="A50" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="E50" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/227","JEP 227")</f>
@@ -5379,16 +5358,16 @@
     </row>
     <row r="51" s="3" customFormat="1" spans="1:6">
       <c r="A51" s="3" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="E51" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/267","JEP 267")</f>
@@ -5398,16 +5377,16 @@
     </row>
     <row r="52" s="2" customFormat="1" spans="1:6">
       <c r="A52" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="E52" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/277","JEP 277")</f>
@@ -5417,16 +5396,16 @@
     </row>
     <row r="53" s="3" customFormat="1" spans="1:6">
       <c r="A53" s="3" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="E53" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/285","JEP 285")</f>
@@ -5436,16 +5415,16 @@
     </row>
     <row r="54" s="2" customFormat="1" spans="1:6">
       <c r="A54" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="E54" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/251","JEP 251")</f>
@@ -5455,16 +5434,16 @@
     </row>
     <row r="55" s="3" customFormat="1" spans="1:6">
       <c r="A55" s="3" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="E55" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/258","JEP 258")</f>
@@ -5474,16 +5453,16 @@
     </row>
     <row r="56" s="2" customFormat="1" spans="1:6">
       <c r="A56" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="E56" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/265","JEP 265")</f>
@@ -5493,16 +5472,16 @@
     </row>
     <row r="57" s="3" customFormat="1" spans="1:6">
       <c r="A57" s="3" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="E57" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/263","JEP 263")</f>
@@ -5512,16 +5491,16 @@
     </row>
     <row r="58" s="2" customFormat="1" spans="1:6">
       <c r="A58" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="E58" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/272","JEP 272")</f>
@@ -5531,16 +5510,16 @@
     </row>
     <row r="59" s="3" customFormat="1" spans="1:6">
       <c r="A59" s="3" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="E59" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/256","JEP 256")</f>
@@ -5550,16 +5529,16 @@
     </row>
     <row r="60" s="2" customFormat="1" spans="1:6">
       <c r="A60" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="E60" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/262","JEP 262")</f>
@@ -5569,16 +5548,16 @@
     </row>
     <row r="61" s="3" customFormat="1" spans="1:6">
       <c r="A61" s="3" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="E61" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/240","JEP 240")</f>
@@ -5588,16 +5567,16 @@
     </row>
     <row r="62" s="2" customFormat="1" spans="1:6">
       <c r="A62" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="E62" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/241","JEP 241")</f>
@@ -5607,16 +5586,16 @@
     </row>
     <row r="63" s="3" customFormat="1" spans="1:6">
       <c r="A63" s="3" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="E63" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/275","JEP 275")</f>
@@ -5626,16 +5605,16 @@
     </row>
     <row r="64" s="2" customFormat="1" spans="1:6">
       <c r="A64" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="E64" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/299","JEP 299")</f>
@@ -5645,16 +5624,16 @@
     </row>
     <row r="65" s="3" customFormat="1" spans="1:6">
       <c r="A65" s="3" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="E65" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/298","JEP 298")</f>
@@ -5664,16 +5643,16 @@
     </row>
     <row r="66" s="2" customFormat="1" spans="1:6">
       <c r="A66" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="E66" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/284","JEP 284")</f>
@@ -5683,16 +5662,16 @@
     </row>
     <row r="67" s="3" customFormat="1" spans="1:6">
       <c r="A67" s="3" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="E67" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/253","JEP 253")</f>
@@ -5702,16 +5681,16 @@
     </row>
     <row r="68" s="2" customFormat="1" spans="1:6">
       <c r="A68" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="E68" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/257","JEP 257")</f>
@@ -5721,16 +5700,16 @@
     </row>
     <row r="69" s="3" customFormat="1" spans="1:6">
       <c r="A69" s="3" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="E69" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/283","JEP 283")</f>
@@ -5740,16 +5719,16 @@
     </row>
     <row r="70" s="2" customFormat="1" spans="1:6">
       <c r="A70" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="E70" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/255","JEP 255")</f>
@@ -5759,16 +5738,16 @@
     </row>
     <row r="71" s="3" customFormat="1" spans="1:6">
       <c r="A71" s="3" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="E71" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/268","JEP 268")</f>
@@ -5778,14 +5757,14 @@
     </row>
     <row r="72" s="2" customFormat="1" spans="1:6">
       <c r="A72" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="E72" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/223","JEP 223")</f>
@@ -5795,14 +5774,14 @@
     </row>
     <row r="73" s="3" customFormat="1" spans="1:6">
       <c r="A73" s="3" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="C73" s="3"/>
       <c r="D73" s="3" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="E73" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/260","JEP 260")</f>
@@ -5812,14 +5791,14 @@
     </row>
     <row r="74" s="2" customFormat="1" spans="1:6">
       <c r="A74" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="E74" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/270","JEP 270")</f>
@@ -5829,14 +5808,14 @@
     </row>
     <row r="75" s="3" customFormat="1" spans="1:6">
       <c r="A75" s="3" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="3" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="E75" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/279","JEP 279")</f>
@@ -5846,16 +5825,16 @@
     </row>
     <row r="76" s="2" customFormat="1" spans="1:6">
       <c r="A76" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="E76" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/212","JEP 212")</f>
@@ -5865,16 +5844,16 @@
     </row>
     <row r="77" s="3" customFormat="1" spans="1:6">
       <c r="A77" s="3" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="E77" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/238","JEP 238")</f>
@@ -5884,16 +5863,16 @@
     </row>
     <row r="78" s="2" customFormat="1" spans="1:6">
       <c r="A78" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="E78" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/199","JEP 199")</f>
@@ -5903,16 +5882,16 @@
     </row>
     <row r="79" s="3" customFormat="1" spans="1:6">
       <c r="A79" s="3" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="E79" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/211","JEP 211")</f>
@@ -5922,16 +5901,16 @@
     </row>
     <row r="80" s="2" customFormat="1" spans="1:6">
       <c r="A80" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="E80" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/213","JEP 213")</f>
@@ -5941,16 +5920,16 @@
     </row>
     <row r="81" s="3" customFormat="1" spans="1:6">
       <c r="A81" s="3" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="E81" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/215","JEP 215")</f>
@@ -5960,16 +5939,16 @@
     </row>
     <row r="82" s="2" customFormat="1" spans="1:6">
       <c r="A82" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="E82" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/216","JEP 216")</f>
@@ -5979,16 +5958,16 @@
     </row>
     <row r="83" s="3" customFormat="1" spans="1:6">
       <c r="A83" s="3" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="E83" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/217","JEP 217")</f>
@@ -5998,16 +5977,16 @@
     </row>
     <row r="84" s="2" customFormat="1" spans="1:6">
       <c r="A84" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="E84" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/235","JEP 235")</f>
@@ -6017,16 +5996,16 @@
     </row>
     <row r="85" s="3" customFormat="1" spans="1:6">
       <c r="A85" s="3" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="E85" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/247","JEP 247")</f>
@@ -6036,16 +6015,16 @@
     </row>
     <row r="86" s="2" customFormat="1" spans="1:6">
       <c r="A86" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="E86" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/280","JEP 280")</f>
@@ -6055,16 +6034,16 @@
     </row>
     <row r="87" s="3" customFormat="1" spans="1:6">
       <c r="A87" s="3" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="E87" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/221","JEP 221")</f>
@@ -6074,16 +6053,16 @@
     </row>
     <row r="88" s="2" customFormat="1" spans="1:6">
       <c r="A88" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="E88" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/224","JEP 224")</f>
@@ -6093,16 +6072,16 @@
     </row>
     <row r="89" s="3" customFormat="1" spans="1:6">
       <c r="A89" s="3" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="E89" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/225","JEP 225")</f>
@@ -6112,16 +6091,16 @@
     </row>
     <row r="90" s="2" customFormat="1" spans="1:6">
       <c r="A90" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="E90" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/282","JEP 282")</f>
@@ -6131,16 +6110,16 @@
     </row>
     <row r="91" s="3" customFormat="1" spans="1:6">
       <c r="A91" s="3" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="E91" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/222","JEP 222")</f>
@@ -6150,16 +6129,16 @@
     </row>
     <row r="92" s="2" customFormat="1" spans="1:6">
       <c r="A92" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="E92" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/231","JEP 231")</f>
@@ -6172,13 +6151,13 @@
         <v>3</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="E93" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/314","JEP 314")</f>
@@ -6191,13 +6170,13 @@
         <v>3</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="E94" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/319","JEP 319")</f>
@@ -6210,13 +6189,13 @@
         <v>3</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="E95" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/304","JEP 304")</f>
@@ -6229,13 +6208,13 @@
         <v>3</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="E96" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/307","JEP 307")</f>
@@ -6248,13 +6227,13 @@
         <v>3</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="E97" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/316","JEP 316")</f>
@@ -6267,13 +6246,13 @@
         <v>3</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="E98" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/317","JEP 317")</f>
@@ -6286,13 +6265,13 @@
         <v>3</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="E99" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/310","JEP 310")</f>
@@ -6305,13 +6284,13 @@
         <v>3</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="E100" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/312","JEP 312")</f>
@@ -6324,13 +6303,13 @@
         <v>3</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="E101" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/322","JEP 322")</f>
@@ -6343,13 +6322,13 @@
         <v>3</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="E102" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/286","JEP 286")</f>
@@ -6362,13 +6341,13 @@
         <v>3</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="E103" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/296","JEP 296")</f>
@@ -6381,13 +6360,13 @@
         <v>3</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="E104" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/313","JEP 313")</f>
@@ -6400,13 +6379,13 @@
         <v>4</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="E105" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/321","JEP 321")</f>
@@ -6419,13 +6398,13 @@
         <v>4</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="E106" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/335","JEP 335")</f>
@@ -6438,13 +6417,13 @@
         <v>4</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="E107" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/324","JEP 324")</f>
@@ -6457,13 +6436,13 @@
         <v>4</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="E108" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/329","JEP 329")</f>
@@ -6476,13 +6455,13 @@
         <v>4</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="E109" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/332","JEP 332")</f>
@@ -6495,13 +6474,13 @@
         <v>4</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="E110" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/318","JEP 318")</f>
@@ -6514,13 +6493,13 @@
         <v>4</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="E111" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/333","JEP 333")</f>
@@ -6533,13 +6512,13 @@
         <v>4</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E112" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/315","JEP 315")</f>
@@ -6552,13 +6531,13 @@
         <v>4</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="E113" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/328","JEP 328")</f>
@@ -6571,13 +6550,13 @@
         <v>4</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E114" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/331","JEP 331")</f>
@@ -6590,13 +6569,13 @@
         <v>4</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="E115" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/181","JEP 181")</f>
@@ -6609,13 +6588,13 @@
         <v>4</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="E116" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/309","JEP 309")</f>
@@ -6628,13 +6607,13 @@
         <v>4</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="E117" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/327","JEP 327")</f>
@@ -6647,13 +6626,13 @@
         <v>4</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="E118" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/320","JEP 320")</f>
@@ -6666,13 +6645,13 @@
         <v>4</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="E119" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/323","JEP 323")</f>
@@ -6685,13 +6664,13 @@
         <v>4</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="E120" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/336","JEP 336")</f>
@@ -6704,13 +6683,13 @@
         <v>4</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="E121" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/330","JEP 330")</f>
@@ -6755,19 +6734,19 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:6">
@@ -6775,13 +6754,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="E2" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/334","JEP 334")</f>
@@ -6794,13 +6773,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="E3" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/189","JEP 189")</f>
@@ -6813,13 +6792,13 @@
         <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="E4" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/344","JEP 344")</f>
@@ -6832,13 +6811,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="E5" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/346","JEP 346")</f>
@@ -6851,13 +6830,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="E6" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/340","JEP 340")</f>
@@ -6870,13 +6849,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="E7" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/341","JEP 341")</f>
@@ -6889,13 +6868,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="E8" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/230","JEP 230")</f>
@@ -6908,13 +6887,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="E9" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/325","JEP 325")</f>
@@ -6927,13 +6906,13 @@
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="E10" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/353","JEP 353")</f>
@@ -6946,13 +6925,13 @@
         <v>6</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="E11" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/351","JEP 351")</f>
@@ -6965,13 +6944,13 @@
         <v>6</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="E12" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/350","JEP 350")</f>
@@ -6984,13 +6963,13 @@
         <v>6</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="E13" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/354","JEP 354")</f>
@@ -7003,13 +6982,13 @@
         <v>6</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="E14" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/355","JEP 355")</f>
@@ -7022,13 +7001,13 @@
         <v>7</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="E15" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/370","JEP 370")</f>
@@ -7041,13 +7020,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="E16" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/352","JEP 352")</f>
@@ -7060,13 +7039,13 @@
         <v>7</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="E17" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/345","JEP 345")</f>
@@ -7079,13 +7058,13 @@
         <v>7</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="E18" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/363","JEP 363")</f>
@@ -7098,13 +7077,13 @@
         <v>7</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="E19" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/364","JEP 364")</f>
@@ -7117,13 +7096,13 @@
         <v>7</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="E20" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/365","JEP 365")</f>
@@ -7136,13 +7115,13 @@
         <v>7</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="E21" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/366","JEP 366")</f>
@@ -7155,13 +7134,13 @@
         <v>7</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="E22" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/349","JEP 349")</f>
@@ -7174,13 +7153,13 @@
         <v>7</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="E23" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/358","JEP 358")</f>
@@ -7193,13 +7172,13 @@
         <v>7</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="E24" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/305","JEP 305")</f>
@@ -7212,13 +7191,13 @@
         <v>7</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="E25" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/359","JEP 359")</f>
@@ -7231,13 +7210,13 @@
         <v>7</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="E26" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/361","JEP 361")</f>
@@ -7250,13 +7229,13 @@
         <v>7</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="E27" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/368","JEP 368")</f>
@@ -7269,11 +7248,11 @@
         <v>7</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="E28" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/362","JEP 362")</f>
@@ -7286,13 +7265,13 @@
         <v>7</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="E29" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/367","JEP 367")</f>
@@ -7305,13 +7284,13 @@
         <v>7</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="E30" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/343","JEP 343")</f>
@@ -7324,13 +7303,13 @@
         <v>8</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="E31" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/383","JEP 383")</f>
@@ -7343,13 +7322,13 @@
         <v>8</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="E32" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/371","JEP 371")</f>
@@ -7362,13 +7341,13 @@
         <v>8</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="E33" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/373","JEP 373")</f>
@@ -7381,13 +7360,13 @@
         <v>8</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="E34" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/385","JEP 385")</f>
@@ -7400,13 +7379,13 @@
         <v>8</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="E35" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/372","JEP 372")</f>
@@ -7419,13 +7398,13 @@
         <v>8</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="E36" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/339","JEP 339")</f>
@@ -7438,13 +7417,13 @@
         <v>8</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="E37" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/377","JEP 377")</f>
@@ -7457,13 +7436,13 @@
         <v>8</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="E38" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/379","JEP 379")</f>
@@ -7476,13 +7455,13 @@
         <v>8</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="E39" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/381","JEP 381")</f>
@@ -7495,13 +7474,13 @@
         <v>8</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="E40" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/374","JEP 374")</f>
@@ -7514,13 +7493,13 @@
         <v>8</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="E41" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/360","JEP 360")</f>
@@ -7533,13 +7512,13 @@
         <v>8</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="E42" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/375","JEP 375")</f>
@@ -7552,13 +7531,13 @@
         <v>8</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E43" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/378","JEP 378")</f>
@@ -7571,13 +7550,13 @@
         <v>8</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="E44" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/384","JEP 384")</f>
@@ -7590,13 +7569,13 @@
         <v>9</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="E45" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/389","JEP 389")</f>
@@ -7609,13 +7588,13 @@
         <v>9</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="E46" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/393","JEP 393")</f>
@@ -7628,13 +7607,13 @@
         <v>9</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="E47" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/380","JEP 380")</f>
@@ -7647,13 +7626,13 @@
         <v>9</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="E48" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/376","JEP 376")</f>
@@ -7666,13 +7645,13 @@
         <v>9</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="E49" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/338","JEP 338")</f>
@@ -7685,13 +7664,13 @@
         <v>9</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="E50" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/347","JEP 347")</f>
@@ -7704,13 +7683,13 @@
         <v>9</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="E51" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/386","JEP 386")</f>
@@ -7723,13 +7702,13 @@
         <v>9</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="E52" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/387","JEP 387")</f>
@@ -7742,13 +7721,13 @@
         <v>9</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="E53" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/388","JEP 388")</f>
@@ -7761,13 +7740,13 @@
         <v>9</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E54" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/394","JEP 394")</f>
@@ -7780,13 +7759,13 @@
         <v>9</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E55" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/395","JEP 395")</f>
@@ -7799,13 +7778,13 @@
         <v>9</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="E56" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/397","JEP 397")</f>
@@ -7818,13 +7797,13 @@
         <v>9</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="E57" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/357","JEP 357")</f>
@@ -7837,13 +7816,13 @@
         <v>9</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="E58" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/369","JEP 369")</f>
@@ -7856,11 +7835,11 @@
         <v>9</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="3" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="E59" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/390","JEP 390")</f>
@@ -7873,11 +7852,11 @@
         <v>9</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="E60" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/396","JEP 396")</f>
@@ -7890,13 +7869,13 @@
         <v>9</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="E61" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/392","JEP 392")</f>
@@ -7909,13 +7888,13 @@
         <v>10</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="E62" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/412","JEP 412")</f>
@@ -7928,13 +7907,13 @@
         <v>10</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="E63" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/414","JEP 414")</f>
@@ -7947,13 +7926,13 @@
         <v>10</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="E64" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/415","JEP 415")</f>
@@ -7966,13 +7945,13 @@
         <v>10</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="E65" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/407","JEP 407")</f>
@@ -7985,13 +7964,13 @@
         <v>10</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="E66" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/356","JEP 356")</f>
@@ -8004,13 +7983,13 @@
         <v>10</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="E67" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/411","JEP 411")</f>
@@ -8023,13 +8002,13 @@
         <v>10</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="E68" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/410","JEP 410")</f>
@@ -8042,13 +8021,13 @@
         <v>10</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="E69" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/391","JEP 391")</f>
@@ -8061,13 +8040,13 @@
         <v>10</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="E70" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/306","JEP 306")</f>
@@ -8080,13 +8059,13 @@
         <v>10</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="E71" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/406","JEP 406")</f>
@@ -8099,13 +8078,13 @@
         <v>10</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E72" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/409","JEP 409")</f>
@@ -8118,13 +8097,13 @@
         <v>10</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="E73" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/382","JEP 382")</f>
@@ -8137,13 +8116,13 @@
         <v>10</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="E74" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/398","JEP 398")</f>
@@ -8156,11 +8135,11 @@
         <v>10</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="3" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="E75" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/403","JEP 403")</f>
@@ -8186,11 +8165,11 @@
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D23" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A29" sqref="$A29:$XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -8205,19 +8184,19 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:6">
@@ -8225,13 +8204,13 @@
         <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="E2" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/417","JEP 417")</f>
@@ -8244,13 +8223,13 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="E3" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/419","JEP 419")</f>
@@ -8263,13 +8242,13 @@
         <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="E4" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/416","JEP 416")</f>
@@ -8282,13 +8261,13 @@
         <v>11</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="E5" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/408","JEP 408")</f>
@@ -8301,13 +8280,13 @@
         <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="E6" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/418","JEP 418")</f>
@@ -8320,13 +8299,13 @@
         <v>11</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="E7" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/400","JEP 400")</f>
@@ -8339,13 +8318,13 @@
         <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="E8" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/421","JEP 421")</f>
@@ -8358,13 +8337,13 @@
         <v>11</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="E9" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/420","JEP 420")</f>
@@ -8377,13 +8356,13 @@
         <v>11</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="E10" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/413","JEP 413")</f>
@@ -8396,13 +8375,13 @@
         <v>12</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="E11" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/424","JEP 424")</f>
@@ -8415,13 +8394,13 @@
         <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="E12" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/425","JEP 425")</f>
@@ -8434,13 +8413,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="E13" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/426","JEP 426")</f>
@@ -8453,13 +8432,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="E14" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/428","JEP 428")</f>
@@ -8472,13 +8451,13 @@
         <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="E15" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/422","JEP 422")</f>
@@ -8491,13 +8470,13 @@
         <v>12</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="E16" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/405","JEP 405")</f>
@@ -8510,13 +8489,13 @@
         <v>12</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="E17" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/427","JEP 427")</f>
@@ -8529,13 +8508,13 @@
         <v>13</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="E18" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/429","JEP 429")</f>
@@ -8548,13 +8527,13 @@
         <v>13</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="E19" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/434","JEP 434")</f>
@@ -8567,13 +8546,13 @@
         <v>13</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="E20" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/436","JEP 436")</f>
@@ -8586,13 +8565,13 @@
         <v>13</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="E21" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/437","JEP 437")</f>
@@ -8605,13 +8584,13 @@
         <v>13</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="E22" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/438","JEP 438")</f>
@@ -8624,13 +8603,13 @@
         <v>13</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="E23" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/432","JEP 432")</f>
@@ -8643,13 +8622,13 @@
         <v>13</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="E24" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/433","JEP 433")</f>
@@ -8662,13 +8641,13 @@
         <v>14</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="E25" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/442","JEP 442")</f>
@@ -8681,13 +8660,13 @@
         <v>14</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="E26" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/444","JEP 444")</f>
@@ -8700,13 +8679,13 @@
         <v>14</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="E27" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/446","JEP 446")</f>
@@ -8719,13 +8698,13 @@
         <v>14</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="E28" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/453","JEP 453")</f>
@@ -8738,13 +8717,13 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="E29" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/431","JEP 431")</f>
@@ -8757,13 +8736,13 @@
         <v>14</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="E30" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/452","JEP 452")</f>
@@ -8776,13 +8755,13 @@
         <v>14</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="E31" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/439","JEP 439")</f>
@@ -8795,13 +8774,13 @@
         <v>14</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="E32" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/449","JEP 449")</f>
@@ -8814,13 +8793,13 @@
         <v>14</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="E33" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/451","JEP 451")</f>
@@ -8833,13 +8812,13 @@
         <v>14</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="E34" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/430","JEP 430")</f>
@@ -8852,13 +8831,13 @@
         <v>14</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E35" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/440","JEP 440")</f>
@@ -8871,13 +8850,13 @@
         <v>14</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E36" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/441","JEP 441")</f>
@@ -8890,13 +8869,13 @@
         <v>14</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="E37" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/443","JEP 443")</f>
@@ -8909,13 +8888,13 @@
         <v>14</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="E38" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/445","JEP 445")</f>
@@ -8930,7 +8909,7 @@
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="E39" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/448","JEP 448")</f>
@@ -8955,8 +8934,8 @@
   <sheetPr/>
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D26" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -8975,19 +8954,19 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:6">
@@ -8995,13 +8974,13 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="E2" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/460","JEP 460")</f>
@@ -9014,13 +8993,13 @@
         <v>15</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="E3" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/462","JEP 462")</f>
@@ -9033,13 +9012,13 @@
         <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="E4" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/464","JEP 464")</f>
@@ -9052,13 +9031,13 @@
         <v>15</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="E5" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/457","JEP 457")</f>
@@ -9071,13 +9050,13 @@
         <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="E6" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/454","JEP 454")</f>
@@ -9090,13 +9069,13 @@
         <v>15</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="E7" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/461","JEP 461")</f>
@@ -9109,13 +9088,13 @@
         <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="E8" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/423","JEP 423")</f>
@@ -9128,13 +9107,13 @@
         <v>15</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="E9" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/447","JEP 447")</f>
@@ -9147,13 +9126,13 @@
         <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="E10" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/456","JEP 456")</f>
@@ -9166,13 +9145,13 @@
         <v>15</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="E11" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/459","JEP 459")</f>
@@ -9185,13 +9164,13 @@
         <v>15</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="E12" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/463","JEP 463")</f>
@@ -9204,13 +9183,13 @@
         <v>15</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="E13" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/458","JEP 458")</f>
@@ -9223,13 +9202,13 @@
         <v>16</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="E14" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/469","JEP 469")</f>
@@ -9242,13 +9221,13 @@
         <v>16</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="E15" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/471","JEP 471")</f>
@@ -9261,13 +9240,13 @@
         <v>16</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="E16" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/480","JEP 480")</f>
@@ -9280,13 +9259,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="E17" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/481","JEP 481")</f>
@@ -9299,13 +9278,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="E18" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/466","JEP 466")</f>
@@ -9318,13 +9297,13 @@
         <v>16</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="E19" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/474","JEP 474")</f>
@@ -9337,13 +9316,13 @@
         <v>16</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="E20" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/455","JEP 455")</f>
@@ -9356,13 +9335,13 @@
         <v>16</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="E21" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/476","JEP 476")</f>
@@ -9375,13 +9354,13 @@
         <v>16</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="E22" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/477","JEP 477")</f>
@@ -9394,13 +9373,13 @@
         <v>16</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="E23" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/482","JEP 482")</f>
@@ -9413,13 +9392,13 @@
         <v>16</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="E24" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/467","JEP 467")</f>
@@ -9434,7 +9413,7 @@
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="E25" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/473","JEP 473")</f>
@@ -9447,13 +9426,13 @@
         <v>17</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="E26" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/472","JEP 472")</f>
@@ -9466,13 +9445,13 @@
         <v>17</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="E27" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/487","JEP 487")</f>
@@ -9485,13 +9464,13 @@
         <v>17</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="E28" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/489","JEP 489")</f>
@@ -9504,13 +9483,13 @@
         <v>17</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="E29" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/498","JEP 498")</f>
@@ -9523,13 +9502,13 @@
         <v>17</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>440</v>
+        <v>449</v>
       </c>
       <c r="E30" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/499","JEP 499")</f>
@@ -9542,13 +9521,13 @@
         <v>17</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E31" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/484","JEP 484")</f>
@@ -9561,13 +9540,13 @@
         <v>17</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="E32" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/485","JEP 485")</f>
@@ -9580,13 +9559,13 @@
         <v>17</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="E33" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/486","JEP 486")</f>
@@ -9599,13 +9578,13 @@
         <v>17</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="E34" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/497","JEP 497")</f>
@@ -9618,13 +9597,13 @@
         <v>17</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="E35" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/478","JEP 478")</f>
@@ -9637,13 +9616,13 @@
         <v>17</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="E36" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/496","JEP 496")</f>
@@ -9656,13 +9635,13 @@
         <v>17</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="E37" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/404","JEP 404")</f>
@@ -9675,13 +9654,13 @@
         <v>17</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="E38" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/490","JEP 490")</f>
@@ -9694,13 +9673,13 @@
         <v>17</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="E39" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/475","JEP 475")</f>
@@ -9713,13 +9692,13 @@
         <v>17</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="E40" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/479","JEP 479")</f>
@@ -9732,13 +9711,13 @@
         <v>17</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="E41" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/501","JEP 501")</f>
@@ -9751,13 +9730,13 @@
         <v>17</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="E42" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/450","JEP 450")</f>
@@ -9770,13 +9749,13 @@
         <v>17</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="E43" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/483","JEP 483")</f>
@@ -9789,13 +9768,13 @@
         <v>17</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="E44" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/491","JEP 491")</f>
@@ -9808,13 +9787,13 @@
         <v>17</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="E45" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/488","JEP 488")</f>
@@ -9827,13 +9806,13 @@
         <v>17</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="E46" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/492","JEP 492")</f>
@@ -9846,13 +9825,13 @@
         <v>17</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="E47" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/494","JEP 494")</f>
@@ -9865,13 +9844,13 @@
         <v>17</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="E48" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/495","JEP 495")</f>
@@ -9884,13 +9863,13 @@
         <v>17</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="E49" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/493","JEP 493")</f>

--- a/README.xlsx
+++ b/README.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21550" windowHeight="10080"/>
+    <workbookView windowWidth="21550" windowHeight="10080" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Language" sheetId="1" r:id="rId1"/>
@@ -37,12 +37,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1312" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="469">
   <si>
     <t>Feature</t>
   </si>
   <si>
-    <t>Remarks</t>
+    <t>Reference</t>
   </si>
   <si>
     <t>JDK 9</t>
@@ -256,8 +256,7 @@
     <t>Simple Source Files and Instance Main Methods</t>
   </si>
   <si>
-    <t>JEP 445: Unnamed Classes and Instance Main Methods (Preview) - JDK 21
-https://javaalmanac.io/features/jep445/</t>
+    <t>https://javaalmanac.io/features/jep445/</t>
   </si>
   <si>
     <t>Preview
@@ -339,6 +338,9 @@
 JEP 488</t>
   </si>
   <si>
+    <t>Remarks</t>
+  </si>
+  <si>
     <t>HTTP/2 Client</t>
   </si>
   <si>
@@ -517,6 +519,12 @@
 JEP 487</t>
   </si>
   <si>
+    <t>Sequenced Collections</t>
+  </si>
+  <si>
+    <t>JEP 431</t>
+  </si>
+  <si>
     <t>Class-File API</t>
   </si>
   <si>
@@ -1383,9 +1391,6 @@
   </si>
   <si>
     <t>Structured Concurrency (Preview)</t>
-  </si>
-  <si>
-    <t>Sequenced Collections</t>
   </si>
   <si>
     <t>Key Encapsulation Mechanism API</t>
@@ -2240,7 +2245,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2307,10 +2312,10 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2322,32 +2327,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2401,6 +2397,22 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -2667,12 +2679,12 @@
   <sheetPr/>
   <dimension ref="A1:AG19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6363636363636" defaultRowHeight="50" customHeight="1"/>
@@ -2680,142 +2692,143 @@
     <col min="1" max="1" width="63.0909090909091" style="24" customWidth="1"/>
     <col min="2" max="2" width="54.5454545454545" style="25" customWidth="1"/>
     <col min="3" max="33" width="10.6363636363636" style="26" customWidth="1"/>
-    <col min="34" max="16384" width="10.6363636363636" style="27" customWidth="1"/>
+    <col min="34" max="16383" width="10.6363636363636" style="23" customWidth="1"/>
+    <col min="16384" max="16384" width="10.6363636363636" style="23"/>
   </cols>
   <sheetData>
     <row r="1" s="10" customFormat="1" customHeight="1" spans="1:33">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="J1" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="K1" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="28" t="s">
+      <c r="L1" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="28" t="s">
+      <c r="M1" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="28" t="s">
+      <c r="N1" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="28" t="s">
+      <c r="O1" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="28" t="s">
+      <c r="P1" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="28" t="s">
+      <c r="Q1" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="28" t="s">
+      <c r="R1" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="28" t="s">
+      <c r="S1" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28"/>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="28"/>
-      <c r="AB1" s="28"/>
-      <c r="AC1" s="28"/>
-      <c r="AD1" s="28"/>
-      <c r="AE1" s="28"/>
-      <c r="AF1" s="28"/>
-      <c r="AG1" s="28"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="27"/>
+      <c r="AA1" s="27"/>
+      <c r="AB1" s="27"/>
+      <c r="AC1" s="27"/>
+      <c r="AD1" s="27"/>
+      <c r="AE1" s="27"/>
+      <c r="AF1" s="27"/>
+      <c r="AG1" s="27"/>
     </row>
     <row r="2" s="22" customFormat="1" customHeight="1" spans="1:33">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="17" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34"/>
-      <c r="V2" s="34"/>
-      <c r="W2" s="34"/>
-      <c r="X2" s="34"/>
-      <c r="Y2" s="34"/>
-      <c r="Z2" s="34"/>
-      <c r="AA2" s="34"/>
-      <c r="AB2" s="34"/>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="34"/>
-      <c r="AE2" s="34"/>
-      <c r="AF2" s="34"/>
-      <c r="AG2" s="34"/>
-    </row>
-    <row r="3" s="23" customFormat="1" customHeight="1" spans="1:33">
-      <c r="A3" s="19" t="s">
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="26"/>
+      <c r="AF2" s="26"/>
+      <c r="AG2" s="26"/>
+    </row>
+    <row r="3" s="22" customFormat="1" customHeight="1" spans="1:33">
+      <c r="A3" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="29" t="s">
         <v>25</v>
       </c>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
       <c r="E3" s="30"/>
       <c r="F3" s="30"/>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="31" t="s">
         <v>27</v>
       </c>
       <c r="I3" s="30" t="s">
@@ -2831,71 +2844,71 @@
       <c r="Q3" s="30"/>
       <c r="R3" s="30"/>
       <c r="S3" s="30"/>
-      <c r="T3" s="35"/>
-      <c r="U3" s="35"/>
-      <c r="V3" s="35"/>
-      <c r="W3" s="35"/>
-      <c r="X3" s="35"/>
-      <c r="Y3" s="35"/>
-      <c r="Z3" s="35"/>
-      <c r="AA3" s="35"/>
-      <c r="AB3" s="35"/>
-      <c r="AC3" s="35"/>
-      <c r="AD3" s="35"/>
-      <c r="AE3" s="35"/>
-      <c r="AF3" s="35"/>
-      <c r="AG3" s="35"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="26"/>
+      <c r="X3" s="26"/>
+      <c r="Y3" s="26"/>
+      <c r="Z3" s="26"/>
+      <c r="AA3" s="26"/>
+      <c r="AB3" s="26"/>
+      <c r="AC3" s="26"/>
+      <c r="AD3" s="26"/>
+      <c r="AE3" s="26"/>
+      <c r="AF3" s="26"/>
+      <c r="AG3" s="26"/>
     </row>
     <row r="4" s="22" customFormat="1" customHeight="1" spans="1:33">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="17" t="s">
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="29" t="s">
+      <c r="J4" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="29"/>
-      <c r="S4" s="29"/>
-      <c r="T4" s="34"/>
-      <c r="U4" s="34"/>
-      <c r="V4" s="34"/>
-      <c r="W4" s="34"/>
-      <c r="X4" s="34"/>
-      <c r="Y4" s="34"/>
-      <c r="Z4" s="34"/>
-      <c r="AA4" s="34"/>
-      <c r="AB4" s="34"/>
-      <c r="AC4" s="34"/>
-      <c r="AD4" s="34"/>
-      <c r="AE4" s="34"/>
-      <c r="AF4" s="34"/>
-      <c r="AG4" s="34"/>
-    </row>
-    <row r="5" s="23" customFormat="1" customHeight="1" spans="1:33">
-      <c r="A5" s="19" t="s">
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="30"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="26"/>
+      <c r="X4" s="26"/>
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="26"/>
+      <c r="AA4" s="26"/>
+      <c r="AB4" s="26"/>
+      <c r="AC4" s="26"/>
+      <c r="AD4" s="26"/>
+      <c r="AE4" s="26"/>
+      <c r="AF4" s="26"/>
+      <c r="AG4" s="26"/>
+    </row>
+    <row r="5" s="22" customFormat="1" customHeight="1" spans="1:33">
+      <c r="A5" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="29" t="s">
         <v>35</v>
       </c>
       <c r="C5" s="30"/>
@@ -2903,10 +2916,10 @@
       <c r="E5" s="30"/>
       <c r="F5" s="30"/>
       <c r="G5" s="30"/>
-      <c r="H5" s="21" t="s">
+      <c r="H5" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="I5" s="31" t="s">
         <v>37</v>
       </c>
       <c r="J5" s="30" t="s">
@@ -2921,71 +2934,71 @@
       <c r="Q5" s="30"/>
       <c r="R5" s="30"/>
       <c r="S5" s="30"/>
-      <c r="T5" s="35"/>
-      <c r="U5" s="35"/>
-      <c r="V5" s="35"/>
-      <c r="W5" s="35"/>
-      <c r="X5" s="35"/>
-      <c r="Y5" s="35"/>
-      <c r="Z5" s="35"/>
-      <c r="AA5" s="35"/>
-      <c r="AB5" s="35"/>
-      <c r="AC5" s="35"/>
-      <c r="AD5" s="35"/>
-      <c r="AE5" s="35"/>
-      <c r="AF5" s="35"/>
-      <c r="AG5" s="35"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="26"/>
+      <c r="W5" s="26"/>
+      <c r="X5" s="26"/>
+      <c r="Y5" s="26"/>
+      <c r="Z5" s="26"/>
+      <c r="AA5" s="26"/>
+      <c r="AB5" s="26"/>
+      <c r="AC5" s="26"/>
+      <c r="AD5" s="26"/>
+      <c r="AE5" s="26"/>
+      <c r="AF5" s="26"/>
+      <c r="AG5" s="26"/>
     </row>
     <row r="6" s="22" customFormat="1" customHeight="1" spans="1:33">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="17" t="s">
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="J6" s="17" t="s">
+      <c r="J6" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="K6" s="29" t="s">
+      <c r="K6" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="29"/>
-      <c r="S6" s="29"/>
-      <c r="T6" s="34"/>
-      <c r="U6" s="34"/>
-      <c r="V6" s="34"/>
-      <c r="W6" s="34"/>
-      <c r="X6" s="34"/>
-      <c r="Y6" s="34"/>
-      <c r="Z6" s="34"/>
-      <c r="AA6" s="34"/>
-      <c r="AB6" s="34"/>
-      <c r="AC6" s="34"/>
-      <c r="AD6" s="34"/>
-      <c r="AE6" s="34"/>
-      <c r="AF6" s="34"/>
-      <c r="AG6" s="34"/>
-    </row>
-    <row r="7" s="23" customFormat="1" customHeight="1" spans="1:33">
-      <c r="A7" s="19" t="s">
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="26"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="26"/>
+      <c r="W6" s="26"/>
+      <c r="X6" s="26"/>
+      <c r="Y6" s="26"/>
+      <c r="Z6" s="26"/>
+      <c r="AA6" s="26"/>
+      <c r="AB6" s="26"/>
+      <c r="AC6" s="26"/>
+      <c r="AD6" s="26"/>
+      <c r="AE6" s="26"/>
+      <c r="AF6" s="26"/>
+      <c r="AG6" s="26"/>
+    </row>
+    <row r="7" s="22" customFormat="1" customHeight="1" spans="1:33">
+      <c r="A7" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="29" t="s">
         <v>45</v>
       </c>
       <c r="C7" s="30"/>
@@ -2996,16 +3009,16 @@
       <c r="H7" s="30"/>
       <c r="I7" s="30"/>
       <c r="J7" s="30"/>
-      <c r="K7" s="21" t="s">
+      <c r="K7" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="L7" s="21" t="s">
+      <c r="L7" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="M7" s="21" t="s">
+      <c r="M7" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="N7" s="21" t="s">
+      <c r="N7" s="31" t="s">
         <v>49</v>
       </c>
       <c r="O7" s="30" t="s">
@@ -3015,71 +3028,71 @@
       <c r="Q7" s="30"/>
       <c r="R7" s="30"/>
       <c r="S7" s="30"/>
-      <c r="T7" s="35"/>
-      <c r="U7" s="35"/>
-      <c r="V7" s="35"/>
-      <c r="W7" s="35"/>
-      <c r="X7" s="35"/>
-      <c r="Y7" s="35"/>
-      <c r="Z7" s="35"/>
-      <c r="AA7" s="35"/>
-      <c r="AB7" s="35"/>
-      <c r="AC7" s="35"/>
-      <c r="AD7" s="35"/>
-      <c r="AE7" s="35"/>
-      <c r="AF7" s="35"/>
-      <c r="AG7" s="35"/>
+      <c r="T7" s="26"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="26"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="26"/>
+      <c r="AA7" s="26"/>
+      <c r="AB7" s="26"/>
+      <c r="AC7" s="26"/>
+      <c r="AD7" s="26"/>
+      <c r="AE7" s="26"/>
+      <c r="AF7" s="26"/>
+      <c r="AG7" s="26"/>
     </row>
     <row r="8" s="22" customFormat="1" customHeight="1" spans="1:33">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="17" t="s">
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="N8" s="17" t="s">
+      <c r="N8" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="O8" s="29" t="s">
+      <c r="O8" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="29"/>
-      <c r="R8" s="29"/>
-      <c r="S8" s="29"/>
-      <c r="T8" s="34"/>
-      <c r="U8" s="34"/>
-      <c r="V8" s="34"/>
-      <c r="W8" s="34"/>
-      <c r="X8" s="34"/>
-      <c r="Y8" s="34"/>
-      <c r="Z8" s="34"/>
-      <c r="AA8" s="34"/>
-      <c r="AB8" s="34"/>
-      <c r="AC8" s="34"/>
-      <c r="AD8" s="34"/>
-      <c r="AE8" s="34"/>
-      <c r="AF8" s="34"/>
-      <c r="AG8" s="34"/>
-    </row>
-    <row r="9" s="23" customFormat="1" customHeight="1" spans="1:33">
-      <c r="A9" s="19" t="s">
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="30"/>
+      <c r="S8" s="30"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
+      <c r="W8" s="26"/>
+      <c r="X8" s="26"/>
+      <c r="Y8" s="26"/>
+      <c r="Z8" s="26"/>
+      <c r="AA8" s="26"/>
+      <c r="AB8" s="26"/>
+      <c r="AC8" s="26"/>
+      <c r="AD8" s="26"/>
+      <c r="AE8" s="26"/>
+      <c r="AF8" s="26"/>
+      <c r="AG8" s="26"/>
+    </row>
+    <row r="9" s="22" customFormat="1" customHeight="1" spans="1:33">
+      <c r="A9" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="29" t="s">
         <v>57</v>
       </c>
       <c r="C9" s="30"/>
@@ -3094,7 +3107,7 @@
       <c r="L9" s="30"/>
       <c r="M9" s="30"/>
       <c r="N9" s="30"/>
-      <c r="O9" s="21" t="s">
+      <c r="O9" s="31" t="s">
         <v>58</v>
       </c>
       <c r="P9" s="30" t="s">
@@ -3103,26 +3116,26 @@
       <c r="Q9" s="30"/>
       <c r="R9" s="30"/>
       <c r="S9" s="30"/>
-      <c r="T9" s="35"/>
-      <c r="U9" s="35"/>
-      <c r="V9" s="35"/>
-      <c r="W9" s="35"/>
-      <c r="X9" s="35"/>
-      <c r="Y9" s="35"/>
-      <c r="Z9" s="35"/>
-      <c r="AA9" s="35"/>
-      <c r="AB9" s="35"/>
-      <c r="AC9" s="35"/>
-      <c r="AD9" s="35"/>
-      <c r="AE9" s="35"/>
-      <c r="AF9" s="35"/>
-      <c r="AG9" s="35"/>
-    </row>
-    <row r="10" s="23" customFormat="1" customHeight="1" spans="1:33">
-      <c r="A10" s="19" t="s">
+      <c r="T9" s="26"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="26"/>
+      <c r="W9" s="26"/>
+      <c r="X9" s="26"/>
+      <c r="Y9" s="26"/>
+      <c r="Z9" s="26"/>
+      <c r="AA9" s="26"/>
+      <c r="AB9" s="26"/>
+      <c r="AC9" s="26"/>
+      <c r="AD9" s="26"/>
+      <c r="AE9" s="26"/>
+      <c r="AF9" s="26"/>
+      <c r="AG9" s="26"/>
+    </row>
+    <row r="10" s="22" customFormat="1" customHeight="1" spans="1:33">
+      <c r="A10" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="32" t="s">
         <v>61</v>
       </c>
       <c r="C10" s="30"/>
@@ -3137,84 +3150,84 @@
       <c r="L10" s="30"/>
       <c r="M10" s="30"/>
       <c r="N10" s="30"/>
-      <c r="O10" s="21" t="s">
+      <c r="O10" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="P10" s="21" t="s">
+      <c r="P10" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="Q10" s="21" t="s">
+      <c r="Q10" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="R10" s="21" t="s">
+      <c r="R10" s="31" t="s">
         <v>65</v>
       </c>
       <c r="S10" s="30"/>
-      <c r="T10" s="35"/>
-      <c r="U10" s="35"/>
-      <c r="V10" s="35"/>
-      <c r="W10" s="35"/>
-      <c r="X10" s="35"/>
-      <c r="Y10" s="35"/>
-      <c r="Z10" s="35"/>
-      <c r="AA10" s="35"/>
-      <c r="AB10" s="35"/>
-      <c r="AC10" s="35"/>
-      <c r="AD10" s="35"/>
-      <c r="AE10" s="35"/>
-      <c r="AF10" s="35"/>
-      <c r="AG10" s="35"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="26"/>
+      <c r="W10" s="26"/>
+      <c r="X10" s="26"/>
+      <c r="Y10" s="26"/>
+      <c r="Z10" s="26"/>
+      <c r="AA10" s="26"/>
+      <c r="AB10" s="26"/>
+      <c r="AC10" s="26"/>
+      <c r="AD10" s="26"/>
+      <c r="AE10" s="26"/>
+      <c r="AF10" s="26"/>
+      <c r="AG10" s="26"/>
     </row>
     <row r="11" s="22" customFormat="1" customHeight="1" spans="1:33">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="17" t="s">
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="P11" s="17" t="s">
+      <c r="P11" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="Q11" s="17" t="s">
+      <c r="Q11" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="R11" s="29"/>
-      <c r="S11" s="29"/>
-      <c r="T11" s="34"/>
-      <c r="U11" s="34"/>
-      <c r="V11" s="34"/>
-      <c r="W11" s="34"/>
-      <c r="X11" s="34"/>
-      <c r="Y11" s="34"/>
-      <c r="Z11" s="34"/>
-      <c r="AA11" s="34"/>
-      <c r="AB11" s="34"/>
-      <c r="AC11" s="34"/>
-      <c r="AD11" s="34"/>
-      <c r="AE11" s="34"/>
-      <c r="AF11" s="34"/>
-      <c r="AG11" s="34"/>
-    </row>
-    <row r="12" s="23" customFormat="1" customHeight="1" spans="1:33">
-      <c r="A12" s="19" t="s">
+      <c r="R11" s="30"/>
+      <c r="S11" s="30"/>
+      <c r="T11" s="26"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="26"/>
+      <c r="W11" s="26"/>
+      <c r="X11" s="26"/>
+      <c r="Y11" s="26"/>
+      <c r="Z11" s="26"/>
+      <c r="AA11" s="26"/>
+      <c r="AB11" s="26"/>
+      <c r="AC11" s="26"/>
+      <c r="AD11" s="26"/>
+      <c r="AE11" s="26"/>
+      <c r="AF11" s="26"/>
+      <c r="AG11" s="26"/>
+    </row>
+    <row r="12" s="22" customFormat="1" customHeight="1" spans="1:33">
+      <c r="A12" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="B12" s="33"/>
+      <c r="B12" s="25"/>
       <c r="C12" s="30"/>
       <c r="D12" s="30"/>
       <c r="E12" s="30"/>
@@ -3228,77 +3241,77 @@
       <c r="M12" s="30"/>
       <c r="N12" s="30"/>
       <c r="O12" s="30"/>
-      <c r="P12" s="21" t="s">
+      <c r="P12" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="Q12" s="21" t="s">
+      <c r="Q12" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="R12" s="21" t="s">
+      <c r="R12" s="31" t="s">
         <v>74</v>
       </c>
       <c r="S12" s="30"/>
-      <c r="T12" s="35"/>
-      <c r="U12" s="35"/>
-      <c r="V12" s="35"/>
-      <c r="W12" s="35"/>
-      <c r="X12" s="35"/>
-      <c r="Y12" s="35"/>
-      <c r="Z12" s="35"/>
-      <c r="AA12" s="35"/>
-      <c r="AB12" s="35"/>
-      <c r="AC12" s="35"/>
-      <c r="AD12" s="35"/>
-      <c r="AE12" s="35"/>
-      <c r="AF12" s="35"/>
-      <c r="AG12" s="35"/>
+      <c r="T12" s="26"/>
+      <c r="U12" s="26"/>
+      <c r="V12" s="26"/>
+      <c r="W12" s="26"/>
+      <c r="X12" s="26"/>
+      <c r="Y12" s="26"/>
+      <c r="Z12" s="26"/>
+      <c r="AA12" s="26"/>
+      <c r="AB12" s="26"/>
+      <c r="AC12" s="26"/>
+      <c r="AD12" s="26"/>
+      <c r="AE12" s="26"/>
+      <c r="AF12" s="26"/>
+      <c r="AG12" s="26"/>
     </row>
     <row r="13" s="22" customFormat="1" customHeight="1" spans="1:33">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="17" t="s">
+      <c r="B13" s="25"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="R13" s="17" t="s">
+      <c r="R13" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="S13" s="29"/>
-      <c r="T13" s="34"/>
-      <c r="U13" s="34"/>
-      <c r="V13" s="34"/>
-      <c r="W13" s="34"/>
-      <c r="X13" s="34"/>
-      <c r="Y13" s="34"/>
-      <c r="Z13" s="34"/>
-      <c r="AA13" s="34"/>
-      <c r="AB13" s="34"/>
-      <c r="AC13" s="34"/>
-      <c r="AD13" s="34"/>
-      <c r="AE13" s="34"/>
-      <c r="AF13" s="34"/>
-      <c r="AG13" s="34"/>
-    </row>
-    <row r="14" s="23" customFormat="1" customHeight="1" spans="1:33">
-      <c r="A14" s="19" t="s">
+      <c r="S13" s="30"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="26"/>
+      <c r="W13" s="26"/>
+      <c r="X13" s="26"/>
+      <c r="Y13" s="26"/>
+      <c r="Z13" s="26"/>
+      <c r="AA13" s="26"/>
+      <c r="AB13" s="26"/>
+      <c r="AC13" s="26"/>
+      <c r="AD13" s="26"/>
+      <c r="AE13" s="26"/>
+      <c r="AF13" s="26"/>
+      <c r="AG13" s="26"/>
+    </row>
+    <row r="14" s="22" customFormat="1" customHeight="1" spans="1:33">
+      <c r="A14" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="B14" s="33"/>
+      <c r="B14" s="25"/>
       <c r="C14" s="30"/>
       <c r="D14" s="30"/>
       <c r="E14" s="30"/>
@@ -3313,206 +3326,214 @@
       <c r="N14" s="30"/>
       <c r="O14" s="30"/>
       <c r="P14" s="30"/>
-      <c r="Q14" s="21" t="s">
+      <c r="Q14" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="R14" s="21" t="s">
+      <c r="R14" s="31" t="s">
         <v>80</v>
       </c>
       <c r="S14" s="30"/>
-      <c r="T14" s="35"/>
-      <c r="U14" s="35"/>
-      <c r="V14" s="35"/>
-      <c r="W14" s="35"/>
-      <c r="X14" s="35"/>
-      <c r="Y14" s="35"/>
-      <c r="Z14" s="35"/>
-      <c r="AA14" s="35"/>
-      <c r="AB14" s="35"/>
-      <c r="AC14" s="35"/>
-      <c r="AD14" s="35"/>
-      <c r="AE14" s="35"/>
-      <c r="AF14" s="35"/>
-      <c r="AG14" s="35"/>
-    </row>
-    <row r="15" s="11" customFormat="1" customHeight="1" spans="1:33">
-      <c r="A15" s="2"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="34"/>
-      <c r="P15" s="34"/>
-      <c r="Q15" s="34"/>
-      <c r="R15" s="34"/>
-      <c r="S15" s="34"/>
-      <c r="T15" s="34"/>
-      <c r="U15" s="34"/>
-      <c r="V15" s="34"/>
-      <c r="W15" s="34"/>
-      <c r="X15" s="34"/>
-      <c r="Y15" s="34"/>
-      <c r="Z15" s="34"/>
-      <c r="AA15" s="34"/>
-      <c r="AB15" s="34"/>
-      <c r="AC15" s="34"/>
-      <c r="AD15" s="34"/>
-      <c r="AE15" s="34"/>
-      <c r="AF15" s="34"/>
-      <c r="AG15" s="34"/>
-    </row>
-    <row r="16" s="12" customFormat="1" customHeight="1" spans="1:33">
-      <c r="A16" s="3"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="35"/>
-      <c r="P16" s="35"/>
-      <c r="Q16" s="35"/>
-      <c r="R16" s="35"/>
-      <c r="S16" s="35"/>
-      <c r="T16" s="35"/>
-      <c r="U16" s="35"/>
-      <c r="V16" s="35"/>
-      <c r="W16" s="35"/>
-      <c r="X16" s="35"/>
-      <c r="Y16" s="35"/>
-      <c r="Z16" s="35"/>
-      <c r="AA16" s="35"/>
-      <c r="AB16" s="35"/>
-      <c r="AC16" s="35"/>
-      <c r="AD16" s="35"/>
-      <c r="AE16" s="35"/>
-      <c r="AF16" s="35"/>
-      <c r="AG16" s="35"/>
-    </row>
-    <row r="17" s="11" customFormat="1" customHeight="1" spans="1:33">
-      <c r="A17" s="2"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="34"/>
-      <c r="O17" s="34"/>
-      <c r="P17" s="34"/>
-      <c r="Q17" s="34"/>
-      <c r="R17" s="34"/>
-      <c r="S17" s="34"/>
-      <c r="T17" s="34"/>
-      <c r="U17" s="34"/>
-      <c r="V17" s="34"/>
-      <c r="W17" s="34"/>
-      <c r="X17" s="34"/>
-      <c r="Y17" s="34"/>
-      <c r="Z17" s="34"/>
-      <c r="AA17" s="34"/>
-      <c r="AB17" s="34"/>
-      <c r="AC17" s="34"/>
-      <c r="AD17" s="34"/>
-      <c r="AE17" s="34"/>
-      <c r="AF17" s="34"/>
-      <c r="AG17" s="34"/>
-    </row>
-    <row r="18" s="12" customFormat="1" customHeight="1" spans="1:33">
-      <c r="A18" s="3"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="35"/>
-      <c r="Q18" s="35"/>
-      <c r="R18" s="35"/>
-      <c r="S18" s="35"/>
-      <c r="T18" s="35"/>
-      <c r="U18" s="35"/>
-      <c r="V18" s="35"/>
-      <c r="W18" s="35"/>
-      <c r="X18" s="35"/>
-      <c r="Y18" s="35"/>
-      <c r="Z18" s="35"/>
-      <c r="AA18" s="35"/>
-      <c r="AB18" s="35"/>
-      <c r="AC18" s="35"/>
-      <c r="AD18" s="35"/>
-      <c r="AE18" s="35"/>
-      <c r="AF18" s="35"/>
-      <c r="AG18" s="35"/>
-    </row>
-    <row r="19" s="11" customFormat="1" customHeight="1" spans="1:33">
-      <c r="A19" s="2"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="34"/>
-      <c r="N19" s="34"/>
-      <c r="O19" s="34"/>
-      <c r="P19" s="34"/>
-      <c r="Q19" s="34"/>
-      <c r="R19" s="34"/>
-      <c r="S19" s="34"/>
-      <c r="T19" s="34"/>
-      <c r="U19" s="34"/>
-      <c r="V19" s="34"/>
-      <c r="W19" s="34"/>
-      <c r="X19" s="34"/>
-      <c r="Y19" s="34"/>
-      <c r="Z19" s="34"/>
-      <c r="AA19" s="34"/>
-      <c r="AB19" s="34"/>
-      <c r="AC19" s="34"/>
-      <c r="AD19" s="34"/>
-      <c r="AE19" s="34"/>
-      <c r="AF19" s="34"/>
-      <c r="AG19" s="34"/>
+      <c r="T14" s="26"/>
+      <c r="U14" s="26"/>
+      <c r="V14" s="26"/>
+      <c r="W14" s="26"/>
+      <c r="X14" s="26"/>
+      <c r="Y14" s="26"/>
+      <c r="Z14" s="26"/>
+      <c r="AA14" s="26"/>
+      <c r="AB14" s="26"/>
+      <c r="AC14" s="26"/>
+      <c r="AD14" s="26"/>
+      <c r="AE14" s="26"/>
+      <c r="AF14" s="26"/>
+      <c r="AG14" s="26"/>
+    </row>
+    <row r="15" s="23" customFormat="1" customHeight="1" spans="1:33">
+      <c r="A15" s="24"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="26"/>
+      <c r="T15" s="26"/>
+      <c r="U15" s="26"/>
+      <c r="V15" s="26"/>
+      <c r="W15" s="26"/>
+      <c r="X15" s="26"/>
+      <c r="Y15" s="26"/>
+      <c r="Z15" s="26"/>
+      <c r="AA15" s="26"/>
+      <c r="AB15" s="26"/>
+      <c r="AC15" s="26"/>
+      <c r="AD15" s="26"/>
+      <c r="AE15" s="26"/>
+      <c r="AF15" s="26"/>
+      <c r="AG15" s="26"/>
+    </row>
+    <row r="16" s="23" customFormat="1" customHeight="1" spans="1:33">
+      <c r="A16" s="24"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="26"/>
+      <c r="S16" s="26"/>
+      <c r="T16" s="26"/>
+      <c r="U16" s="26"/>
+      <c r="V16" s="26"/>
+      <c r="W16" s="26"/>
+      <c r="X16" s="26"/>
+      <c r="Y16" s="26"/>
+      <c r="Z16" s="26"/>
+      <c r="AA16" s="26"/>
+      <c r="AB16" s="26"/>
+      <c r="AC16" s="26"/>
+      <c r="AD16" s="26"/>
+      <c r="AE16" s="26"/>
+      <c r="AF16" s="26"/>
+      <c r="AG16" s="26"/>
+    </row>
+    <row r="17" s="23" customFormat="1" customHeight="1" spans="1:33">
+      <c r="A17" s="24"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="26"/>
+      <c r="T17" s="26"/>
+      <c r="U17" s="26"/>
+      <c r="V17" s="26"/>
+      <c r="W17" s="26"/>
+      <c r="X17" s="26"/>
+      <c r="Y17" s="26"/>
+      <c r="Z17" s="26"/>
+      <c r="AA17" s="26"/>
+      <c r="AB17" s="26"/>
+      <c r="AC17" s="26"/>
+      <c r="AD17" s="26"/>
+      <c r="AE17" s="26"/>
+      <c r="AF17" s="26"/>
+      <c r="AG17" s="26"/>
+    </row>
+    <row r="18" s="23" customFormat="1" customHeight="1" spans="1:33">
+      <c r="A18" s="24"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="26"/>
+      <c r="U18" s="26"/>
+      <c r="V18" s="26"/>
+      <c r="W18" s="26"/>
+      <c r="X18" s="26"/>
+      <c r="Y18" s="26"/>
+      <c r="Z18" s="26"/>
+      <c r="AA18" s="26"/>
+      <c r="AB18" s="26"/>
+      <c r="AC18" s="26"/>
+      <c r="AD18" s="26"/>
+      <c r="AE18" s="26"/>
+      <c r="AF18" s="26"/>
+      <c r="AG18" s="26"/>
+    </row>
+    <row r="19" s="23" customFormat="1" customHeight="1" spans="1:33">
+      <c r="A19" s="24"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="26"/>
+      <c r="S19" s="26"/>
+      <c r="T19" s="26"/>
+      <c r="U19" s="26"/>
+      <c r="V19" s="26"/>
+      <c r="W19" s="26"/>
+      <c r="X19" s="26"/>
+      <c r="Y19" s="26"/>
+      <c r="Z19" s="26"/>
+      <c r="AA19" s="26"/>
+      <c r="AB19" s="26"/>
+      <c r="AC19" s="26"/>
+      <c r="AD19" s="26"/>
+      <c r="AE19" s="26"/>
+      <c r="AF19" s="26"/>
+      <c r="AG19" s="26"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="$A2:$XFD1048576">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B11" r:id="rId1" display="https://javaalmanac.io/features/stringtemplates/"/>
+    <hyperlink ref="B11" r:id="rId1" display="https://javaalmanac.io/features/stringtemplates/" tooltip="https://javaalmanac.io/features/stringtemplates/"/>
     <hyperlink ref="B9" r:id="rId2" display="https://javaalmanac.io/features/unnamedvariables/"/>
     <hyperlink ref="B2" r:id="rId3" display="https://javaalmanac.io/features/switch/"/>
     <hyperlink ref="B3" r:id="rId4" display="https://javaalmanac.io/features/textblocks/"/>
@@ -3521,6 +3542,7 @@
     <hyperlink ref="B6" r:id="rId7" display="https://javaalmanac.io/features/sealedtypes/"/>
     <hyperlink ref="B7" r:id="rId8" display="https://javaalmanac.io/features/typepatterns/"/>
     <hyperlink ref="B8" r:id="rId9" display="https://javaalmanac.io/features/recordpatterns/"/>
+    <hyperlink ref="B10" r:id="rId10" display="https://javaalmanac.io/features/jep445/" tooltip="https://javaalmanac.io/features/jep445/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3533,12 +3555,12 @@
   <sheetPr/>
   <dimension ref="A1:S25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A$1:A$1048576"/>
+      <selection pane="bottomRight" activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6363636363636" defaultRowHeight="50" customHeight="1"/>
@@ -3554,7 +3576,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>2</v>
@@ -3610,11 +3632,11 @@
     </row>
     <row r="2" s="11" customFormat="1" customHeight="1" spans="1:19">
       <c r="A2" s="16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D2" s="18"/>
       <c r="E2" s="18"/>
@@ -3635,15 +3657,15 @@
     </row>
     <row r="3" s="12" customFormat="1" customHeight="1" spans="1:19">
       <c r="A3" s="19" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C3" s="20"/>
       <c r="D3" s="20"/>
       <c r="E3" s="20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F3" s="20"/>
       <c r="G3" s="20"/>
@@ -3662,7 +3684,7 @@
     </row>
     <row r="4" s="11" customFormat="1" customHeight="1" spans="1:19">
       <c r="A4" s="16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="18"/>
@@ -3671,13 +3693,13 @@
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
       <c r="H4" s="17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K4" s="18"/>
       <c r="L4" s="18"/>
@@ -3691,7 +3713,7 @@
     </row>
     <row r="5" s="12" customFormat="1" customHeight="1" spans="1:19">
       <c r="A5" s="19" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="20"/>
@@ -3702,7 +3724,7 @@
       <c r="H5" s="20"/>
       <c r="I5" s="20"/>
       <c r="J5" s="21" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K5" s="20"/>
       <c r="L5" s="20"/>
@@ -3716,7 +3738,7 @@
     </row>
     <row r="6" s="11" customFormat="1" customHeight="1" spans="1:19">
       <c r="A6" s="16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="18"/>
@@ -3728,16 +3750,16 @@
       <c r="I6" s="18"/>
       <c r="J6" s="18"/>
       <c r="K6" s="17" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L6" s="17" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M6" s="17" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N6" s="17" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O6" s="18"/>
       <c r="P6" s="18"/>
@@ -3747,7 +3769,7 @@
     </row>
     <row r="7" s="12" customFormat="1" customHeight="1" spans="1:19">
       <c r="A7" s="19" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="20"/>
@@ -3758,37 +3780,37 @@
       <c r="H7" s="20"/>
       <c r="I7" s="20"/>
       <c r="J7" s="21" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K7" s="21" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L7" s="21" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M7" s="21" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N7" s="21" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O7" s="21" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P7" s="21" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q7" s="21" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="R7" s="21" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="S7" s="20"/>
     </row>
     <row r="8" s="11" customFormat="1" customHeight="1" spans="1:19">
       <c r="A8" s="16" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="18"/>
@@ -3802,28 +3824,28 @@
       <c r="K8" s="18"/>
       <c r="L8" s="18"/>
       <c r="M8" s="17" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N8" s="17" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O8" s="17" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P8" s="17" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q8" s="17" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="R8" s="17" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="S8" s="18"/>
     </row>
     <row r="9" s="12" customFormat="1" customHeight="1" spans="1:19">
       <c r="A9" s="19" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="20"/>
@@ -3837,10 +3859,10 @@
       <c r="K9" s="20"/>
       <c r="L9" s="20"/>
       <c r="M9" s="21" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N9" s="21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O9" s="20"/>
       <c r="P9" s="20"/>
@@ -3850,7 +3872,7 @@
     </row>
     <row r="10" s="11" customFormat="1" customHeight="1" spans="1:19">
       <c r="A10" s="16" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="18"/>
@@ -3865,25 +3887,25 @@
       <c r="L10" s="18"/>
       <c r="M10" s="18"/>
       <c r="N10" s="17" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O10" s="17" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P10" s="17" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q10" s="17" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="R10" s="17" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="S10" s="18"/>
     </row>
     <row r="11" s="12" customFormat="1" customHeight="1" spans="1:19">
       <c r="A11" s="19" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="20"/>
@@ -3898,13 +3920,11 @@
       <c r="L11" s="20"/>
       <c r="M11" s="20"/>
       <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q11" s="21" t="s">
+      <c r="O11" s="20" t="s">
         <v>125</v>
       </c>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
       <c r="R11" s="20"/>
       <c r="S11" s="20"/>
     </row>
@@ -3953,15 +3973,19 @@
       <c r="M13" s="20"/>
       <c r="N13" s="20"/>
       <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="21" t="s">
+      <c r="P13" s="20" t="s">
         <v>130</v>
       </c>
+      <c r="Q13" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="R13" s="21"/>
       <c r="S13" s="20"/>
     </row>
     <row r="14" s="11" customFormat="1" customHeight="1" spans="1:19">
-      <c r="A14" s="2"/>
+      <c r="A14" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="B14" s="2"/>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
@@ -3978,7 +4002,9 @@
       <c r="O14" s="18"/>
       <c r="P14" s="18"/>
       <c r="Q14" s="18"/>
-      <c r="R14" s="18"/>
+      <c r="R14" s="18" t="s">
+        <v>133</v>
+      </c>
       <c r="S14" s="18"/>
     </row>
     <row r="15" s="12" customFormat="1" customHeight="1" spans="1:19">
@@ -4213,6 +4239,14 @@
       <c r="S25" s="20"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="$A2:$XFD1048576">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -4225,11 +4259,11 @@
   <dimension ref="A1:S1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B1048545" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="$A2:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -4244,7 +4278,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -4330,7 +4364,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -4418,33 +4452,33 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E2" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/289","JEP 289")</f>
@@ -4454,16 +4488,16 @@
     </row>
     <row r="3" s="3" customFormat="1" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E3" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/259","JEP 259")</f>
@@ -4473,16 +4507,16 @@
     </row>
     <row r="4" s="2" customFormat="1" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E4" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/290","JEP 290")</f>
@@ -4492,16 +4526,16 @@
     </row>
     <row r="5" s="3" customFormat="1" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E5" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/102","JEP 102")</f>
@@ -4511,16 +4545,16 @@
     </row>
     <row r="6" s="2" customFormat="1" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E6" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/274","JEP 274")</f>
@@ -4530,16 +4564,16 @@
     </row>
     <row r="7" s="3" customFormat="1" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E7" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/276","JEP 276")</f>
@@ -4549,16 +4583,16 @@
     </row>
     <row r="8" s="2" customFormat="1" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E8" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/110","JEP 110")</f>
@@ -4568,16 +4602,16 @@
     </row>
     <row r="9" s="3" customFormat="1" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E9" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/266","JEP 266")</f>
@@ -4587,16 +4621,16 @@
     </row>
     <row r="10" s="2" customFormat="1" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E10" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/264","JEP 264")</f>
@@ -4606,16 +4640,16 @@
     </row>
     <row r="11" s="3" customFormat="1" spans="1:6">
       <c r="A11" s="3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E11" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/269","JEP 269")</f>
@@ -4625,16 +4659,16 @@
     </row>
     <row r="12" s="2" customFormat="1" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E12" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/226","JEP 226")</f>
@@ -4644,16 +4678,16 @@
     </row>
     <row r="13" s="3" customFormat="1" spans="1:6">
       <c r="A13" s="3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E13" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/252","JEP 252")</f>
@@ -4663,16 +4697,16 @@
     </row>
     <row r="14" s="2" customFormat="1" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E14" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/236","JEP 236")</f>
@@ -4682,16 +4716,16 @@
     </row>
     <row r="15" s="3" customFormat="1" spans="1:6">
       <c r="A15" s="3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E15" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/292","JEP 292")</f>
@@ -4701,16 +4735,16 @@
     </row>
     <row r="16" s="2" customFormat="1" spans="1:6">
       <c r="A16" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E16" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/229","JEP 229")</f>
@@ -4720,16 +4754,16 @@
     </row>
     <row r="17" s="3" customFormat="1" spans="1:6">
       <c r="A17" s="3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E17" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/232","JEP 232")</f>
@@ -4739,16 +4773,16 @@
     </row>
     <row r="18" s="2" customFormat="1" spans="1:6">
       <c r="A18" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E18" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/273","JEP 273")</f>
@@ -4758,16 +4792,16 @@
     </row>
     <row r="19" s="3" customFormat="1" spans="1:6">
       <c r="A19" s="3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E19" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/287","JEP 287")</f>
@@ -4777,16 +4811,16 @@
     </row>
     <row r="20" s="2" customFormat="1" spans="1:6">
       <c r="A20" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E20" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/288","JEP 288")</f>
@@ -4796,16 +4830,16 @@
     </row>
     <row r="21" s="3" customFormat="1" spans="1:6">
       <c r="A21" s="3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E21" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/246","JEP 246")</f>
@@ -4815,16 +4849,16 @@
     </row>
     <row r="22" s="2" customFormat="1" spans="1:6">
       <c r="A22" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E22" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/219","JEP 219")</f>
@@ -4834,16 +4868,16 @@
     </row>
     <row r="23" s="3" customFormat="1" spans="1:6">
       <c r="A23" s="3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E23" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/244","JEP 244")</f>
@@ -4853,16 +4887,16 @@
     </row>
     <row r="24" s="2" customFormat="1" spans="1:6">
       <c r="A24" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E24" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/249","JEP 249")</f>
@@ -4872,16 +4906,16 @@
     </row>
     <row r="25" s="3" customFormat="1" spans="1:6">
       <c r="A25" s="3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E25" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/214","JEP 214")</f>
@@ -4891,16 +4925,16 @@
     </row>
     <row r="26" s="2" customFormat="1" spans="1:6">
       <c r="A26" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E26" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/248","JEP 248")</f>
@@ -4910,16 +4944,16 @@
     </row>
     <row r="27" s="3" customFormat="1" spans="1:6">
       <c r="A27" s="3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E27" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/271","JEP 271")</f>
@@ -4929,16 +4963,16 @@
     </row>
     <row r="28" s="2" customFormat="1" spans="1:6">
       <c r="A28" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E28" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/278","JEP 278")</f>
@@ -4948,16 +4982,16 @@
     </row>
     <row r="29" s="3" customFormat="1" spans="1:6">
       <c r="A29" s="3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E29" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/291","JEP 291")</f>
@@ -4967,16 +5001,16 @@
     </row>
     <row r="30" s="2" customFormat="1" spans="1:6">
       <c r="A30" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E30" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/254","JEP 254")</f>
@@ -4986,14 +5020,14 @@
     </row>
     <row r="31" s="3" customFormat="1" spans="1:6">
       <c r="A31" s="3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="E31" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/200","JEP 200")</f>
@@ -5003,14 +5037,14 @@
     </row>
     <row r="32" s="2" customFormat="1" spans="1:6">
       <c r="A32" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="E32" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/201","JEP 201")</f>
@@ -5020,14 +5054,14 @@
     </row>
     <row r="33" s="3" customFormat="1" spans="1:6">
       <c r="A33" s="3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E33" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/220","JEP 220")</f>
@@ -5037,14 +5071,14 @@
     </row>
     <row r="34" s="2" customFormat="1" spans="1:6">
       <c r="A34" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E34" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/261","JEP 261")</f>
@@ -5054,16 +5088,16 @@
     </row>
     <row r="35" s="3" customFormat="1" spans="1:6">
       <c r="A35" s="3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E35" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/165","JEP 165")</f>
@@ -5073,16 +5107,16 @@
     </row>
     <row r="36" s="2" customFormat="1" spans="1:6">
       <c r="A36" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="E36" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/197","JEP 197")</f>
@@ -5092,16 +5126,16 @@
     </row>
     <row r="37" s="3" customFormat="1" spans="1:6">
       <c r="A37" s="3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="E37" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/233","JEP 233")</f>
@@ -5111,16 +5145,16 @@
     </row>
     <row r="38" s="2" customFormat="1" spans="1:6">
       <c r="A38" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E38" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/237","JEP 237")</f>
@@ -5130,16 +5164,16 @@
     </row>
     <row r="39" s="3" customFormat="1" spans="1:6">
       <c r="A39" s="3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="E39" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/243","JEP 243")</f>
@@ -5149,16 +5183,16 @@
     </row>
     <row r="40" s="2" customFormat="1" spans="1:6">
       <c r="A40" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="E40" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/294","JEP 294")</f>
@@ -5168,16 +5202,16 @@
     </row>
     <row r="41" s="3" customFormat="1" spans="1:6">
       <c r="A41" s="3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E41" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/295","JEP 295")</f>
@@ -5187,16 +5221,16 @@
     </row>
     <row r="42" s="2" customFormat="1" spans="1:6">
       <c r="A42" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="E42" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/297","JEP 297")</f>
@@ -5206,16 +5240,16 @@
     </row>
     <row r="43" s="3" customFormat="1" spans="1:6">
       <c r="A43" s="3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="E43" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/143","JEP 143")</f>
@@ -5225,16 +5259,16 @@
     </row>
     <row r="44" s="2" customFormat="1" spans="1:6">
       <c r="A44" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="E44" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/245","JEP 245")</f>
@@ -5244,16 +5278,16 @@
     </row>
     <row r="45" s="3" customFormat="1" spans="1:6">
       <c r="A45" s="3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="E45" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/250","JEP 250")</f>
@@ -5263,16 +5297,16 @@
     </row>
     <row r="46" s="2" customFormat="1" spans="1:6">
       <c r="A46" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="E46" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/158","JEP 158")</f>
@@ -5282,16 +5316,16 @@
     </row>
     <row r="47" s="3" customFormat="1" spans="1:6">
       <c r="A47" s="3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="E47" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/228","JEP 228")</f>
@@ -5301,16 +5335,16 @@
     </row>
     <row r="48" s="2" customFormat="1" spans="1:6">
       <c r="A48" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="E48" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/281","JEP 281")</f>
@@ -5320,16 +5354,16 @@
     </row>
     <row r="49" s="3" customFormat="1" spans="1:6">
       <c r="A49" s="3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E49" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/193","JEP 193")</f>
@@ -5339,16 +5373,16 @@
     </row>
     <row r="50" s="2" customFormat="1" spans="1:6">
       <c r="A50" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="E50" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/227","JEP 227")</f>
@@ -5358,16 +5392,16 @@
     </row>
     <row r="51" s="3" customFormat="1" spans="1:6">
       <c r="A51" s="3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="E51" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/267","JEP 267")</f>
@@ -5377,16 +5411,16 @@
     </row>
     <row r="52" s="2" customFormat="1" spans="1:6">
       <c r="A52" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="E52" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/277","JEP 277")</f>
@@ -5396,16 +5430,16 @@
     </row>
     <row r="53" s="3" customFormat="1" spans="1:6">
       <c r="A53" s="3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="E53" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/285","JEP 285")</f>
@@ -5415,16 +5449,16 @@
     </row>
     <row r="54" s="2" customFormat="1" spans="1:6">
       <c r="A54" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="E54" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/251","JEP 251")</f>
@@ -5434,16 +5468,16 @@
     </row>
     <row r="55" s="3" customFormat="1" spans="1:6">
       <c r="A55" s="3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="E55" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/258","JEP 258")</f>
@@ -5453,16 +5487,16 @@
     </row>
     <row r="56" s="2" customFormat="1" spans="1:6">
       <c r="A56" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E56" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/265","JEP 265")</f>
@@ -5472,16 +5506,16 @@
     </row>
     <row r="57" s="3" customFormat="1" spans="1:6">
       <c r="A57" s="3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E57" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/263","JEP 263")</f>
@@ -5491,16 +5525,16 @@
     </row>
     <row r="58" s="2" customFormat="1" spans="1:6">
       <c r="A58" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="E58" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/272","JEP 272")</f>
@@ -5510,16 +5544,16 @@
     </row>
     <row r="59" s="3" customFormat="1" spans="1:6">
       <c r="A59" s="3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="E59" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/256","JEP 256")</f>
@@ -5529,16 +5563,16 @@
     </row>
     <row r="60" s="2" customFormat="1" spans="1:6">
       <c r="A60" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="E60" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/262","JEP 262")</f>
@@ -5548,16 +5582,16 @@
     </row>
     <row r="61" s="3" customFormat="1" spans="1:6">
       <c r="A61" s="3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="E61" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/240","JEP 240")</f>
@@ -5567,16 +5601,16 @@
     </row>
     <row r="62" s="2" customFormat="1" spans="1:6">
       <c r="A62" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="E62" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/241","JEP 241")</f>
@@ -5586,16 +5620,16 @@
     </row>
     <row r="63" s="3" customFormat="1" spans="1:6">
       <c r="A63" s="3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="E63" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/275","JEP 275")</f>
@@ -5605,16 +5639,16 @@
     </row>
     <row r="64" s="2" customFormat="1" spans="1:6">
       <c r="A64" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E64" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/299","JEP 299")</f>
@@ -5624,16 +5658,16 @@
     </row>
     <row r="65" s="3" customFormat="1" spans="1:6">
       <c r="A65" s="3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="E65" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/298","JEP 298")</f>
@@ -5643,16 +5677,16 @@
     </row>
     <row r="66" s="2" customFormat="1" spans="1:6">
       <c r="A66" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E66" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/284","JEP 284")</f>
@@ -5662,16 +5696,16 @@
     </row>
     <row r="67" s="3" customFormat="1" spans="1:6">
       <c r="A67" s="3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="E67" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/253","JEP 253")</f>
@@ -5681,16 +5715,16 @@
     </row>
     <row r="68" s="2" customFormat="1" spans="1:6">
       <c r="A68" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="E68" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/257","JEP 257")</f>
@@ -5700,16 +5734,16 @@
     </row>
     <row r="69" s="3" customFormat="1" spans="1:6">
       <c r="A69" s="3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="E69" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/283","JEP 283")</f>
@@ -5719,16 +5753,16 @@
     </row>
     <row r="70" s="2" customFormat="1" spans="1:6">
       <c r="A70" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="E70" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/255","JEP 255")</f>
@@ -5738,16 +5772,16 @@
     </row>
     <row r="71" s="3" customFormat="1" spans="1:6">
       <c r="A71" s="3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="E71" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/268","JEP 268")</f>
@@ -5757,14 +5791,14 @@
     </row>
     <row r="72" s="2" customFormat="1" spans="1:6">
       <c r="A72" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="E72" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/223","JEP 223")</f>
@@ -5774,14 +5808,14 @@
     </row>
     <row r="73" s="3" customFormat="1" spans="1:6">
       <c r="A73" s="3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C73" s="3"/>
       <c r="D73" s="3" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="E73" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/260","JEP 260")</f>
@@ -5791,14 +5825,14 @@
     </row>
     <row r="74" s="2" customFormat="1" spans="1:6">
       <c r="A74" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="E74" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/270","JEP 270")</f>
@@ -5808,14 +5842,14 @@
     </row>
     <row r="75" s="3" customFormat="1" spans="1:6">
       <c r="A75" s="3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="3" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="E75" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/279","JEP 279")</f>
@@ -5825,16 +5859,16 @@
     </row>
     <row r="76" s="2" customFormat="1" spans="1:6">
       <c r="A76" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="E76" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/212","JEP 212")</f>
@@ -5844,16 +5878,16 @@
     </row>
     <row r="77" s="3" customFormat="1" spans="1:6">
       <c r="A77" s="3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="E77" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/238","JEP 238")</f>
@@ -5863,16 +5897,16 @@
     </row>
     <row r="78" s="2" customFormat="1" spans="1:6">
       <c r="A78" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="E78" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/199","JEP 199")</f>
@@ -5882,16 +5916,16 @@
     </row>
     <row r="79" s="3" customFormat="1" spans="1:6">
       <c r="A79" s="3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E79" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/211","JEP 211")</f>
@@ -5901,16 +5935,16 @@
     </row>
     <row r="80" s="2" customFormat="1" spans="1:6">
       <c r="A80" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="E80" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/213","JEP 213")</f>
@@ -5920,16 +5954,16 @@
     </row>
     <row r="81" s="3" customFormat="1" spans="1:6">
       <c r="A81" s="3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="E81" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/215","JEP 215")</f>
@@ -5939,16 +5973,16 @@
     </row>
     <row r="82" s="2" customFormat="1" spans="1:6">
       <c r="A82" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="E82" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/216","JEP 216")</f>
@@ -5958,16 +5992,16 @@
     </row>
     <row r="83" s="3" customFormat="1" spans="1:6">
       <c r="A83" s="3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="E83" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/217","JEP 217")</f>
@@ -5977,16 +6011,16 @@
     </row>
     <row r="84" s="2" customFormat="1" spans="1:6">
       <c r="A84" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="E84" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/235","JEP 235")</f>
@@ -5996,16 +6030,16 @@
     </row>
     <row r="85" s="3" customFormat="1" spans="1:6">
       <c r="A85" s="3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E85" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/247","JEP 247")</f>
@@ -6015,16 +6049,16 @@
     </row>
     <row r="86" s="2" customFormat="1" spans="1:6">
       <c r="A86" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="E86" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/280","JEP 280")</f>
@@ -6034,16 +6068,16 @@
     </row>
     <row r="87" s="3" customFormat="1" spans="1:6">
       <c r="A87" s="3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="E87" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/221","JEP 221")</f>
@@ -6053,16 +6087,16 @@
     </row>
     <row r="88" s="2" customFormat="1" spans="1:6">
       <c r="A88" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="E88" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/224","JEP 224")</f>
@@ -6072,16 +6106,16 @@
     </row>
     <row r="89" s="3" customFormat="1" spans="1:6">
       <c r="A89" s="3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E89" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/225","JEP 225")</f>
@@ -6091,16 +6125,16 @@
     </row>
     <row r="90" s="2" customFormat="1" spans="1:6">
       <c r="A90" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="E90" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/282","JEP 282")</f>
@@ -6110,16 +6144,16 @@
     </row>
     <row r="91" s="3" customFormat="1" spans="1:6">
       <c r="A91" s="3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="E91" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/222","JEP 222")</f>
@@ -6129,16 +6163,16 @@
     </row>
     <row r="92" s="2" customFormat="1" spans="1:6">
       <c r="A92" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="E92" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/231","JEP 231")</f>
@@ -6151,13 +6185,13 @@
         <v>3</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="E93" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/314","JEP 314")</f>
@@ -6170,13 +6204,13 @@
         <v>3</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E94" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/319","JEP 319")</f>
@@ -6189,13 +6223,13 @@
         <v>3</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="E95" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/304","JEP 304")</f>
@@ -6208,13 +6242,13 @@
         <v>3</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="E96" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/307","JEP 307")</f>
@@ -6227,13 +6261,13 @@
         <v>3</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E97" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/316","JEP 316")</f>
@@ -6246,13 +6280,13 @@
         <v>3</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="E98" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/317","JEP 317")</f>
@@ -6265,13 +6299,13 @@
         <v>3</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="E99" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/310","JEP 310")</f>
@@ -6284,13 +6318,13 @@
         <v>3</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="E100" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/312","JEP 312")</f>
@@ -6303,13 +6337,13 @@
         <v>3</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E101" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/322","JEP 322")</f>
@@ -6322,13 +6356,13 @@
         <v>3</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="E102" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/286","JEP 286")</f>
@@ -6341,13 +6375,13 @@
         <v>3</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="E103" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/296","JEP 296")</f>
@@ -6360,13 +6394,13 @@
         <v>3</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="E104" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/313","JEP 313")</f>
@@ -6379,13 +6413,13 @@
         <v>4</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="E105" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/321","JEP 321")</f>
@@ -6398,13 +6432,13 @@
         <v>4</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="E106" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/335","JEP 335")</f>
@@ -6417,13 +6451,13 @@
         <v>4</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="E107" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/324","JEP 324")</f>
@@ -6436,13 +6470,13 @@
         <v>4</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="E108" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/329","JEP 329")</f>
@@ -6455,13 +6489,13 @@
         <v>4</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="E109" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/332","JEP 332")</f>
@@ -6474,13 +6508,13 @@
         <v>4</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="E110" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/318","JEP 318")</f>
@@ -6493,13 +6527,13 @@
         <v>4</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="E111" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/333","JEP 333")</f>
@@ -6512,13 +6546,13 @@
         <v>4</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="E112" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/315","JEP 315")</f>
@@ -6531,13 +6565,13 @@
         <v>4</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="E113" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/328","JEP 328")</f>
@@ -6550,13 +6584,13 @@
         <v>4</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E114" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/331","JEP 331")</f>
@@ -6569,13 +6603,13 @@
         <v>4</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="E115" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/181","JEP 181")</f>
@@ -6588,13 +6622,13 @@
         <v>4</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="E116" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/309","JEP 309")</f>
@@ -6607,13 +6641,13 @@
         <v>4</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="E117" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/327","JEP 327")</f>
@@ -6626,13 +6660,13 @@
         <v>4</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E118" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/320","JEP 320")</f>
@@ -6645,13 +6679,13 @@
         <v>4</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="E119" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/323","JEP 323")</f>
@@ -6664,13 +6698,13 @@
         <v>4</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="E120" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/336","JEP 336")</f>
@@ -6683,13 +6717,13 @@
         <v>4</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="E121" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/330","JEP 330")</f>
@@ -6734,19 +6768,19 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:6">
@@ -6754,13 +6788,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E2" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/334","JEP 334")</f>
@@ -6773,13 +6807,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="E3" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/189","JEP 189")</f>
@@ -6792,13 +6826,13 @@
         <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="E4" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/344","JEP 344")</f>
@@ -6811,13 +6845,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="E5" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/346","JEP 346")</f>
@@ -6830,13 +6864,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="E6" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/340","JEP 340")</f>
@@ -6849,13 +6883,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="E7" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/341","JEP 341")</f>
@@ -6868,13 +6902,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="E8" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/230","JEP 230")</f>
@@ -6887,13 +6921,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="E9" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/325","JEP 325")</f>
@@ -6906,13 +6940,13 @@
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="E10" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/353","JEP 353")</f>
@@ -6925,13 +6959,13 @@
         <v>6</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="E11" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/351","JEP 351")</f>
@@ -6944,13 +6978,13 @@
         <v>6</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="E12" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/350","JEP 350")</f>
@@ -6963,13 +6997,13 @@
         <v>6</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="E13" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/354","JEP 354")</f>
@@ -6982,13 +7016,13 @@
         <v>6</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="E14" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/355","JEP 355")</f>
@@ -7001,13 +7035,13 @@
         <v>7</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="E15" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/370","JEP 370")</f>
@@ -7020,13 +7054,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="E16" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/352","JEP 352")</f>
@@ -7039,13 +7073,13 @@
         <v>7</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="E17" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/345","JEP 345")</f>
@@ -7058,13 +7092,13 @@
         <v>7</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="E18" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/363","JEP 363")</f>
@@ -7077,13 +7111,13 @@
         <v>7</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="E19" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/364","JEP 364")</f>
@@ -7096,13 +7130,13 @@
         <v>7</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="E20" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/365","JEP 365")</f>
@@ -7115,13 +7149,13 @@
         <v>7</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="E21" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/366","JEP 366")</f>
@@ -7134,13 +7168,13 @@
         <v>7</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="E22" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/349","JEP 349")</f>
@@ -7153,13 +7187,13 @@
         <v>7</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="E23" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/358","JEP 358")</f>
@@ -7172,13 +7206,13 @@
         <v>7</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="E24" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/305","JEP 305")</f>
@@ -7191,13 +7225,13 @@
         <v>7</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="E25" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/359","JEP 359")</f>
@@ -7210,13 +7244,13 @@
         <v>7</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="E26" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/361","JEP 361")</f>
@@ -7229,13 +7263,13 @@
         <v>7</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="E27" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/368","JEP 368")</f>
@@ -7248,11 +7282,11 @@
         <v>7</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="E28" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/362","JEP 362")</f>
@@ -7265,13 +7299,13 @@
         <v>7</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="E29" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/367","JEP 367")</f>
@@ -7284,13 +7318,13 @@
         <v>7</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="E30" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/343","JEP 343")</f>
@@ -7303,13 +7337,13 @@
         <v>8</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="E31" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/383","JEP 383")</f>
@@ -7322,13 +7356,13 @@
         <v>8</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="E32" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/371","JEP 371")</f>
@@ -7341,13 +7375,13 @@
         <v>8</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="E33" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/373","JEP 373")</f>
@@ -7360,13 +7394,13 @@
         <v>8</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="E34" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/385","JEP 385")</f>
@@ -7379,13 +7413,13 @@
         <v>8</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="E35" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/372","JEP 372")</f>
@@ -7398,13 +7432,13 @@
         <v>8</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="E36" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/339","JEP 339")</f>
@@ -7417,13 +7451,13 @@
         <v>8</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="E37" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/377","JEP 377")</f>
@@ -7436,13 +7470,13 @@
         <v>8</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="E38" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/379","JEP 379")</f>
@@ -7455,13 +7489,13 @@
         <v>8</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="E39" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/381","JEP 381")</f>
@@ -7474,13 +7508,13 @@
         <v>8</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="E40" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/374","JEP 374")</f>
@@ -7493,13 +7527,13 @@
         <v>8</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="E41" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/360","JEP 360")</f>
@@ -7512,13 +7546,13 @@
         <v>8</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="E42" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/375","JEP 375")</f>
@@ -7531,10 +7565,10 @@
         <v>8</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>24</v>
@@ -7550,13 +7584,13 @@
         <v>8</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="E44" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/384","JEP 384")</f>
@@ -7569,13 +7603,13 @@
         <v>9</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="E45" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/389","JEP 389")</f>
@@ -7588,13 +7622,13 @@
         <v>9</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="E46" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/393","JEP 393")</f>
@@ -7607,13 +7641,13 @@
         <v>9</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="E47" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/380","JEP 380")</f>
@@ -7626,13 +7660,13 @@
         <v>9</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="E48" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/376","JEP 376")</f>
@@ -7645,13 +7679,13 @@
         <v>9</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="E49" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/338","JEP 338")</f>
@@ -7664,13 +7698,13 @@
         <v>9</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="E50" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/347","JEP 347")</f>
@@ -7683,13 +7717,13 @@
         <v>9</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="E51" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/386","JEP 386")</f>
@@ -7702,13 +7736,13 @@
         <v>9</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="E52" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/387","JEP 387")</f>
@@ -7721,13 +7755,13 @@
         <v>9</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="E53" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/388","JEP 388")</f>
@@ -7740,10 +7774,10 @@
         <v>9</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>34</v>
@@ -7759,10 +7793,10 @@
         <v>9</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>29</v>
@@ -7778,13 +7812,13 @@
         <v>9</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="E56" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/397","JEP 397")</f>
@@ -7797,13 +7831,13 @@
         <v>9</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="E57" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/357","JEP 357")</f>
@@ -7816,13 +7850,13 @@
         <v>9</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="E58" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/369","JEP 369")</f>
@@ -7835,11 +7869,11 @@
         <v>9</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="3" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="E59" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/390","JEP 390")</f>
@@ -7852,11 +7886,11 @@
         <v>9</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="E60" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/396","JEP 396")</f>
@@ -7869,13 +7903,13 @@
         <v>9</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="E61" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/392","JEP 392")</f>
@@ -7888,13 +7922,13 @@
         <v>10</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="E62" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/412","JEP 412")</f>
@@ -7907,13 +7941,13 @@
         <v>10</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="E63" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/414","JEP 414")</f>
@@ -7926,13 +7960,13 @@
         <v>10</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="E64" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/415","JEP 415")</f>
@@ -7945,13 +7979,13 @@
         <v>10</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="E65" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/407","JEP 407")</f>
@@ -7964,13 +7998,13 @@
         <v>10</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="E66" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/356","JEP 356")</f>
@@ -7983,13 +8017,13 @@
         <v>10</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="E67" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/411","JEP 411")</f>
@@ -8002,13 +8036,13 @@
         <v>10</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="E68" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/410","JEP 410")</f>
@@ -8021,13 +8055,13 @@
         <v>10</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="E69" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/391","JEP 391")</f>
@@ -8040,13 +8074,13 @@
         <v>10</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="E70" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/306","JEP 306")</f>
@@ -8059,13 +8093,13 @@
         <v>10</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="E71" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/406","JEP 406")</f>
@@ -8078,10 +8112,10 @@
         <v>10</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>39</v>
@@ -8097,13 +8131,13 @@
         <v>10</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="E73" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/382","JEP 382")</f>
@@ -8116,13 +8150,13 @@
         <v>10</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="E74" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/398","JEP 398")</f>
@@ -8135,11 +8169,11 @@
         <v>10</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="3" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="E75" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/403","JEP 403")</f>
@@ -8184,19 +8218,19 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:6">
@@ -8204,13 +8238,13 @@
         <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="E2" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/417","JEP 417")</f>
@@ -8223,13 +8257,13 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="E3" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/419","JEP 419")</f>
@@ -8242,13 +8276,13 @@
         <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="E4" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/416","JEP 416")</f>
@@ -8261,13 +8295,13 @@
         <v>11</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="E5" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/408","JEP 408")</f>
@@ -8280,13 +8314,13 @@
         <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="E6" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/418","JEP 418")</f>
@@ -8299,13 +8333,13 @@
         <v>11</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="E7" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/400","JEP 400")</f>
@@ -8318,13 +8352,13 @@
         <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="E8" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/421","JEP 421")</f>
@@ -8337,13 +8371,13 @@
         <v>11</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="E9" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/420","JEP 420")</f>
@@ -8356,13 +8390,13 @@
         <v>11</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="E10" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/413","JEP 413")</f>
@@ -8375,13 +8409,13 @@
         <v>12</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="E11" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/424","JEP 424")</f>
@@ -8394,13 +8428,13 @@
         <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="E12" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/425","JEP 425")</f>
@@ -8413,13 +8447,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="E13" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/426","JEP 426")</f>
@@ -8432,13 +8466,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="E14" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/428","JEP 428")</f>
@@ -8451,13 +8485,13 @@
         <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="E15" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/422","JEP 422")</f>
@@ -8470,13 +8504,13 @@
         <v>12</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="E16" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/405","JEP 405")</f>
@@ -8489,13 +8523,13 @@
         <v>12</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="E17" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/427","JEP 427")</f>
@@ -8508,13 +8542,13 @@
         <v>13</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="E18" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/429","JEP 429")</f>
@@ -8527,13 +8561,13 @@
         <v>13</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="E19" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/434","JEP 434")</f>
@@ -8546,13 +8580,13 @@
         <v>13</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="E20" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/436","JEP 436")</f>
@@ -8565,13 +8599,13 @@
         <v>13</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E21" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/437","JEP 437")</f>
@@ -8584,13 +8618,13 @@
         <v>13</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="E22" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/438","JEP 438")</f>
@@ -8603,13 +8637,13 @@
         <v>13</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="E23" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/432","JEP 432")</f>
@@ -8622,13 +8656,13 @@
         <v>13</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="E24" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/433","JEP 433")</f>
@@ -8641,13 +8675,13 @@
         <v>14</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="E25" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/442","JEP 442")</f>
@@ -8660,13 +8694,13 @@
         <v>14</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E26" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/444","JEP 444")</f>
@@ -8679,13 +8713,13 @@
         <v>14</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="E27" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/446","JEP 446")</f>
@@ -8698,13 +8732,13 @@
         <v>14</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="E28" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/453","JEP 453")</f>
@@ -8717,13 +8751,13 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>410</v>
+        <v>124</v>
       </c>
       <c r="E29" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/431","JEP 431")</f>
@@ -8736,13 +8770,13 @@
         <v>14</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="E30" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/452","JEP 452")</f>
@@ -8755,13 +8789,13 @@
         <v>14</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="E31" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/439","JEP 439")</f>
@@ -8774,13 +8808,13 @@
         <v>14</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="E32" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/449","JEP 449")</f>
@@ -8793,13 +8827,13 @@
         <v>14</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="E33" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/451","JEP 451")</f>
@@ -8812,13 +8846,13 @@
         <v>14</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="E34" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/430","JEP 430")</f>
@@ -8831,10 +8865,10 @@
         <v>14</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>51</v>
@@ -8850,10 +8884,10 @@
         <v>14</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>44</v>
@@ -8869,13 +8903,13 @@
         <v>14</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="E37" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/443","JEP 443")</f>
@@ -8888,13 +8922,13 @@
         <v>14</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="E38" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/445","JEP 445")</f>
@@ -8909,7 +8943,7 @@
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="E39" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/448","JEP 448")</f>
@@ -8954,19 +8988,19 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:6">
@@ -8974,13 +9008,13 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="E2" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/460","JEP 460")</f>
@@ -8993,13 +9027,13 @@
         <v>15</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="E3" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/462","JEP 462")</f>
@@ -9012,13 +9046,13 @@
         <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="E4" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/464","JEP 464")</f>
@@ -9031,13 +9065,13 @@
         <v>15</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="E5" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/457","JEP 457")</f>
@@ -9050,13 +9084,13 @@
         <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E6" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/454","JEP 454")</f>
@@ -9069,13 +9103,13 @@
         <v>15</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="E7" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/461","JEP 461")</f>
@@ -9088,13 +9122,13 @@
         <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="E8" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/423","JEP 423")</f>
@@ -9107,13 +9141,13 @@
         <v>15</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="E9" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/447","JEP 447")</f>
@@ -9126,13 +9160,13 @@
         <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="E10" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/456","JEP 456")</f>
@@ -9145,13 +9179,13 @@
         <v>15</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="E11" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/459","JEP 459")</f>
@@ -9164,13 +9198,13 @@
         <v>15</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="E12" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/463","JEP 463")</f>
@@ -9183,13 +9217,13 @@
         <v>15</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="E13" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/458","JEP 458")</f>
@@ -9202,13 +9236,13 @@
         <v>16</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="E14" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/469","JEP 469")</f>
@@ -9221,13 +9255,13 @@
         <v>16</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="E15" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/471","JEP 471")</f>
@@ -9240,13 +9274,13 @@
         <v>16</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="E16" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/480","JEP 480")</f>
@@ -9259,13 +9293,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="E17" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/481","JEP 481")</f>
@@ -9278,13 +9312,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="E18" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/466","JEP 466")</f>
@@ -9297,13 +9331,13 @@
         <v>16</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="E19" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/474","JEP 474")</f>
@@ -9316,13 +9350,13 @@
         <v>16</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="E20" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/455","JEP 455")</f>
@@ -9335,13 +9369,13 @@
         <v>16</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="E21" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/476","JEP 476")</f>
@@ -9354,13 +9388,13 @@
         <v>16</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="E22" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/477","JEP 477")</f>
@@ -9373,13 +9407,13 @@
         <v>16</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="E23" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/482","JEP 482")</f>
@@ -9392,13 +9426,13 @@
         <v>16</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="E24" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/467","JEP 467")</f>
@@ -9413,7 +9447,7 @@
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="E25" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/473","JEP 473")</f>
@@ -9426,13 +9460,13 @@
         <v>17</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="E26" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/472","JEP 472")</f>
@@ -9445,13 +9479,13 @@
         <v>17</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="E27" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/487","JEP 487")</f>
@@ -9464,13 +9498,13 @@
         <v>17</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="E28" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/489","JEP 489")</f>
@@ -9483,13 +9517,13 @@
         <v>17</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="E29" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/498","JEP 498")</f>
@@ -9502,13 +9536,13 @@
         <v>17</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="E30" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/499","JEP 499")</f>
@@ -9521,13 +9555,13 @@
         <v>17</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E31" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/484","JEP 484")</f>
@@ -9540,13 +9574,13 @@
         <v>17</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E32" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/485","JEP 485")</f>
@@ -9559,13 +9593,13 @@
         <v>17</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="E33" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/486","JEP 486")</f>
@@ -9578,13 +9612,13 @@
         <v>17</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="E34" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/497","JEP 497")</f>
@@ -9597,13 +9631,13 @@
         <v>17</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="E35" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/478","JEP 478")</f>
@@ -9616,13 +9650,13 @@
         <v>17</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="E36" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/496","JEP 496")</f>
@@ -9635,13 +9669,13 @@
         <v>17</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="E37" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/404","JEP 404")</f>
@@ -9654,13 +9688,13 @@
         <v>17</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="E38" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/490","JEP 490")</f>
@@ -9673,13 +9707,13 @@
         <v>17</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="E39" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/475","JEP 475")</f>
@@ -9692,13 +9726,13 @@
         <v>17</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="E40" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/479","JEP 479")</f>
@@ -9711,13 +9745,13 @@
         <v>17</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="E41" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/501","JEP 501")</f>
@@ -9730,13 +9764,13 @@
         <v>17</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="E42" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/450","JEP 450")</f>
@@ -9749,13 +9783,13 @@
         <v>17</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="E43" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/483","JEP 483")</f>
@@ -9768,13 +9802,13 @@
         <v>17</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="E44" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/491","JEP 491")</f>
@@ -9787,13 +9821,13 @@
         <v>17</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="E45" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/488","JEP 488")</f>
@@ -9806,13 +9840,13 @@
         <v>17</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="E46" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/492","JEP 492")</f>
@@ -9825,13 +9859,13 @@
         <v>17</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="E47" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/494","JEP 494")</f>
@@ -9844,13 +9878,13 @@
         <v>17</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E48" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/495","JEP 495")</f>
@@ -9863,13 +9897,13 @@
         <v>17</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="E49" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/493","JEP 493")</f>

--- a/README.xlsx
+++ b/README.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="472">
   <si>
     <t>Feature</t>
   </si>
@@ -403,6 +403,15 @@
 JEP 434</t>
   </si>
   <si>
+    <t>3rd
+Preview
+JEP 442</t>
+  </si>
+  <si>
+    <t>Standard
+JEP 454</t>
+  </si>
+  <si>
     <t>Vector API</t>
   </si>
   <si>
@@ -491,6 +500,10 @@
     <t>2nd
 Preview
 JEP 436</t>
+  </si>
+  <si>
+    <t>Standard
+JEP 444</t>
   </si>
   <si>
     <t>Scoped Values</t>
@@ -2684,7 +2697,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6363636363636" defaultRowHeight="50" customHeight="1"/>
@@ -3556,11 +3569,11 @@
   <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K14" sqref="K14"/>
+      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6363636363636" defaultRowHeight="50" customHeight="1"/>
@@ -3761,15 +3774,19 @@
       <c r="N6" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
+      <c r="O6" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="P6" s="18" t="s">
+        <v>99</v>
+      </c>
       <c r="Q6" s="18"/>
       <c r="R6" s="18"/>
       <c r="S6" s="18"/>
     </row>
     <row r="7" s="12" customFormat="1" customHeight="1" spans="1:19">
       <c r="A7" s="19" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="20"/>
@@ -3780,37 +3797,37 @@
       <c r="H7" s="20"/>
       <c r="I7" s="20"/>
       <c r="J7" s="21" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K7" s="21" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L7" s="21" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M7" s="21" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="N7" s="21" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="O7" s="21" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="P7" s="21" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q7" s="21" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="R7" s="21" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="S7" s="20"/>
     </row>
     <row r="8" s="11" customFormat="1" customHeight="1" spans="1:19">
       <c r="A8" s="16" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="18"/>
@@ -3824,28 +3841,28 @@
       <c r="K8" s="18"/>
       <c r="L8" s="18"/>
       <c r="M8" s="17" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N8" s="17" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="O8" s="17" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P8" s="17" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q8" s="17" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="R8" s="17" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="S8" s="18"/>
     </row>
     <row r="9" s="12" customFormat="1" customHeight="1" spans="1:19">
       <c r="A9" s="19" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="20"/>
@@ -3859,12 +3876,14 @@
       <c r="K9" s="20"/>
       <c r="L9" s="20"/>
       <c r="M9" s="21" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="N9" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="O9" s="20"/>
+        <v>119</v>
+      </c>
+      <c r="O9" s="20" t="s">
+        <v>120</v>
+      </c>
       <c r="P9" s="20"/>
       <c r="Q9" s="20"/>
       <c r="R9" s="20"/>
@@ -3872,7 +3891,7 @@
     </row>
     <row r="10" s="11" customFormat="1" customHeight="1" spans="1:19">
       <c r="A10" s="16" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="18"/>
@@ -3887,25 +3906,25 @@
       <c r="L10" s="18"/>
       <c r="M10" s="18"/>
       <c r="N10" s="17" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="O10" s="17" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="P10" s="17" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q10" s="17" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="R10" s="17" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="S10" s="18"/>
     </row>
     <row r="11" s="12" customFormat="1" customHeight="1" spans="1:19">
       <c r="A11" s="19" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="20"/>
@@ -3921,7 +3940,7 @@
       <c r="M11" s="20"/>
       <c r="N11" s="20"/>
       <c r="O11" s="20" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="P11" s="21"/>
       <c r="Q11" s="21"/>
@@ -3930,7 +3949,7 @@
     </row>
     <row r="12" s="11" customFormat="1" customHeight="1" spans="1:19">
       <c r="A12" s="16" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="18"/>
@@ -3947,17 +3966,17 @@
       <c r="N12" s="18"/>
       <c r="O12" s="18"/>
       <c r="P12" s="17" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q12" s="17" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="R12" s="18"/>
       <c r="S12" s="18"/>
     </row>
     <row r="13" s="12" customFormat="1" customHeight="1" spans="1:19">
       <c r="A13" s="19" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="20"/>
@@ -3974,17 +3993,17 @@
       <c r="N13" s="20"/>
       <c r="O13" s="20"/>
       <c r="P13" s="20" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q13" s="20" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="R13" s="21"/>
       <c r="S13" s="20"/>
     </row>
     <row r="14" s="11" customFormat="1" customHeight="1" spans="1:19">
       <c r="A14" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="18"/>
@@ -4003,7 +4022,7 @@
       <c r="P14" s="18"/>
       <c r="Q14" s="18"/>
       <c r="R14" s="18" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="S14" s="18"/>
     </row>
@@ -4452,33 +4471,33 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E2" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/289","JEP 289")</f>
@@ -4488,16 +4507,16 @@
     </row>
     <row r="3" s="3" customFormat="1" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E3" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/259","JEP 259")</f>
@@ -4507,16 +4526,16 @@
     </row>
     <row r="4" s="2" customFormat="1" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E4" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/290","JEP 290")</f>
@@ -4526,16 +4545,16 @@
     </row>
     <row r="5" s="3" customFormat="1" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E5" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/102","JEP 102")</f>
@@ -4545,16 +4564,16 @@
     </row>
     <row r="6" s="2" customFormat="1" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E6" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/274","JEP 274")</f>
@@ -4564,16 +4583,16 @@
     </row>
     <row r="7" s="3" customFormat="1" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E7" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/276","JEP 276")</f>
@@ -4583,16 +4602,16 @@
     </row>
     <row r="8" s="2" customFormat="1" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E8" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/110","JEP 110")</f>
@@ -4602,16 +4621,16 @@
     </row>
     <row r="9" s="3" customFormat="1" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E9" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/266","JEP 266")</f>
@@ -4621,16 +4640,16 @@
     </row>
     <row r="10" s="2" customFormat="1" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E10" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/264","JEP 264")</f>
@@ -4640,16 +4659,16 @@
     </row>
     <row r="11" s="3" customFormat="1" spans="1:6">
       <c r="A11" s="3" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E11" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/269","JEP 269")</f>
@@ -4659,16 +4678,16 @@
     </row>
     <row r="12" s="2" customFormat="1" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E12" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/226","JEP 226")</f>
@@ -4678,16 +4697,16 @@
     </row>
     <row r="13" s="3" customFormat="1" spans="1:6">
       <c r="A13" s="3" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E13" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/252","JEP 252")</f>
@@ -4697,16 +4716,16 @@
     </row>
     <row r="14" s="2" customFormat="1" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E14" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/236","JEP 236")</f>
@@ -4716,16 +4735,16 @@
     </row>
     <row r="15" s="3" customFormat="1" spans="1:6">
       <c r="A15" s="3" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E15" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/292","JEP 292")</f>
@@ -4735,16 +4754,16 @@
     </row>
     <row r="16" s="2" customFormat="1" spans="1:6">
       <c r="A16" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E16" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/229","JEP 229")</f>
@@ -4754,16 +4773,16 @@
     </row>
     <row r="17" s="3" customFormat="1" spans="1:6">
       <c r="A17" s="3" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E17" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/232","JEP 232")</f>
@@ -4773,16 +4792,16 @@
     </row>
     <row r="18" s="2" customFormat="1" spans="1:6">
       <c r="A18" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E18" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/273","JEP 273")</f>
@@ -4792,16 +4811,16 @@
     </row>
     <row r="19" s="3" customFormat="1" spans="1:6">
       <c r="A19" s="3" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E19" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/287","JEP 287")</f>
@@ -4811,16 +4830,16 @@
     </row>
     <row r="20" s="2" customFormat="1" spans="1:6">
       <c r="A20" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E20" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/288","JEP 288")</f>
@@ -4830,16 +4849,16 @@
     </row>
     <row r="21" s="3" customFormat="1" spans="1:6">
       <c r="A21" s="3" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E21" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/246","JEP 246")</f>
@@ -4849,16 +4868,16 @@
     </row>
     <row r="22" s="2" customFormat="1" spans="1:6">
       <c r="A22" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E22" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/219","JEP 219")</f>
@@ -4868,16 +4887,16 @@
     </row>
     <row r="23" s="3" customFormat="1" spans="1:6">
       <c r="A23" s="3" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E23" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/244","JEP 244")</f>
@@ -4887,16 +4906,16 @@
     </row>
     <row r="24" s="2" customFormat="1" spans="1:6">
       <c r="A24" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E24" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/249","JEP 249")</f>
@@ -4906,16 +4925,16 @@
     </row>
     <row r="25" s="3" customFormat="1" spans="1:6">
       <c r="A25" s="3" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E25" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/214","JEP 214")</f>
@@ -4925,16 +4944,16 @@
     </row>
     <row r="26" s="2" customFormat="1" spans="1:6">
       <c r="A26" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E26" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/248","JEP 248")</f>
@@ -4944,16 +4963,16 @@
     </row>
     <row r="27" s="3" customFormat="1" spans="1:6">
       <c r="A27" s="3" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="E27" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/271","JEP 271")</f>
@@ -4963,16 +4982,16 @@
     </row>
     <row r="28" s="2" customFormat="1" spans="1:6">
       <c r="A28" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E28" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/278","JEP 278")</f>
@@ -4982,16 +5001,16 @@
     </row>
     <row r="29" s="3" customFormat="1" spans="1:6">
       <c r="A29" s="3" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="E29" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/291","JEP 291")</f>
@@ -5001,16 +5020,16 @@
     </row>
     <row r="30" s="2" customFormat="1" spans="1:6">
       <c r="A30" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E30" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/254","JEP 254")</f>
@@ -5020,14 +5039,14 @@
     </row>
     <row r="31" s="3" customFormat="1" spans="1:6">
       <c r="A31" s="3" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E31" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/200","JEP 200")</f>
@@ -5037,14 +5056,14 @@
     </row>
     <row r="32" s="2" customFormat="1" spans="1:6">
       <c r="A32" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E32" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/201","JEP 201")</f>
@@ -5054,14 +5073,14 @@
     </row>
     <row r="33" s="3" customFormat="1" spans="1:6">
       <c r="A33" s="3" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="E33" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/220","JEP 220")</f>
@@ -5071,14 +5090,14 @@
     </row>
     <row r="34" s="2" customFormat="1" spans="1:6">
       <c r="A34" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E34" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/261","JEP 261")</f>
@@ -5088,16 +5107,16 @@
     </row>
     <row r="35" s="3" customFormat="1" spans="1:6">
       <c r="A35" s="3" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E35" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/165","JEP 165")</f>
@@ -5107,16 +5126,16 @@
     </row>
     <row r="36" s="2" customFormat="1" spans="1:6">
       <c r="A36" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="E36" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/197","JEP 197")</f>
@@ -5126,16 +5145,16 @@
     </row>
     <row r="37" s="3" customFormat="1" spans="1:6">
       <c r="A37" s="3" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="E37" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/233","JEP 233")</f>
@@ -5145,16 +5164,16 @@
     </row>
     <row r="38" s="2" customFormat="1" spans="1:6">
       <c r="A38" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E38" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/237","JEP 237")</f>
@@ -5164,16 +5183,16 @@
     </row>
     <row r="39" s="3" customFormat="1" spans="1:6">
       <c r="A39" s="3" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="E39" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/243","JEP 243")</f>
@@ -5183,16 +5202,16 @@
     </row>
     <row r="40" s="2" customFormat="1" spans="1:6">
       <c r="A40" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="E40" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/294","JEP 294")</f>
@@ -5202,16 +5221,16 @@
     </row>
     <row r="41" s="3" customFormat="1" spans="1:6">
       <c r="A41" s="3" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="E41" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/295","JEP 295")</f>
@@ -5221,16 +5240,16 @@
     </row>
     <row r="42" s="2" customFormat="1" spans="1:6">
       <c r="A42" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="E42" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/297","JEP 297")</f>
@@ -5240,16 +5259,16 @@
     </row>
     <row r="43" s="3" customFormat="1" spans="1:6">
       <c r="A43" s="3" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="E43" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/143","JEP 143")</f>
@@ -5259,16 +5278,16 @@
     </row>
     <row r="44" s="2" customFormat="1" spans="1:6">
       <c r="A44" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="E44" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/245","JEP 245")</f>
@@ -5278,16 +5297,16 @@
     </row>
     <row r="45" s="3" customFormat="1" spans="1:6">
       <c r="A45" s="3" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="E45" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/250","JEP 250")</f>
@@ -5297,16 +5316,16 @@
     </row>
     <row r="46" s="2" customFormat="1" spans="1:6">
       <c r="A46" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="E46" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/158","JEP 158")</f>
@@ -5316,16 +5335,16 @@
     </row>
     <row r="47" s="3" customFormat="1" spans="1:6">
       <c r="A47" s="3" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="E47" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/228","JEP 228")</f>
@@ -5335,16 +5354,16 @@
     </row>
     <row r="48" s="2" customFormat="1" spans="1:6">
       <c r="A48" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="E48" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/281","JEP 281")</f>
@@ -5354,16 +5373,16 @@
     </row>
     <row r="49" s="3" customFormat="1" spans="1:6">
       <c r="A49" s="3" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="E49" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/193","JEP 193")</f>
@@ -5373,16 +5392,16 @@
     </row>
     <row r="50" s="2" customFormat="1" spans="1:6">
       <c r="A50" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="E50" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/227","JEP 227")</f>
@@ -5392,16 +5411,16 @@
     </row>
     <row r="51" s="3" customFormat="1" spans="1:6">
       <c r="A51" s="3" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="E51" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/267","JEP 267")</f>
@@ -5411,16 +5430,16 @@
     </row>
     <row r="52" s="2" customFormat="1" spans="1:6">
       <c r="A52" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E52" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/277","JEP 277")</f>
@@ -5430,16 +5449,16 @@
     </row>
     <row r="53" s="3" customFormat="1" spans="1:6">
       <c r="A53" s="3" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="E53" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/285","JEP 285")</f>
@@ -5449,16 +5468,16 @@
     </row>
     <row r="54" s="2" customFormat="1" spans="1:6">
       <c r="A54" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="E54" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/251","JEP 251")</f>
@@ -5468,16 +5487,16 @@
     </row>
     <row r="55" s="3" customFormat="1" spans="1:6">
       <c r="A55" s="3" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E55" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/258","JEP 258")</f>
@@ -5487,16 +5506,16 @@
     </row>
     <row r="56" s="2" customFormat="1" spans="1:6">
       <c r="A56" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="E56" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/265","JEP 265")</f>
@@ -5506,16 +5525,16 @@
     </row>
     <row r="57" s="3" customFormat="1" spans="1:6">
       <c r="A57" s="3" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="E57" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/263","JEP 263")</f>
@@ -5525,16 +5544,16 @@
     </row>
     <row r="58" s="2" customFormat="1" spans="1:6">
       <c r="A58" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="E58" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/272","JEP 272")</f>
@@ -5544,16 +5563,16 @@
     </row>
     <row r="59" s="3" customFormat="1" spans="1:6">
       <c r="A59" s="3" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="E59" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/256","JEP 256")</f>
@@ -5563,16 +5582,16 @@
     </row>
     <row r="60" s="2" customFormat="1" spans="1:6">
       <c r="A60" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="E60" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/262","JEP 262")</f>
@@ -5582,16 +5601,16 @@
     </row>
     <row r="61" s="3" customFormat="1" spans="1:6">
       <c r="A61" s="3" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="E61" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/240","JEP 240")</f>
@@ -5601,16 +5620,16 @@
     </row>
     <row r="62" s="2" customFormat="1" spans="1:6">
       <c r="A62" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E62" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/241","JEP 241")</f>
@@ -5620,16 +5639,16 @@
     </row>
     <row r="63" s="3" customFormat="1" spans="1:6">
       <c r="A63" s="3" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="E63" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/275","JEP 275")</f>
@@ -5639,16 +5658,16 @@
     </row>
     <row r="64" s="2" customFormat="1" spans="1:6">
       <c r="A64" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E64" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/299","JEP 299")</f>
@@ -5658,16 +5677,16 @@
     </row>
     <row r="65" s="3" customFormat="1" spans="1:6">
       <c r="A65" s="3" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="E65" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/298","JEP 298")</f>
@@ -5677,16 +5696,16 @@
     </row>
     <row r="66" s="2" customFormat="1" spans="1:6">
       <c r="A66" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E66" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/284","JEP 284")</f>
@@ -5696,16 +5715,16 @@
     </row>
     <row r="67" s="3" customFormat="1" spans="1:6">
       <c r="A67" s="3" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="E67" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/253","JEP 253")</f>
@@ -5715,16 +5734,16 @@
     </row>
     <row r="68" s="2" customFormat="1" spans="1:6">
       <c r="A68" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="E68" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/257","JEP 257")</f>
@@ -5734,16 +5753,16 @@
     </row>
     <row r="69" s="3" customFormat="1" spans="1:6">
       <c r="A69" s="3" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="E69" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/283","JEP 283")</f>
@@ -5753,16 +5772,16 @@
     </row>
     <row r="70" s="2" customFormat="1" spans="1:6">
       <c r="A70" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="E70" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/255","JEP 255")</f>
@@ -5772,16 +5791,16 @@
     </row>
     <row r="71" s="3" customFormat="1" spans="1:6">
       <c r="A71" s="3" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="E71" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/268","JEP 268")</f>
@@ -5791,14 +5810,14 @@
     </row>
     <row r="72" s="2" customFormat="1" spans="1:6">
       <c r="A72" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="E72" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/223","JEP 223")</f>
@@ -5808,14 +5827,14 @@
     </row>
     <row r="73" s="3" customFormat="1" spans="1:6">
       <c r="A73" s="3" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C73" s="3"/>
       <c r="D73" s="3" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="E73" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/260","JEP 260")</f>
@@ -5825,14 +5844,14 @@
     </row>
     <row r="74" s="2" customFormat="1" spans="1:6">
       <c r="A74" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E74" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/270","JEP 270")</f>
@@ -5842,14 +5861,14 @@
     </row>
     <row r="75" s="3" customFormat="1" spans="1:6">
       <c r="A75" s="3" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="3" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="E75" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/279","JEP 279")</f>
@@ -5859,16 +5878,16 @@
     </row>
     <row r="76" s="2" customFormat="1" spans="1:6">
       <c r="A76" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="E76" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/212","JEP 212")</f>
@@ -5878,16 +5897,16 @@
     </row>
     <row r="77" s="3" customFormat="1" spans="1:6">
       <c r="A77" s="3" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E77" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/238","JEP 238")</f>
@@ -5897,16 +5916,16 @@
     </row>
     <row r="78" s="2" customFormat="1" spans="1:6">
       <c r="A78" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="E78" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/199","JEP 199")</f>
@@ -5916,16 +5935,16 @@
     </row>
     <row r="79" s="3" customFormat="1" spans="1:6">
       <c r="A79" s="3" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="E79" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/211","JEP 211")</f>
@@ -5935,16 +5954,16 @@
     </row>
     <row r="80" s="2" customFormat="1" spans="1:6">
       <c r="A80" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="E80" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/213","JEP 213")</f>
@@ -5954,16 +5973,16 @@
     </row>
     <row r="81" s="3" customFormat="1" spans="1:6">
       <c r="A81" s="3" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="E81" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/215","JEP 215")</f>
@@ -5973,16 +5992,16 @@
     </row>
     <row r="82" s="2" customFormat="1" spans="1:6">
       <c r="A82" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E82" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/216","JEP 216")</f>
@@ -5992,16 +6011,16 @@
     </row>
     <row r="83" s="3" customFormat="1" spans="1:6">
       <c r="A83" s="3" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="E83" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/217","JEP 217")</f>
@@ -6011,16 +6030,16 @@
     </row>
     <row r="84" s="2" customFormat="1" spans="1:6">
       <c r="A84" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="E84" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/235","JEP 235")</f>
@@ -6030,16 +6049,16 @@
     </row>
     <row r="85" s="3" customFormat="1" spans="1:6">
       <c r="A85" s="3" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="E85" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/247","JEP 247")</f>
@@ -6049,16 +6068,16 @@
     </row>
     <row r="86" s="2" customFormat="1" spans="1:6">
       <c r="A86" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="E86" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/280","JEP 280")</f>
@@ -6068,16 +6087,16 @@
     </row>
     <row r="87" s="3" customFormat="1" spans="1:6">
       <c r="A87" s="3" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="E87" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/221","JEP 221")</f>
@@ -6087,16 +6106,16 @@
     </row>
     <row r="88" s="2" customFormat="1" spans="1:6">
       <c r="A88" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="E88" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/224","JEP 224")</f>
@@ -6106,16 +6125,16 @@
     </row>
     <row r="89" s="3" customFormat="1" spans="1:6">
       <c r="A89" s="3" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="E89" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/225","JEP 225")</f>
@@ -6125,16 +6144,16 @@
     </row>
     <row r="90" s="2" customFormat="1" spans="1:6">
       <c r="A90" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="E90" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/282","JEP 282")</f>
@@ -6144,16 +6163,16 @@
     </row>
     <row r="91" s="3" customFormat="1" spans="1:6">
       <c r="A91" s="3" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="E91" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/222","JEP 222")</f>
@@ -6163,16 +6182,16 @@
     </row>
     <row r="92" s="2" customFormat="1" spans="1:6">
       <c r="A92" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="E92" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/231","JEP 231")</f>
@@ -6185,13 +6204,13 @@
         <v>3</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="E93" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/314","JEP 314")</f>
@@ -6204,13 +6223,13 @@
         <v>3</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E94" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/319","JEP 319")</f>
@@ -6223,13 +6242,13 @@
         <v>3</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="E95" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/304","JEP 304")</f>
@@ -6242,13 +6261,13 @@
         <v>3</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="E96" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/307","JEP 307")</f>
@@ -6261,13 +6280,13 @@
         <v>3</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="E97" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/316","JEP 316")</f>
@@ -6280,13 +6299,13 @@
         <v>3</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E98" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/317","JEP 317")</f>
@@ -6299,13 +6318,13 @@
         <v>3</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="E99" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/310","JEP 310")</f>
@@ -6318,13 +6337,13 @@
         <v>3</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="E100" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/312","JEP 312")</f>
@@ -6337,13 +6356,13 @@
         <v>3</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="E101" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/322","JEP 322")</f>
@@ -6356,13 +6375,13 @@
         <v>3</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="E102" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/286","JEP 286")</f>
@@ -6375,13 +6394,13 @@
         <v>3</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="E103" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/296","JEP 296")</f>
@@ -6394,13 +6413,13 @@
         <v>3</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="E104" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/313","JEP 313")</f>
@@ -6413,13 +6432,13 @@
         <v>4</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="E105" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/321","JEP 321")</f>
@@ -6432,13 +6451,13 @@
         <v>4</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="E106" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/335","JEP 335")</f>
@@ -6451,13 +6470,13 @@
         <v>4</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="E107" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/324","JEP 324")</f>
@@ -6470,13 +6489,13 @@
         <v>4</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="E108" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/329","JEP 329")</f>
@@ -6489,13 +6508,13 @@
         <v>4</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="E109" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/332","JEP 332")</f>
@@ -6508,13 +6527,13 @@
         <v>4</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="E110" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/318","JEP 318")</f>
@@ -6527,13 +6546,13 @@
         <v>4</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="E111" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/333","JEP 333")</f>
@@ -6546,13 +6565,13 @@
         <v>4</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="E112" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/315","JEP 315")</f>
@@ -6565,13 +6584,13 @@
         <v>4</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="E113" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/328","JEP 328")</f>
@@ -6584,13 +6603,13 @@
         <v>4</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="E114" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/331","JEP 331")</f>
@@ -6603,13 +6622,13 @@
         <v>4</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="E115" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/181","JEP 181")</f>
@@ -6622,13 +6641,13 @@
         <v>4</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E116" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/309","JEP 309")</f>
@@ -6641,13 +6660,13 @@
         <v>4</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="E117" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/327","JEP 327")</f>
@@ -6660,13 +6679,13 @@
         <v>4</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="E118" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/320","JEP 320")</f>
@@ -6679,13 +6698,13 @@
         <v>4</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E119" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/323","JEP 323")</f>
@@ -6698,13 +6717,13 @@
         <v>4</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="E120" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/336","JEP 336")</f>
@@ -6717,13 +6736,13 @@
         <v>4</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="E121" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/330","JEP 330")</f>
@@ -6768,19 +6787,19 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:6">
@@ -6788,13 +6807,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="E2" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/334","JEP 334")</f>
@@ -6807,13 +6826,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="E3" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/189","JEP 189")</f>
@@ -6826,13 +6845,13 @@
         <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="E4" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/344","JEP 344")</f>
@@ -6845,13 +6864,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="E5" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/346","JEP 346")</f>
@@ -6864,13 +6883,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="E6" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/340","JEP 340")</f>
@@ -6883,13 +6902,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="E7" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/341","JEP 341")</f>
@@ -6902,13 +6921,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="E8" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/230","JEP 230")</f>
@@ -6921,13 +6940,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="E9" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/325","JEP 325")</f>
@@ -6940,13 +6959,13 @@
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="E10" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/353","JEP 353")</f>
@@ -6959,13 +6978,13 @@
         <v>6</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="E11" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/351","JEP 351")</f>
@@ -6978,13 +6997,13 @@
         <v>6</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="E12" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/350","JEP 350")</f>
@@ -6997,13 +7016,13 @@
         <v>6</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="E13" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/354","JEP 354")</f>
@@ -7016,13 +7035,13 @@
         <v>6</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="E14" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/355","JEP 355")</f>
@@ -7035,13 +7054,13 @@
         <v>7</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="E15" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/370","JEP 370")</f>
@@ -7054,13 +7073,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="E16" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/352","JEP 352")</f>
@@ -7073,13 +7092,13 @@
         <v>7</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="E17" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/345","JEP 345")</f>
@@ -7092,13 +7111,13 @@
         <v>7</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="E18" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/363","JEP 363")</f>
@@ -7111,13 +7130,13 @@
         <v>7</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="E19" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/364","JEP 364")</f>
@@ -7130,13 +7149,13 @@
         <v>7</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="E20" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/365","JEP 365")</f>
@@ -7149,13 +7168,13 @@
         <v>7</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="E21" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/366","JEP 366")</f>
@@ -7168,13 +7187,13 @@
         <v>7</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="E22" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/349","JEP 349")</f>
@@ -7187,13 +7206,13 @@
         <v>7</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="E23" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/358","JEP 358")</f>
@@ -7206,13 +7225,13 @@
         <v>7</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="E24" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/305","JEP 305")</f>
@@ -7225,13 +7244,13 @@
         <v>7</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="E25" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/359","JEP 359")</f>
@@ -7244,13 +7263,13 @@
         <v>7</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="E26" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/361","JEP 361")</f>
@@ -7263,13 +7282,13 @@
         <v>7</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="E27" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/368","JEP 368")</f>
@@ -7282,11 +7301,11 @@
         <v>7</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="E28" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/362","JEP 362")</f>
@@ -7299,13 +7318,13 @@
         <v>7</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="E29" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/367","JEP 367")</f>
@@ -7318,13 +7337,13 @@
         <v>7</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="E30" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/343","JEP 343")</f>
@@ -7337,13 +7356,13 @@
         <v>8</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="E31" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/383","JEP 383")</f>
@@ -7356,13 +7375,13 @@
         <v>8</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="E32" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/371","JEP 371")</f>
@@ -7375,13 +7394,13 @@
         <v>8</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="E33" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/373","JEP 373")</f>
@@ -7394,13 +7413,13 @@
         <v>8</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="E34" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/385","JEP 385")</f>
@@ -7413,13 +7432,13 @@
         <v>8</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="E35" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/372","JEP 372")</f>
@@ -7432,13 +7451,13 @@
         <v>8</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="E36" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/339","JEP 339")</f>
@@ -7451,13 +7470,13 @@
         <v>8</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="E37" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/377","JEP 377")</f>
@@ -7470,13 +7489,13 @@
         <v>8</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="E38" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/379","JEP 379")</f>
@@ -7489,13 +7508,13 @@
         <v>8</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="E39" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/381","JEP 381")</f>
@@ -7508,13 +7527,13 @@
         <v>8</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="E40" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/374","JEP 374")</f>
@@ -7527,13 +7546,13 @@
         <v>8</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="E41" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/360","JEP 360")</f>
@@ -7546,13 +7565,13 @@
         <v>8</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="E42" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/375","JEP 375")</f>
@@ -7565,10 +7584,10 @@
         <v>8</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>24</v>
@@ -7584,13 +7603,13 @@
         <v>8</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="E44" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/384","JEP 384")</f>
@@ -7603,13 +7622,13 @@
         <v>9</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="E45" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/389","JEP 389")</f>
@@ -7622,13 +7641,13 @@
         <v>9</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="E46" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/393","JEP 393")</f>
@@ -7641,13 +7660,13 @@
         <v>9</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="E47" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/380","JEP 380")</f>
@@ -7660,13 +7679,13 @@
         <v>9</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="E48" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/376","JEP 376")</f>
@@ -7679,13 +7698,13 @@
         <v>9</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="E49" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/338","JEP 338")</f>
@@ -7698,13 +7717,13 @@
         <v>9</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="E50" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/347","JEP 347")</f>
@@ -7717,13 +7736,13 @@
         <v>9</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="E51" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/386","JEP 386")</f>
@@ -7736,13 +7755,13 @@
         <v>9</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="E52" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/387","JEP 387")</f>
@@ -7755,13 +7774,13 @@
         <v>9</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="E53" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/388","JEP 388")</f>
@@ -7774,10 +7793,10 @@
         <v>9</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>34</v>
@@ -7793,10 +7812,10 @@
         <v>9</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>29</v>
@@ -7812,13 +7831,13 @@
         <v>9</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="E56" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/397","JEP 397")</f>
@@ -7831,13 +7850,13 @@
         <v>9</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="E57" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/357","JEP 357")</f>
@@ -7850,13 +7869,13 @@
         <v>9</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="E58" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/369","JEP 369")</f>
@@ -7869,11 +7888,11 @@
         <v>9</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="3" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="E59" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/390","JEP 390")</f>
@@ -7886,11 +7905,11 @@
         <v>9</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="E60" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/396","JEP 396")</f>
@@ -7903,13 +7922,13 @@
         <v>9</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="E61" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/392","JEP 392")</f>
@@ -7922,13 +7941,13 @@
         <v>10</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="E62" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/412","JEP 412")</f>
@@ -7941,13 +7960,13 @@
         <v>10</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="E63" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/414","JEP 414")</f>
@@ -7960,13 +7979,13 @@
         <v>10</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="E64" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/415","JEP 415")</f>
@@ -7979,13 +7998,13 @@
         <v>10</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="E65" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/407","JEP 407")</f>
@@ -7998,13 +8017,13 @@
         <v>10</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="E66" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/356","JEP 356")</f>
@@ -8017,13 +8036,13 @@
         <v>10</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="E67" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/411","JEP 411")</f>
@@ -8036,13 +8055,13 @@
         <v>10</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="E68" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/410","JEP 410")</f>
@@ -8055,13 +8074,13 @@
         <v>10</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="E69" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/391","JEP 391")</f>
@@ -8074,13 +8093,13 @@
         <v>10</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="E70" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/306","JEP 306")</f>
@@ -8093,13 +8112,13 @@
         <v>10</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="E71" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/406","JEP 406")</f>
@@ -8112,10 +8131,10 @@
         <v>10</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>39</v>
@@ -8131,13 +8150,13 @@
         <v>10</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="E73" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/382","JEP 382")</f>
@@ -8150,13 +8169,13 @@
         <v>10</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="E74" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/398","JEP 398")</f>
@@ -8169,11 +8188,11 @@
         <v>10</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="3" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="E75" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/403","JEP 403")</f>
@@ -8218,19 +8237,19 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:6">
@@ -8238,13 +8257,13 @@
         <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="E2" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/417","JEP 417")</f>
@@ -8257,13 +8276,13 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="E3" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/419","JEP 419")</f>
@@ -8276,13 +8295,13 @@
         <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="E4" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/416","JEP 416")</f>
@@ -8295,13 +8314,13 @@
         <v>11</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="E5" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/408","JEP 408")</f>
@@ -8314,13 +8333,13 @@
         <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="E6" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/418","JEP 418")</f>
@@ -8333,13 +8352,13 @@
         <v>11</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="E7" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/400","JEP 400")</f>
@@ -8352,13 +8371,13 @@
         <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="E8" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/421","JEP 421")</f>
@@ -8371,13 +8390,13 @@
         <v>11</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="E9" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/420","JEP 420")</f>
@@ -8390,13 +8409,13 @@
         <v>11</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="E10" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/413","JEP 413")</f>
@@ -8409,13 +8428,13 @@
         <v>12</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="E11" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/424","JEP 424")</f>
@@ -8428,13 +8447,13 @@
         <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="E12" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/425","JEP 425")</f>
@@ -8447,13 +8466,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="E13" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/426","JEP 426")</f>
@@ -8466,13 +8485,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="E14" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/428","JEP 428")</f>
@@ -8485,13 +8504,13 @@
         <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="E15" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/422","JEP 422")</f>
@@ -8504,13 +8523,13 @@
         <v>12</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="E16" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/405","JEP 405")</f>
@@ -8523,13 +8542,13 @@
         <v>12</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="E17" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/427","JEP 427")</f>
@@ -8542,13 +8561,13 @@
         <v>13</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E18" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/429","JEP 429")</f>
@@ -8561,13 +8580,13 @@
         <v>13</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="E19" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/434","JEP 434")</f>
@@ -8580,13 +8599,13 @@
         <v>13</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="E20" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/436","JEP 436")</f>
@@ -8599,13 +8618,13 @@
         <v>13</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="E21" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/437","JEP 437")</f>
@@ -8618,13 +8637,13 @@
         <v>13</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="E22" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/438","JEP 438")</f>
@@ -8637,13 +8656,13 @@
         <v>13</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="E23" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/432","JEP 432")</f>
@@ -8656,13 +8675,13 @@
         <v>13</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="E24" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/433","JEP 433")</f>
@@ -8675,13 +8694,13 @@
         <v>14</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="E25" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/442","JEP 442")</f>
@@ -8694,13 +8713,13 @@
         <v>14</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E26" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/444","JEP 444")</f>
@@ -8713,13 +8732,13 @@
         <v>14</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="E27" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/446","JEP 446")</f>
@@ -8732,13 +8751,13 @@
         <v>14</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="E28" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/453","JEP 453")</f>
@@ -8751,13 +8770,13 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E29" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/431","JEP 431")</f>
@@ -8770,13 +8789,13 @@
         <v>14</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="E30" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/452","JEP 452")</f>
@@ -8789,13 +8808,13 @@
         <v>14</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="E31" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/439","JEP 439")</f>
@@ -8808,13 +8827,13 @@
         <v>14</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="E32" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/449","JEP 449")</f>
@@ -8827,13 +8846,13 @@
         <v>14</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="E33" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/451","JEP 451")</f>
@@ -8846,13 +8865,13 @@
         <v>14</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="E34" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/430","JEP 430")</f>
@@ -8865,10 +8884,10 @@
         <v>14</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>51</v>
@@ -8884,10 +8903,10 @@
         <v>14</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>44</v>
@@ -8903,13 +8922,13 @@
         <v>14</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="E37" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/443","JEP 443")</f>
@@ -8922,13 +8941,13 @@
         <v>14</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="E38" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/445","JEP 445")</f>
@@ -8943,7 +8962,7 @@
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="E39" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/448","JEP 448")</f>
@@ -8988,19 +9007,19 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:6">
@@ -9008,13 +9027,13 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="E2" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/460","JEP 460")</f>
@@ -9027,13 +9046,13 @@
         <v>15</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="E3" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/462","JEP 462")</f>
@@ -9046,13 +9065,13 @@
         <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="E4" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/464","JEP 464")</f>
@@ -9065,13 +9084,13 @@
         <v>15</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="E5" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/457","JEP 457")</f>
@@ -9084,10 +9103,10 @@
         <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>93</v>
@@ -9103,13 +9122,13 @@
         <v>15</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="E7" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/461","JEP 461")</f>
@@ -9122,13 +9141,13 @@
         <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="E8" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/423","JEP 423")</f>
@@ -9141,13 +9160,13 @@
         <v>15</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="E9" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/447","JEP 447")</f>
@@ -9160,13 +9179,13 @@
         <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="E10" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/456","JEP 456")</f>
@@ -9179,13 +9198,13 @@
         <v>15</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="E11" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/459","JEP 459")</f>
@@ -9198,13 +9217,13 @@
         <v>15</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="E12" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/463","JEP 463")</f>
@@ -9217,13 +9236,13 @@
         <v>15</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="E13" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/458","JEP 458")</f>
@@ -9236,13 +9255,13 @@
         <v>16</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="E14" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/469","JEP 469")</f>
@@ -9255,13 +9274,13 @@
         <v>16</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="E15" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/471","JEP 471")</f>
@@ -9274,13 +9293,13 @@
         <v>16</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="E16" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/480","JEP 480")</f>
@@ -9293,13 +9312,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="E17" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/481","JEP 481")</f>
@@ -9312,13 +9331,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="E18" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/466","JEP 466")</f>
@@ -9331,13 +9350,13 @@
         <v>16</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="E19" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/474","JEP 474")</f>
@@ -9350,13 +9369,13 @@
         <v>16</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="E20" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/455","JEP 455")</f>
@@ -9369,13 +9388,13 @@
         <v>16</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="E21" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/476","JEP 476")</f>
@@ -9388,13 +9407,13 @@
         <v>16</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="E22" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/477","JEP 477")</f>
@@ -9407,13 +9426,13 @@
         <v>16</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="E23" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/482","JEP 482")</f>
@@ -9426,13 +9445,13 @@
         <v>16</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="E24" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/467","JEP 467")</f>
@@ -9447,7 +9466,7 @@
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="E25" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/473","JEP 473")</f>
@@ -9460,13 +9479,13 @@
         <v>17</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="E26" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/472","JEP 472")</f>
@@ -9479,13 +9498,13 @@
         <v>17</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="E27" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/487","JEP 487")</f>
@@ -9498,13 +9517,13 @@
         <v>17</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="E28" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/489","JEP 489")</f>
@@ -9517,13 +9536,13 @@
         <v>17</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="E29" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/498","JEP 498")</f>
@@ -9536,13 +9555,13 @@
         <v>17</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="E30" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/499","JEP 499")</f>
@@ -9555,13 +9574,13 @@
         <v>17</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E31" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/484","JEP 484")</f>
@@ -9574,13 +9593,13 @@
         <v>17</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E32" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/485","JEP 485")</f>
@@ -9593,13 +9612,13 @@
         <v>17</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="E33" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/486","JEP 486")</f>
@@ -9612,13 +9631,13 @@
         <v>17</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="E34" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/497","JEP 497")</f>
@@ -9631,13 +9650,13 @@
         <v>17</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="E35" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/478","JEP 478")</f>
@@ -9650,13 +9669,13 @@
         <v>17</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="E36" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/496","JEP 496")</f>
@@ -9669,13 +9688,13 @@
         <v>17</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="E37" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/404","JEP 404")</f>
@@ -9688,13 +9707,13 @@
         <v>17</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="E38" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/490","JEP 490")</f>
@@ -9707,13 +9726,13 @@
         <v>17</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="E39" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/475","JEP 475")</f>
@@ -9726,13 +9745,13 @@
         <v>17</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="E40" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/479","JEP 479")</f>
@@ -9745,13 +9764,13 @@
         <v>17</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="E41" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/501","JEP 501")</f>
@@ -9764,13 +9783,13 @@
         <v>17</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="E42" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/450","JEP 450")</f>
@@ -9783,13 +9802,13 @@
         <v>17</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="E43" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/483","JEP 483")</f>
@@ -9802,13 +9821,13 @@
         <v>17</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="E44" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/491","JEP 491")</f>
@@ -9821,13 +9840,13 @@
         <v>17</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="E45" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/488","JEP 488")</f>
@@ -9840,13 +9859,13 @@
         <v>17</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="E46" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/492","JEP 492")</f>
@@ -9859,13 +9878,13 @@
         <v>17</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="E47" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/494","JEP 494")</f>
@@ -9878,13 +9897,13 @@
         <v>17</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="E48" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/495","JEP 495")</f>
@@ -9897,13 +9916,13 @@
         <v>17</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="E49" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/493","JEP 493")</f>

--- a/README.xlsx
+++ b/README.xlsx
@@ -9,15 +9,13 @@
   <sheets>
     <sheet name="Language" sheetId="1" r:id="rId1"/>
     <sheet name="API" sheetId="2" r:id="rId2"/>
-    <sheet name="JVM" sheetId="3" r:id="rId3"/>
-    <sheet name="GC" sheetId="4" r:id="rId4"/>
-    <sheet name="JDK9-11" sheetId="5" r:id="rId5"/>
-    <sheet name="JDK12-17" sheetId="10" r:id="rId6"/>
-    <sheet name="JDK18-21" sheetId="11" r:id="rId7"/>
-    <sheet name="JDK22-24" sheetId="21" r:id="rId8"/>
+    <sheet name="JDK9-11" sheetId="5" r:id="rId3"/>
+    <sheet name="JDK12-17" sheetId="10" r:id="rId4"/>
+    <sheet name="JDK18-21" sheetId="11" r:id="rId5"/>
+    <sheet name="JDK22-24" sheetId="21" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'JDK9-11'!$B$1:$F$92</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'JDK9-11'!$B$1:$F$92</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,14 +35,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="460">
   <si>
     <t>Feature</t>
   </si>
   <si>
-    <t>Reference</t>
-  </si>
-  <si>
     <t>JDK 9</t>
   </si>
   <si>
@@ -97,9 +92,6 @@
   </si>
   <si>
     <t>Switch Expressions</t>
-  </si>
-  <si>
-    <t>https://javaalmanac.io/features/switch/</t>
   </si>
   <si>
     <t>Preview
@@ -118,9 +110,6 @@
     <t>Text Blocks</t>
   </si>
   <si>
-    <t>https://javaalmanac.io/features/textblocks/</t>
-  </si>
-  <si>
     <t>Preview
 JEP 355</t>
   </si>
@@ -137,9 +126,6 @@
     <t>Records</t>
   </si>
   <si>
-    <t>https://javaalmanac.io/features/records/</t>
-  </si>
-  <si>
     <t>Preview
 JEP 359</t>
   </si>
@@ -156,9 +142,6 @@
     <t>Pattern Matching for instanceof</t>
   </si>
   <si>
-    <t>https://javaalmanac.io/features/instanceof-patterns/</t>
-  </si>
-  <si>
     <t>Preview
 JEP 305</t>
   </si>
@@ -175,9 +158,6 @@
     <t>Sealed Classes</t>
   </si>
   <si>
-    <t>https://javaalmanac.io/features/sealedtypes/</t>
-  </si>
-  <si>
     <t>Preview
 JEP 360</t>
   </si>
@@ -194,9 +174,6 @@
     <t>Pattern Matching for switch</t>
   </si>
   <si>
-    <t>https://javaalmanac.io/features/typepatterns/</t>
-  </si>
-  <si>
     <t>Preview
 JEP 406</t>
   </si>
@@ -223,9 +200,6 @@
     <t>Record Patterns</t>
   </si>
   <si>
-    <t>https://javaalmanac.io/features/recordpatterns/</t>
-  </si>
-  <si>
     <t>Preview
 JEP 405</t>
   </si>
@@ -242,9 +216,6 @@
     <t>Unnamed Patterns and Variables</t>
   </si>
   <si>
-    <t>https://javaalmanac.io/features/unnamedvariables/</t>
-  </si>
-  <si>
     <t>Preview
 JEP 443</t>
   </si>
@@ -254,9 +225,6 @@
   </si>
   <si>
     <t>Simple Source Files and Instance Main Methods</t>
-  </si>
-  <si>
-    <t>https://javaalmanac.io/features/jep445/</t>
   </si>
   <si>
     <t>Preview
@@ -281,9 +249,6 @@
     <t>String Templates</t>
   </si>
   <si>
-    <t>https://javaalmanac.io/features/stringtemplates/</t>
-  </si>
-  <si>
     <t>Preview
 JEP 430</t>
   </si>
@@ -338,9 +303,6 @@
 JEP 488</t>
   </si>
   <si>
-    <t>Remarks</t>
-  </si>
-  <si>
     <t>HTTP/2 Client</t>
   </si>
   <si>
@@ -349,9 +311,6 @@
   </si>
   <si>
     <t>HTTP Client API</t>
-  </si>
-  <si>
-    <t>Standard HTTP Client featuring HTTP/2, WebSocket support and non-blocking API</t>
   </si>
   <si>
     <t>Standard
@@ -538,6 +497,12 @@
     <t>JEP 431</t>
   </si>
   <si>
+    <t>Key Encapsulation Mechanism API</t>
+  </si>
+  <si>
+    <t>JEP 452</t>
+  </si>
+  <si>
     <t>Class-File API</t>
   </si>
   <si>
@@ -1404,9 +1369,6 @@
   </si>
   <si>
     <t>Structured Concurrency (Preview)</t>
-  </si>
-  <si>
-    <t>Key Encapsulation Mechanism API</t>
   </si>
   <si>
     <t>Generational ZGC</t>
@@ -1987,12 +1949,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2134,7 +2111,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2146,34 +2123,34 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2258,7 +2235,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2289,74 +2266,77 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2410,7 +2390,7 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2422,6 +2402,20 @@
       <fill>
         <patternFill patternType="solid">
           <bgColor theme="4" tint="0.8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.6"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2690,851 +2684,809 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AG19"/>
+  <dimension ref="A1:AF19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6363636363636" defaultRowHeight="50" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="63.0909090909091" style="24" customWidth="1"/>
-    <col min="2" max="2" width="54.5454545454545" style="25" customWidth="1"/>
-    <col min="3" max="33" width="10.6363636363636" style="26" customWidth="1"/>
-    <col min="34" max="16383" width="10.6363636363636" style="23" customWidth="1"/>
-    <col min="16384" max="16384" width="10.6363636363636" style="23"/>
+    <col min="1" max="1" width="63.0909090909091" style="28" customWidth="1"/>
+    <col min="2" max="32" width="10.6363636363636" style="29" customWidth="1"/>
+    <col min="33" max="16382" width="10.6363636363636" style="27" customWidth="1"/>
+    <col min="16383" max="16384" width="10.6363636363636" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" s="10" customFormat="1" customHeight="1" spans="1:33">
+    <row r="1" s="10" customFormat="1" customHeight="1" spans="1:32">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="K1" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="27" t="s">
+      <c r="L1" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="27" t="s">
+      <c r="M1" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="27" t="s">
+      <c r="N1" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="27" t="s">
+      <c r="O1" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="27" t="s">
+      <c r="P1" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="27" t="s">
+      <c r="Q1" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="27" t="s">
+      <c r="R1" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="27" t="s">
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="30"/>
+      <c r="AD1" s="30"/>
+      <c r="AE1" s="30"/>
+      <c r="AF1" s="30"/>
+    </row>
+    <row r="2" s="26" customFormat="1" customHeight="1" spans="1:32">
+      <c r="A2" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
-      <c r="W1" s="27"/>
-      <c r="X1" s="27"/>
-      <c r="Y1" s="27"/>
-      <c r="Z1" s="27"/>
-      <c r="AA1" s="27"/>
-      <c r="AB1" s="27"/>
-      <c r="AC1" s="27"/>
-      <c r="AD1" s="27"/>
-      <c r="AE1" s="27"/>
-      <c r="AF1" s="27"/>
-      <c r="AG1" s="27"/>
-    </row>
-    <row r="2" s="22" customFormat="1" customHeight="1" spans="1:33">
-      <c r="A2" s="28" t="s">
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="F2" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="31" t="s">
+      <c r="G2" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="29"/>
+      <c r="V2" s="29"/>
+      <c r="W2" s="29"/>
+      <c r="X2" s="29"/>
+      <c r="Y2" s="29"/>
+      <c r="Z2" s="29"/>
+      <c r="AA2" s="29"/>
+      <c r="AB2" s="29"/>
+      <c r="AC2" s="29"/>
+      <c r="AD2" s="29"/>
+      <c r="AE2" s="29"/>
+      <c r="AF2" s="29"/>
+    </row>
+    <row r="3" s="26" customFormat="1" customHeight="1" spans="1:32">
+      <c r="A3" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="30" t="s">
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26"/>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="26"/>
-      <c r="AC2" s="26"/>
-      <c r="AD2" s="26"/>
-      <c r="AE2" s="26"/>
-      <c r="AF2" s="26"/>
-      <c r="AG2" s="26"/>
-    </row>
-    <row r="3" s="22" customFormat="1" customHeight="1" spans="1:33">
-      <c r="A3" s="28" t="s">
+      <c r="G3" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="H3" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="31" t="s">
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="29"/>
+      <c r="W3" s="29"/>
+      <c r="X3" s="29"/>
+      <c r="Y3" s="29"/>
+      <c r="Z3" s="29"/>
+      <c r="AA3" s="29"/>
+      <c r="AB3" s="29"/>
+      <c r="AC3" s="29"/>
+      <c r="AD3" s="29"/>
+      <c r="AE3" s="29"/>
+      <c r="AF3" s="29"/>
+    </row>
+    <row r="4" s="26" customFormat="1" customHeight="1" spans="1:32">
+      <c r="A4" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="31" t="s">
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="30" t="s">
+      <c r="H4" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="26"/>
-      <c r="W3" s="26"/>
-      <c r="X3" s="26"/>
-      <c r="Y3" s="26"/>
-      <c r="Z3" s="26"/>
-      <c r="AA3" s="26"/>
-      <c r="AB3" s="26"/>
-      <c r="AC3" s="26"/>
-      <c r="AD3" s="26"/>
-      <c r="AE3" s="26"/>
-      <c r="AF3" s="26"/>
-      <c r="AG3" s="26"/>
-    </row>
-    <row r="4" s="22" customFormat="1" customHeight="1" spans="1:33">
-      <c r="A4" s="28" t="s">
+      <c r="I4" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="29"/>
+      <c r="V4" s="29"/>
+      <c r="W4" s="29"/>
+      <c r="X4" s="29"/>
+      <c r="Y4" s="29"/>
+      <c r="Z4" s="29"/>
+      <c r="AA4" s="29"/>
+      <c r="AB4" s="29"/>
+      <c r="AC4" s="29"/>
+      <c r="AD4" s="29"/>
+      <c r="AE4" s="29"/>
+      <c r="AF4" s="29"/>
+    </row>
+    <row r="5" s="26" customFormat="1" customHeight="1" spans="1:32">
+      <c r="A5" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="31" t="s">
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="31" t="s">
+      <c r="H5" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="30" t="s">
+      <c r="I5" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="30"/>
-      <c r="S4" s="30"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="26"/>
-      <c r="W4" s="26"/>
-      <c r="X4" s="26"/>
-      <c r="Y4" s="26"/>
-      <c r="Z4" s="26"/>
-      <c r="AA4" s="26"/>
-      <c r="AB4" s="26"/>
-      <c r="AC4" s="26"/>
-      <c r="AD4" s="26"/>
-      <c r="AE4" s="26"/>
-      <c r="AF4" s="26"/>
-      <c r="AG4" s="26"/>
-    </row>
-    <row r="5" s="22" customFormat="1" customHeight="1" spans="1:33">
-      <c r="A5" s="28" t="s">
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="32"/>
+      <c r="R5" s="32"/>
+      <c r="S5" s="29"/>
+      <c r="T5" s="29"/>
+      <c r="U5" s="29"/>
+      <c r="V5" s="29"/>
+      <c r="W5" s="29"/>
+      <c r="X5" s="29"/>
+      <c r="Y5" s="29"/>
+      <c r="Z5" s="29"/>
+      <c r="AA5" s="29"/>
+      <c r="AB5" s="29"/>
+      <c r="AC5" s="29"/>
+      <c r="AD5" s="29"/>
+      <c r="AE5" s="29"/>
+      <c r="AF5" s="29"/>
+    </row>
+    <row r="6" s="26" customFormat="1" customHeight="1" spans="1:32">
+      <c r="A6" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="31" t="s">
+      <c r="I6" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="31" t="s">
+      <c r="J6" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="30" t="s">
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="32"/>
+      <c r="R6" s="32"/>
+      <c r="S6" s="29"/>
+      <c r="T6" s="29"/>
+      <c r="U6" s="29"/>
+      <c r="V6" s="29"/>
+      <c r="W6" s="29"/>
+      <c r="X6" s="29"/>
+      <c r="Y6" s="29"/>
+      <c r="Z6" s="29"/>
+      <c r="AA6" s="29"/>
+      <c r="AB6" s="29"/>
+      <c r="AC6" s="29"/>
+      <c r="AD6" s="29"/>
+      <c r="AE6" s="29"/>
+      <c r="AF6" s="29"/>
+    </row>
+    <row r="7" s="26" customFormat="1" customHeight="1" spans="1:32">
+      <c r="A7" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="30"/>
-      <c r="P5" s="30"/>
-      <c r="Q5" s="30"/>
-      <c r="R5" s="30"/>
-      <c r="S5" s="30"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
-      <c r="W5" s="26"/>
-      <c r="X5" s="26"/>
-      <c r="Y5" s="26"/>
-      <c r="Z5" s="26"/>
-      <c r="AA5" s="26"/>
-      <c r="AB5" s="26"/>
-      <c r="AC5" s="26"/>
-      <c r="AD5" s="26"/>
-      <c r="AE5" s="26"/>
-      <c r="AF5" s="26"/>
-      <c r="AG5" s="26"/>
-    </row>
-    <row r="6" s="22" customFormat="1" customHeight="1" spans="1:33">
-      <c r="A6" s="28" t="s">
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="K7" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="31" t="s">
+      <c r="L7" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="J6" s="31" t="s">
+      <c r="M7" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="K6" s="30" t="s">
+      <c r="N7" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="30"/>
-      <c r="S6" s="30"/>
-      <c r="T6" s="26"/>
-      <c r="U6" s="26"/>
-      <c r="V6" s="26"/>
-      <c r="W6" s="26"/>
-      <c r="X6" s="26"/>
-      <c r="Y6" s="26"/>
-      <c r="Z6" s="26"/>
-      <c r="AA6" s="26"/>
-      <c r="AB6" s="26"/>
-      <c r="AC6" s="26"/>
-      <c r="AD6" s="26"/>
-      <c r="AE6" s="26"/>
-      <c r="AF6" s="26"/>
-      <c r="AG6" s="26"/>
-    </row>
-    <row r="7" s="22" customFormat="1" customHeight="1" spans="1:33">
-      <c r="A7" s="28" t="s">
+      <c r="O7" s="32"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="32"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="29"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="29"/>
+      <c r="W7" s="29"/>
+      <c r="X7" s="29"/>
+      <c r="Y7" s="29"/>
+      <c r="Z7" s="29"/>
+      <c r="AA7" s="29"/>
+      <c r="AB7" s="29"/>
+      <c r="AC7" s="29"/>
+      <c r="AD7" s="29"/>
+      <c r="AE7" s="29"/>
+      <c r="AF7" s="29"/>
+    </row>
+    <row r="8" s="26" customFormat="1" customHeight="1" spans="1:32">
+      <c r="A8" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="31" t="s">
+      <c r="M8" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="L7" s="31" t="s">
+      <c r="N8" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="M7" s="31" t="s">
+      <c r="O8" s="32"/>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="32"/>
+      <c r="R8" s="32"/>
+      <c r="S8" s="29"/>
+      <c r="T8" s="29"/>
+      <c r="U8" s="29"/>
+      <c r="V8" s="29"/>
+      <c r="W8" s="29"/>
+      <c r="X8" s="29"/>
+      <c r="Y8" s="29"/>
+      <c r="Z8" s="29"/>
+      <c r="AA8" s="29"/>
+      <c r="AB8" s="29"/>
+      <c r="AC8" s="29"/>
+      <c r="AD8" s="29"/>
+      <c r="AE8" s="29"/>
+      <c r="AF8" s="29"/>
+    </row>
+    <row r="9" s="26" customFormat="1" customHeight="1" spans="1:32">
+      <c r="A9" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="N7" s="31" t="s">
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="O7" s="30" t="s">
+      <c r="O9" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="30"/>
-      <c r="S7" s="30"/>
-      <c r="T7" s="26"/>
-      <c r="U7" s="26"/>
-      <c r="V7" s="26"/>
-      <c r="W7" s="26"/>
-      <c r="X7" s="26"/>
-      <c r="Y7" s="26"/>
-      <c r="Z7" s="26"/>
-      <c r="AA7" s="26"/>
-      <c r="AB7" s="26"/>
-      <c r="AC7" s="26"/>
-      <c r="AD7" s="26"/>
-      <c r="AE7" s="26"/>
-      <c r="AF7" s="26"/>
-      <c r="AG7" s="26"/>
-    </row>
-    <row r="8" s="22" customFormat="1" customHeight="1" spans="1:33">
-      <c r="A8" s="28" t="s">
+      <c r="P9" s="32"/>
+      <c r="Q9" s="32"/>
+      <c r="R9" s="32"/>
+      <c r="S9" s="29"/>
+      <c r="T9" s="29"/>
+      <c r="U9" s="29"/>
+      <c r="V9" s="29"/>
+      <c r="W9" s="29"/>
+      <c r="X9" s="29"/>
+      <c r="Y9" s="29"/>
+      <c r="Z9" s="29"/>
+      <c r="AA9" s="29"/>
+      <c r="AB9" s="29"/>
+      <c r="AC9" s="29"/>
+      <c r="AD9" s="29"/>
+      <c r="AE9" s="29"/>
+      <c r="AF9" s="29"/>
+    </row>
+    <row r="10" s="26" customFormat="1" customHeight="1" spans="1:32">
+      <c r="A10" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="31" t="s">
+      <c r="O10" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="N8" s="31" t="s">
+      <c r="P10" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="O8" s="30" t="s">
+      <c r="Q10" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="30"/>
-      <c r="R8" s="30"/>
-      <c r="S8" s="30"/>
-      <c r="T8" s="26"/>
-      <c r="U8" s="26"/>
-      <c r="V8" s="26"/>
-      <c r="W8" s="26"/>
-      <c r="X8" s="26"/>
-      <c r="Y8" s="26"/>
-      <c r="Z8" s="26"/>
-      <c r="AA8" s="26"/>
-      <c r="AB8" s="26"/>
-      <c r="AC8" s="26"/>
-      <c r="AD8" s="26"/>
-      <c r="AE8" s="26"/>
-      <c r="AF8" s="26"/>
-      <c r="AG8" s="26"/>
-    </row>
-    <row r="9" s="22" customFormat="1" customHeight="1" spans="1:33">
-      <c r="A9" s="28" t="s">
+      <c r="R10" s="32"/>
+      <c r="S10" s="29"/>
+      <c r="T10" s="29"/>
+      <c r="U10" s="29"/>
+      <c r="V10" s="29"/>
+      <c r="W10" s="29"/>
+      <c r="X10" s="29"/>
+      <c r="Y10" s="29"/>
+      <c r="Z10" s="29"/>
+      <c r="AA10" s="29"/>
+      <c r="AB10" s="29"/>
+      <c r="AC10" s="29"/>
+      <c r="AD10" s="29"/>
+      <c r="AE10" s="29"/>
+      <c r="AF10" s="29"/>
+    </row>
+    <row r="11" s="26" customFormat="1" customHeight="1" spans="1:32">
+      <c r="A11" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="31" t="s">
+      <c r="O11" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="P9" s="30" t="s">
+      <c r="P11" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="30"/>
-      <c r="S9" s="30"/>
-      <c r="T9" s="26"/>
-      <c r="U9" s="26"/>
-      <c r="V9" s="26"/>
-      <c r="W9" s="26"/>
-      <c r="X9" s="26"/>
-      <c r="Y9" s="26"/>
-      <c r="Z9" s="26"/>
-      <c r="AA9" s="26"/>
-      <c r="AB9" s="26"/>
-      <c r="AC9" s="26"/>
-      <c r="AD9" s="26"/>
-      <c r="AE9" s="26"/>
-      <c r="AF9" s="26"/>
-      <c r="AG9" s="26"/>
-    </row>
-    <row r="10" s="22" customFormat="1" customHeight="1" spans="1:33">
-      <c r="A10" s="28" t="s">
+      <c r="Q11" s="32"/>
+      <c r="R11" s="32"/>
+      <c r="S11" s="29"/>
+      <c r="T11" s="29"/>
+      <c r="U11" s="29"/>
+      <c r="V11" s="29"/>
+      <c r="W11" s="29"/>
+      <c r="X11" s="29"/>
+      <c r="Y11" s="29"/>
+      <c r="Z11" s="29"/>
+      <c r="AA11" s="29"/>
+      <c r="AB11" s="29"/>
+      <c r="AC11" s="29"/>
+      <c r="AD11" s="29"/>
+      <c r="AE11" s="29"/>
+      <c r="AF11" s="29"/>
+    </row>
+    <row r="12" s="26" customFormat="1" customHeight="1" spans="1:32">
+      <c r="A12" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="31" t="s">
+      <c r="P12" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="P10" s="31" t="s">
+      <c r="Q12" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="Q10" s="31" t="s">
+      <c r="R12" s="32"/>
+      <c r="S12" s="29"/>
+      <c r="T12" s="29"/>
+      <c r="U12" s="29"/>
+      <c r="V12" s="29"/>
+      <c r="W12" s="29"/>
+      <c r="X12" s="29"/>
+      <c r="Y12" s="29"/>
+      <c r="Z12" s="29"/>
+      <c r="AA12" s="29"/>
+      <c r="AB12" s="29"/>
+      <c r="AC12" s="29"/>
+      <c r="AD12" s="29"/>
+      <c r="AE12" s="29"/>
+      <c r="AF12" s="29"/>
+    </row>
+    <row r="13" s="26" customFormat="1" customHeight="1" spans="1:32">
+      <c r="A13" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="R10" s="31" t="s">
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="32"/>
+      <c r="O13" s="32"/>
+      <c r="P13" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="S10" s="30"/>
-      <c r="T10" s="26"/>
-      <c r="U10" s="26"/>
-      <c r="V10" s="26"/>
-      <c r="W10" s="26"/>
-      <c r="X10" s="26"/>
-      <c r="Y10" s="26"/>
-      <c r="Z10" s="26"/>
-      <c r="AA10" s="26"/>
-      <c r="AB10" s="26"/>
-      <c r="AC10" s="26"/>
-      <c r="AD10" s="26"/>
-      <c r="AE10" s="26"/>
-      <c r="AF10" s="26"/>
-      <c r="AG10" s="26"/>
-    </row>
-    <row r="11" s="22" customFormat="1" customHeight="1" spans="1:33">
-      <c r="A11" s="28" t="s">
+      <c r="Q13" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="R13" s="32"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="29"/>
+      <c r="U13" s="29"/>
+      <c r="V13" s="29"/>
+      <c r="W13" s="29"/>
+      <c r="X13" s="29"/>
+      <c r="Y13" s="29"/>
+      <c r="Z13" s="29"/>
+      <c r="AA13" s="29"/>
+      <c r="AB13" s="29"/>
+      <c r="AC13" s="29"/>
+      <c r="AD13" s="29"/>
+      <c r="AE13" s="29"/>
+      <c r="AF13" s="29"/>
+    </row>
+    <row r="14" s="26" customFormat="1" customHeight="1" spans="1:32">
+      <c r="A14" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="31" t="s">
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="32"/>
+      <c r="N14" s="32"/>
+      <c r="O14" s="32"/>
+      <c r="P14" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="P11" s="31" t="s">
+      <c r="Q14" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="Q11" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="R11" s="30"/>
-      <c r="S11" s="30"/>
-      <c r="T11" s="26"/>
-      <c r="U11" s="26"/>
-      <c r="V11" s="26"/>
-      <c r="W11" s="26"/>
-      <c r="X11" s="26"/>
-      <c r="Y11" s="26"/>
-      <c r="Z11" s="26"/>
-      <c r="AA11" s="26"/>
-      <c r="AB11" s="26"/>
-      <c r="AC11" s="26"/>
-      <c r="AD11" s="26"/>
-      <c r="AE11" s="26"/>
-      <c r="AF11" s="26"/>
-      <c r="AG11" s="26"/>
-    </row>
-    <row r="12" s="22" customFormat="1" customHeight="1" spans="1:33">
-      <c r="A12" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q12" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="R12" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="S12" s="30"/>
-      <c r="T12" s="26"/>
-      <c r="U12" s="26"/>
-      <c r="V12" s="26"/>
-      <c r="W12" s="26"/>
-      <c r="X12" s="26"/>
-      <c r="Y12" s="26"/>
-      <c r="Z12" s="26"/>
-      <c r="AA12" s="26"/>
-      <c r="AB12" s="26"/>
-      <c r="AC12" s="26"/>
-      <c r="AD12" s="26"/>
-      <c r="AE12" s="26"/>
-      <c r="AF12" s="26"/>
-      <c r="AG12" s="26"/>
-    </row>
-    <row r="13" s="22" customFormat="1" customHeight="1" spans="1:33">
-      <c r="A13" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="R13" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="S13" s="30"/>
-      <c r="T13" s="26"/>
-      <c r="U13" s="26"/>
-      <c r="V13" s="26"/>
-      <c r="W13" s="26"/>
-      <c r="X13" s="26"/>
-      <c r="Y13" s="26"/>
-      <c r="Z13" s="26"/>
-      <c r="AA13" s="26"/>
-      <c r="AB13" s="26"/>
-      <c r="AC13" s="26"/>
-      <c r="AD13" s="26"/>
-      <c r="AE13" s="26"/>
-      <c r="AF13" s="26"/>
-      <c r="AG13" s="26"/>
-    </row>
-    <row r="14" s="22" customFormat="1" customHeight="1" spans="1:33">
-      <c r="A14" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="R14" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="S14" s="30"/>
-      <c r="T14" s="26"/>
-      <c r="U14" s="26"/>
-      <c r="V14" s="26"/>
-      <c r="W14" s="26"/>
-      <c r="X14" s="26"/>
-      <c r="Y14" s="26"/>
-      <c r="Z14" s="26"/>
-      <c r="AA14" s="26"/>
-      <c r="AB14" s="26"/>
-      <c r="AC14" s="26"/>
-      <c r="AD14" s="26"/>
-      <c r="AE14" s="26"/>
-      <c r="AF14" s="26"/>
-      <c r="AG14" s="26"/>
-    </row>
-    <row r="15" s="23" customFormat="1" customHeight="1" spans="1:33">
-      <c r="A15" s="24"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="26"/>
-      <c r="S15" s="26"/>
-      <c r="T15" s="26"/>
-      <c r="U15" s="26"/>
-      <c r="V15" s="26"/>
-      <c r="W15" s="26"/>
-      <c r="X15" s="26"/>
-      <c r="Y15" s="26"/>
-      <c r="Z15" s="26"/>
-      <c r="AA15" s="26"/>
-      <c r="AB15" s="26"/>
-      <c r="AC15" s="26"/>
-      <c r="AD15" s="26"/>
-      <c r="AE15" s="26"/>
-      <c r="AF15" s="26"/>
-      <c r="AG15" s="26"/>
-    </row>
-    <row r="16" s="23" customFormat="1" customHeight="1" spans="1:33">
-      <c r="A16" s="24"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="26"/>
-      <c r="Q16" s="26"/>
-      <c r="R16" s="26"/>
-      <c r="S16" s="26"/>
-      <c r="T16" s="26"/>
-      <c r="U16" s="26"/>
-      <c r="V16" s="26"/>
-      <c r="W16" s="26"/>
-      <c r="X16" s="26"/>
-      <c r="Y16" s="26"/>
-      <c r="Z16" s="26"/>
-      <c r="AA16" s="26"/>
-      <c r="AB16" s="26"/>
-      <c r="AC16" s="26"/>
-      <c r="AD16" s="26"/>
-      <c r="AE16" s="26"/>
-      <c r="AF16" s="26"/>
-      <c r="AG16" s="26"/>
-    </row>
-    <row r="17" s="23" customFormat="1" customHeight="1" spans="1:33">
-      <c r="A17" s="24"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="26"/>
-      <c r="S17" s="26"/>
-      <c r="T17" s="26"/>
-      <c r="U17" s="26"/>
-      <c r="V17" s="26"/>
-      <c r="W17" s="26"/>
-      <c r="X17" s="26"/>
-      <c r="Y17" s="26"/>
-      <c r="Z17" s="26"/>
-      <c r="AA17" s="26"/>
-      <c r="AB17" s="26"/>
-      <c r="AC17" s="26"/>
-      <c r="AD17" s="26"/>
-      <c r="AE17" s="26"/>
-      <c r="AF17" s="26"/>
-      <c r="AG17" s="26"/>
-    </row>
-    <row r="18" s="23" customFormat="1" customHeight="1" spans="1:33">
-      <c r="A18" s="24"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="26"/>
-      <c r="S18" s="26"/>
-      <c r="T18" s="26"/>
-      <c r="U18" s="26"/>
-      <c r="V18" s="26"/>
-      <c r="W18" s="26"/>
-      <c r="X18" s="26"/>
-      <c r="Y18" s="26"/>
-      <c r="Z18" s="26"/>
-      <c r="AA18" s="26"/>
-      <c r="AB18" s="26"/>
-      <c r="AC18" s="26"/>
-      <c r="AD18" s="26"/>
-      <c r="AE18" s="26"/>
-      <c r="AF18" s="26"/>
-      <c r="AG18" s="26"/>
-    </row>
-    <row r="19" s="23" customFormat="1" customHeight="1" spans="1:33">
-      <c r="A19" s="24"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="26"/>
-      <c r="P19" s="26"/>
-      <c r="Q19" s="26"/>
-      <c r="R19" s="26"/>
-      <c r="S19" s="26"/>
-      <c r="T19" s="26"/>
-      <c r="U19" s="26"/>
-      <c r="V19" s="26"/>
-      <c r="W19" s="26"/>
-      <c r="X19" s="26"/>
-      <c r="Y19" s="26"/>
-      <c r="Z19" s="26"/>
-      <c r="AA19" s="26"/>
-      <c r="AB19" s="26"/>
-      <c r="AC19" s="26"/>
-      <c r="AD19" s="26"/>
-      <c r="AE19" s="26"/>
-      <c r="AF19" s="26"/>
-      <c r="AG19" s="26"/>
+      <c r="R14" s="32"/>
+      <c r="S14" s="29"/>
+      <c r="T14" s="29"/>
+      <c r="U14" s="29"/>
+      <c r="V14" s="29"/>
+      <c r="W14" s="29"/>
+      <c r="X14" s="29"/>
+      <c r="Y14" s="29"/>
+      <c r="Z14" s="29"/>
+      <c r="AA14" s="29"/>
+      <c r="AB14" s="29"/>
+      <c r="AC14" s="29"/>
+      <c r="AD14" s="29"/>
+      <c r="AE14" s="29"/>
+      <c r="AF14" s="29"/>
+    </row>
+    <row r="15" s="27" customFormat="1" customHeight="1" spans="1:32">
+      <c r="A15" s="28"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="29"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="29"/>
+      <c r="T15" s="29"/>
+      <c r="U15" s="29"/>
+      <c r="V15" s="29"/>
+      <c r="W15" s="29"/>
+      <c r="X15" s="29"/>
+      <c r="Y15" s="29"/>
+      <c r="Z15" s="29"/>
+      <c r="AA15" s="29"/>
+      <c r="AB15" s="29"/>
+      <c r="AC15" s="29"/>
+      <c r="AD15" s="29"/>
+      <c r="AE15" s="29"/>
+      <c r="AF15" s="29"/>
+    </row>
+    <row r="16" s="27" customFormat="1" customHeight="1" spans="1:32">
+      <c r="A16" s="28"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="29"/>
+      <c r="R16" s="29"/>
+      <c r="S16" s="29"/>
+      <c r="T16" s="29"/>
+      <c r="U16" s="29"/>
+      <c r="V16" s="29"/>
+      <c r="W16" s="29"/>
+      <c r="X16" s="29"/>
+      <c r="Y16" s="29"/>
+      <c r="Z16" s="29"/>
+      <c r="AA16" s="29"/>
+      <c r="AB16" s="29"/>
+      <c r="AC16" s="29"/>
+      <c r="AD16" s="29"/>
+      <c r="AE16" s="29"/>
+      <c r="AF16" s="29"/>
+    </row>
+    <row r="17" s="27" customFormat="1" customHeight="1" spans="1:32">
+      <c r="A17" s="28"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="29"/>
+      <c r="S17" s="29"/>
+      <c r="T17" s="29"/>
+      <c r="U17" s="29"/>
+      <c r="V17" s="29"/>
+      <c r="W17" s="29"/>
+      <c r="X17" s="29"/>
+      <c r="Y17" s="29"/>
+      <c r="Z17" s="29"/>
+      <c r="AA17" s="29"/>
+      <c r="AB17" s="29"/>
+      <c r="AC17" s="29"/>
+      <c r="AD17" s="29"/>
+      <c r="AE17" s="29"/>
+      <c r="AF17" s="29"/>
+    </row>
+    <row r="18" s="27" customFormat="1" customHeight="1" spans="1:32">
+      <c r="A18" s="28"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="29"/>
+      <c r="Q18" s="29"/>
+      <c r="R18" s="29"/>
+      <c r="S18" s="29"/>
+      <c r="T18" s="29"/>
+      <c r="U18" s="29"/>
+      <c r="V18" s="29"/>
+      <c r="W18" s="29"/>
+      <c r="X18" s="29"/>
+      <c r="Y18" s="29"/>
+      <c r="Z18" s="29"/>
+      <c r="AA18" s="29"/>
+      <c r="AB18" s="29"/>
+      <c r="AC18" s="29"/>
+      <c r="AD18" s="29"/>
+      <c r="AE18" s="29"/>
+      <c r="AF18" s="29"/>
+    </row>
+    <row r="19" s="27" customFormat="1" customHeight="1" spans="1:32">
+      <c r="A19" s="28"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="29"/>
+      <c r="S19" s="29"/>
+      <c r="T19" s="29"/>
+      <c r="U19" s="29"/>
+      <c r="V19" s="29"/>
+      <c r="W19" s="29"/>
+      <c r="X19" s="29"/>
+      <c r="Y19" s="29"/>
+      <c r="Z19" s="29"/>
+      <c r="AA19" s="29"/>
+      <c r="AB19" s="29"/>
+      <c r="AC19" s="29"/>
+      <c r="AD19" s="29"/>
+      <c r="AE19" s="29"/>
+      <c r="AF19" s="29"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="$A2:$XFD1048576">
@@ -3545,18 +3497,6 @@
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="B11" r:id="rId1" display="https://javaalmanac.io/features/stringtemplates/" tooltip="https://javaalmanac.io/features/stringtemplates/"/>
-    <hyperlink ref="B9" r:id="rId2" display="https://javaalmanac.io/features/unnamedvariables/"/>
-    <hyperlink ref="B2" r:id="rId3" display="https://javaalmanac.io/features/switch/"/>
-    <hyperlink ref="B3" r:id="rId4" display="https://javaalmanac.io/features/textblocks/"/>
-    <hyperlink ref="B4" r:id="rId5" display="https://javaalmanac.io/features/records/"/>
-    <hyperlink ref="B5" r:id="rId6" display="https://javaalmanac.io/features/instanceof-patterns/"/>
-    <hyperlink ref="B6" r:id="rId7" display="https://javaalmanac.io/features/sealedtypes/"/>
-    <hyperlink ref="B7" r:id="rId8" display="https://javaalmanac.io/features/typepatterns/"/>
-    <hyperlink ref="B8" r:id="rId9" display="https://javaalmanac.io/features/recordpatterns/"/>
-    <hyperlink ref="B10" r:id="rId10" display="https://javaalmanac.io/features/jep445/" tooltip="https://javaalmanac.io/features/jep445/"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -3566,419 +3506,401 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S25"/>
+  <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6363636363636" defaultRowHeight="50" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="33.1818181818182" style="9" customWidth="1"/>
-    <col min="2" max="2" width="87.1818181818182" style="9" customWidth="1"/>
-    <col min="3" max="19" width="10.6363636363636" style="13" customWidth="1"/>
-    <col min="20" max="16384" width="10.6363636363636" style="14" customWidth="1"/>
+    <col min="1" max="1" width="38.5454545454545" style="13" customWidth="1"/>
+    <col min="2" max="18" width="10.6363636363636" style="14" customWidth="1"/>
+    <col min="19" max="16383" width="10.6363636363636" style="15" customWidth="1"/>
+    <col min="16384" max="16384" width="10.6363636363636" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" s="10" customFormat="1" customHeight="1" spans="1:19">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="10" customFormat="1" customHeight="1" spans="1:18">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" s="11" customFormat="1" customHeight="1" spans="1:18">
+      <c r="A2" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+    </row>
+    <row r="3" s="12" customFormat="1" customHeight="1" spans="1:18">
+      <c r="A3" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+    </row>
+    <row r="4" s="11" customFormat="1" customHeight="1" spans="1:18">
+      <c r="A4" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+    </row>
+    <row r="5" s="12" customFormat="1" customHeight="1" spans="1:18">
+      <c r="A5" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+    </row>
+    <row r="6" s="11" customFormat="1" customHeight="1" spans="1:18">
+      <c r="A6" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" s="11" customFormat="1" customHeight="1" spans="1:19">
-      <c r="A2" s="16" t="s">
+      <c r="K6" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="17" t="s">
+      <c r="L6" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-    </row>
-    <row r="3" s="12" customFormat="1" customHeight="1" spans="1:19">
-      <c r="A3" s="19" t="s">
+      <c r="M6" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="N6" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20" t="s">
+      <c r="O6" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
-    </row>
-    <row r="4" s="11" customFormat="1" customHeight="1" spans="1:19">
-      <c r="A4" s="16" t="s">
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+    </row>
+    <row r="7" s="12" customFormat="1" customHeight="1" spans="1:18">
+      <c r="A7" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="17" t="s">
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="J7" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="K7" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-    </row>
-    <row r="5" s="12" customFormat="1" customHeight="1" spans="1:19">
-      <c r="A5" s="19" t="s">
+      <c r="L7" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="21" t="s">
+      <c r="M7" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
-    </row>
-    <row r="6" s="11" customFormat="1" customHeight="1" spans="1:19">
-      <c r="A6" s="16" t="s">
+      <c r="N7" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="17" t="s">
+      <c r="O7" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="L6" s="17" t="s">
+      <c r="P7" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="M6" s="17" t="s">
+      <c r="Q7" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="N6" s="17" t="s">
+      <c r="R7" s="22"/>
+    </row>
+    <row r="8" s="11" customFormat="1" customHeight="1" spans="1:18">
+      <c r="A8" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="O6" s="17" t="s">
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="P6" s="18" t="s">
+      <c r="M8" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
-    </row>
-    <row r="7" s="12" customFormat="1" customHeight="1" spans="1:19">
-      <c r="A7" s="19" t="s">
+      <c r="N8" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="21" t="s">
+      <c r="O8" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="K7" s="21" t="s">
+      <c r="P8" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="L7" s="21" t="s">
+      <c r="Q8" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="M7" s="21" t="s">
+      <c r="R8" s="20"/>
+    </row>
+    <row r="9" s="12" customFormat="1" customHeight="1" spans="1:18">
+      <c r="A9" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="N7" s="21" t="s">
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="O7" s="21" t="s">
+      <c r="M9" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="P7" s="21" t="s">
+      <c r="N9" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="Q7" s="21" t="s">
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+    </row>
+    <row r="10" s="11" customFormat="1" customHeight="1" spans="1:18">
+      <c r="A10" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="R7" s="21" t="s">
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="S7" s="20"/>
-    </row>
-    <row r="8" s="11" customFormat="1" customHeight="1" spans="1:19">
-      <c r="A8" s="16" t="s">
+      <c r="N10" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="17" t="s">
+      <c r="O10" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="N8" s="17" t="s">
+      <c r="P10" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="O8" s="17" t="s">
+      <c r="Q10" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="P8" s="17" t="s">
+      <c r="R10" s="20"/>
+    </row>
+    <row r="11" s="12" customFormat="1" customHeight="1" spans="1:18">
+      <c r="A11" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="Q8" s="17" t="s">
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="R8" s="17" t="s">
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+    </row>
+    <row r="12" s="12" customFormat="1" customHeight="1" spans="1:18">
+      <c r="A12" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="S8" s="18"/>
-    </row>
-    <row r="9" s="12" customFormat="1" customHeight="1" spans="1:19">
-      <c r="A9" s="19" t="s">
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="21" t="s">
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+    </row>
+    <row r="13" s="11" customFormat="1" customHeight="1" spans="1:18">
+      <c r="A13" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="N9" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="O9" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="20"/>
-    </row>
-    <row r="10" s="11" customFormat="1" customHeight="1" spans="1:19">
-      <c r="A10" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="O10" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="P10" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q10" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="R10" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="S10" s="18"/>
-    </row>
-    <row r="11" s="12" customFormat="1" customHeight="1" spans="1:19">
-      <c r="A11" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="20"/>
-      <c r="S11" s="20"/>
-    </row>
-    <row r="12" s="11" customFormat="1" customHeight="1" spans="1:19">
-      <c r="A12" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q12" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="R12" s="18"/>
-      <c r="S12" s="18"/>
-    </row>
-    <row r="13" s="12" customFormat="1" customHeight="1" spans="1:19">
-      <c r="A13" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="B13" s="3"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="20"/>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3991,44 +3913,46 @@
       <c r="L13" s="20"/>
       <c r="M13" s="20"/>
       <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q13" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="R13" s="21"/>
-      <c r="S13" s="20"/>
-    </row>
-    <row r="14" s="11" customFormat="1" customHeight="1" spans="1:19">
-      <c r="A14" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="S14" s="18"/>
-    </row>
-    <row r="15" s="12" customFormat="1" customHeight="1" spans="1:19">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
+      <c r="O13" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="P13" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+    </row>
+    <row r="14" s="12" customFormat="1" customHeight="1" spans="1:18">
+      <c r="A14" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="P14" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="22"/>
+    </row>
+    <row r="15" s="11" customFormat="1" customHeight="1" spans="1:18">
+      <c r="A15" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="20"/>
       <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
@@ -4043,34 +3967,34 @@
       <c r="N15" s="20"/>
       <c r="O15" s="20"/>
       <c r="P15" s="20"/>
-      <c r="Q15" s="20"/>
+      <c r="Q15" s="20" t="s">
+        <v>125</v>
+      </c>
       <c r="R15" s="20"/>
-      <c r="S15" s="20"/>
-    </row>
-    <row r="16" s="11" customFormat="1" customHeight="1" spans="1:19">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="18"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="18"/>
-      <c r="Q16" s="18"/>
-      <c r="R16" s="18"/>
-      <c r="S16" s="18"/>
-    </row>
-    <row r="17" s="12" customFormat="1" customHeight="1" spans="1:19">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
+    </row>
+    <row r="16" s="12" customFormat="1" customHeight="1" spans="1:18">
+      <c r="A16" s="24"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
+    </row>
+    <row r="17" s="11" customFormat="1" customHeight="1" spans="1:18">
+      <c r="A17" s="23"/>
+      <c r="B17" s="20"/>
       <c r="C17" s="20"/>
       <c r="D17" s="20"/>
       <c r="E17" s="20"/>
@@ -4087,32 +4011,30 @@
       <c r="P17" s="20"/>
       <c r="Q17" s="20"/>
       <c r="R17" s="20"/>
-      <c r="S17" s="20"/>
-    </row>
-    <row r="18" s="11" customFormat="1" customHeight="1" spans="1:19">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="18"/>
-      <c r="R18" s="18"/>
-      <c r="S18" s="18"/>
-    </row>
-    <row r="19" s="12" customFormat="1" customHeight="1" spans="1:19">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
+    </row>
+    <row r="18" s="12" customFormat="1" customHeight="1" spans="1:18">
+      <c r="A18" s="24"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="22"/>
+    </row>
+    <row r="19" s="11" customFormat="1" customHeight="1" spans="1:18">
+      <c r="A19" s="23"/>
+      <c r="B19" s="20"/>
       <c r="C19" s="20"/>
       <c r="D19" s="20"/>
       <c r="E19" s="20"/>
@@ -4129,32 +4051,30 @@
       <c r="P19" s="20"/>
       <c r="Q19" s="20"/>
       <c r="R19" s="20"/>
-      <c r="S19" s="20"/>
-    </row>
-    <row r="20" s="11" customFormat="1" customHeight="1" spans="1:19">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="18"/>
-      <c r="O20" s="18"/>
-      <c r="P20" s="18"/>
-      <c r="Q20" s="18"/>
-      <c r="R20" s="18"/>
-      <c r="S20" s="18"/>
-    </row>
-    <row r="21" s="12" customFormat="1" customHeight="1" spans="1:19">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
+    </row>
+    <row r="20" s="12" customFormat="1" customHeight="1" spans="1:18">
+      <c r="A20" s="24"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="22"/>
+    </row>
+    <row r="21" s="11" customFormat="1" customHeight="1" spans="1:18">
+      <c r="A21" s="23"/>
+      <c r="B21" s="20"/>
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
       <c r="E21" s="20"/>
@@ -4171,32 +4091,30 @@
       <c r="P21" s="20"/>
       <c r="Q21" s="20"/>
       <c r="R21" s="20"/>
-      <c r="S21" s="20"/>
-    </row>
-    <row r="22" s="11" customFormat="1" customHeight="1" spans="1:19">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="18"/>
-      <c r="O22" s="18"/>
-      <c r="P22" s="18"/>
-      <c r="Q22" s="18"/>
-      <c r="R22" s="18"/>
-      <c r="S22" s="18"/>
-    </row>
-    <row r="23" s="12" customFormat="1" customHeight="1" spans="1:19">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
+    </row>
+    <row r="22" s="12" customFormat="1" customHeight="1" spans="1:18">
+      <c r="A22" s="24"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="22"/>
+      <c r="R22" s="22"/>
+    </row>
+    <row r="23" s="11" customFormat="1" customHeight="1" spans="1:18">
+      <c r="A23" s="23"/>
+      <c r="B23" s="20"/>
       <c r="C23" s="20"/>
       <c r="D23" s="20"/>
       <c r="E23" s="20"/>
@@ -4213,32 +4131,30 @@
       <c r="P23" s="20"/>
       <c r="Q23" s="20"/>
       <c r="R23" s="20"/>
-      <c r="S23" s="20"/>
-    </row>
-    <row r="24" s="11" customFormat="1" customHeight="1" spans="1:19">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="18"/>
-      <c r="N24" s="18"/>
-      <c r="O24" s="18"/>
-      <c r="P24" s="18"/>
-      <c r="Q24" s="18"/>
-      <c r="R24" s="18"/>
-      <c r="S24" s="18"/>
-    </row>
-    <row r="25" s="12" customFormat="1" customHeight="1" spans="1:19">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
+    </row>
+    <row r="24" s="12" customFormat="1" customHeight="1" spans="1:18">
+      <c r="A24" s="24"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="22"/>
+    </row>
+    <row r="25" s="11" customFormat="1" customHeight="1" spans="1:18">
+      <c r="A25" s="23"/>
+      <c r="B25" s="20"/>
       <c r="C25" s="20"/>
       <c r="D25" s="20"/>
       <c r="E25" s="20"/>
@@ -4255,15 +4171,34 @@
       <c r="P25" s="20"/>
       <c r="Q25" s="20"/>
       <c r="R25" s="20"/>
-      <c r="S25" s="20"/>
+    </row>
+    <row r="26" s="12" customFormat="1" customHeight="1" spans="1:18">
+      <c r="A26" s="24"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="22"/>
+      <c r="R26" s="22"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="$A2:$XFD1048576">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4273,177 +4208,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:S1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B1048545" activePane="bottomRight" state="frozen"/>
-      <selection/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="$A2:$XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="2" width="9.18181818181818" customWidth="1"/>
-    <col min="3" max="3" width="7" customWidth="1"/>
-    <col min="4" max="19" width="8.09090909090909" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:19">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:S1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="$A1:$XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="2" width="9.18181818181818" customWidth="1"/>
-    <col min="3" max="3" width="7" customWidth="1"/>
-    <col min="4" max="19" width="8.09090909090909" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:19">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F121"/>
@@ -4471,33 +4235,33 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="E2" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/289","JEP 289")</f>
@@ -4507,16 +4271,16 @@
     </row>
     <row r="3" s="3" customFormat="1" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="E3" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/259","JEP 259")</f>
@@ -4526,16 +4290,16 @@
     </row>
     <row r="4" s="2" customFormat="1" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="E4" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/290","JEP 290")</f>
@@ -4545,16 +4309,16 @@
     </row>
     <row r="5" s="3" customFormat="1" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="E5" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/102","JEP 102")</f>
@@ -4564,16 +4328,16 @@
     </row>
     <row r="6" s="2" customFormat="1" spans="1:6">
       <c r="A6" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>152</v>
       </c>
       <c r="E6" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/274","JEP 274")</f>
@@ -4583,16 +4347,16 @@
     </row>
     <row r="7" s="3" customFormat="1" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>142</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>153</v>
       </c>
       <c r="E7" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/276","JEP 276")</f>
@@ -4602,16 +4366,16 @@
     </row>
     <row r="8" s="2" customFormat="1" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="E8" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/110","JEP 110")</f>
@@ -4621,16 +4385,16 @@
     </row>
     <row r="9" s="3" customFormat="1" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="E9" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/266","JEP 266")</f>
@@ -4640,16 +4404,16 @@
     </row>
     <row r="10" s="2" customFormat="1" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="E10" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/264","JEP 264")</f>
@@ -4659,16 +4423,16 @@
     </row>
     <row r="11" s="3" customFormat="1" spans="1:6">
       <c r="A11" s="3" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="E11" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/269","JEP 269")</f>
@@ -4678,16 +4442,16 @@
     </row>
     <row r="12" s="2" customFormat="1" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="E12" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/226","JEP 226")</f>
@@ -4697,16 +4461,16 @@
     </row>
     <row r="13" s="3" customFormat="1" spans="1:6">
       <c r="A13" s="3" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="E13" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/252","JEP 252")</f>
@@ -4716,16 +4480,16 @@
     </row>
     <row r="14" s="2" customFormat="1" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="E14" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/236","JEP 236")</f>
@@ -4735,16 +4499,16 @@
     </row>
     <row r="15" s="3" customFormat="1" spans="1:6">
       <c r="A15" s="3" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="E15" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/292","JEP 292")</f>
@@ -4754,16 +4518,16 @@
     </row>
     <row r="16" s="2" customFormat="1" spans="1:6">
       <c r="A16" s="2" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="E16" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/229","JEP 229")</f>
@@ -4773,16 +4537,16 @@
     </row>
     <row r="17" s="3" customFormat="1" spans="1:6">
       <c r="A17" s="3" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="E17" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/232","JEP 232")</f>
@@ -4792,16 +4556,16 @@
     </row>
     <row r="18" s="2" customFormat="1" spans="1:6">
       <c r="A18" s="2" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="E18" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/273","JEP 273")</f>
@@ -4811,16 +4575,16 @@
     </row>
     <row r="19" s="3" customFormat="1" spans="1:6">
       <c r="A19" s="3" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="E19" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/287","JEP 287")</f>
@@ -4830,16 +4594,16 @@
     </row>
     <row r="20" s="2" customFormat="1" spans="1:6">
       <c r="A20" s="2" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="E20" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/288","JEP 288")</f>
@@ -4849,16 +4613,16 @@
     </row>
     <row r="21" s="3" customFormat="1" spans="1:6">
       <c r="A21" s="3" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="E21" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/246","JEP 246")</f>
@@ -4868,16 +4632,16 @@
     </row>
     <row r="22" s="2" customFormat="1" spans="1:6">
       <c r="A22" s="2" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="E22" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/219","JEP 219")</f>
@@ -4887,16 +4651,16 @@
     </row>
     <row r="23" s="3" customFormat="1" spans="1:6">
       <c r="A23" s="3" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="E23" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/244","JEP 244")</f>
@@ -4906,16 +4670,16 @@
     </row>
     <row r="24" s="2" customFormat="1" spans="1:6">
       <c r="A24" s="2" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="E24" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/249","JEP 249")</f>
@@ -4925,16 +4689,16 @@
     </row>
     <row r="25" s="3" customFormat="1" spans="1:6">
       <c r="A25" s="3" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="E25" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/214","JEP 214")</f>
@@ -4944,16 +4708,16 @@
     </row>
     <row r="26" s="2" customFormat="1" spans="1:6">
       <c r="A26" s="2" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="E26" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/248","JEP 248")</f>
@@ -4963,16 +4727,16 @@
     </row>
     <row r="27" s="3" customFormat="1" spans="1:6">
       <c r="A27" s="3" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="E27" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/271","JEP 271")</f>
@@ -4982,16 +4746,16 @@
     </row>
     <row r="28" s="2" customFormat="1" spans="1:6">
       <c r="A28" s="2" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="E28" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/278","JEP 278")</f>
@@ -5001,16 +4765,16 @@
     </row>
     <row r="29" s="3" customFormat="1" spans="1:6">
       <c r="A29" s="3" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="E29" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/291","JEP 291")</f>
@@ -5020,16 +4784,16 @@
     </row>
     <row r="30" s="2" customFormat="1" spans="1:6">
       <c r="A30" s="2" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="E30" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/254","JEP 254")</f>
@@ -5039,14 +4803,14 @@
     </row>
     <row r="31" s="3" customFormat="1" spans="1:6">
       <c r="A31" s="3" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="E31" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/200","JEP 200")</f>
@@ -5056,14 +4820,14 @@
     </row>
     <row r="32" s="2" customFormat="1" spans="1:6">
       <c r="A32" s="2" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="E32" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/201","JEP 201")</f>
@@ -5073,14 +4837,14 @@
     </row>
     <row r="33" s="3" customFormat="1" spans="1:6">
       <c r="A33" s="3" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="E33" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/220","JEP 220")</f>
@@ -5090,14 +4854,14 @@
     </row>
     <row r="34" s="2" customFormat="1" spans="1:6">
       <c r="A34" s="2" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="E34" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/261","JEP 261")</f>
@@ -5107,16 +4871,16 @@
     </row>
     <row r="35" s="3" customFormat="1" spans="1:6">
       <c r="A35" s="3" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="E35" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/165","JEP 165")</f>
@@ -5126,16 +4890,16 @@
     </row>
     <row r="36" s="2" customFormat="1" spans="1:6">
       <c r="A36" s="2" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="E36" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/197","JEP 197")</f>
@@ -5145,16 +4909,16 @@
     </row>
     <row r="37" s="3" customFormat="1" spans="1:6">
       <c r="A37" s="3" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="E37" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/233","JEP 233")</f>
@@ -5164,16 +4928,16 @@
     </row>
     <row r="38" s="2" customFormat="1" spans="1:6">
       <c r="A38" s="2" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="E38" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/237","JEP 237")</f>
@@ -5183,16 +4947,16 @@
     </row>
     <row r="39" s="3" customFormat="1" spans="1:6">
       <c r="A39" s="3" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="E39" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/243","JEP 243")</f>
@@ -5202,16 +4966,16 @@
     </row>
     <row r="40" s="2" customFormat="1" spans="1:6">
       <c r="A40" s="2" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="E40" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/294","JEP 294")</f>
@@ -5221,16 +4985,16 @@
     </row>
     <row r="41" s="3" customFormat="1" spans="1:6">
       <c r="A41" s="3" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="E41" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/295","JEP 295")</f>
@@ -5240,16 +5004,16 @@
     </row>
     <row r="42" s="2" customFormat="1" spans="1:6">
       <c r="A42" s="2" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E42" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/297","JEP 297")</f>
@@ -5259,16 +5023,16 @@
     </row>
     <row r="43" s="3" customFormat="1" spans="1:6">
       <c r="A43" s="3" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B43" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>193</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>204</v>
       </c>
       <c r="E43" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/143","JEP 143")</f>
@@ -5278,16 +5042,16 @@
     </row>
     <row r="44" s="2" customFormat="1" spans="1:6">
       <c r="A44" s="2" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="E44" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/245","JEP 245")</f>
@@ -5297,16 +5061,16 @@
     </row>
     <row r="45" s="3" customFormat="1" spans="1:6">
       <c r="A45" s="3" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="E45" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/250","JEP 250")</f>
@@ -5316,16 +5080,16 @@
     </row>
     <row r="46" s="2" customFormat="1" spans="1:6">
       <c r="A46" s="2" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="E46" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/158","JEP 158")</f>
@@ -5335,16 +5099,16 @@
     </row>
     <row r="47" s="3" customFormat="1" spans="1:6">
       <c r="A47" s="3" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="E47" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/228","JEP 228")</f>
@@ -5354,16 +5118,16 @@
     </row>
     <row r="48" s="2" customFormat="1" spans="1:6">
       <c r="A48" s="2" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="E48" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/281","JEP 281")</f>
@@ -5373,16 +5137,16 @@
     </row>
     <row r="49" s="3" customFormat="1" spans="1:6">
       <c r="A49" s="3" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="E49" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/193","JEP 193")</f>
@@ -5392,16 +5156,16 @@
     </row>
     <row r="50" s="2" customFormat="1" spans="1:6">
       <c r="A50" s="2" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="E50" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/227","JEP 227")</f>
@@ -5411,16 +5175,16 @@
     </row>
     <row r="51" s="3" customFormat="1" spans="1:6">
       <c r="A51" s="3" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="E51" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/267","JEP 267")</f>
@@ -5430,16 +5194,16 @@
     </row>
     <row r="52" s="2" customFormat="1" spans="1:6">
       <c r="A52" s="2" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="E52" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/277","JEP 277")</f>
@@ -5449,16 +5213,16 @@
     </row>
     <row r="53" s="3" customFormat="1" spans="1:6">
       <c r="A53" s="3" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="E53" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/285","JEP 285")</f>
@@ -5468,16 +5232,16 @@
     </row>
     <row r="54" s="2" customFormat="1" spans="1:6">
       <c r="A54" s="2" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="E54" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/251","JEP 251")</f>
@@ -5487,16 +5251,16 @@
     </row>
     <row r="55" s="3" customFormat="1" spans="1:6">
       <c r="A55" s="3" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="E55" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/258","JEP 258")</f>
@@ -5506,16 +5270,16 @@
     </row>
     <row r="56" s="2" customFormat="1" spans="1:6">
       <c r="A56" s="2" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="E56" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/265","JEP 265")</f>
@@ -5525,16 +5289,16 @@
     </row>
     <row r="57" s="3" customFormat="1" spans="1:6">
       <c r="A57" s="3" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="E57" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/263","JEP 263")</f>
@@ -5544,16 +5308,16 @@
     </row>
     <row r="58" s="2" customFormat="1" spans="1:6">
       <c r="A58" s="2" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="E58" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/272","JEP 272")</f>
@@ -5563,16 +5327,16 @@
     </row>
     <row r="59" s="3" customFormat="1" spans="1:6">
       <c r="A59" s="3" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="E59" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/256","JEP 256")</f>
@@ -5582,16 +5346,16 @@
     </row>
     <row r="60" s="2" customFormat="1" spans="1:6">
       <c r="A60" s="2" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>229</v>
       </c>
       <c r="E60" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/262","JEP 262")</f>
@@ -5601,16 +5365,16 @@
     </row>
     <row r="61" s="3" customFormat="1" spans="1:6">
       <c r="A61" s="3" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="E61" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/240","JEP 240")</f>
@@ -5620,16 +5384,16 @@
     </row>
     <row r="62" s="2" customFormat="1" spans="1:6">
       <c r="A62" s="2" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="E62" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/241","JEP 241")</f>
@@ -5639,16 +5403,16 @@
     </row>
     <row r="63" s="3" customFormat="1" spans="1:6">
       <c r="A63" s="3" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="E63" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/275","JEP 275")</f>
@@ -5658,16 +5422,16 @@
     </row>
     <row r="64" s="2" customFormat="1" spans="1:6">
       <c r="A64" s="2" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="E64" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/299","JEP 299")</f>
@@ -5677,16 +5441,16 @@
     </row>
     <row r="65" s="3" customFormat="1" spans="1:6">
       <c r="A65" s="3" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="E65" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/298","JEP 298")</f>
@@ -5696,16 +5460,16 @@
     </row>
     <row r="66" s="2" customFormat="1" spans="1:6">
       <c r="A66" s="2" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="E66" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/284","JEP 284")</f>
@@ -5715,16 +5479,16 @@
     </row>
     <row r="67" s="3" customFormat="1" spans="1:6">
       <c r="A67" s="3" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="E67" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/253","JEP 253")</f>
@@ -5734,16 +5498,16 @@
     </row>
     <row r="68" s="2" customFormat="1" spans="1:6">
       <c r="A68" s="2" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="E68" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/257","JEP 257")</f>
@@ -5753,16 +5517,16 @@
     </row>
     <row r="69" s="3" customFormat="1" spans="1:6">
       <c r="A69" s="3" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="E69" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/283","JEP 283")</f>
@@ -5772,16 +5536,16 @@
     </row>
     <row r="70" s="2" customFormat="1" spans="1:6">
       <c r="A70" s="2" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="E70" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/255","JEP 255")</f>
@@ -5791,16 +5555,16 @@
     </row>
     <row r="71" s="3" customFormat="1" spans="1:6">
       <c r="A71" s="3" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="E71" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/268","JEP 268")</f>
@@ -5810,14 +5574,14 @@
     </row>
     <row r="72" s="2" customFormat="1" spans="1:6">
       <c r="A72" s="2" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="E72" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/223","JEP 223")</f>
@@ -5827,14 +5591,14 @@
     </row>
     <row r="73" s="3" customFormat="1" spans="1:6">
       <c r="A73" s="3" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="C73" s="3"/>
       <c r="D73" s="3" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="E73" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/260","JEP 260")</f>
@@ -5844,14 +5608,14 @@
     </row>
     <row r="74" s="2" customFormat="1" spans="1:6">
       <c r="A74" s="2" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="E74" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/270","JEP 270")</f>
@@ -5861,14 +5625,14 @@
     </row>
     <row r="75" s="3" customFormat="1" spans="1:6">
       <c r="A75" s="3" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="3" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="E75" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/279","JEP 279")</f>
@@ -5878,16 +5642,16 @@
     </row>
     <row r="76" s="2" customFormat="1" spans="1:6">
       <c r="A76" s="2" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="E76" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/212","JEP 212")</f>
@@ -5897,16 +5661,16 @@
     </row>
     <row r="77" s="3" customFormat="1" spans="1:6">
       <c r="A77" s="3" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="E77" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/238","JEP 238")</f>
@@ -5916,16 +5680,16 @@
     </row>
     <row r="78" s="2" customFormat="1" spans="1:6">
       <c r="A78" s="2" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="E78" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/199","JEP 199")</f>
@@ -5935,16 +5699,16 @@
     </row>
     <row r="79" s="3" customFormat="1" spans="1:6">
       <c r="A79" s="3" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="E79" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/211","JEP 211")</f>
@@ -5954,16 +5718,16 @@
     </row>
     <row r="80" s="2" customFormat="1" spans="1:6">
       <c r="A80" s="2" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="E80" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/213","JEP 213")</f>
@@ -5973,16 +5737,16 @@
     </row>
     <row r="81" s="3" customFormat="1" spans="1:6">
       <c r="A81" s="3" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="E81" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/215","JEP 215")</f>
@@ -5992,16 +5756,16 @@
     </row>
     <row r="82" s="2" customFormat="1" spans="1:6">
       <c r="A82" s="2" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="E82" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/216","JEP 216")</f>
@@ -6011,16 +5775,16 @@
     </row>
     <row r="83" s="3" customFormat="1" spans="1:6">
       <c r="A83" s="3" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B83" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D83" s="3" t="s">
         <v>254</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>265</v>
       </c>
       <c r="E83" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/217","JEP 217")</f>
@@ -6030,16 +5794,16 @@
     </row>
     <row r="84" s="2" customFormat="1" spans="1:6">
       <c r="A84" s="2" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="E84" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/235","JEP 235")</f>
@@ -6049,16 +5813,16 @@
     </row>
     <row r="85" s="3" customFormat="1" spans="1:6">
       <c r="A85" s="3" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="E85" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/247","JEP 247")</f>
@@ -6068,16 +5832,16 @@
     </row>
     <row r="86" s="2" customFormat="1" spans="1:6">
       <c r="A86" s="2" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="E86" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/280","JEP 280")</f>
@@ -6087,16 +5851,16 @@
     </row>
     <row r="87" s="3" customFormat="1" spans="1:6">
       <c r="A87" s="3" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="E87" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/221","JEP 221")</f>
@@ -6106,16 +5870,16 @@
     </row>
     <row r="88" s="2" customFormat="1" spans="1:6">
       <c r="A88" s="2" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="E88" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/224","JEP 224")</f>
@@ -6125,16 +5889,16 @@
     </row>
     <row r="89" s="3" customFormat="1" spans="1:6">
       <c r="A89" s="3" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="E89" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/225","JEP 225")</f>
@@ -6144,16 +5908,16 @@
     </row>
     <row r="90" s="2" customFormat="1" spans="1:6">
       <c r="A90" s="2" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="E90" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/282","JEP 282")</f>
@@ -6163,16 +5927,16 @@
     </row>
     <row r="91" s="3" customFormat="1" spans="1:6">
       <c r="A91" s="3" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="E91" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/222","JEP 222")</f>
@@ -6182,16 +5946,16 @@
     </row>
     <row r="92" s="2" customFormat="1" spans="1:6">
       <c r="A92" s="2" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="E92" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/231","JEP 231")</f>
@@ -6201,16 +5965,16 @@
     </row>
     <row r="93" s="3" customFormat="1" spans="1:6">
       <c r="A93" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="E93" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/314","JEP 314")</f>
@@ -6220,16 +5984,16 @@
     </row>
     <row r="94" s="2" customFormat="1" spans="1:6">
       <c r="A94" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="E94" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/319","JEP 319")</f>
@@ -6239,16 +6003,16 @@
     </row>
     <row r="95" s="3" customFormat="1" spans="1:6">
       <c r="A95" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="E95" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/304","JEP 304")</f>
@@ -6258,16 +6022,16 @@
     </row>
     <row r="96" s="2" customFormat="1" spans="1:6">
       <c r="A96" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="E96" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/307","JEP 307")</f>
@@ -6277,16 +6041,16 @@
     </row>
     <row r="97" s="3" customFormat="1" spans="1:6">
       <c r="A97" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="E97" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/316","JEP 316")</f>
@@ -6296,16 +6060,16 @@
     </row>
     <row r="98" s="2" customFormat="1" spans="1:6">
       <c r="A98" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="E98" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/317","JEP 317")</f>
@@ -6315,16 +6079,16 @@
     </row>
     <row r="99" s="3" customFormat="1" spans="1:6">
       <c r="A99" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="E99" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/310","JEP 310")</f>
@@ -6334,16 +6098,16 @@
     </row>
     <row r="100" s="2" customFormat="1" spans="1:6">
       <c r="A100" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="E100" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/312","JEP 312")</f>
@@ -6353,16 +6117,16 @@
     </row>
     <row r="101" s="3" customFormat="1" spans="1:6">
       <c r="A101" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="E101" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/322","JEP 322")</f>
@@ -6372,16 +6136,16 @@
     </row>
     <row r="102" s="2" customFormat="1" spans="1:6">
       <c r="A102" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="E102" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/286","JEP 286")</f>
@@ -6391,16 +6155,16 @@
     </row>
     <row r="103" s="3" customFormat="1" spans="1:6">
       <c r="A103" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="E103" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/296","JEP 296")</f>
@@ -6410,16 +6174,16 @@
     </row>
     <row r="104" s="2" customFormat="1" spans="1:6">
       <c r="A104" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="E104" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/313","JEP 313")</f>
@@ -6429,16 +6193,16 @@
     </row>
     <row r="105" s="3" customFormat="1" spans="1:6">
       <c r="A105" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="E105" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/321","JEP 321")</f>
@@ -6448,16 +6212,16 @@
     </row>
     <row r="106" s="2" customFormat="1" spans="1:6">
       <c r="A106" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="E106" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/335","JEP 335")</f>
@@ -6467,16 +6231,16 @@
     </row>
     <row r="107" s="3" customFormat="1" spans="1:6">
       <c r="A107" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="E107" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/324","JEP 324")</f>
@@ -6486,16 +6250,16 @@
     </row>
     <row r="108" s="2" customFormat="1" spans="1:6">
       <c r="A108" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="E108" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/329","JEP 329")</f>
@@ -6505,16 +6269,16 @@
     </row>
     <row r="109" s="3" customFormat="1" spans="1:6">
       <c r="A109" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="E109" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/332","JEP 332")</f>
@@ -6524,16 +6288,16 @@
     </row>
     <row r="110" s="2" customFormat="1" spans="1:6">
       <c r="A110" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="E110" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/318","JEP 318")</f>
@@ -6543,16 +6307,16 @@
     </row>
     <row r="111" s="3" customFormat="1" spans="1:6">
       <c r="A111" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="E111" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/333","JEP 333")</f>
@@ -6562,16 +6326,16 @@
     </row>
     <row r="112" s="2" customFormat="1" spans="1:6">
       <c r="A112" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="E112" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/315","JEP 315")</f>
@@ -6581,16 +6345,16 @@
     </row>
     <row r="113" s="3" customFormat="1" spans="1:6">
       <c r="A113" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="E113" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/328","JEP 328")</f>
@@ -6600,16 +6364,16 @@
     </row>
     <row r="114" s="2" customFormat="1" spans="1:6">
       <c r="A114" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="E114" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/331","JEP 331")</f>
@@ -6619,16 +6383,16 @@
     </row>
     <row r="115" s="3" customFormat="1" spans="1:6">
       <c r="A115" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="E115" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/181","JEP 181")</f>
@@ -6638,16 +6402,16 @@
     </row>
     <row r="116" s="2" customFormat="1" spans="1:6">
       <c r="A116" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="E116" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/309","JEP 309")</f>
@@ -6657,16 +6421,16 @@
     </row>
     <row r="117" s="3" customFormat="1" spans="1:6">
       <c r="A117" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="E117" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/327","JEP 327")</f>
@@ -6676,16 +6440,16 @@
     </row>
     <row r="118" s="2" customFormat="1" spans="1:6">
       <c r="A118" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="E118" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/320","JEP 320")</f>
@@ -6695,16 +6459,16 @@
     </row>
     <row r="119" s="3" customFormat="1" spans="1:6">
       <c r="A119" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="E119" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/323","JEP 323")</f>
@@ -6714,16 +6478,16 @@
     </row>
     <row r="120" s="2" customFormat="1" spans="1:6">
       <c r="A120" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="E120" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/336","JEP 336")</f>
@@ -6733,16 +6497,16 @@
     </row>
     <row r="121" s="3" customFormat="1" spans="1:6">
       <c r="A121" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="E121" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/330","JEP 330")</f>
@@ -6757,12 +6521,20 @@
     <sortCondition ref="C2:C121"/>
     <sortCondition ref="E2:E121"/>
   </sortState>
+  <conditionalFormatting sqref="$A2:$XFD1048576">
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F75"/>
@@ -6787,33 +6559,33 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="E2" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/334","JEP 334")</f>
@@ -6823,16 +6595,16 @@
     </row>
     <row r="3" s="3" customFormat="1" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="E3" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/189","JEP 189")</f>
@@ -6842,16 +6614,16 @@
     </row>
     <row r="4" s="2" customFormat="1" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="E4" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/344","JEP 344")</f>
@@ -6861,16 +6633,16 @@
     </row>
     <row r="5" s="3" customFormat="1" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="E5" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/346","JEP 346")</f>
@@ -6880,16 +6652,16 @@
     </row>
     <row r="6" s="2" customFormat="1" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="E6" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/340","JEP 340")</f>
@@ -6899,16 +6671,16 @@
     </row>
     <row r="7" s="3" customFormat="1" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="E7" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/341","JEP 341")</f>
@@ -6918,16 +6690,16 @@
     </row>
     <row r="8" s="2" customFormat="1" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="E8" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/230","JEP 230")</f>
@@ -6937,16 +6709,16 @@
     </row>
     <row r="9" s="3" customFormat="1" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="E9" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/325","JEP 325")</f>
@@ -6956,16 +6728,16 @@
     </row>
     <row r="10" s="2" customFormat="1" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="E10" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/353","JEP 353")</f>
@@ -6975,16 +6747,16 @@
     </row>
     <row r="11" s="3" customFormat="1" spans="1:6">
       <c r="A11" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="E11" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/351","JEP 351")</f>
@@ -6994,16 +6766,16 @@
     </row>
     <row r="12" s="2" customFormat="1" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="E12" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/350","JEP 350")</f>
@@ -7013,16 +6785,16 @@
     </row>
     <row r="13" s="3" customFormat="1" spans="1:6">
       <c r="A13" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="E13" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/354","JEP 354")</f>
@@ -7032,16 +6804,16 @@
     </row>
     <row r="14" s="2" customFormat="1" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="E14" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/355","JEP 355")</f>
@@ -7051,16 +6823,16 @@
     </row>
     <row r="15" s="3" customFormat="1" spans="1:6">
       <c r="A15" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="E15" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/370","JEP 370")</f>
@@ -7070,16 +6842,16 @@
     </row>
     <row r="16" s="2" customFormat="1" spans="1:6">
       <c r="A16" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="E16" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/352","JEP 352")</f>
@@ -7089,16 +6861,16 @@
     </row>
     <row r="17" s="3" customFormat="1" spans="1:6">
       <c r="A17" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="E17" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/345","JEP 345")</f>
@@ -7108,16 +6880,16 @@
     </row>
     <row r="18" s="2" customFormat="1" spans="1:6">
       <c r="A18" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="E18" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/363","JEP 363")</f>
@@ -7127,16 +6899,16 @@
     </row>
     <row r="19" s="3" customFormat="1" spans="1:6">
       <c r="A19" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="E19" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/364","JEP 364")</f>
@@ -7146,16 +6918,16 @@
     </row>
     <row r="20" s="2" customFormat="1" spans="1:6">
       <c r="A20" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="E20" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/365","JEP 365")</f>
@@ -7165,16 +6937,16 @@
     </row>
     <row r="21" s="3" customFormat="1" spans="1:6">
       <c r="A21" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="E21" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/366","JEP 366")</f>
@@ -7184,16 +6956,16 @@
     </row>
     <row r="22" s="2" customFormat="1" spans="1:6">
       <c r="A22" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="E22" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/349","JEP 349")</f>
@@ -7203,16 +6975,16 @@
     </row>
     <row r="23" s="3" customFormat="1" spans="1:6">
       <c r="A23" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="E23" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/358","JEP 358")</f>
@@ -7222,16 +6994,16 @@
     </row>
     <row r="24" s="2" customFormat="1" spans="1:6">
       <c r="A24" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="E24" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/305","JEP 305")</f>
@@ -7241,16 +7013,16 @@
     </row>
     <row r="25" s="3" customFormat="1" spans="1:6">
       <c r="A25" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="E25" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/359","JEP 359")</f>
@@ -7260,16 +7032,16 @@
     </row>
     <row r="26" s="2" customFormat="1" spans="1:6">
       <c r="A26" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="E26" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/361","JEP 361")</f>
@@ -7279,16 +7051,16 @@
     </row>
     <row r="27" s="3" customFormat="1" spans="1:6">
       <c r="A27" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="E27" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/368","JEP 368")</f>
@@ -7298,14 +7070,14 @@
     </row>
     <row r="28" s="2" customFormat="1" spans="1:6">
       <c r="A28" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="E28" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/362","JEP 362")</f>
@@ -7315,16 +7087,16 @@
     </row>
     <row r="29" s="3" customFormat="1" spans="1:6">
       <c r="A29" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="E29" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/367","JEP 367")</f>
@@ -7334,16 +7106,16 @@
     </row>
     <row r="30" s="2" customFormat="1" spans="1:6">
       <c r="A30" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="E30" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/343","JEP 343")</f>
@@ -7353,16 +7125,16 @@
     </row>
     <row r="31" s="3" customFormat="1" spans="1:6">
       <c r="A31" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="E31" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/383","JEP 383")</f>
@@ -7372,16 +7144,16 @@
     </row>
     <row r="32" s="2" customFormat="1" spans="1:6">
       <c r="A32" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="E32" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/371","JEP 371")</f>
@@ -7391,16 +7163,16 @@
     </row>
     <row r="33" s="3" customFormat="1" spans="1:6">
       <c r="A33" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="E33" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/373","JEP 373")</f>
@@ -7410,16 +7182,16 @@
     </row>
     <row r="34" s="2" customFormat="1" spans="1:6">
       <c r="A34" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="E34" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/385","JEP 385")</f>
@@ -7429,16 +7201,16 @@
     </row>
     <row r="35" s="3" customFormat="1" spans="1:6">
       <c r="A35" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="E35" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/372","JEP 372")</f>
@@ -7448,16 +7220,16 @@
     </row>
     <row r="36" s="2" customFormat="1" spans="1:6">
       <c r="A36" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="E36" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/339","JEP 339")</f>
@@ -7467,16 +7239,16 @@
     </row>
     <row r="37" s="3" customFormat="1" spans="1:6">
       <c r="A37" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="E37" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/377","JEP 377")</f>
@@ -7486,16 +7258,16 @@
     </row>
     <row r="38" s="2" customFormat="1" spans="1:6">
       <c r="A38" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="E38" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/379","JEP 379")</f>
@@ -7505,16 +7277,16 @@
     </row>
     <row r="39" s="3" customFormat="1" spans="1:6">
       <c r="A39" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="E39" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/381","JEP 381")</f>
@@ -7524,16 +7296,16 @@
     </row>
     <row r="40" s="2" customFormat="1" spans="1:6">
       <c r="A40" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="E40" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/374","JEP 374")</f>
@@ -7543,16 +7315,16 @@
     </row>
     <row r="41" s="3" customFormat="1" spans="1:6">
       <c r="A41" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="E41" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/360","JEP 360")</f>
@@ -7562,16 +7334,16 @@
     </row>
     <row r="42" s="2" customFormat="1" spans="1:6">
       <c r="A42" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="E42" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/375","JEP 375")</f>
@@ -7581,16 +7353,16 @@
     </row>
     <row r="43" s="3" customFormat="1" spans="1:6">
       <c r="A43" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E43" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/378","JEP 378")</f>
@@ -7600,16 +7372,16 @@
     </row>
     <row r="44" s="2" customFormat="1" spans="1:6">
       <c r="A44" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="E44" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/384","JEP 384")</f>
@@ -7619,16 +7391,16 @@
     </row>
     <row r="45" s="3" customFormat="1" spans="1:6">
       <c r="A45" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="E45" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/389","JEP 389")</f>
@@ -7638,16 +7410,16 @@
     </row>
     <row r="46" s="2" customFormat="1" spans="1:6">
       <c r="A46" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="E46" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/393","JEP 393")</f>
@@ -7657,16 +7429,16 @@
     </row>
     <row r="47" s="3" customFormat="1" spans="1:6">
       <c r="A47" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="E47" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/380","JEP 380")</f>
@@ -7676,16 +7448,16 @@
     </row>
     <row r="48" s="2" customFormat="1" spans="1:6">
       <c r="A48" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="E48" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/376","JEP 376")</f>
@@ -7695,16 +7467,16 @@
     </row>
     <row r="49" s="3" customFormat="1" spans="1:6">
       <c r="A49" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="E49" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/338","JEP 338")</f>
@@ -7714,16 +7486,16 @@
     </row>
     <row r="50" s="2" customFormat="1" spans="1:6">
       <c r="A50" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C50" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>353</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>364</v>
       </c>
       <c r="E50" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/347","JEP 347")</f>
@@ -7733,16 +7505,16 @@
     </row>
     <row r="51" s="3" customFormat="1" spans="1:6">
       <c r="A51" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="E51" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/386","JEP 386")</f>
@@ -7752,16 +7524,16 @@
     </row>
     <row r="52" s="2" customFormat="1" spans="1:6">
       <c r="A52" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="E52" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/387","JEP 387")</f>
@@ -7771,16 +7543,16 @@
     </row>
     <row r="53" s="3" customFormat="1" spans="1:6">
       <c r="A53" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="E53" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/388","JEP 388")</f>
@@ -7790,16 +7562,16 @@
     </row>
     <row r="54" s="2" customFormat="1" spans="1:6">
       <c r="A54" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E54" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/394","JEP 394")</f>
@@ -7809,16 +7581,16 @@
     </row>
     <row r="55" s="3" customFormat="1" spans="1:6">
       <c r="A55" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E55" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/395","JEP 395")</f>
@@ -7828,16 +7600,16 @@
     </row>
     <row r="56" s="2" customFormat="1" spans="1:6">
       <c r="A56" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="E56" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/397","JEP 397")</f>
@@ -7847,16 +7619,16 @@
     </row>
     <row r="57" s="3" customFormat="1" spans="1:6">
       <c r="A57" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="E57" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/357","JEP 357")</f>
@@ -7866,16 +7638,16 @@
     </row>
     <row r="58" s="2" customFormat="1" spans="1:6">
       <c r="A58" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="E58" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/369","JEP 369")</f>
@@ -7885,14 +7657,14 @@
     </row>
     <row r="59" s="3" customFormat="1" spans="1:6">
       <c r="A59" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="3" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="E59" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/390","JEP 390")</f>
@@ -7902,14 +7674,14 @@
     </row>
     <row r="60" s="2" customFormat="1" spans="1:6">
       <c r="A60" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="E60" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/396","JEP 396")</f>
@@ -7919,16 +7691,16 @@
     </row>
     <row r="61" s="3" customFormat="1" spans="1:6">
       <c r="A61" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="E61" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/392","JEP 392")</f>
@@ -7938,16 +7710,16 @@
     </row>
     <row r="62" s="2" customFormat="1" spans="1:6">
       <c r="A62" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="E62" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/412","JEP 412")</f>
@@ -7957,16 +7729,16 @@
     </row>
     <row r="63" s="3" customFormat="1" spans="1:6">
       <c r="A63" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="E63" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/414","JEP 414")</f>
@@ -7976,16 +7748,16 @@
     </row>
     <row r="64" s="2" customFormat="1" spans="1:6">
       <c r="A64" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="E64" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/415","JEP 415")</f>
@@ -7995,16 +7767,16 @@
     </row>
     <row r="65" s="3" customFormat="1" spans="1:6">
       <c r="A65" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="E65" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/407","JEP 407")</f>
@@ -8014,16 +7786,16 @@
     </row>
     <row r="66" s="2" customFormat="1" spans="1:6">
       <c r="A66" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="E66" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/356","JEP 356")</f>
@@ -8033,16 +7805,16 @@
     </row>
     <row r="67" s="3" customFormat="1" spans="1:6">
       <c r="A67" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="E67" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/411","JEP 411")</f>
@@ -8052,16 +7824,16 @@
     </row>
     <row r="68" s="2" customFormat="1" spans="1:6">
       <c r="A68" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="E68" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/410","JEP 410")</f>
@@ -8071,16 +7843,16 @@
     </row>
     <row r="69" s="3" customFormat="1" spans="1:6">
       <c r="A69" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="E69" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/391","JEP 391")</f>
@@ -8090,16 +7862,16 @@
     </row>
     <row r="70" s="2" customFormat="1" spans="1:6">
       <c r="A70" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="E70" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/306","JEP 306")</f>
@@ -8109,16 +7881,16 @@
     </row>
     <row r="71" s="3" customFormat="1" spans="1:6">
       <c r="A71" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="E71" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/406","JEP 406")</f>
@@ -8128,16 +7900,16 @@
     </row>
     <row r="72" s="2" customFormat="1" spans="1:6">
       <c r="A72" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E72" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/409","JEP 409")</f>
@@ -8147,16 +7919,16 @@
     </row>
     <row r="73" s="3" customFormat="1" spans="1:6">
       <c r="A73" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="E73" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/382","JEP 382")</f>
@@ -8166,16 +7938,16 @@
     </row>
     <row r="74" s="2" customFormat="1" spans="1:6">
       <c r="A74" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="E74" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/398","JEP 398")</f>
@@ -8185,14 +7957,14 @@
     </row>
     <row r="75" s="3" customFormat="1" spans="1:6">
       <c r="A75" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="3" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="E75" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/403","JEP 403")</f>
@@ -8207,22 +7979,30 @@
     <sortCondition ref="C2:C75"/>
     <sortCondition ref="E2:E75"/>
   </sortState>
+  <conditionalFormatting sqref="$A2:$XFD1048576">
+    <cfRule type="expression" dxfId="3" priority="2">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A29" sqref="$A29:$XFD29"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -8237,33 +8017,33 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="E2" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/417","JEP 417")</f>
@@ -8273,16 +8053,16 @@
     </row>
     <row r="3" s="3" customFormat="1" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="E3" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/419","JEP 419")</f>
@@ -8292,16 +8072,16 @@
     </row>
     <row r="4" s="2" customFormat="1" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="E4" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/416","JEP 416")</f>
@@ -8311,16 +8091,16 @@
     </row>
     <row r="5" s="3" customFormat="1" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="E5" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/408","JEP 408")</f>
@@ -8330,16 +8110,16 @@
     </row>
     <row r="6" s="2" customFormat="1" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="E6" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/418","JEP 418")</f>
@@ -8349,16 +8129,16 @@
     </row>
     <row r="7" s="3" customFormat="1" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="E7" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/400","JEP 400")</f>
@@ -8368,16 +8148,16 @@
     </row>
     <row r="8" s="2" customFormat="1" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="E8" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/421","JEP 421")</f>
@@ -8387,16 +8167,16 @@
     </row>
     <row r="9" s="3" customFormat="1" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="E9" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/420","JEP 420")</f>
@@ -8406,16 +8186,16 @@
     </row>
     <row r="10" s="2" customFormat="1" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="E10" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/413","JEP 413")</f>
@@ -8425,16 +8205,16 @@
     </row>
     <row r="11" s="3" customFormat="1" spans="1:6">
       <c r="A11" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="E11" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/424","JEP 424")</f>
@@ -8444,16 +8224,16 @@
     </row>
     <row r="12" s="2" customFormat="1" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="E12" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/425","JEP 425")</f>
@@ -8463,16 +8243,16 @@
     </row>
     <row r="13" s="3" customFormat="1" spans="1:6">
       <c r="A13" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="E13" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/426","JEP 426")</f>
@@ -8482,16 +8262,16 @@
     </row>
     <row r="14" s="2" customFormat="1" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="E14" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/428","JEP 428")</f>
@@ -8501,16 +8281,16 @@
     </row>
     <row r="15" s="3" customFormat="1" spans="1:6">
       <c r="A15" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="E15" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/422","JEP 422")</f>
@@ -8520,16 +8300,16 @@
     </row>
     <row r="16" s="2" customFormat="1" spans="1:6">
       <c r="A16" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="E16" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/405","JEP 405")</f>
@@ -8539,16 +8319,16 @@
     </row>
     <row r="17" s="3" customFormat="1" spans="1:6">
       <c r="A17" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="E17" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/427","JEP 427")</f>
@@ -8558,16 +8338,16 @@
     </row>
     <row r="18" s="2" customFormat="1" spans="1:6">
       <c r="A18" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="E18" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/429","JEP 429")</f>
@@ -8577,16 +8357,16 @@
     </row>
     <row r="19" s="3" customFormat="1" spans="1:6">
       <c r="A19" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="E19" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/434","JEP 434")</f>
@@ -8596,16 +8376,16 @@
     </row>
     <row r="20" s="2" customFormat="1" spans="1:6">
       <c r="A20" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="E20" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/436","JEP 436")</f>
@@ -8615,16 +8395,16 @@
     </row>
     <row r="21" s="3" customFormat="1" spans="1:6">
       <c r="A21" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="E21" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/437","JEP 437")</f>
@@ -8634,16 +8414,16 @@
     </row>
     <row r="22" s="2" customFormat="1" spans="1:6">
       <c r="A22" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="E22" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/438","JEP 438")</f>
@@ -8653,16 +8433,16 @@
     </row>
     <row r="23" s="3" customFormat="1" spans="1:6">
       <c r="A23" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="E23" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/432","JEP 432")</f>
@@ -8672,16 +8452,16 @@
     </row>
     <row r="24" s="2" customFormat="1" spans="1:6">
       <c r="A24" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="E24" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/433","JEP 433")</f>
@@ -8691,16 +8471,16 @@
     </row>
     <row r="25" s="3" customFormat="1" spans="1:6">
       <c r="A25" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="E25" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/442","JEP 442")</f>
@@ -8710,16 +8490,16 @@
     </row>
     <row r="26" s="2" customFormat="1" spans="1:6">
       <c r="A26" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="E26" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/444","JEP 444")</f>
@@ -8729,16 +8509,16 @@
     </row>
     <row r="27" s="3" customFormat="1" spans="1:6">
       <c r="A27" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="E27" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/446","JEP 446")</f>
@@ -8748,16 +8528,16 @@
     </row>
     <row r="28" s="2" customFormat="1" spans="1:6">
       <c r="A28" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="E28" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/453","JEP 453")</f>
@@ -8767,16 +8547,16 @@
     </row>
     <row r="29" s="3" customFormat="1" spans="1:6">
       <c r="A29" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="E29" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/431","JEP 431")</f>
@@ -8786,16 +8566,16 @@
     </row>
     <row r="30" s="2" customFormat="1" spans="1:6">
       <c r="A30" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>416</v>
+        <v>116</v>
       </c>
       <c r="E30" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/452","JEP 452")</f>
@@ -8805,16 +8585,16 @@
     </row>
     <row r="31" s="3" customFormat="1" spans="1:6">
       <c r="A31" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="E31" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/439","JEP 439")</f>
@@ -8824,16 +8604,16 @@
     </row>
     <row r="32" s="2" customFormat="1" spans="1:6">
       <c r="A32" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="E32" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/449","JEP 449")</f>
@@ -8843,16 +8623,16 @@
     </row>
     <row r="33" s="3" customFormat="1" spans="1:6">
       <c r="A33" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="E33" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/451","JEP 451")</f>
@@ -8862,16 +8642,16 @@
     </row>
     <row r="34" s="2" customFormat="1" spans="1:6">
       <c r="A34" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="E34" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/430","JEP 430")</f>
@@ -8881,16 +8661,16 @@
     </row>
     <row r="35" s="3" customFormat="1" spans="1:6">
       <c r="A35" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E35" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/440","JEP 440")</f>
@@ -8900,16 +8680,16 @@
     </row>
     <row r="36" s="2" customFormat="1" spans="1:6">
       <c r="A36" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E36" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/441","JEP 441")</f>
@@ -8919,16 +8699,16 @@
     </row>
     <row r="37" s="3" customFormat="1" spans="1:6">
       <c r="A37" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="E37" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/443","JEP 443")</f>
@@ -8938,16 +8718,16 @@
     </row>
     <row r="38" s="2" customFormat="1" spans="1:6">
       <c r="A38" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="E38" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/445","JEP 445")</f>
@@ -8957,12 +8737,12 @@
     </row>
     <row r="39" s="3" customFormat="1" spans="1:6">
       <c r="A39" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="E39" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/448","JEP 448")</f>
@@ -8977,22 +8757,30 @@
     <sortCondition ref="C2:C39"/>
     <sortCondition ref="E2:E39"/>
   </sortState>
+  <conditionalFormatting sqref="$A2:$XFD1048576">
+    <cfRule type="expression" dxfId="3" priority="2">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -9007,33 +8795,33 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="E2" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/460","JEP 460")</f>
@@ -9043,16 +8831,16 @@
     </row>
     <row r="3" s="3" customFormat="1" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="E3" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/462","JEP 462")</f>
@@ -9062,16 +8850,16 @@
     </row>
     <row r="4" s="2" customFormat="1" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E4" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/464","JEP 464")</f>
@@ -9081,16 +8869,16 @@
     </row>
     <row r="5" s="3" customFormat="1" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="E5" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/457","JEP 457")</f>
@@ -9100,16 +8888,16 @@
     </row>
     <row r="6" s="2" customFormat="1" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="E6" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/454","JEP 454")</f>
@@ -9119,16 +8907,16 @@
     </row>
     <row r="7" s="3" customFormat="1" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="E7" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/461","JEP 461")</f>
@@ -9138,16 +8926,16 @@
     </row>
     <row r="8" s="2" customFormat="1" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="E8" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/423","JEP 423")</f>
@@ -9157,16 +8945,16 @@
     </row>
     <row r="9" s="3" customFormat="1" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="E9" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/447","JEP 447")</f>
@@ -9176,16 +8964,16 @@
     </row>
     <row r="10" s="2" customFormat="1" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="E10" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/456","JEP 456")</f>
@@ -9195,16 +8983,16 @@
     </row>
     <row r="11" s="3" customFormat="1" spans="1:6">
       <c r="A11" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="E11" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/459","JEP 459")</f>
@@ -9214,16 +9002,16 @@
     </row>
     <row r="12" s="2" customFormat="1" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="E12" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/463","JEP 463")</f>
@@ -9233,16 +9021,16 @@
     </row>
     <row r="13" s="3" customFormat="1" spans="1:6">
       <c r="A13" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="E13" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/458","JEP 458")</f>
@@ -9252,16 +9040,16 @@
     </row>
     <row r="14" s="2" customFormat="1" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="E14" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/469","JEP 469")</f>
@@ -9271,16 +9059,16 @@
     </row>
     <row r="15" s="3" customFormat="1" spans="1:6">
       <c r="A15" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="E15" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/471","JEP 471")</f>
@@ -9290,16 +9078,16 @@
     </row>
     <row r="16" s="2" customFormat="1" spans="1:6">
       <c r="A16" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="E16" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/480","JEP 480")</f>
@@ -9309,16 +9097,16 @@
     </row>
     <row r="17" s="3" customFormat="1" spans="1:6">
       <c r="A17" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="E17" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/481","JEP 481")</f>
@@ -9328,16 +9116,16 @@
     </row>
     <row r="18" s="2" customFormat="1" spans="1:6">
       <c r="A18" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="E18" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/466","JEP 466")</f>
@@ -9347,16 +9135,16 @@
     </row>
     <row r="19" s="3" customFormat="1" spans="1:6">
       <c r="A19" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="E19" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/474","JEP 474")</f>
@@ -9366,16 +9154,16 @@
     </row>
     <row r="20" s="2" customFormat="1" spans="1:6">
       <c r="A20" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="E20" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/455","JEP 455")</f>
@@ -9385,16 +9173,16 @@
     </row>
     <row r="21" s="3" customFormat="1" spans="1:6">
       <c r="A21" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="E21" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/476","JEP 476")</f>
@@ -9404,16 +9192,16 @@
     </row>
     <row r="22" s="2" customFormat="1" spans="1:6">
       <c r="A22" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="E22" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/477","JEP 477")</f>
@@ -9423,16 +9211,16 @@
     </row>
     <row r="23" s="3" customFormat="1" spans="1:6">
       <c r="A23" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="E23" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/482","JEP 482")</f>
@@ -9442,16 +9230,16 @@
     </row>
     <row r="24" s="2" customFormat="1" spans="1:6">
       <c r="A24" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="E24" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/467","JEP 467")</f>
@@ -9461,12 +9249,12 @@
     </row>
     <row r="25" s="3" customFormat="1" spans="1:6">
       <c r="A25" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="E25" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/473","JEP 473")</f>
@@ -9476,16 +9264,16 @@
     </row>
     <row r="26" s="2" customFormat="1" spans="1:6">
       <c r="A26" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="E26" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/472","JEP 472")</f>
@@ -9495,16 +9283,16 @@
     </row>
     <row r="27" s="3" customFormat="1" spans="1:6">
       <c r="A27" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="E27" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/487","JEP 487")</f>
@@ -9514,16 +9302,16 @@
     </row>
     <row r="28" s="2" customFormat="1" spans="1:6">
       <c r="A28" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="E28" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/489","JEP 489")</f>
@@ -9533,16 +9321,16 @@
     </row>
     <row r="29" s="3" customFormat="1" spans="1:6">
       <c r="A29" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="E29" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/498","JEP 498")</f>
@@ -9552,16 +9340,16 @@
     </row>
     <row r="30" s="2" customFormat="1" spans="1:6">
       <c r="A30" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="E30" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/499","JEP 499")</f>
@@ -9571,16 +9359,16 @@
     </row>
     <row r="31" s="3" customFormat="1" spans="1:6">
       <c r="A31" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="E31" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/484","JEP 484")</f>
@@ -9590,16 +9378,16 @@
     </row>
     <row r="32" s="2" customFormat="1" spans="1:6">
       <c r="A32" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="E32" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/485","JEP 485")</f>
@@ -9609,16 +9397,16 @@
     </row>
     <row r="33" s="3" customFormat="1" spans="1:6">
       <c r="A33" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="E33" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/486","JEP 486")</f>
@@ -9628,16 +9416,16 @@
     </row>
     <row r="34" s="2" customFormat="1" spans="1:6">
       <c r="A34" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="E34" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/497","JEP 497")</f>
@@ -9647,16 +9435,16 @@
     </row>
     <row r="35" s="3" customFormat="1" spans="1:6">
       <c r="A35" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="E35" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/478","JEP 478")</f>
@@ -9666,16 +9454,16 @@
     </row>
     <row r="36" s="2" customFormat="1" spans="1:6">
       <c r="A36" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="E36" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/496","JEP 496")</f>
@@ -9685,16 +9473,16 @@
     </row>
     <row r="37" s="3" customFormat="1" spans="1:6">
       <c r="A37" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="E37" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/404","JEP 404")</f>
@@ -9704,16 +9492,16 @@
     </row>
     <row r="38" s="2" customFormat="1" spans="1:6">
       <c r="A38" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="E38" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/490","JEP 490")</f>
@@ -9723,16 +9511,16 @@
     </row>
     <row r="39" s="3" customFormat="1" spans="1:6">
       <c r="A39" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="E39" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/475","JEP 475")</f>
@@ -9742,16 +9530,16 @@
     </row>
     <row r="40" s="2" customFormat="1" spans="1:6">
       <c r="A40" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="E40" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/479","JEP 479")</f>
@@ -9761,16 +9549,16 @@
     </row>
     <row r="41" s="3" customFormat="1" spans="1:6">
       <c r="A41" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="E41" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/501","JEP 501")</f>
@@ -9780,16 +9568,16 @@
     </row>
     <row r="42" s="2" customFormat="1" spans="1:6">
       <c r="A42" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="E42" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/450","JEP 450")</f>
@@ -9799,16 +9587,16 @@
     </row>
     <row r="43" s="3" customFormat="1" spans="1:6">
       <c r="A43" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="E43" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/483","JEP 483")</f>
@@ -9818,16 +9606,16 @@
     </row>
     <row r="44" s="2" customFormat="1" spans="1:6">
       <c r="A44" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="E44" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/491","JEP 491")</f>
@@ -9837,16 +9625,16 @@
     </row>
     <row r="45" s="3" customFormat="1" spans="1:6">
       <c r="A45" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="E45" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/488","JEP 488")</f>
@@ -9856,16 +9644,16 @@
     </row>
     <row r="46" s="2" customFormat="1" spans="1:6">
       <c r="A46" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="E46" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/492","JEP 492")</f>
@@ -9875,16 +9663,16 @@
     </row>
     <row r="47" s="3" customFormat="1" spans="1:6">
       <c r="A47" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="E47" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/494","JEP 494")</f>
@@ -9894,16 +9682,16 @@
     </row>
     <row r="48" s="2" customFormat="1" spans="1:6">
       <c r="A48" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="E48" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/495","JEP 495")</f>
@@ -9913,16 +9701,16 @@
     </row>
     <row r="49" s="3" customFormat="1" spans="1:6">
       <c r="A49" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="E49" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/493","JEP 493")</f>
@@ -9937,6 +9725,14 @@
     <sortCondition ref="C2:C49"/>
     <sortCondition ref="E2:E49"/>
   </sortState>
+  <conditionalFormatting sqref="$A2:$XFD1048576">
+    <cfRule type="expression" dxfId="3" priority="2">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/README.xlsx
+++ b/README.xlsx
@@ -17,6 +17,7 @@
     <sheet name="JDK22-24" sheetId="21" r:id="rId8"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">JVM!$A$1:$T$23</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'JDK9-11'!$B$1:$F$92</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1396" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="537">
   <si>
     <t>Feature</t>
   </si>
@@ -676,6 +677,9 @@
     <t>JEP 498</t>
   </si>
   <si>
+    <t>Item</t>
+  </si>
+  <si>
     <t>Experimental Java-Based JIT Compiler</t>
   </si>
   <si>
@@ -694,6 +698,9 @@
     <t>JEP 304</t>
   </si>
   <si>
+    <t>G1</t>
+  </si>
+  <si>
     <t>Parallel Full GC for G1</t>
   </si>
   <si>
@@ -715,7 +722,7 @@
     <t>Epsilon GC</t>
   </si>
   <si>
-    <t>A No-Op Garbage Collector</t>
+    <t>Epsilon: A No-Op Garbage Collector</t>
   </si>
   <si>
     <t>Experimental
@@ -725,7 +732,10 @@
     <t>ZGC</t>
   </si>
   <si>
-    <t>A Scalable Low-Latency Garbage Collector</t>
+    <t>ZGC: A Scalable Low-Latency Garbage Collector</t>
+  </si>
+  <si>
+    <t>Z Garbage Collector</t>
   </si>
   <si>
     <t>Experimental
@@ -735,20 +745,109 @@
     <t>Shenandoah GC</t>
   </si>
   <si>
-    <t>A Low-Pause-Time Garbage Collector</t>
+    <t>Shenandoah: A Low-Pause-Time Garbage Collector</t>
   </si>
   <si>
     <t>Experimental
 JEP 189</t>
   </si>
   <si>
-    <t>Uncommit Unused Memory</t>
+    <t>ZGC: Uncommit Unused Memory</t>
   </si>
   <si>
     <t>Experimental
 JEP 351</t>
   </si>
   <si>
+    <t>NUMA-Aware Memory Allocation for G1</t>
+  </si>
+  <si>
+    <t>JEP 345</t>
+  </si>
+  <si>
+    <t>CMS</t>
+  </si>
+  <si>
+    <t>Remove the Concurrent Mark Sweep (CMS) Garbage Collector</t>
+  </si>
+  <si>
+    <t>JEP 363</t>
+  </si>
+  <si>
+    <t>ZGC on macOS</t>
+  </si>
+  <si>
+    <t>Experimental
+JEP 364</t>
+  </si>
+  <si>
+    <t>ZGC on Windows</t>
+  </si>
+  <si>
+    <t>Experimental
+JEP 365</t>
+  </si>
+  <si>
+    <t>Deprecate the ParallelScavenge + SerialOld GC Combination</t>
+  </si>
+  <si>
+    <t>JEP 366</t>
+  </si>
+  <si>
+    <t>Change the Z Garbage Collector from an experimental feature into a product feature.
+The default GC, which remains G1.</t>
+  </si>
+  <si>
+    <t>Production
+JEP 377</t>
+  </si>
+  <si>
+    <t>Production
+JEP 379</t>
+  </si>
+  <si>
+    <t>ZGC: Concurrent Thread-Stack Processing</t>
+  </si>
+  <si>
+    <t>JEP 376</t>
+  </si>
+  <si>
+    <t>Generational ZGC</t>
+  </si>
+  <si>
+    <t>分代ZGC</t>
+  </si>
+  <si>
+    <t>JEP 439</t>
+  </si>
+  <si>
+    <t>Region Pinning for G1</t>
+  </si>
+  <si>
+    <t>JEP 423</t>
+  </si>
+  <si>
+    <t>ZGC: Generational Mode by Default</t>
+  </si>
+  <si>
+    <t>ZGC：默认启用分代模式</t>
+  </si>
+  <si>
+    <t>JEP 474</t>
+  </si>
+  <si>
+    <t>Late Barrier Expansion for G1</t>
+  </si>
+  <si>
+    <t>JEP 475</t>
+  </si>
+  <si>
+    <t>ZGC: Remove the Non-Generational Mode</t>
+  </si>
+  <si>
+    <t>JEP 490</t>
+  </si>
+  <si>
     <t>jshell</t>
   </si>
   <si>
@@ -1232,9 +1331,6 @@
     <t>Deprecate the Nashorn JavaScript Engine</t>
   </si>
   <si>
-    <t>Epsilon: A No-Op Garbage Collector</t>
-  </si>
-  <si>
     <t>ZGC: A Scalable Low-Latency Garbage Collector (Experimental)</t>
   </si>
   <si>
@@ -1298,9 +1394,6 @@
     <t>Reimplement the Legacy Socket API</t>
   </si>
   <si>
-    <t>ZGC: Uncommit Unused Memory</t>
-  </si>
-  <si>
     <t>Dynamic CDS Archives</t>
   </si>
   <si>
@@ -1316,21 +1409,6 @@
     <t>Non-Volatile Mapped Byte Buffers</t>
   </si>
   <si>
-    <t>NUMA-Aware Memory Allocation for G1</t>
-  </si>
-  <si>
-    <t>Remove the Concurrent Mark Sweep (CMS) Garbage Collector</t>
-  </si>
-  <si>
-    <t>ZGC on macOS</t>
-  </si>
-  <si>
-    <t>ZGC on Windows</t>
-  </si>
-  <si>
-    <t>Deprecate the ParallelScavenge + SerialOld GC Combination</t>
-  </si>
-  <si>
     <t>JFR Event Streaming</t>
   </si>
   <si>
@@ -1382,12 +1460,6 @@
     <t>Edwards-Curve Digital Signature Algorithm (EdDSA)</t>
   </si>
   <si>
-    <t>ZGC: A Scalable Low-Latency Garbage Collector</t>
-  </si>
-  <si>
-    <t>Shenandoah: A Low-Pause-Time Garbage Collector</t>
-  </si>
-  <si>
     <t>hotspot / other</t>
   </si>
   <si>
@@ -1415,9 +1487,6 @@
     <t>Unix-Domain Socket Channels</t>
   </si>
   <si>
-    <t>ZGC: Concurrent Thread-Stack Processing</t>
-  </si>
-  <si>
     <t>Vector API (Incubator)</t>
   </si>
   <si>
@@ -1577,9 +1646,6 @@
     <t>Structured Concurrency (Preview)</t>
   </si>
   <si>
-    <t>Generational ZGC</t>
-  </si>
-  <si>
     <t>Deprecate the Windows 32-bit x86 Port for Removal</t>
   </si>
   <si>
@@ -1622,9 +1688,6 @@
     <t>Stream Gatherers (Preview)</t>
   </si>
   <si>
-    <t>Region Pinning for G1</t>
-  </si>
-  <si>
     <t>Statements before super(...) (Preview)</t>
   </si>
   <si>
@@ -1655,9 +1718,6 @@
     <t>Class-File API (Second Preview)</t>
   </si>
   <si>
-    <t>ZGC: Generational Mode by Default</t>
-  </si>
-  <si>
     <t>Primitive Types in Patterns, instanceof, and switch (Preview)</t>
   </si>
   <si>
@@ -1689,12 +1749,6 @@
   </si>
   <si>
     <t>Generational Shenandoah (Experimental)</t>
-  </si>
-  <si>
-    <t>ZGC: Remove the Non-Generational Mode</t>
-  </si>
-  <si>
-    <t>Late Barrier Expansion for G1</t>
   </si>
   <si>
     <t>Remove the Windows 32-bit x86 Port</t>
@@ -2439,7 +2493,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2515,8 +2569,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2534,12 +2588,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2910,20 +2958,20 @@
   <dimension ref="A1:AG23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="$A6:$XFD6"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6363636363636" defaultRowHeight="50" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="63.0909090909091" style="37" customWidth="1"/>
-    <col min="2" max="2" width="63.0909090909091" style="38" customWidth="1"/>
-    <col min="3" max="33" width="10.6363636363636" style="39" customWidth="1"/>
-    <col min="34" max="16383" width="10.6363636363636" style="36" customWidth="1"/>
-    <col min="16384" max="16384" width="10.6363636363636" style="36"/>
+    <col min="1" max="1" width="63.0909090909091" style="35" customWidth="1"/>
+    <col min="2" max="2" width="33.1818181818182" style="36" customWidth="1"/>
+    <col min="3" max="33" width="10.6363636363636" style="37" customWidth="1"/>
+    <col min="34" max="16383" width="10.6363636363636" style="34" customWidth="1"/>
+    <col min="16384" max="16384" width="10.6363636363636" style="34"/>
   </cols>
   <sheetData>
     <row r="1" s="10" customFormat="1" customHeight="1" spans="1:33">
@@ -2933,965 +2981,965 @@
       <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="G1" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="H1" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="40" t="s">
+      <c r="I1" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="40" t="s">
+      <c r="J1" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="40" t="s">
+      <c r="K1" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="40" t="s">
+      <c r="L1" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="40" t="s">
+      <c r="M1" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="40" t="s">
+      <c r="N1" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="40" t="s">
+      <c r="O1" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="40" t="s">
+      <c r="P1" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="40" t="s">
+      <c r="Q1" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="40" t="s">
+      <c r="R1" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="40" t="s">
+      <c r="S1" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="40"/>
-      <c r="AA1" s="40"/>
-      <c r="AB1" s="40"/>
-      <c r="AC1" s="40"/>
-      <c r="AD1" s="40"/>
-      <c r="AE1" s="40"/>
-      <c r="AF1" s="40"/>
-      <c r="AG1" s="40"/>
-    </row>
-    <row r="2" s="35" customFormat="1" customHeight="1" spans="1:33">
-      <c r="A2" s="41" t="s">
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="38"/>
+      <c r="AC1" s="38"/>
+      <c r="AD1" s="38"/>
+      <c r="AE1" s="38"/>
+      <c r="AF1" s="38"/>
+      <c r="AG1" s="38"/>
+    </row>
+    <row r="2" s="33" customFormat="1" customHeight="1" spans="1:33">
+      <c r="A2" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="43" t="s">
+      <c r="B2" s="40"/>
+      <c r="C2" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="39"/>
-      <c r="U2" s="39"/>
-      <c r="V2" s="39"/>
-      <c r="W2" s="39"/>
-      <c r="X2" s="39"/>
-      <c r="Y2" s="39"/>
-      <c r="Z2" s="39"/>
-      <c r="AA2" s="39"/>
-      <c r="AB2" s="39"/>
-      <c r="AC2" s="39"/>
-      <c r="AD2" s="39"/>
-      <c r="AE2" s="39"/>
-      <c r="AF2" s="39"/>
-      <c r="AG2" s="39"/>
-    </row>
-    <row r="3" s="35" customFormat="1" customHeight="1" spans="1:33">
-      <c r="A3" s="41" t="s">
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37"/>
+      <c r="X2" s="37"/>
+      <c r="Y2" s="37"/>
+      <c r="Z2" s="37"/>
+      <c r="AA2" s="37"/>
+      <c r="AB2" s="37"/>
+      <c r="AC2" s="37"/>
+      <c r="AD2" s="37"/>
+      <c r="AE2" s="37"/>
+      <c r="AF2" s="37"/>
+      <c r="AG2" s="37"/>
+    </row>
+    <row r="3" s="33" customFormat="1" customHeight="1" spans="1:33">
+      <c r="A3" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="43"/>
-      <c r="S3" s="43"/>
-      <c r="T3" s="39"/>
-      <c r="U3" s="39"/>
-      <c r="V3" s="39"/>
-      <c r="W3" s="39"/>
-      <c r="X3" s="39"/>
-      <c r="Y3" s="39"/>
-      <c r="Z3" s="39"/>
-      <c r="AA3" s="39"/>
-      <c r="AB3" s="39"/>
-      <c r="AC3" s="39"/>
-      <c r="AD3" s="39"/>
-      <c r="AE3" s="39"/>
-      <c r="AF3" s="39"/>
-      <c r="AG3" s="39"/>
-    </row>
-    <row r="4" s="35" customFormat="1" customHeight="1" spans="1:33">
-      <c r="A4" s="41" t="s">
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="37"/>
+      <c r="U3" s="37"/>
+      <c r="V3" s="37"/>
+      <c r="W3" s="37"/>
+      <c r="X3" s="37"/>
+      <c r="Y3" s="37"/>
+      <c r="Z3" s="37"/>
+      <c r="AA3" s="37"/>
+      <c r="AB3" s="37"/>
+      <c r="AC3" s="37"/>
+      <c r="AD3" s="37"/>
+      <c r="AE3" s="37"/>
+      <c r="AF3" s="37"/>
+      <c r="AG3" s="37"/>
+    </row>
+    <row r="4" s="33" customFormat="1" customHeight="1" spans="1:33">
+      <c r="A4" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43" t="s">
+      <c r="C4" s="41"/>
+      <c r="D4" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="43"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="43"/>
-      <c r="S4" s="43"/>
-      <c r="T4" s="39"/>
-      <c r="U4" s="39"/>
-      <c r="V4" s="39"/>
-      <c r="W4" s="39"/>
-      <c r="X4" s="39"/>
-      <c r="Y4" s="39"/>
-      <c r="Z4" s="39"/>
-      <c r="AA4" s="39"/>
-      <c r="AB4" s="39"/>
-      <c r="AC4" s="39"/>
-      <c r="AD4" s="39"/>
-      <c r="AE4" s="39"/>
-      <c r="AF4" s="39"/>
-      <c r="AG4" s="39"/>
-    </row>
-    <row r="5" s="35" customFormat="1" customHeight="1" spans="1:33">
-      <c r="A5" s="41" t="s">
+      <c r="E4" s="41"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="41"/>
+      <c r="T4" s="37"/>
+      <c r="U4" s="37"/>
+      <c r="V4" s="37"/>
+      <c r="W4" s="37"/>
+      <c r="X4" s="37"/>
+      <c r="Y4" s="37"/>
+      <c r="Z4" s="37"/>
+      <c r="AA4" s="37"/>
+      <c r="AB4" s="37"/>
+      <c r="AC4" s="37"/>
+      <c r="AD4" s="37"/>
+      <c r="AE4" s="37"/>
+      <c r="AF4" s="37"/>
+      <c r="AG4" s="37"/>
+    </row>
+    <row r="5" s="33" customFormat="1" customHeight="1" spans="1:33">
+      <c r="A5" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43" t="s">
+      <c r="B5" s="40"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="43"/>
-      <c r="O5" s="43"/>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="43"/>
-      <c r="R5" s="43"/>
-      <c r="S5" s="43"/>
-      <c r="T5" s="39"/>
-      <c r="U5" s="39"/>
-      <c r="V5" s="39"/>
-      <c r="W5" s="39"/>
-      <c r="X5" s="39"/>
-      <c r="Y5" s="39"/>
-      <c r="Z5" s="39"/>
-      <c r="AA5" s="39"/>
-      <c r="AB5" s="39"/>
-      <c r="AC5" s="39"/>
-      <c r="AD5" s="39"/>
-      <c r="AE5" s="39"/>
-      <c r="AF5" s="39"/>
-      <c r="AG5" s="39"/>
-    </row>
-    <row r="6" s="35" customFormat="1" customHeight="1" spans="1:33">
-      <c r="A6" s="41" t="s">
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="41"/>
+      <c r="Q5" s="41"/>
+      <c r="R5" s="41"/>
+      <c r="S5" s="41"/>
+      <c r="T5" s="37"/>
+      <c r="U5" s="37"/>
+      <c r="V5" s="37"/>
+      <c r="W5" s="37"/>
+      <c r="X5" s="37"/>
+      <c r="Y5" s="37"/>
+      <c r="Z5" s="37"/>
+      <c r="AA5" s="37"/>
+      <c r="AB5" s="37"/>
+      <c r="AC5" s="37"/>
+      <c r="AD5" s="37"/>
+      <c r="AE5" s="37"/>
+      <c r="AF5" s="37"/>
+      <c r="AG5" s="37"/>
+    </row>
+    <row r="6" s="33" customFormat="1" customHeight="1" spans="1:33">
+      <c r="A6" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="44" t="s">
+      <c r="B6" s="40"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="44" t="s">
+      <c r="G6" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="43" t="s">
+      <c r="H6" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="43"/>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="43"/>
-      <c r="R6" s="43"/>
-      <c r="S6" s="43"/>
-      <c r="T6" s="39"/>
-      <c r="U6" s="39"/>
-      <c r="V6" s="39"/>
-      <c r="W6" s="39"/>
-      <c r="X6" s="39"/>
-      <c r="Y6" s="39"/>
-      <c r="Z6" s="39"/>
-      <c r="AA6" s="39"/>
-      <c r="AB6" s="39"/>
-      <c r="AC6" s="39"/>
-      <c r="AD6" s="39"/>
-      <c r="AE6" s="39"/>
-      <c r="AF6" s="39"/>
-      <c r="AG6" s="39"/>
-    </row>
-    <row r="7" s="35" customFormat="1" customHeight="1" spans="1:33">
-      <c r="A7" s="41" t="s">
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="41"/>
+      <c r="R6" s="41"/>
+      <c r="S6" s="41"/>
+      <c r="T6" s="37"/>
+      <c r="U6" s="37"/>
+      <c r="V6" s="37"/>
+      <c r="W6" s="37"/>
+      <c r="X6" s="37"/>
+      <c r="Y6" s="37"/>
+      <c r="Z6" s="37"/>
+      <c r="AA6" s="37"/>
+      <c r="AB6" s="37"/>
+      <c r="AC6" s="37"/>
+      <c r="AD6" s="37"/>
+      <c r="AE6" s="37"/>
+      <c r="AF6" s="37"/>
+      <c r="AG6" s="37"/>
+    </row>
+    <row r="7" s="33" customFormat="1" customHeight="1" spans="1:33">
+      <c r="A7" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="44" t="s">
+      <c r="B7" s="40"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="44" t="s">
+      <c r="H7" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="43" t="s">
+      <c r="I7" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="43"/>
-      <c r="N7" s="43"/>
-      <c r="O7" s="43"/>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="43"/>
-      <c r="R7" s="43"/>
-      <c r="S7" s="43"/>
-      <c r="T7" s="39"/>
-      <c r="U7" s="39"/>
-      <c r="V7" s="39"/>
-      <c r="W7" s="39"/>
-      <c r="X7" s="39"/>
-      <c r="Y7" s="39"/>
-      <c r="Z7" s="39"/>
-      <c r="AA7" s="39"/>
-      <c r="AB7" s="39"/>
-      <c r="AC7" s="39"/>
-      <c r="AD7" s="39"/>
-      <c r="AE7" s="39"/>
-      <c r="AF7" s="39"/>
-      <c r="AG7" s="39"/>
-    </row>
-    <row r="8" s="35" customFormat="1" customHeight="1" spans="1:33">
-      <c r="A8" s="41" t="s">
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="41"/>
+      <c r="R7" s="41"/>
+      <c r="S7" s="41"/>
+      <c r="T7" s="37"/>
+      <c r="U7" s="37"/>
+      <c r="V7" s="37"/>
+      <c r="W7" s="37"/>
+      <c r="X7" s="37"/>
+      <c r="Y7" s="37"/>
+      <c r="Z7" s="37"/>
+      <c r="AA7" s="37"/>
+      <c r="AB7" s="37"/>
+      <c r="AC7" s="37"/>
+      <c r="AD7" s="37"/>
+      <c r="AE7" s="37"/>
+      <c r="AF7" s="37"/>
+      <c r="AG7" s="37"/>
+    </row>
+    <row r="8" s="33" customFormat="1" customHeight="1" spans="1:33">
+      <c r="A8" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="44" t="s">
+      <c r="B8" s="40"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="I8" s="44" t="s">
+      <c r="I8" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="J8" s="43" t="s">
+      <c r="J8" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="43"/>
-      <c r="N8" s="43"/>
-      <c r="O8" s="43"/>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="43"/>
-      <c r="R8" s="43"/>
-      <c r="S8" s="43"/>
-      <c r="T8" s="39"/>
-      <c r="U8" s="39"/>
-      <c r="V8" s="39"/>
-      <c r="W8" s="39"/>
-      <c r="X8" s="39"/>
-      <c r="Y8" s="39"/>
-      <c r="Z8" s="39"/>
-      <c r="AA8" s="39"/>
-      <c r="AB8" s="39"/>
-      <c r="AC8" s="39"/>
-      <c r="AD8" s="39"/>
-      <c r="AE8" s="39"/>
-      <c r="AF8" s="39"/>
-      <c r="AG8" s="39"/>
-    </row>
-    <row r="9" s="35" customFormat="1" customHeight="1" spans="1:33">
-      <c r="A9" s="41" t="s">
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="41"/>
+      <c r="O8" s="41"/>
+      <c r="P8" s="41"/>
+      <c r="Q8" s="41"/>
+      <c r="R8" s="41"/>
+      <c r="S8" s="41"/>
+      <c r="T8" s="37"/>
+      <c r="U8" s="37"/>
+      <c r="V8" s="37"/>
+      <c r="W8" s="37"/>
+      <c r="X8" s="37"/>
+      <c r="Y8" s="37"/>
+      <c r="Z8" s="37"/>
+      <c r="AA8" s="37"/>
+      <c r="AB8" s="37"/>
+      <c r="AC8" s="37"/>
+      <c r="AD8" s="37"/>
+      <c r="AE8" s="37"/>
+      <c r="AF8" s="37"/>
+      <c r="AG8" s="37"/>
+    </row>
+    <row r="9" s="33" customFormat="1" customHeight="1" spans="1:33">
+      <c r="A9" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="44" t="s">
+      <c r="B9" s="40"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="I9" s="44" t="s">
+      <c r="I9" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="J9" s="43" t="s">
+      <c r="J9" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="43"/>
-      <c r="N9" s="43"/>
-      <c r="O9" s="43"/>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="43"/>
-      <c r="R9" s="43"/>
-      <c r="S9" s="43"/>
-      <c r="T9" s="39"/>
-      <c r="U9" s="39"/>
-      <c r="V9" s="39"/>
-      <c r="W9" s="39"/>
-      <c r="X9" s="39"/>
-      <c r="Y9" s="39"/>
-      <c r="Z9" s="39"/>
-      <c r="AA9" s="39"/>
-      <c r="AB9" s="39"/>
-      <c r="AC9" s="39"/>
-      <c r="AD9" s="39"/>
-      <c r="AE9" s="39"/>
-      <c r="AF9" s="39"/>
-      <c r="AG9" s="39"/>
-    </row>
-    <row r="10" s="35" customFormat="1" customHeight="1" spans="1:33">
-      <c r="A10" s="41" t="s">
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="41"/>
+      <c r="P9" s="41"/>
+      <c r="Q9" s="41"/>
+      <c r="R9" s="41"/>
+      <c r="S9" s="41"/>
+      <c r="T9" s="37"/>
+      <c r="U9" s="37"/>
+      <c r="V9" s="37"/>
+      <c r="W9" s="37"/>
+      <c r="X9" s="37"/>
+      <c r="Y9" s="37"/>
+      <c r="Z9" s="37"/>
+      <c r="AA9" s="37"/>
+      <c r="AB9" s="37"/>
+      <c r="AC9" s="37"/>
+      <c r="AD9" s="37"/>
+      <c r="AE9" s="37"/>
+      <c r="AF9" s="37"/>
+      <c r="AG9" s="37"/>
+    </row>
+    <row r="10" s="33" customFormat="1" customHeight="1" spans="1:33">
+      <c r="A10" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="44" t="s">
+      <c r="B10" s="40"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="J10" s="44" t="s">
+      <c r="J10" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="K10" s="43" t="s">
+      <c r="K10" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="L10" s="43"/>
-      <c r="M10" s="43"/>
-      <c r="N10" s="43"/>
-      <c r="O10" s="43"/>
-      <c r="P10" s="43"/>
-      <c r="Q10" s="43"/>
-      <c r="R10" s="43"/>
-      <c r="S10" s="43"/>
-      <c r="T10" s="39"/>
-      <c r="U10" s="39"/>
-      <c r="V10" s="39"/>
-      <c r="W10" s="39"/>
-      <c r="X10" s="39"/>
-      <c r="Y10" s="39"/>
-      <c r="Z10" s="39"/>
-      <c r="AA10" s="39"/>
-      <c r="AB10" s="39"/>
-      <c r="AC10" s="39"/>
-      <c r="AD10" s="39"/>
-      <c r="AE10" s="39"/>
-      <c r="AF10" s="39"/>
-      <c r="AG10" s="39"/>
-    </row>
-    <row r="11" s="35" customFormat="1" customHeight="1" spans="1:33">
-      <c r="A11" s="41" t="s">
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="41"/>
+      <c r="P10" s="41"/>
+      <c r="Q10" s="41"/>
+      <c r="R10" s="41"/>
+      <c r="S10" s="41"/>
+      <c r="T10" s="37"/>
+      <c r="U10" s="37"/>
+      <c r="V10" s="37"/>
+      <c r="W10" s="37"/>
+      <c r="X10" s="37"/>
+      <c r="Y10" s="37"/>
+      <c r="Z10" s="37"/>
+      <c r="AA10" s="37"/>
+      <c r="AB10" s="37"/>
+      <c r="AC10" s="37"/>
+      <c r="AD10" s="37"/>
+      <c r="AE10" s="37"/>
+      <c r="AF10" s="37"/>
+      <c r="AG10" s="37"/>
+    </row>
+    <row r="11" s="33" customFormat="1" customHeight="1" spans="1:33">
+      <c r="A11" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="44" t="s">
+      <c r="B11" s="40"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="L11" s="44" t="s">
+      <c r="L11" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="M11" s="44" t="s">
+      <c r="M11" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="N11" s="44" t="s">
+      <c r="N11" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="O11" s="43" t="s">
+      <c r="O11" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="P11" s="43"/>
-      <c r="Q11" s="43"/>
-      <c r="R11" s="43"/>
-      <c r="S11" s="43"/>
-      <c r="T11" s="39"/>
-      <c r="U11" s="39"/>
-      <c r="V11" s="39"/>
-      <c r="W11" s="39"/>
-      <c r="X11" s="39"/>
-      <c r="Y11" s="39"/>
-      <c r="Z11" s="39"/>
-      <c r="AA11" s="39"/>
-      <c r="AB11" s="39"/>
-      <c r="AC11" s="39"/>
-      <c r="AD11" s="39"/>
-      <c r="AE11" s="39"/>
-      <c r="AF11" s="39"/>
-      <c r="AG11" s="39"/>
-    </row>
-    <row r="12" s="35" customFormat="1" customHeight="1" spans="1:33">
-      <c r="A12" s="41" t="s">
+      <c r="P11" s="41"/>
+      <c r="Q11" s="41"/>
+      <c r="R11" s="41"/>
+      <c r="S11" s="41"/>
+      <c r="T11" s="37"/>
+      <c r="U11" s="37"/>
+      <c r="V11" s="37"/>
+      <c r="W11" s="37"/>
+      <c r="X11" s="37"/>
+      <c r="Y11" s="37"/>
+      <c r="Z11" s="37"/>
+      <c r="AA11" s="37"/>
+      <c r="AB11" s="37"/>
+      <c r="AC11" s="37"/>
+      <c r="AD11" s="37"/>
+      <c r="AE11" s="37"/>
+      <c r="AF11" s="37"/>
+      <c r="AG11" s="37"/>
+    </row>
+    <row r="12" s="33" customFormat="1" customHeight="1" spans="1:33">
+      <c r="A12" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="44" t="s">
+      <c r="B12" s="40"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="N12" s="44" t="s">
+      <c r="N12" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="O12" s="43" t="s">
+      <c r="O12" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="P12" s="43"/>
-      <c r="Q12" s="43"/>
-      <c r="R12" s="43"/>
-      <c r="S12" s="43"/>
-      <c r="T12" s="39"/>
-      <c r="U12" s="39"/>
-      <c r="V12" s="39"/>
-      <c r="W12" s="39"/>
-      <c r="X12" s="39"/>
-      <c r="Y12" s="39"/>
-      <c r="Z12" s="39"/>
-      <c r="AA12" s="39"/>
-      <c r="AB12" s="39"/>
-      <c r="AC12" s="39"/>
-      <c r="AD12" s="39"/>
-      <c r="AE12" s="39"/>
-      <c r="AF12" s="39"/>
-      <c r="AG12" s="39"/>
-    </row>
-    <row r="13" s="35" customFormat="1" customHeight="1" spans="1:33">
-      <c r="A13" s="41" t="s">
+      <c r="P12" s="41"/>
+      <c r="Q12" s="41"/>
+      <c r="R12" s="41"/>
+      <c r="S12" s="41"/>
+      <c r="T12" s="37"/>
+      <c r="U12" s="37"/>
+      <c r="V12" s="37"/>
+      <c r="W12" s="37"/>
+      <c r="X12" s="37"/>
+      <c r="Y12" s="37"/>
+      <c r="Z12" s="37"/>
+      <c r="AA12" s="37"/>
+      <c r="AB12" s="37"/>
+      <c r="AC12" s="37"/>
+      <c r="AD12" s="37"/>
+      <c r="AE12" s="37"/>
+      <c r="AF12" s="37"/>
+      <c r="AG12" s="37"/>
+    </row>
+    <row r="13" s="33" customFormat="1" customHeight="1" spans="1:33">
+      <c r="A13" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="43"/>
-      <c r="N13" s="43"/>
-      <c r="O13" s="44" t="s">
+      <c r="B13" s="40"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="41"/>
+      <c r="O13" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="P13" s="43" t="s">
+      <c r="P13" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="Q13" s="43"/>
-      <c r="R13" s="43"/>
-      <c r="S13" s="43"/>
-      <c r="T13" s="39"/>
-      <c r="U13" s="39"/>
-      <c r="V13" s="39"/>
-      <c r="W13" s="39"/>
-      <c r="X13" s="39"/>
-      <c r="Y13" s="39"/>
-      <c r="Z13" s="39"/>
-      <c r="AA13" s="39"/>
-      <c r="AB13" s="39"/>
-      <c r="AC13" s="39"/>
-      <c r="AD13" s="39"/>
-      <c r="AE13" s="39"/>
-      <c r="AF13" s="39"/>
-      <c r="AG13" s="39"/>
-    </row>
-    <row r="14" s="35" customFormat="1" customHeight="1" spans="1:33">
-      <c r="A14" s="41" t="s">
+      <c r="Q13" s="41"/>
+      <c r="R13" s="41"/>
+      <c r="S13" s="41"/>
+      <c r="T13" s="37"/>
+      <c r="U13" s="37"/>
+      <c r="V13" s="37"/>
+      <c r="W13" s="37"/>
+      <c r="X13" s="37"/>
+      <c r="Y13" s="37"/>
+      <c r="Z13" s="37"/>
+      <c r="AA13" s="37"/>
+      <c r="AB13" s="37"/>
+      <c r="AC13" s="37"/>
+      <c r="AD13" s="37"/>
+      <c r="AE13" s="37"/>
+      <c r="AF13" s="37"/>
+      <c r="AG13" s="37"/>
+    </row>
+    <row r="14" s="33" customFormat="1" customHeight="1" spans="1:33">
+      <c r="A14" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="B14" s="42"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="43"/>
-      <c r="N14" s="43"/>
-      <c r="O14" s="44" t="s">
+      <c r="B14" s="40"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="P14" s="44" t="s">
+      <c r="P14" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="Q14" s="44" t="s">
+      <c r="Q14" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="R14" s="43"/>
-      <c r="S14" s="43"/>
-      <c r="T14" s="39"/>
-      <c r="U14" s="39"/>
-      <c r="V14" s="39"/>
-      <c r="W14" s="39"/>
-      <c r="X14" s="39"/>
-      <c r="Y14" s="39"/>
-      <c r="Z14" s="39"/>
-      <c r="AA14" s="39"/>
-      <c r="AB14" s="39"/>
-      <c r="AC14" s="39"/>
-      <c r="AD14" s="39"/>
-      <c r="AE14" s="39"/>
-      <c r="AF14" s="39"/>
-      <c r="AG14" s="39"/>
-    </row>
-    <row r="15" s="35" customFormat="1" customHeight="1" spans="1:33">
-      <c r="A15" s="41" t="s">
+      <c r="R14" s="41"/>
+      <c r="S14" s="41"/>
+      <c r="T14" s="37"/>
+      <c r="U14" s="37"/>
+      <c r="V14" s="37"/>
+      <c r="W14" s="37"/>
+      <c r="X14" s="37"/>
+      <c r="Y14" s="37"/>
+      <c r="Z14" s="37"/>
+      <c r="AA14" s="37"/>
+      <c r="AB14" s="37"/>
+      <c r="AC14" s="37"/>
+      <c r="AD14" s="37"/>
+      <c r="AE14" s="37"/>
+      <c r="AF14" s="37"/>
+      <c r="AG14" s="37"/>
+    </row>
+    <row r="15" s="33" customFormat="1" customHeight="1" spans="1:33">
+      <c r="A15" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="B15" s="42"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="43"/>
-      <c r="N15" s="43"/>
-      <c r="O15" s="44" t="s">
+      <c r="B15" s="40"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="41"/>
+      <c r="O15" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="P15" s="44" t="s">
+      <c r="P15" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="Q15" s="44" t="s">
+      <c r="Q15" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="R15" s="44" t="s">
+      <c r="R15" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="S15" s="43"/>
-      <c r="T15" s="39"/>
-      <c r="U15" s="39"/>
-      <c r="V15" s="39"/>
-      <c r="W15" s="39"/>
-      <c r="X15" s="39"/>
-      <c r="Y15" s="39"/>
-      <c r="Z15" s="39"/>
-      <c r="AA15" s="39"/>
-      <c r="AB15" s="39"/>
-      <c r="AC15" s="39"/>
-      <c r="AD15" s="39"/>
-      <c r="AE15" s="39"/>
-      <c r="AF15" s="39"/>
-      <c r="AG15" s="39"/>
-    </row>
-    <row r="16" s="35" customFormat="1" customHeight="1" spans="1:33">
-      <c r="A16" s="41" t="s">
+      <c r="S15" s="41"/>
+      <c r="T15" s="37"/>
+      <c r="U15" s="37"/>
+      <c r="V15" s="37"/>
+      <c r="W15" s="37"/>
+      <c r="X15" s="37"/>
+      <c r="Y15" s="37"/>
+      <c r="Z15" s="37"/>
+      <c r="AA15" s="37"/>
+      <c r="AB15" s="37"/>
+      <c r="AC15" s="37"/>
+      <c r="AD15" s="37"/>
+      <c r="AE15" s="37"/>
+      <c r="AF15" s="37"/>
+      <c r="AG15" s="37"/>
+    </row>
+    <row r="16" s="33" customFormat="1" customHeight="1" spans="1:33">
+      <c r="A16" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="B16" s="42"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="43"/>
-      <c r="N16" s="43"/>
-      <c r="O16" s="43"/>
-      <c r="P16" s="44" t="s">
+      <c r="B16" s="40"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="41"/>
+      <c r="P16" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="Q16" s="44" t="s">
+      <c r="Q16" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="R16" s="44" t="s">
+      <c r="R16" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="S16" s="43"/>
-      <c r="T16" s="39"/>
-      <c r="U16" s="39"/>
-      <c r="V16" s="39"/>
-      <c r="W16" s="39"/>
-      <c r="X16" s="39"/>
-      <c r="Y16" s="39"/>
-      <c r="Z16" s="39"/>
-      <c r="AA16" s="39"/>
-      <c r="AB16" s="39"/>
-      <c r="AC16" s="39"/>
-      <c r="AD16" s="39"/>
-      <c r="AE16" s="39"/>
-      <c r="AF16" s="39"/>
-      <c r="AG16" s="39"/>
-    </row>
-    <row r="17" s="35" customFormat="1" customHeight="1" spans="1:33">
-      <c r="A17" s="41" t="s">
+      <c r="S16" s="41"/>
+      <c r="T16" s="37"/>
+      <c r="U16" s="37"/>
+      <c r="V16" s="37"/>
+      <c r="W16" s="37"/>
+      <c r="X16" s="37"/>
+      <c r="Y16" s="37"/>
+      <c r="Z16" s="37"/>
+      <c r="AA16" s="37"/>
+      <c r="AB16" s="37"/>
+      <c r="AC16" s="37"/>
+      <c r="AD16" s="37"/>
+      <c r="AE16" s="37"/>
+      <c r="AF16" s="37"/>
+      <c r="AG16" s="37"/>
+    </row>
+    <row r="17" s="33" customFormat="1" customHeight="1" spans="1:33">
+      <c r="A17" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="B17" s="42"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="43"/>
-      <c r="N17" s="43"/>
-      <c r="O17" s="43"/>
-      <c r="P17" s="43"/>
-      <c r="Q17" s="44" t="s">
+      <c r="B17" s="40"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="41"/>
+      <c r="P17" s="41"/>
+      <c r="Q17" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="R17" s="44" t="s">
+      <c r="R17" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="S17" s="43"/>
-      <c r="T17" s="39"/>
-      <c r="U17" s="39"/>
-      <c r="V17" s="39"/>
-      <c r="W17" s="39"/>
-      <c r="X17" s="39"/>
-      <c r="Y17" s="39"/>
-      <c r="Z17" s="39"/>
-      <c r="AA17" s="39"/>
-      <c r="AB17" s="39"/>
-      <c r="AC17" s="39"/>
-      <c r="AD17" s="39"/>
-      <c r="AE17" s="39"/>
-      <c r="AF17" s="39"/>
-      <c r="AG17" s="39"/>
-    </row>
-    <row r="18" s="35" customFormat="1" customHeight="1" spans="1:33">
-      <c r="A18" s="41" t="s">
+      <c r="S17" s="41"/>
+      <c r="T17" s="37"/>
+      <c r="U17" s="37"/>
+      <c r="V17" s="37"/>
+      <c r="W17" s="37"/>
+      <c r="X17" s="37"/>
+      <c r="Y17" s="37"/>
+      <c r="Z17" s="37"/>
+      <c r="AA17" s="37"/>
+      <c r="AB17" s="37"/>
+      <c r="AC17" s="37"/>
+      <c r="AD17" s="37"/>
+      <c r="AE17" s="37"/>
+      <c r="AF17" s="37"/>
+      <c r="AG17" s="37"/>
+    </row>
+    <row r="18" s="33" customFormat="1" customHeight="1" spans="1:33">
+      <c r="A18" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="B18" s="42"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="43"/>
-      <c r="N18" s="43"/>
-      <c r="O18" s="43"/>
-      <c r="P18" s="43"/>
-      <c r="Q18" s="44" t="s">
+      <c r="B18" s="40"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="41"/>
+      <c r="P18" s="41"/>
+      <c r="Q18" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="R18" s="44" t="s">
+      <c r="R18" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="S18" s="43"/>
-      <c r="T18" s="39"/>
-      <c r="U18" s="39"/>
-      <c r="V18" s="39"/>
-      <c r="W18" s="39"/>
-      <c r="X18" s="39"/>
-      <c r="Y18" s="39"/>
-      <c r="Z18" s="39"/>
-      <c r="AA18" s="39"/>
-      <c r="AB18" s="39"/>
-      <c r="AC18" s="39"/>
-      <c r="AD18" s="39"/>
-      <c r="AE18" s="39"/>
-      <c r="AF18" s="39"/>
-      <c r="AG18" s="39"/>
-    </row>
-    <row r="19" s="36" customFormat="1" customHeight="1" spans="1:33">
-      <c r="A19" s="37"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="39"/>
-      <c r="O19" s="39"/>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="39"/>
-      <c r="R19" s="39"/>
-      <c r="S19" s="39"/>
-      <c r="T19" s="39"/>
-      <c r="U19" s="39"/>
-      <c r="V19" s="39"/>
-      <c r="W19" s="39"/>
-      <c r="X19" s="39"/>
-      <c r="Y19" s="39"/>
-      <c r="Z19" s="39"/>
-      <c r="AA19" s="39"/>
-      <c r="AB19" s="39"/>
-      <c r="AC19" s="39"/>
-      <c r="AD19" s="39"/>
-      <c r="AE19" s="39"/>
-      <c r="AF19" s="39"/>
-      <c r="AG19" s="39"/>
-    </row>
-    <row r="20" s="36" customFormat="1" customHeight="1" spans="1:33">
-      <c r="A20" s="37"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="39"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="39"/>
-      <c r="O20" s="39"/>
-      <c r="P20" s="39"/>
-      <c r="Q20" s="39"/>
-      <c r="R20" s="39"/>
-      <c r="S20" s="39"/>
-      <c r="T20" s="39"/>
-      <c r="U20" s="39"/>
-      <c r="V20" s="39"/>
-      <c r="W20" s="39"/>
-      <c r="X20" s="39"/>
-      <c r="Y20" s="39"/>
-      <c r="Z20" s="39"/>
-      <c r="AA20" s="39"/>
-      <c r="AB20" s="39"/>
-      <c r="AC20" s="39"/>
-      <c r="AD20" s="39"/>
-      <c r="AE20" s="39"/>
-      <c r="AF20" s="39"/>
-      <c r="AG20" s="39"/>
-    </row>
-    <row r="21" s="36" customFormat="1" customHeight="1" spans="1:33">
-      <c r="A21" s="37"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="39"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="39"/>
-      <c r="N21" s="39"/>
-      <c r="O21" s="39"/>
-      <c r="P21" s="39"/>
-      <c r="Q21" s="39"/>
-      <c r="R21" s="39"/>
-      <c r="S21" s="39"/>
-      <c r="T21" s="39"/>
-      <c r="U21" s="39"/>
-      <c r="V21" s="39"/>
-      <c r="W21" s="39"/>
-      <c r="X21" s="39"/>
-      <c r="Y21" s="39"/>
-      <c r="Z21" s="39"/>
-      <c r="AA21" s="39"/>
-      <c r="AB21" s="39"/>
-      <c r="AC21" s="39"/>
-      <c r="AD21" s="39"/>
-      <c r="AE21" s="39"/>
-      <c r="AF21" s="39"/>
-      <c r="AG21" s="39"/>
-    </row>
-    <row r="22" s="36" customFormat="1" customHeight="1" spans="1:33">
-      <c r="A22" s="37"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="39"/>
-      <c r="N22" s="39"/>
-      <c r="O22" s="39"/>
-      <c r="P22" s="39"/>
-      <c r="Q22" s="39"/>
-      <c r="R22" s="39"/>
-      <c r="S22" s="39"/>
-      <c r="T22" s="39"/>
-      <c r="U22" s="39"/>
-      <c r="V22" s="39"/>
-      <c r="W22" s="39"/>
-      <c r="X22" s="39"/>
-      <c r="Y22" s="39"/>
-      <c r="Z22" s="39"/>
-      <c r="AA22" s="39"/>
-      <c r="AB22" s="39"/>
-      <c r="AC22" s="39"/>
-      <c r="AD22" s="39"/>
-      <c r="AE22" s="39"/>
-      <c r="AF22" s="39"/>
-      <c r="AG22" s="39"/>
-    </row>
-    <row r="23" s="36" customFormat="1" customHeight="1" spans="1:33">
-      <c r="A23" s="37"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39"/>
-      <c r="L23" s="39"/>
-      <c r="M23" s="39"/>
-      <c r="N23" s="39"/>
-      <c r="O23" s="39"/>
-      <c r="P23" s="39"/>
-      <c r="Q23" s="39"/>
-      <c r="R23" s="39"/>
-      <c r="S23" s="39"/>
-      <c r="T23" s="39"/>
-      <c r="U23" s="39"/>
-      <c r="V23" s="39"/>
-      <c r="W23" s="39"/>
-      <c r="X23" s="39"/>
-      <c r="Y23" s="39"/>
-      <c r="Z23" s="39"/>
-      <c r="AA23" s="39"/>
-      <c r="AB23" s="39"/>
-      <c r="AC23" s="39"/>
-      <c r="AD23" s="39"/>
-      <c r="AE23" s="39"/>
-      <c r="AF23" s="39"/>
-      <c r="AG23" s="39"/>
+      <c r="S18" s="41"/>
+      <c r="T18" s="37"/>
+      <c r="U18" s="37"/>
+      <c r="V18" s="37"/>
+      <c r="W18" s="37"/>
+      <c r="X18" s="37"/>
+      <c r="Y18" s="37"/>
+      <c r="Z18" s="37"/>
+      <c r="AA18" s="37"/>
+      <c r="AB18" s="37"/>
+      <c r="AC18" s="37"/>
+      <c r="AD18" s="37"/>
+      <c r="AE18" s="37"/>
+      <c r="AF18" s="37"/>
+      <c r="AG18" s="37"/>
+    </row>
+    <row r="19" s="34" customFormat="1" customHeight="1" spans="1:33">
+      <c r="A19" s="35"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="37"/>
+      <c r="O19" s="37"/>
+      <c r="P19" s="37"/>
+      <c r="Q19" s="37"/>
+      <c r="R19" s="37"/>
+      <c r="S19" s="37"/>
+      <c r="T19" s="37"/>
+      <c r="U19" s="37"/>
+      <c r="V19" s="37"/>
+      <c r="W19" s="37"/>
+      <c r="X19" s="37"/>
+      <c r="Y19" s="37"/>
+      <c r="Z19" s="37"/>
+      <c r="AA19" s="37"/>
+      <c r="AB19" s="37"/>
+      <c r="AC19" s="37"/>
+      <c r="AD19" s="37"/>
+      <c r="AE19" s="37"/>
+      <c r="AF19" s="37"/>
+      <c r="AG19" s="37"/>
+    </row>
+    <row r="20" s="34" customFormat="1" customHeight="1" spans="1:33">
+      <c r="A20" s="35"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="37"/>
+      <c r="N20" s="37"/>
+      <c r="O20" s="37"/>
+      <c r="P20" s="37"/>
+      <c r="Q20" s="37"/>
+      <c r="R20" s="37"/>
+      <c r="S20" s="37"/>
+      <c r="T20" s="37"/>
+      <c r="U20" s="37"/>
+      <c r="V20" s="37"/>
+      <c r="W20" s="37"/>
+      <c r="X20" s="37"/>
+      <c r="Y20" s="37"/>
+      <c r="Z20" s="37"/>
+      <c r="AA20" s="37"/>
+      <c r="AB20" s="37"/>
+      <c r="AC20" s="37"/>
+      <c r="AD20" s="37"/>
+      <c r="AE20" s="37"/>
+      <c r="AF20" s="37"/>
+      <c r="AG20" s="37"/>
+    </row>
+    <row r="21" s="34" customFormat="1" customHeight="1" spans="1:33">
+      <c r="A21" s="35"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="37"/>
+      <c r="N21" s="37"/>
+      <c r="O21" s="37"/>
+      <c r="P21" s="37"/>
+      <c r="Q21" s="37"/>
+      <c r="R21" s="37"/>
+      <c r="S21" s="37"/>
+      <c r="T21" s="37"/>
+      <c r="U21" s="37"/>
+      <c r="V21" s="37"/>
+      <c r="W21" s="37"/>
+      <c r="X21" s="37"/>
+      <c r="Y21" s="37"/>
+      <c r="Z21" s="37"/>
+      <c r="AA21" s="37"/>
+      <c r="AB21" s="37"/>
+      <c r="AC21" s="37"/>
+      <c r="AD21" s="37"/>
+      <c r="AE21" s="37"/>
+      <c r="AF21" s="37"/>
+      <c r="AG21" s="37"/>
+    </row>
+    <row r="22" s="34" customFormat="1" customHeight="1" spans="1:33">
+      <c r="A22" s="35"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="37"/>
+      <c r="N22" s="37"/>
+      <c r="O22" s="37"/>
+      <c r="P22" s="37"/>
+      <c r="Q22" s="37"/>
+      <c r="R22" s="37"/>
+      <c r="S22" s="37"/>
+      <c r="T22" s="37"/>
+      <c r="U22" s="37"/>
+      <c r="V22" s="37"/>
+      <c r="W22" s="37"/>
+      <c r="X22" s="37"/>
+      <c r="Y22" s="37"/>
+      <c r="Z22" s="37"/>
+      <c r="AA22" s="37"/>
+      <c r="AB22" s="37"/>
+      <c r="AC22" s="37"/>
+      <c r="AD22" s="37"/>
+      <c r="AE22" s="37"/>
+      <c r="AF22" s="37"/>
+      <c r="AG22" s="37"/>
+    </row>
+    <row r="23" s="34" customFormat="1" customHeight="1" spans="1:33">
+      <c r="A23" s="35"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="37"/>
+      <c r="N23" s="37"/>
+      <c r="O23" s="37"/>
+      <c r="P23" s="37"/>
+      <c r="Q23" s="37"/>
+      <c r="R23" s="37"/>
+      <c r="S23" s="37"/>
+      <c r="T23" s="37"/>
+      <c r="U23" s="37"/>
+      <c r="V23" s="37"/>
+      <c r="W23" s="37"/>
+      <c r="X23" s="37"/>
+      <c r="Y23" s="37"/>
+      <c r="Z23" s="37"/>
+      <c r="AA23" s="37"/>
+      <c r="AB23" s="37"/>
+      <c r="AC23" s="37"/>
+      <c r="AD23" s="37"/>
+      <c r="AE23" s="37"/>
+      <c r="AF23" s="37"/>
+      <c r="AG23" s="37"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="$A2:$XFD5">
@@ -3922,17 +3970,17 @@
   <dimension ref="A1:S36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6363636363636" defaultRowHeight="50" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="81.5454545454545" style="13" customWidth="1"/>
-    <col min="2" max="2" width="81.5454545454545" style="14" customWidth="1"/>
+    <col min="2" max="2" width="32" style="14" customWidth="1"/>
     <col min="3" max="19" width="10.6363636363636" style="15" customWidth="1"/>
     <col min="20" max="16384" width="10.6363636363636" style="16" customWidth="1"/>
   </cols>
@@ -4345,7 +4393,7 @@
       <c r="G15" s="21"/>
       <c r="H15" s="21"/>
       <c r="I15" s="21"/>
-      <c r="J15" s="34" t="s">
+      <c r="J15" s="32" t="s">
         <v>113</v>
       </c>
       <c r="K15" s="21"/>
@@ -4405,31 +4453,31 @@
       <c r="G17" s="21"/>
       <c r="H17" s="21"/>
       <c r="I17" s="21"/>
-      <c r="J17" s="34" t="s">
+      <c r="J17" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="K17" s="34" t="s">
+      <c r="K17" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="L17" s="34" t="s">
+      <c r="L17" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="M17" s="34" t="s">
+      <c r="M17" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="N17" s="34" t="s">
+      <c r="N17" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="O17" s="34" t="s">
+      <c r="O17" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="P17" s="34" t="s">
+      <c r="P17" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="Q17" s="34" t="s">
+      <c r="Q17" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="R17" s="34" t="s">
+      <c r="R17" s="32" t="s">
         <v>130</v>
       </c>
       <c r="S17" s="21"/>
@@ -4484,10 +4532,10 @@
       <c r="J19" s="21"/>
       <c r="K19" s="21"/>
       <c r="L19" s="21"/>
-      <c r="M19" s="34" t="s">
+      <c r="M19" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="N19" s="34" t="s">
+      <c r="N19" s="32" t="s">
         <v>140</v>
       </c>
       <c r="O19" s="21" t="s">
@@ -4551,8 +4599,8 @@
       <c r="O21" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="P21" s="34"/>
-      <c r="Q21" s="34"/>
+      <c r="P21" s="32"/>
+      <c r="Q21" s="32"/>
       <c r="R21" s="21"/>
       <c r="S21" s="21"/>
     </row>
@@ -4576,8 +4624,8 @@
       <c r="O22" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="P22" s="34"/>
-      <c r="Q22" s="34"/>
+      <c r="P22" s="32"/>
+      <c r="Q22" s="32"/>
       <c r="R22" s="21"/>
       <c r="S22" s="21"/>
     </row>
@@ -4640,10 +4688,10 @@
       <c r="S24" s="21"/>
     </row>
     <row r="25" s="12" customFormat="1" customHeight="1" spans="1:19">
-      <c r="A25" s="32" t="s">
+      <c r="A25" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="B25" s="33"/>
+      <c r="B25" s="23"/>
       <c r="C25" s="24"/>
       <c r="D25" s="24"/>
       <c r="E25" s="24"/>
@@ -4940,98 +4988,102 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:S10"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G1" sqref="G$1:G$1048576"/>
+      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6363636363636" defaultRowHeight="50" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="81.5454545454545" style="13" customWidth="1"/>
-    <col min="2" max="2" width="81.5454545454545" style="14" customWidth="1"/>
-    <col min="3" max="4" width="10.6363636363636" style="15" customWidth="1"/>
-    <col min="5" max="7" width="13.6363636363636" style="15" customWidth="1"/>
-    <col min="8" max="19" width="10.6363636363636" style="15" customWidth="1"/>
-    <col min="20" max="16384" width="10.6363636363636" style="16" customWidth="1"/>
+    <col min="1" max="1" width="16.4545454545455" style="13" customWidth="1"/>
+    <col min="2" max="2" width="70.4545454545455" style="13" customWidth="1"/>
+    <col min="3" max="3" width="24.1818181818182" style="14" customWidth="1"/>
+    <col min="4" max="20" width="15.6363636363636" style="15" customWidth="1"/>
+    <col min="21" max="35" width="15.6363636363636" style="16" customWidth="1"/>
+    <col min="36" max="86" width="13.6363636363636" style="16" customWidth="1"/>
+    <col min="87" max="16384" width="10.6363636363636" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="10" customFormat="1" customHeight="1" spans="1:19">
+    <row r="1" s="10" customFormat="1" customHeight="1" spans="1:20">
       <c r="A1" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="C1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="D1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="E1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="F1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="G1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="H1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="I1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="J1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="K1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="L1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="M1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="N1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="O1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="P1" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="18" t="s">
+      <c r="Q1" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="R1" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="18" t="s">
+      <c r="S1" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="18" t="s">
+      <c r="T1" s="18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" s="11" customFormat="1" customHeight="1" spans="1:19">
-      <c r="A2" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="B2" s="25" t="s">
+    <row r="2" s="11" customFormat="1" hidden="1" customHeight="1" spans="1:20">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21" t="s">
+      <c r="C2" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="E2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21" t="s">
+        <v>175</v>
+      </c>
       <c r="F2" s="21"/>
       <c r="G2" s="21"/>
       <c r="H2" s="21"/>
@@ -5046,19 +5098,20 @@
       <c r="Q2" s="21"/>
       <c r="R2" s="21"/>
       <c r="S2" s="21"/>
-    </row>
-    <row r="3" s="12" customFormat="1" customHeight="1" spans="1:19">
-      <c r="A3" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="B3" s="23" t="s">
+      <c r="T2" s="21"/>
+    </row>
+    <row r="3" s="12" customFormat="1" hidden="1" customHeight="1" spans="1:20">
+      <c r="A3" s="22"/>
+      <c r="B3" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24" t="s">
+      <c r="C3" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="E3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24" t="s">
+        <v>178</v>
+      </c>
       <c r="F3" s="24"/>
       <c r="G3" s="24"/>
       <c r="H3" s="24"/>
@@ -5073,17 +5126,20 @@
       <c r="Q3" s="24"/>
       <c r="R3" s="24"/>
       <c r="S3" s="24"/>
-    </row>
-    <row r="4" s="11" customFormat="1" customHeight="1" spans="1:19">
+      <c r="T3" s="24"/>
+    </row>
+    <row r="4" s="11" customFormat="1" hidden="1" customHeight="1" spans="1:20">
       <c r="A4" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="E4" s="21"/>
+      <c r="B4" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" s="20"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21" t="s">
+        <v>181</v>
+      </c>
       <c r="F4" s="21"/>
       <c r="G4" s="21"/>
       <c r="H4" s="21"/>
@@ -5098,17 +5154,18 @@
       <c r="Q4" s="21"/>
       <c r="R4" s="21"/>
       <c r="S4" s="21"/>
-    </row>
-    <row r="5" s="12" customFormat="1" customHeight="1" spans="1:19">
-      <c r="A5" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="E5" s="24"/>
+      <c r="T4" s="21"/>
+    </row>
+    <row r="5" s="12" customFormat="1" hidden="1" customHeight="1" spans="1:20">
+      <c r="A5" s="22"/>
+      <c r="B5" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="C5" s="23"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24" t="s">
+        <v>183</v>
+      </c>
       <c r="F5" s="24"/>
       <c r="G5" s="24"/>
       <c r="H5" s="24"/>
@@ -5123,17 +5180,18 @@
       <c r="Q5" s="24"/>
       <c r="R5" s="24"/>
       <c r="S5" s="24"/>
-    </row>
-    <row r="6" s="11" customFormat="1" customHeight="1" spans="1:19">
-      <c r="A6" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="E6" s="21"/>
+      <c r="T5" s="24"/>
+    </row>
+    <row r="6" s="11" customFormat="1" hidden="1" customHeight="1" spans="1:20">
+      <c r="A6" s="19"/>
+      <c r="B6" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="C6" s="20"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21" t="s">
+        <v>185</v>
+      </c>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
@@ -5148,57 +5206,237 @@
       <c r="Q6" s="21"/>
       <c r="R6" s="21"/>
       <c r="S6" s="21"/>
-    </row>
-    <row r="7" customHeight="1" spans="1:5">
+      <c r="T6" s="21"/>
+    </row>
+    <row r="7" hidden="1" customHeight="1" spans="1:6">
       <c r="A7" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="E7" s="15" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="8" customHeight="1" spans="1:5">
+      <c r="B7" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="F7" s="15" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="E8" s="15" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="9" customHeight="1" spans="1:6">
+      <c r="B8" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="9" hidden="1" customHeight="1" spans="1:7">
       <c r="A9" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="G9" s="15" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:8">
+      <c r="A10" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="H10" s="15" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="11" hidden="1" customHeight="1" spans="1:9">
+      <c r="A11" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="12" hidden="1" customHeight="1" spans="1:9">
+      <c r="A12" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:9">
+      <c r="A13" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:9">
+      <c r="A14" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="15" hidden="1" customHeight="1" spans="2:9">
+      <c r="B15" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:10">
+      <c r="A16" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B16" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="1:7">
-      <c r="A10" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="B10" s="14" t="s">
+      <c r="C16" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="J16" s="15" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="17" hidden="1" customHeight="1" spans="1:10">
+      <c r="A17" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="B17" s="13" t="s">
         <v>194</v>
       </c>
+      <c r="J17" s="15" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:11">
+      <c r="A18" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="K18" s="15" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="1:16">
+      <c r="A19" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="P19" s="15" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="20" hidden="1" customHeight="1" spans="1:17">
+      <c r="A20" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q20" s="15" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:18">
+      <c r="A21" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="R21" s="15" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="22" hidden="1" customHeight="1" spans="1:19">
+      <c r="A22" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="S22" s="15" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="1:19">
+      <c r="A23" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="S23" s="15" t="s">
+        <v>225</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="$A2:$XFD1048576">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:T23" etc:filterBottomFollowUsedRange="0">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="ZGC"/>
+      </filters>
+    </filterColumn>
+    <extLst/>
+  </autoFilter>
+  <conditionalFormatting sqref="A8:A10">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B1048576">
+    <cfRule type="expression" dxfId="1" priority="4">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A7 A11:A1048576 C2:XFD1048576">
+    <cfRule type="expression" dxfId="0" priority="5">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="6">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5214,17 +5452,17 @@
   <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B$1:B$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6363636363636" defaultRowHeight="50" customHeight="1" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="81.5454545454545" style="13" customWidth="1"/>
-    <col min="2" max="2" width="81.5454545454545" style="14" customWidth="1"/>
+    <col min="1" max="1" width="49.6363636363636" style="13" customWidth="1"/>
+    <col min="2" max="2" width="42.1818181818182" style="14" customWidth="1"/>
     <col min="3" max="19" width="10.6363636363636" style="15" customWidth="1"/>
     <col min="20" max="16384" width="10.6363636363636" style="16" customWidth="1"/>
   </cols>
@@ -5290,13 +5528,13 @@
     </row>
     <row r="2" s="11" customFormat="1" customHeight="1" spans="1:19">
       <c r="A2" s="19" t="s">
-        <v>195</v>
+        <v>226</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>197</v>
+        <v>228</v>
       </c>
       <c r="D2" s="21"/>
       <c r="E2" s="21"/>
@@ -5317,11 +5555,11 @@
     </row>
     <row r="3" s="12" customFormat="1" customHeight="1" spans="1:19">
       <c r="A3" s="22" t="s">
-        <v>198</v>
+        <v>229</v>
       </c>
       <c r="B3" s="23"/>
       <c r="C3" s="24" t="s">
-        <v>199</v>
+        <v>230</v>
       </c>
       <c r="D3" s="24"/>
       <c r="E3" s="24"/>
@@ -5342,11 +5580,11 @@
     </row>
     <row r="4" s="11" customFormat="1" customHeight="1" spans="1:19">
       <c r="A4" s="19" t="s">
-        <v>200</v>
+        <v>231</v>
       </c>
       <c r="B4" s="20"/>
       <c r="C4" s="21" t="s">
-        <v>201</v>
+        <v>232</v>
       </c>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -5367,13 +5605,13 @@
     </row>
     <row r="5" s="12" customFormat="1" customHeight="1" spans="1:19">
       <c r="A5" s="22" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="D5" s="24"/>
       <c r="E5" s="24"/>
@@ -5394,14 +5632,14 @@
     </row>
     <row r="6" s="11" customFormat="1" customHeight="1" spans="1:19">
       <c r="A6" s="19" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="C6" s="21"/>
       <c r="D6" s="21" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="E6" s="21"/>
       <c r="F6" s="21"/>
@@ -5421,21 +5659,21 @@
     </row>
     <row r="7" customHeight="1" spans="1:5">
       <c r="A7" s="13" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>209</v>
+        <v>240</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>210</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:5">
       <c r="A8" s="13" t="s">
-        <v>211</v>
+        <v>242</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>212</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -5481,33 +5719,33 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>213</v>
+        <v>244</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>214</v>
+        <v>245</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>215</v>
+        <v>246</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>219</v>
+        <v>250</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>220</v>
+        <v>251</v>
       </c>
       <c r="E2" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/289","JEP 289")</f>
@@ -5517,16 +5755,16 @@
     </row>
     <row r="3" s="3" customFormat="1" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>221</v>
+        <v>252</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>222</v>
+        <v>253</v>
       </c>
       <c r="E3" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/259","JEP 259")</f>
@@ -5536,16 +5774,16 @@
     </row>
     <row r="4" s="2" customFormat="1" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>223</v>
+        <v>254</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>224</v>
+        <v>255</v>
       </c>
       <c r="E4" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/290","JEP 290")</f>
@@ -5555,16 +5793,16 @@
     </row>
     <row r="5" s="3" customFormat="1" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>225</v>
+        <v>256</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>226</v>
+        <v>257</v>
       </c>
       <c r="E5" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/102","JEP 102")</f>
@@ -5574,16 +5812,16 @@
     </row>
     <row r="6" s="2" customFormat="1" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>227</v>
+        <v>258</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>228</v>
+        <v>259</v>
       </c>
       <c r="E6" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/274","JEP 274")</f>
@@ -5593,16 +5831,16 @@
     </row>
     <row r="7" s="3" customFormat="1" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>227</v>
+        <v>258</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="E7" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/276","JEP 276")</f>
@@ -5612,16 +5850,16 @@
     </row>
     <row r="8" s="2" customFormat="1" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>231</v>
+        <v>262</v>
       </c>
       <c r="E8" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/110","JEP 110")</f>
@@ -5631,13 +5869,13 @@
     </row>
     <row r="9" s="3" customFormat="1" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>232</v>
+        <v>263</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>87</v>
@@ -5650,16 +5888,16 @@
     </row>
     <row r="10" s="2" customFormat="1" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
       <c r="E10" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/264","JEP 264")</f>
@@ -5669,16 +5907,16 @@
     </row>
     <row r="11" s="3" customFormat="1" spans="1:6">
       <c r="A11" s="3" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>236</v>
+        <v>267</v>
       </c>
       <c r="E11" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/269","JEP 269")</f>
@@ -5688,16 +5926,16 @@
     </row>
     <row r="12" s="2" customFormat="1" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>237</v>
+        <v>268</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>238</v>
+        <v>269</v>
       </c>
       <c r="E12" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/226","JEP 226")</f>
@@ -5707,16 +5945,16 @@
     </row>
     <row r="13" s="3" customFormat="1" spans="1:6">
       <c r="A13" s="3" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>237</v>
+        <v>268</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>239</v>
+        <v>270</v>
       </c>
       <c r="E13" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/252","JEP 252")</f>
@@ -5726,16 +5964,16 @@
     </row>
     <row r="14" s="2" customFormat="1" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>240</v>
+        <v>271</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>241</v>
+        <v>272</v>
       </c>
       <c r="E14" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/236","JEP 236")</f>
@@ -5745,16 +5983,16 @@
     </row>
     <row r="15" s="3" customFormat="1" spans="1:6">
       <c r="A15" s="3" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>240</v>
+        <v>271</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>242</v>
+        <v>273</v>
       </c>
       <c r="E15" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/292","JEP 292")</f>
@@ -5764,16 +6002,16 @@
     </row>
     <row r="16" s="2" customFormat="1" spans="1:6">
       <c r="A16" s="2" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>243</v>
+        <v>274</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>244</v>
+        <v>275</v>
       </c>
       <c r="E16" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/229","JEP 229")</f>
@@ -5783,16 +6021,16 @@
     </row>
     <row r="17" s="3" customFormat="1" spans="1:6">
       <c r="A17" s="3" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>243</v>
+        <v>274</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>245</v>
+        <v>276</v>
       </c>
       <c r="E17" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/232","JEP 232")</f>
@@ -5802,16 +6040,16 @@
     </row>
     <row r="18" s="2" customFormat="1" spans="1:6">
       <c r="A18" s="2" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>243</v>
+        <v>274</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>246</v>
+        <v>277</v>
       </c>
       <c r="E18" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/273","JEP 273")</f>
@@ -5821,16 +6059,16 @@
     </row>
     <row r="19" s="3" customFormat="1" spans="1:6">
       <c r="A19" s="3" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>243</v>
+        <v>274</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>247</v>
+        <v>278</v>
       </c>
       <c r="E19" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/287","JEP 287")</f>
@@ -5840,16 +6078,16 @@
     </row>
     <row r="20" s="2" customFormat="1" spans="1:6">
       <c r="A20" s="2" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>243</v>
+        <v>274</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>248</v>
+        <v>279</v>
       </c>
       <c r="E20" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/288","JEP 288")</f>
@@ -5859,16 +6097,16 @@
     </row>
     <row r="21" s="3" customFormat="1" spans="1:6">
       <c r="A21" s="3" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>249</v>
+        <v>280</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>250</v>
+        <v>281</v>
       </c>
       <c r="E21" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/246","JEP 246")</f>
@@ -5878,16 +6116,16 @@
     </row>
     <row r="22" s="2" customFormat="1" spans="1:6">
       <c r="A22" s="2" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>251</v>
+        <v>282</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>252</v>
+        <v>283</v>
       </c>
       <c r="E22" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/219","JEP 219")</f>
@@ -5897,16 +6135,16 @@
     </row>
     <row r="23" s="3" customFormat="1" spans="1:6">
       <c r="A23" s="3" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>251</v>
+        <v>282</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>253</v>
+        <v>284</v>
       </c>
       <c r="E23" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/244","JEP 244")</f>
@@ -5916,16 +6154,16 @@
     </row>
     <row r="24" s="2" customFormat="1" spans="1:6">
       <c r="A24" s="2" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>251</v>
+        <v>282</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="E24" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/249","JEP 249")</f>
@@ -5935,16 +6173,16 @@
     </row>
     <row r="25" s="3" customFormat="1" spans="1:6">
       <c r="A25" s="3" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>256</v>
+        <v>287</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>257</v>
+        <v>288</v>
       </c>
       <c r="E25" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/214","JEP 214")</f>
@@ -5954,16 +6192,16 @@
     </row>
     <row r="26" s="2" customFormat="1" spans="1:6">
       <c r="A26" s="2" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>256</v>
+        <v>287</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>258</v>
+        <v>289</v>
       </c>
       <c r="E26" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/248","JEP 248")</f>
@@ -5973,16 +6211,16 @@
     </row>
     <row r="27" s="3" customFormat="1" spans="1:6">
       <c r="A27" s="3" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>256</v>
+        <v>287</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="E27" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/271","JEP 271")</f>
@@ -5992,16 +6230,16 @@
     </row>
     <row r="28" s="2" customFormat="1" spans="1:6">
       <c r="A28" s="2" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>256</v>
+        <v>287</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>260</v>
+        <v>291</v>
       </c>
       <c r="E28" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/278","JEP 278")</f>
@@ -6011,16 +6249,16 @@
     </row>
     <row r="29" s="3" customFormat="1" spans="1:6">
       <c r="A29" s="3" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>256</v>
+        <v>287</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>261</v>
+        <v>292</v>
       </c>
       <c r="E29" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/291","JEP 291")</f>
@@ -6030,13 +6268,13 @@
     </row>
     <row r="30" s="2" customFormat="1" spans="1:6">
       <c r="A30" s="2" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>262</v>
+        <v>293</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>225</v>
+        <v>256</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>85</v>
@@ -6049,14 +6287,14 @@
     </row>
     <row r="31" s="3" customFormat="1" spans="1:6">
       <c r="A31" s="3" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>262</v>
+        <v>293</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="E31" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/200","JEP 200")</f>
@@ -6066,14 +6304,14 @@
     </row>
     <row r="32" s="2" customFormat="1" spans="1:6">
       <c r="A32" s="2" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>262</v>
+        <v>293</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="E32" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/201","JEP 201")</f>
@@ -6083,14 +6321,14 @@
     </row>
     <row r="33" s="3" customFormat="1" spans="1:6">
       <c r="A33" s="3" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>262</v>
+        <v>293</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3" t="s">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="E33" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/220","JEP 220")</f>
@@ -6100,10 +6338,10 @@
     </row>
     <row r="34" s="2" customFormat="1" spans="1:6">
       <c r="A34" s="2" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>262</v>
+        <v>293</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2" t="s">
@@ -6117,16 +6355,16 @@
     </row>
     <row r="35" s="3" customFormat="1" spans="1:6">
       <c r="A35" s="3" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
       <c r="E35" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/165","JEP 165")</f>
@@ -6136,16 +6374,16 @@
     </row>
     <row r="36" s="2" customFormat="1" spans="1:6">
       <c r="A36" s="2" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>269</v>
+        <v>300</v>
       </c>
       <c r="E36" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/197","JEP 197")</f>
@@ -6155,16 +6393,16 @@
     </row>
     <row r="37" s="3" customFormat="1" spans="1:6">
       <c r="A37" s="3" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>270</v>
+        <v>301</v>
       </c>
       <c r="E37" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/233","JEP 233")</f>
@@ -6174,16 +6412,16 @@
     </row>
     <row r="38" s="2" customFormat="1" spans="1:6">
       <c r="A38" s="2" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>271</v>
+        <v>302</v>
       </c>
       <c r="E38" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/237","JEP 237")</f>
@@ -6193,16 +6431,16 @@
     </row>
     <row r="39" s="3" customFormat="1" spans="1:6">
       <c r="A39" s="3" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>272</v>
+        <v>303</v>
       </c>
       <c r="E39" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/243","JEP 243")</f>
@@ -6212,16 +6450,16 @@
     </row>
     <row r="40" s="2" customFormat="1" spans="1:6">
       <c r="A40" s="2" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>273</v>
+        <v>304</v>
       </c>
       <c r="E40" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/294","JEP 294")</f>
@@ -6231,16 +6469,16 @@
     </row>
     <row r="41" s="3" customFormat="1" spans="1:6">
       <c r="A41" s="3" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>274</v>
+        <v>305</v>
       </c>
       <c r="E41" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/295","JEP 295")</f>
@@ -6250,16 +6488,16 @@
     </row>
     <row r="42" s="2" customFormat="1" spans="1:6">
       <c r="A42" s="2" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>275</v>
+        <v>306</v>
       </c>
       <c r="E42" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/297","JEP 297")</f>
@@ -6269,16 +6507,16 @@
     </row>
     <row r="43" s="3" customFormat="1" spans="1:6">
       <c r="A43" s="3" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>276</v>
+        <v>307</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>277</v>
+        <v>308</v>
       </c>
       <c r="E43" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/143","JEP 143")</f>
@@ -6288,16 +6526,16 @@
     </row>
     <row r="44" s="2" customFormat="1" spans="1:6">
       <c r="A44" s="2" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>276</v>
+        <v>307</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>278</v>
+        <v>309</v>
       </c>
       <c r="E44" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/245","JEP 245")</f>
@@ -6307,16 +6545,16 @@
     </row>
     <row r="45" s="3" customFormat="1" spans="1:6">
       <c r="A45" s="3" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>276</v>
+        <v>307</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>279</v>
+        <v>310</v>
       </c>
       <c r="E45" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/250","JEP 250")</f>
@@ -6326,16 +6564,16 @@
     </row>
     <row r="46" s="2" customFormat="1" spans="1:6">
       <c r="A46" s="2" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>280</v>
+        <v>311</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>281</v>
+        <v>312</v>
       </c>
       <c r="E46" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/158","JEP 158")</f>
@@ -6345,16 +6583,16 @@
     </row>
     <row r="47" s="3" customFormat="1" spans="1:6">
       <c r="A47" s="3" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>280</v>
+        <v>311</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>282</v>
+        <v>313</v>
       </c>
       <c r="E47" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/228","JEP 228")</f>
@@ -6364,16 +6602,16 @@
     </row>
     <row r="48" s="2" customFormat="1" spans="1:6">
       <c r="A48" s="2" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>283</v>
+        <v>314</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>284</v>
+        <v>315</v>
       </c>
       <c r="E48" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/281","JEP 281")</f>
@@ -6383,13 +6621,13 @@
     </row>
     <row r="49" s="3" customFormat="1" spans="1:6">
       <c r="A49" s="3" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>225</v>
+        <v>256</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>81</v>
@@ -6402,16 +6640,16 @@
     </row>
     <row r="50" s="2" customFormat="1" spans="1:6">
       <c r="A50" s="2" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>225</v>
+        <v>256</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>286</v>
+        <v>317</v>
       </c>
       <c r="E50" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/227","JEP 227")</f>
@@ -6421,16 +6659,16 @@
     </row>
     <row r="51" s="3" customFormat="1" spans="1:6">
       <c r="A51" s="3" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>225</v>
+        <v>256</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>287</v>
+        <v>318</v>
       </c>
       <c r="E51" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/267","JEP 267")</f>
@@ -6440,13 +6678,13 @@
     </row>
     <row r="52" s="2" customFormat="1" spans="1:6">
       <c r="A52" s="2" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>225</v>
+        <v>256</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>90</v>
@@ -6459,16 +6697,16 @@
     </row>
     <row r="53" s="3" customFormat="1" spans="1:6">
       <c r="A53" s="3" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>225</v>
+        <v>256</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>288</v>
+        <v>319</v>
       </c>
       <c r="E53" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/285","JEP 285")</f>
@@ -6478,16 +6716,16 @@
     </row>
     <row r="54" s="2" customFormat="1" spans="1:6">
       <c r="A54" s="2" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>290</v>
+        <v>321</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>291</v>
+        <v>322</v>
       </c>
       <c r="E54" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/251","JEP 251")</f>
@@ -6497,16 +6735,16 @@
     </row>
     <row r="55" s="3" customFormat="1" spans="1:6">
       <c r="A55" s="3" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>290</v>
+        <v>321</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>292</v>
+        <v>323</v>
       </c>
       <c r="E55" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/258","JEP 258")</f>
@@ -6516,16 +6754,16 @@
     </row>
     <row r="56" s="2" customFormat="1" spans="1:6">
       <c r="A56" s="2" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>290</v>
+        <v>321</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>293</v>
+        <v>324</v>
       </c>
       <c r="E56" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/265","JEP 265")</f>
@@ -6535,16 +6773,16 @@
     </row>
     <row r="57" s="3" customFormat="1" spans="1:6">
       <c r="A57" s="3" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>294</v>
+        <v>325</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="E57" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/263","JEP 263")</f>
@@ -6554,16 +6792,16 @@
     </row>
     <row r="58" s="2" customFormat="1" spans="1:6">
       <c r="A58" s="2" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>294</v>
+        <v>325</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>296</v>
+        <v>327</v>
       </c>
       <c r="E58" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/272","JEP 272")</f>
@@ -6573,16 +6811,16 @@
     </row>
     <row r="59" s="3" customFormat="1" spans="1:6">
       <c r="A59" s="3" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>297</v>
+        <v>328</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>298</v>
+        <v>329</v>
       </c>
       <c r="E59" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/256","JEP 256")</f>
@@ -6592,16 +6830,16 @@
     </row>
     <row r="60" s="2" customFormat="1" spans="1:6">
       <c r="A60" s="2" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>299</v>
+        <v>330</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>300</v>
+        <v>331</v>
       </c>
       <c r="E60" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/262","JEP 262")</f>
@@ -6611,16 +6849,16 @@
     </row>
     <row r="61" s="3" customFormat="1" spans="1:6">
       <c r="A61" s="3" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>301</v>
+        <v>332</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>302</v>
+        <v>333</v>
       </c>
       <c r="E61" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/240","JEP 240")</f>
@@ -6630,16 +6868,16 @@
     </row>
     <row r="62" s="2" customFormat="1" spans="1:6">
       <c r="A62" s="2" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>301</v>
+        <v>332</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>303</v>
+        <v>334</v>
       </c>
       <c r="E62" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/241","JEP 241")</f>
@@ -6649,16 +6887,16 @@
     </row>
     <row r="63" s="3" customFormat="1" spans="1:6">
       <c r="A63" s="3" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>305</v>
+        <v>336</v>
       </c>
       <c r="E63" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/275","JEP 275")</f>
@@ -6668,16 +6906,16 @@
     </row>
     <row r="64" s="2" customFormat="1" spans="1:6">
       <c r="A64" s="2" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>307</v>
+        <v>338</v>
       </c>
       <c r="E64" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/299","JEP 299")</f>
@@ -6687,16 +6925,16 @@
     </row>
     <row r="65" s="3" customFormat="1" spans="1:6">
       <c r="A65" s="3" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>308</v>
+        <v>339</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>309</v>
+        <v>340</v>
       </c>
       <c r="E65" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/298","JEP 298")</f>
@@ -6706,16 +6944,16 @@
     </row>
     <row r="66" s="2" customFormat="1" spans="1:6">
       <c r="A66" s="2" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>310</v>
+        <v>341</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>311</v>
+        <v>342</v>
       </c>
       <c r="E66" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/284","JEP 284")</f>
@@ -6725,16 +6963,16 @@
     </row>
     <row r="67" s="3" customFormat="1" spans="1:6">
       <c r="A67" s="3" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>312</v>
+        <v>343</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>313</v>
+        <v>344</v>
       </c>
       <c r="E67" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/253","JEP 253")</f>
@@ -6744,16 +6982,16 @@
     </row>
     <row r="68" s="2" customFormat="1" spans="1:6">
       <c r="A68" s="2" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>315</v>
+        <v>346</v>
       </c>
       <c r="E68" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/257","JEP 257")</f>
@@ -6763,16 +7001,16 @@
     </row>
     <row r="69" s="3" customFormat="1" spans="1:6">
       <c r="A69" s="3" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>316</v>
+        <v>347</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>317</v>
+        <v>348</v>
       </c>
       <c r="E69" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/283","JEP 283")</f>
@@ -6782,16 +7020,16 @@
     </row>
     <row r="70" s="2" customFormat="1" spans="1:6">
       <c r="A70" s="2" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>318</v>
+        <v>349</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>319</v>
+        <v>350</v>
       </c>
       <c r="E70" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/255","JEP 255")</f>
@@ -6801,16 +7039,16 @@
     </row>
     <row r="71" s="3" customFormat="1" spans="1:6">
       <c r="A71" s="3" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>318</v>
+        <v>349</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>320</v>
+        <v>351</v>
       </c>
       <c r="E71" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/268","JEP 268")</f>
@@ -6820,14 +7058,14 @@
     </row>
     <row r="72" s="2" customFormat="1" spans="1:6">
       <c r="A72" s="2" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2" t="s">
-        <v>321</v>
+        <v>352</v>
       </c>
       <c r="E72" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/223","JEP 223")</f>
@@ -6837,14 +7075,14 @@
     </row>
     <row r="73" s="3" customFormat="1" spans="1:6">
       <c r="A73" s="3" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
       <c r="C73" s="3"/>
       <c r="D73" s="3" t="s">
-        <v>322</v>
+        <v>353</v>
       </c>
       <c r="E73" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/260","JEP 260")</f>
@@ -6854,14 +7092,14 @@
     </row>
     <row r="74" s="2" customFormat="1" spans="1:6">
       <c r="A74" s="2" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2" t="s">
-        <v>323</v>
+        <v>354</v>
       </c>
       <c r="E74" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/270","JEP 270")</f>
@@ -6871,14 +7109,14 @@
     </row>
     <row r="75" s="3" customFormat="1" spans="1:6">
       <c r="A75" s="3" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="3" t="s">
-        <v>324</v>
+        <v>355</v>
       </c>
       <c r="E75" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/279","JEP 279")</f>
@@ -6888,16 +7126,16 @@
     </row>
     <row r="76" s="2" customFormat="1" spans="1:6">
       <c r="A76" s="2" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>325</v>
+        <v>356</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>326</v>
+        <v>357</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>327</v>
+        <v>358</v>
       </c>
       <c r="E76" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/212","JEP 212")</f>
@@ -6907,16 +7145,16 @@
     </row>
     <row r="77" s="3" customFormat="1" spans="1:6">
       <c r="A77" s="3" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>325</v>
+        <v>356</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>328</v>
+        <v>359</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>198</v>
+        <v>229</v>
       </c>
       <c r="E77" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/238","JEP 238")</f>
@@ -6926,16 +7164,16 @@
     </row>
     <row r="78" s="2" customFormat="1" spans="1:6">
       <c r="A78" s="2" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>325</v>
+        <v>356</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>329</v>
+        <v>360</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>330</v>
+        <v>361</v>
       </c>
       <c r="E78" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/199","JEP 199")</f>
@@ -6945,16 +7183,16 @@
     </row>
     <row r="79" s="3" customFormat="1" spans="1:6">
       <c r="A79" s="3" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>325</v>
+        <v>356</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>329</v>
+        <v>360</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>331</v>
+        <v>362</v>
       </c>
       <c r="E79" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/211","JEP 211")</f>
@@ -6964,13 +7202,13 @@
     </row>
     <row r="80" s="2" customFormat="1" spans="1:6">
       <c r="A80" s="2" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>325</v>
+        <v>356</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>329</v>
+        <v>360</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>21</v>
@@ -6983,16 +7221,16 @@
     </row>
     <row r="81" s="3" customFormat="1" spans="1:6">
       <c r="A81" s="3" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>325</v>
+        <v>356</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>329</v>
+        <v>360</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>332</v>
+        <v>363</v>
       </c>
       <c r="E81" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/215","JEP 215")</f>
@@ -7002,16 +7240,16 @@
     </row>
     <row r="82" s="2" customFormat="1" spans="1:6">
       <c r="A82" s="2" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>325</v>
+        <v>356</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>329</v>
+        <v>360</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>333</v>
+        <v>364</v>
       </c>
       <c r="E82" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/216","JEP 216")</f>
@@ -7021,16 +7259,16 @@
     </row>
     <row r="83" s="3" customFormat="1" spans="1:6">
       <c r="A83" s="3" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>325</v>
+        <v>356</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>329</v>
+        <v>360</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>334</v>
+        <v>365</v>
       </c>
       <c r="E83" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/217","JEP 217")</f>
@@ -7040,16 +7278,16 @@
     </row>
     <row r="84" s="2" customFormat="1" spans="1:6">
       <c r="A84" s="2" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>325</v>
+        <v>356</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>329</v>
+        <v>360</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>335</v>
+        <v>366</v>
       </c>
       <c r="E84" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/235","JEP 235")</f>
@@ -7059,16 +7297,16 @@
     </row>
     <row r="85" s="3" customFormat="1" spans="1:6">
       <c r="A85" s="3" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>325</v>
+        <v>356</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>329</v>
+        <v>360</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>200</v>
+        <v>231</v>
       </c>
       <c r="E85" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/247","JEP 247")</f>
@@ -7078,16 +7316,16 @@
     </row>
     <row r="86" s="2" customFormat="1" spans="1:6">
       <c r="A86" s="2" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>325</v>
+        <v>356</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>329</v>
+        <v>360</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>336</v>
+        <v>367</v>
       </c>
       <c r="E86" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/280","JEP 280")</f>
@@ -7097,16 +7335,16 @@
     </row>
     <row r="87" s="3" customFormat="1" spans="1:6">
       <c r="A87" s="3" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>325</v>
+        <v>356</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>337</v>
+        <v>368</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>338</v>
+        <v>369</v>
       </c>
       <c r="E87" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/221","JEP 221")</f>
@@ -7116,16 +7354,16 @@
     </row>
     <row r="88" s="2" customFormat="1" spans="1:6">
       <c r="A88" s="2" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>325</v>
+        <v>356</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>337</v>
+        <v>368</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>339</v>
+        <v>370</v>
       </c>
       <c r="E88" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/224","JEP 224")</f>
@@ -7135,16 +7373,16 @@
     </row>
     <row r="89" s="3" customFormat="1" spans="1:6">
       <c r="A89" s="3" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>325</v>
+        <v>356</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>337</v>
+        <v>368</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>340</v>
+        <v>371</v>
       </c>
       <c r="E89" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/225","JEP 225")</f>
@@ -7154,16 +7392,16 @@
     </row>
     <row r="90" s="2" customFormat="1" spans="1:6">
       <c r="A90" s="2" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>325</v>
+        <v>356</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>341</v>
+        <v>372</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>342</v>
+        <v>373</v>
       </c>
       <c r="E90" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/282","JEP 282")</f>
@@ -7173,16 +7411,16 @@
     </row>
     <row r="91" s="3" customFormat="1" spans="1:6">
       <c r="A91" s="3" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>325</v>
+        <v>356</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>343</v>
+        <v>374</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>344</v>
+        <v>375</v>
       </c>
       <c r="E91" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/222","JEP 222")</f>
@@ -7192,16 +7430,16 @@
     </row>
     <row r="92" s="2" customFormat="1" spans="1:6">
       <c r="A92" s="2" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>325</v>
+        <v>356</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>345</v>
+        <v>376</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>346</v>
+        <v>377</v>
       </c>
       <c r="E92" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/231","JEP 231")</f>
@@ -7214,10 +7452,10 @@
         <v>3</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>237</v>
+        <v>268</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>94</v>
@@ -7233,13 +7471,13 @@
         <v>3</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>243</v>
+        <v>274</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>347</v>
+        <v>378</v>
       </c>
       <c r="E94" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/319","JEP 319")</f>
@@ -7252,13 +7490,13 @@
         <v>3</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>256</v>
+        <v>287</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>348</v>
+        <v>379</v>
       </c>
       <c r="E95" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/304","JEP 304")</f>
@@ -7271,13 +7509,13 @@
         <v>3</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>256</v>
+        <v>287</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E96" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/307","JEP 307")</f>
@@ -7290,13 +7528,13 @@
         <v>3</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>256</v>
+        <v>287</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E97" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/316","JEP 316")</f>
@@ -7309,13 +7547,13 @@
         <v>3</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E98" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/317","JEP 317")</f>
@@ -7328,13 +7566,13 @@
         <v>3</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>276</v>
+        <v>307</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>349</v>
+        <v>380</v>
       </c>
       <c r="E99" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/310","JEP 310")</f>
@@ -7347,13 +7585,13 @@
         <v>3</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>276</v>
+        <v>307</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E100" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/312","JEP 312")</f>
@@ -7366,13 +7604,13 @@
         <v>3</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>225</v>
+        <v>256</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>350</v>
+        <v>381</v>
       </c>
       <c r="E101" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/322","JEP 322")</f>
@@ -7385,10 +7623,10 @@
         <v>3</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>326</v>
+        <v>357</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>24</v>
@@ -7404,13 +7642,13 @@
         <v>3</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>310</v>
+        <v>341</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>351</v>
+        <v>382</v>
       </c>
       <c r="E103" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/296","JEP 296")</f>
@@ -7423,13 +7661,13 @@
         <v>3</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>325</v>
+        <v>356</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>352</v>
+        <v>383</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>353</v>
+        <v>384</v>
       </c>
       <c r="E104" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/313","JEP 313")</f>
@@ -7442,13 +7680,13 @@
         <v>4</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>354</v>
+        <v>385</v>
       </c>
       <c r="E105" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/321","JEP 321")</f>
@@ -7461,13 +7699,13 @@
         <v>4</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>240</v>
+        <v>271</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>355</v>
+        <v>386</v>
       </c>
       <c r="E106" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/335","JEP 335")</f>
@@ -7480,10 +7718,10 @@
         <v>4</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>249</v>
+        <v>280</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>101</v>
@@ -7499,10 +7737,10 @@
         <v>4</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>249</v>
+        <v>280</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>104</v>
@@ -7518,10 +7756,10 @@
         <v>4</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>251</v>
+        <v>282</v>
       </c>
       <c r="D109" s="3" t="s">
         <v>106</v>
@@ -7537,13 +7775,13 @@
         <v>4</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>256</v>
+        <v>287</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>356</v>
+        <v>187</v>
       </c>
       <c r="E110" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/318","JEP 318")</f>
@@ -7556,13 +7794,13 @@
         <v>4</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>256</v>
+        <v>287</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>357</v>
+        <v>387</v>
       </c>
       <c r="E111" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/333","JEP 333")</f>
@@ -7575,13 +7813,13 @@
         <v>4</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>358</v>
+        <v>388</v>
       </c>
       <c r="E112" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/315","JEP 315")</f>
@@ -7594,13 +7832,13 @@
         <v>4</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>359</v>
+        <v>389</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>211</v>
+        <v>242</v>
       </c>
       <c r="E113" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/328","JEP 328")</f>
@@ -7613,13 +7851,13 @@
         <v>4</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>360</v>
+        <v>390</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>361</v>
+        <v>391</v>
       </c>
       <c r="E114" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/331","JEP 331")</f>
@@ -7632,13 +7870,13 @@
         <v>4</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>276</v>
+        <v>307</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>362</v>
+        <v>392</v>
       </c>
       <c r="E115" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/181","JEP 181")</f>
@@ -7651,13 +7889,13 @@
         <v>4</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>276</v>
+        <v>307</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>363</v>
+        <v>393</v>
       </c>
       <c r="E116" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/309","JEP 309")</f>
@@ -7670,10 +7908,10 @@
         <v>4</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>225</v>
+        <v>256</v>
       </c>
       <c r="D117" s="3" t="s">
         <v>98</v>
@@ -7689,13 +7927,13 @@
         <v>4</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>364</v>
+        <v>394</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>365</v>
+        <v>395</v>
       </c>
       <c r="E118" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/320","JEP 320")</f>
@@ -7708,10 +7946,10 @@
         <v>4</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>325</v>
+        <v>356</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>326</v>
+        <v>357</v>
       </c>
       <c r="D119" s="3" t="s">
         <v>27</v>
@@ -7727,13 +7965,13 @@
         <v>4</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>325</v>
+        <v>356</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>326</v>
+        <v>357</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>366</v>
+        <v>396</v>
       </c>
       <c r="E120" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/336","JEP 336")</f>
@@ -7746,13 +7984,13 @@
         <v>4</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>325</v>
+        <v>356</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>329</v>
+        <v>360</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="E121" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/330","JEP 330")</f>
@@ -7805,19 +8043,19 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>213</v>
+        <v>244</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>214</v>
+        <v>245</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>215</v>
+        <v>246</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:6">
@@ -7825,13 +8063,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>227</v>
+        <v>258</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>367</v>
+        <v>397</v>
       </c>
       <c r="E2" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/334","JEP 334")</f>
@@ -7844,13 +8082,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>256</v>
+        <v>287</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>368</v>
+        <v>398</v>
       </c>
       <c r="E3" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/189","JEP 189")</f>
@@ -7863,13 +8101,13 @@
         <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>256</v>
+        <v>287</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>369</v>
+        <v>399</v>
       </c>
       <c r="E4" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/344","JEP 344")</f>
@@ -7882,13 +8120,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>256</v>
+        <v>287</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>370</v>
+        <v>400</v>
       </c>
       <c r="E5" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/346","JEP 346")</f>
@@ -7901,13 +8139,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>276</v>
+        <v>307</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>371</v>
+        <v>401</v>
       </c>
       <c r="E6" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/340","JEP 340")</f>
@@ -7920,13 +8158,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>276</v>
+        <v>307</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>372</v>
+        <v>402</v>
       </c>
       <c r="E7" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/341","JEP 341")</f>
@@ -7939,13 +8177,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>373</v>
+        <v>403</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>374</v>
+        <v>404</v>
       </c>
       <c r="E8" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/230","JEP 230")</f>
@@ -7958,13 +8196,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>375</v>
+        <v>405</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>376</v>
+        <v>406</v>
       </c>
       <c r="E9" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/325","JEP 325")</f>
@@ -7977,13 +8215,13 @@
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>377</v>
+        <v>407</v>
       </c>
       <c r="E10" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/353","JEP 353")</f>
@@ -7996,13 +8234,13 @@
         <v>6</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>256</v>
+        <v>287</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>378</v>
+        <v>196</v>
       </c>
       <c r="E11" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/351","JEP 351")</f>
@@ -8015,13 +8253,13 @@
         <v>6</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>276</v>
+        <v>307</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>379</v>
+        <v>408</v>
       </c>
       <c r="E12" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/350","JEP 350")</f>
@@ -8034,13 +8272,13 @@
         <v>6</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>375</v>
+        <v>405</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>376</v>
+        <v>406</v>
       </c>
       <c r="E13" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/354","JEP 354")</f>
@@ -8053,13 +8291,13 @@
         <v>6</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>375</v>
+        <v>405</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>380</v>
+        <v>409</v>
       </c>
       <c r="E14" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/355","JEP 355")</f>
@@ -8072,13 +8310,13 @@
         <v>7</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>221</v>
+        <v>252</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>381</v>
+        <v>410</v>
       </c>
       <c r="E15" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/370","JEP 370")</f>
@@ -8091,13 +8329,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>382</v>
+        <v>411</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>383</v>
+        <v>412</v>
       </c>
       <c r="E16" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/352","JEP 352")</f>
@@ -8110,13 +8348,13 @@
         <v>7</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>256</v>
+        <v>287</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>384</v>
+        <v>198</v>
       </c>
       <c r="E17" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/345","JEP 345")</f>
@@ -8129,13 +8367,13 @@
         <v>7</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>256</v>
+        <v>287</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>385</v>
+        <v>201</v>
       </c>
       <c r="E18" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/363","JEP 363")</f>
@@ -8148,13 +8386,13 @@
         <v>7</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>256</v>
+        <v>287</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>386</v>
+        <v>203</v>
       </c>
       <c r="E19" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/364","JEP 364")</f>
@@ -8167,13 +8405,13 @@
         <v>7</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>256</v>
+        <v>287</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="E20" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/365","JEP 365")</f>
@@ -8186,13 +8424,13 @@
         <v>7</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>256</v>
+        <v>287</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>388</v>
+        <v>207</v>
       </c>
       <c r="E21" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/366","JEP 366")</f>
@@ -8205,13 +8443,13 @@
         <v>7</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>359</v>
+        <v>389</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>389</v>
+        <v>413</v>
       </c>
       <c r="E22" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/349","JEP 349")</f>
@@ -8224,13 +8462,13 @@
         <v>7</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>276</v>
+        <v>307</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>390</v>
+        <v>414</v>
       </c>
       <c r="E23" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/358","JEP 358")</f>
@@ -8243,13 +8481,13 @@
         <v>7</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>375</v>
+        <v>405</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>391</v>
+        <v>415</v>
       </c>
       <c r="E24" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/305","JEP 305")</f>
@@ -8262,13 +8500,13 @@
         <v>7</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>375</v>
+        <v>405</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>392</v>
+        <v>416</v>
       </c>
       <c r="E25" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/359","JEP 359")</f>
@@ -8281,13 +8519,13 @@
         <v>7</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>375</v>
+        <v>405</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>393</v>
+        <v>417</v>
       </c>
       <c r="E26" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/361","JEP 361")</f>
@@ -8300,13 +8538,13 @@
         <v>7</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>375</v>
+        <v>405</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>394</v>
+        <v>418</v>
       </c>
       <c r="E27" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/368","JEP 368")</f>
@@ -8319,11 +8557,11 @@
         <v>7</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2" t="s">
-        <v>395</v>
+        <v>419</v>
       </c>
       <c r="E28" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/362","JEP 362")</f>
@@ -8336,13 +8574,13 @@
         <v>7</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>325</v>
+        <v>356</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>328</v>
+        <v>359</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>396</v>
+        <v>420</v>
       </c>
       <c r="E29" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/367","JEP 367")</f>
@@ -8355,13 +8593,13 @@
         <v>7</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>325</v>
+        <v>356</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>397</v>
+        <v>421</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>398</v>
+        <v>422</v>
       </c>
       <c r="E30" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/343","JEP 343")</f>
@@ -8374,13 +8612,13 @@
         <v>8</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>221</v>
+        <v>252</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>399</v>
+        <v>423</v>
       </c>
       <c r="E31" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/383","JEP 383")</f>
@@ -8393,13 +8631,13 @@
         <v>8</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>227</v>
+        <v>258</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>400</v>
+        <v>424</v>
       </c>
       <c r="E32" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/371","JEP 371")</f>
@@ -8412,13 +8650,13 @@
         <v>8</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>401</v>
+        <v>425</v>
       </c>
       <c r="E33" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/373","JEP 373")</f>
@@ -8431,13 +8669,13 @@
         <v>8</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>402</v>
+        <v>426</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>403</v>
+        <v>427</v>
       </c>
       <c r="E34" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/385","JEP 385")</f>
@@ -8450,13 +8688,13 @@
         <v>8</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>240</v>
+        <v>271</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>404</v>
+        <v>428</v>
       </c>
       <c r="E35" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/372","JEP 372")</f>
@@ -8469,13 +8707,13 @@
         <v>8</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>249</v>
+        <v>280</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>405</v>
+        <v>429</v>
       </c>
       <c r="E36" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/339","JEP 339")</f>
@@ -8488,13 +8726,13 @@
         <v>8</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>256</v>
+        <v>287</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>406</v>
+        <v>190</v>
       </c>
       <c r="E37" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/377","JEP 377")</f>
@@ -8507,13 +8745,13 @@
         <v>8</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>256</v>
+        <v>287</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>407</v>
+        <v>194</v>
       </c>
       <c r="E38" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/379","JEP 379")</f>
@@ -8526,13 +8764,13 @@
         <v>8</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>408</v>
+        <v>430</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>409</v>
+        <v>431</v>
       </c>
       <c r="E39" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/381","JEP 381")</f>
@@ -8545,13 +8783,13 @@
         <v>8</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>276</v>
+        <v>307</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>410</v>
+        <v>432</v>
       </c>
       <c r="E40" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/374","JEP 374")</f>
@@ -8564,13 +8802,13 @@
         <v>8</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>375</v>
+        <v>405</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>411</v>
+        <v>433</v>
       </c>
       <c r="E41" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/360","JEP 360")</f>
@@ -8583,13 +8821,13 @@
         <v>8</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>375</v>
+        <v>405</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>412</v>
+        <v>434</v>
       </c>
       <c r="E42" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/375","JEP 375")</f>
@@ -8602,10 +8840,10 @@
         <v>8</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>375</v>
+        <v>405</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>33</v>
@@ -8621,13 +8859,13 @@
         <v>8</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>375</v>
+        <v>405</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>413</v>
+        <v>435</v>
       </c>
       <c r="E44" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/384","JEP 384")</f>
@@ -8640,13 +8878,13 @@
         <v>9</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>221</v>
+        <v>252</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>414</v>
+        <v>436</v>
       </c>
       <c r="E45" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/389","JEP 389")</f>
@@ -8659,13 +8897,13 @@
         <v>9</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>221</v>
+        <v>252</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>415</v>
+        <v>437</v>
       </c>
       <c r="E46" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/393","JEP 393")</f>
@@ -8678,13 +8916,13 @@
         <v>9</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>382</v>
+        <v>411</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>416</v>
+        <v>438</v>
       </c>
       <c r="E47" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/380","JEP 380")</f>
@@ -8697,13 +8935,13 @@
         <v>9</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>256</v>
+        <v>287</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>417</v>
+        <v>212</v>
       </c>
       <c r="E48" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/376","JEP 376")</f>
@@ -8716,13 +8954,13 @@
         <v>9</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>418</v>
+        <v>439</v>
       </c>
       <c r="E49" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/338","JEP 338")</f>
@@ -8735,13 +8973,13 @@
         <v>9</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>408</v>
+        <v>430</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>419</v>
+        <v>440</v>
       </c>
       <c r="E50" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/347","JEP 347")</f>
@@ -8754,13 +8992,13 @@
         <v>9</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>276</v>
+        <v>307</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>420</v>
+        <v>441</v>
       </c>
       <c r="E51" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/386","JEP 386")</f>
@@ -8773,13 +9011,13 @@
         <v>9</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>276</v>
+        <v>307</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>421</v>
+        <v>442</v>
       </c>
       <c r="E52" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/387","JEP 387")</f>
@@ -8792,13 +9030,13 @@
         <v>9</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>276</v>
+        <v>307</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>422</v>
+        <v>443</v>
       </c>
       <c r="E53" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/388","JEP 388")</f>
@@ -8811,10 +9049,10 @@
         <v>9</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>375</v>
+        <v>405</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>41</v>
@@ -8830,10 +9068,10 @@
         <v>9</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>375</v>
+        <v>405</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>37</v>
@@ -8849,13 +9087,13 @@
         <v>9</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>375</v>
+        <v>405</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>423</v>
+        <v>444</v>
       </c>
       <c r="E56" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/397","JEP 397")</f>
@@ -8868,13 +9106,13 @@
         <v>9</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>308</v>
+        <v>339</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>424</v>
+        <v>445</v>
       </c>
       <c r="E57" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/357","JEP 357")</f>
@@ -8887,13 +9125,13 @@
         <v>9</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>308</v>
+        <v>339</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>425</v>
+        <v>446</v>
       </c>
       <c r="E58" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/369","JEP 369")</f>
@@ -8906,11 +9144,11 @@
         <v>9</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="3" t="s">
-        <v>426</v>
+        <v>447</v>
       </c>
       <c r="E59" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/390","JEP 390")</f>
@@ -8923,11 +9161,11 @@
         <v>9</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2" t="s">
-        <v>427</v>
+        <v>448</v>
       </c>
       <c r="E60" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/396","JEP 396")</f>
@@ -8940,13 +9178,13 @@
         <v>9</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>325</v>
+        <v>356</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>397</v>
+        <v>421</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>428</v>
+        <v>449</v>
       </c>
       <c r="E61" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/392","JEP 392")</f>
@@ -8959,13 +9197,13 @@
         <v>10</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>221</v>
+        <v>252</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>429</v>
+        <v>450</v>
       </c>
       <c r="E62" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/412","JEP 412")</f>
@@ -8978,13 +9216,13 @@
         <v>10</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>221</v>
+        <v>252</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>430</v>
+        <v>451</v>
       </c>
       <c r="E63" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/414","JEP 414")</f>
@@ -8997,13 +9235,13 @@
         <v>10</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>223</v>
+        <v>254</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>431</v>
+        <v>452</v>
       </c>
       <c r="E64" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/415","JEP 415")</f>
@@ -9016,13 +9254,13 @@
         <v>10</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>402</v>
+        <v>426</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>432</v>
+        <v>453</v>
       </c>
       <c r="E65" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/407","JEP 407")</f>
@@ -9035,13 +9273,13 @@
         <v>10</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>433</v>
+        <v>454</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>434</v>
+        <v>455</v>
       </c>
       <c r="E66" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/356","JEP 356")</f>
@@ -9054,13 +9292,13 @@
         <v>10</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>243</v>
+        <v>274</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>435</v>
+        <v>456</v>
       </c>
       <c r="E67" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/411","JEP 411")</f>
@@ -9073,13 +9311,13 @@
         <v>10</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>436</v>
+        <v>457</v>
       </c>
       <c r="E68" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/410","JEP 410")</f>
@@ -9092,13 +9330,13 @@
         <v>10</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>276</v>
+        <v>307</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>437</v>
+        <v>458</v>
       </c>
       <c r="E69" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/391","JEP 391")</f>
@@ -9111,13 +9349,13 @@
         <v>10</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>375</v>
+        <v>405</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>438</v>
+        <v>459</v>
       </c>
       <c r="E70" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/306","JEP 306")</f>
@@ -9130,13 +9368,13 @@
         <v>10</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>375</v>
+        <v>405</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="E71" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/406","JEP 406")</f>
@@ -9149,10 +9387,10 @@
         <v>10</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>375</v>
+        <v>405</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>45</v>
@@ -9168,13 +9406,13 @@
         <v>10</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>290</v>
+        <v>321</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>440</v>
+        <v>461</v>
       </c>
       <c r="E73" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/382","JEP 382")</f>
@@ -9187,13 +9425,13 @@
         <v>10</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>294</v>
+        <v>325</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="E74" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/398","JEP 398")</f>
@@ -9206,11 +9444,11 @@
         <v>10</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="3" t="s">
-        <v>442</v>
+        <v>463</v>
       </c>
       <c r="E75" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/403","JEP 403")</f>
@@ -9263,19 +9501,19 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>213</v>
+        <v>244</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>214</v>
+        <v>245</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>215</v>
+        <v>246</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:6">
@@ -9283,13 +9521,13 @@
         <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>221</v>
+        <v>252</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>443</v>
+        <v>464</v>
       </c>
       <c r="E2" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/417","JEP 417")</f>
@@ -9302,13 +9540,13 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>221</v>
+        <v>252</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>444</v>
+        <v>465</v>
       </c>
       <c r="E3" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/419","JEP 419")</f>
@@ -9321,13 +9559,13 @@
         <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>445</v>
+        <v>466</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>446</v>
+        <v>467</v>
       </c>
       <c r="E4" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/416","JEP 416")</f>
@@ -9340,13 +9578,13 @@
         <v>11</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>447</v>
+        <v>468</v>
       </c>
       <c r="E5" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/408","JEP 408")</f>
@@ -9359,13 +9597,13 @@
         <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>448</v>
+        <v>469</v>
       </c>
       <c r="E6" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/418","JEP 418")</f>
@@ -9378,13 +9616,13 @@
         <v>11</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>449</v>
+        <v>470</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>450</v>
+        <v>471</v>
       </c>
       <c r="E7" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/400","JEP 400")</f>
@@ -9397,13 +9635,13 @@
         <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>225</v>
+        <v>256</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>451</v>
+        <v>472</v>
       </c>
       <c r="E8" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/421","JEP 421")</f>
@@ -9416,13 +9654,13 @@
         <v>11</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>375</v>
+        <v>405</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>452</v>
+        <v>473</v>
       </c>
       <c r="E9" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/420","JEP 420")</f>
@@ -9435,13 +9673,13 @@
         <v>11</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>325</v>
+        <v>356</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>337</v>
+        <v>368</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>453</v>
+        <v>474</v>
       </c>
       <c r="E10" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/413","JEP 413")</f>
@@ -9454,13 +9692,13 @@
         <v>12</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>221</v>
+        <v>252</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>454</v>
+        <v>475</v>
       </c>
       <c r="E11" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/424","JEP 424")</f>
@@ -9473,13 +9711,13 @@
         <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>221</v>
+        <v>252</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>455</v>
+        <v>476</v>
       </c>
       <c r="E12" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/425","JEP 425")</f>
@@ -9492,13 +9730,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>221</v>
+        <v>252</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>456</v>
+        <v>477</v>
       </c>
       <c r="E13" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/426","JEP 426")</f>
@@ -9511,13 +9749,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>221</v>
+        <v>252</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>457</v>
+        <v>478</v>
       </c>
       <c r="E14" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/428","JEP 428")</f>
@@ -9530,13 +9768,13 @@
         <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>408</v>
+        <v>430</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>458</v>
+        <v>479</v>
       </c>
       <c r="E15" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/422","JEP 422")</f>
@@ -9549,13 +9787,13 @@
         <v>12</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>375</v>
+        <v>405</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>459</v>
+        <v>480</v>
       </c>
       <c r="E16" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/405","JEP 405")</f>
@@ -9568,13 +9806,13 @@
         <v>12</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>375</v>
+        <v>405</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>460</v>
+        <v>481</v>
       </c>
       <c r="E17" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/427","JEP 427")</f>
@@ -9587,13 +9825,13 @@
         <v>13</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>221</v>
+        <v>252</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>461</v>
+        <v>482</v>
       </c>
       <c r="E18" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/429","JEP 429")</f>
@@ -9606,13 +9844,13 @@
         <v>13</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>221</v>
+        <v>252</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>462</v>
+        <v>483</v>
       </c>
       <c r="E19" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/434","JEP 434")</f>
@@ -9625,13 +9863,13 @@
         <v>13</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>221</v>
+        <v>252</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>463</v>
+        <v>484</v>
       </c>
       <c r="E20" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/436","JEP 436")</f>
@@ -9644,13 +9882,13 @@
         <v>13</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>221</v>
+        <v>252</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>464</v>
+        <v>485</v>
       </c>
       <c r="E21" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/437","JEP 437")</f>
@@ -9663,13 +9901,13 @@
         <v>13</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>221</v>
+        <v>252</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>465</v>
+        <v>486</v>
       </c>
       <c r="E22" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/438","JEP 438")</f>
@@ -9682,13 +9920,13 @@
         <v>13</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>375</v>
+        <v>405</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>466</v>
+        <v>487</v>
       </c>
       <c r="E23" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/432","JEP 432")</f>
@@ -9701,13 +9939,13 @@
         <v>13</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>375</v>
+        <v>405</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>467</v>
+        <v>488</v>
       </c>
       <c r="E24" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/433","JEP 433")</f>
@@ -9720,13 +9958,13 @@
         <v>14</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>221</v>
+        <v>252</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>468</v>
+        <v>489</v>
       </c>
       <c r="E25" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/442","JEP 442")</f>
@@ -9739,10 +9977,10 @@
         <v>14</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>221</v>
+        <v>252</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>138</v>
@@ -9758,13 +9996,13 @@
         <v>14</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>221</v>
+        <v>252</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>469</v>
+        <v>490</v>
       </c>
       <c r="E27" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/446","JEP 446")</f>
@@ -9777,13 +10015,13 @@
         <v>14</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>221</v>
+        <v>252</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>470</v>
+        <v>491</v>
       </c>
       <c r="E28" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/453","JEP 453")</f>
@@ -9796,10 +10034,10 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>148</v>
@@ -9815,10 +10053,10 @@
         <v>14</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>249</v>
+        <v>280</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>150</v>
@@ -9834,13 +10072,13 @@
         <v>14</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>256</v>
+        <v>287</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>471</v>
+        <v>214</v>
       </c>
       <c r="E31" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/439","JEP 439")</f>
@@ -9853,13 +10091,13 @@
         <v>14</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>408</v>
+        <v>430</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>472</v>
+        <v>492</v>
       </c>
       <c r="E32" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/449","JEP 449")</f>
@@ -9872,13 +10110,13 @@
         <v>14</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>280</v>
+        <v>311</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>473</v>
+        <v>493</v>
       </c>
       <c r="E33" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/451","JEP 451")</f>
@@ -9891,13 +10129,13 @@
         <v>14</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>375</v>
+        <v>405</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>474</v>
+        <v>494</v>
       </c>
       <c r="E34" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/430","JEP 430")</f>
@@ -9910,10 +10148,10 @@
         <v>14</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>375</v>
+        <v>405</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>55</v>
@@ -9929,10 +10167,10 @@
         <v>14</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>375</v>
+        <v>405</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>49</v>
@@ -9948,13 +10186,13 @@
         <v>14</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>375</v>
+        <v>405</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>475</v>
+        <v>495</v>
       </c>
       <c r="E37" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/443","JEP 443")</f>
@@ -9967,13 +10205,13 @@
         <v>14</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>375</v>
+        <v>405</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>476</v>
+        <v>496</v>
       </c>
       <c r="E38" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/445","JEP 445")</f>
@@ -9988,7 +10226,7 @@
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3" t="s">
-        <v>477</v>
+        <v>497</v>
       </c>
       <c r="E39" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/448","JEP 448")</f>
@@ -10041,19 +10279,19 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>213</v>
+        <v>244</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>214</v>
+        <v>245</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>215</v>
+        <v>246</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:6">
@@ -10061,13 +10299,13 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>221</v>
+        <v>252</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>478</v>
+        <v>498</v>
       </c>
       <c r="E2" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/460","JEP 460")</f>
@@ -10080,13 +10318,13 @@
         <v>15</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>221</v>
+        <v>252</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>479</v>
+        <v>499</v>
       </c>
       <c r="E3" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/462","JEP 462")</f>
@@ -10099,13 +10337,13 @@
         <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>221</v>
+        <v>252</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="E4" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/464","JEP 464")</f>
@@ -10118,13 +10356,13 @@
         <v>15</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>481</v>
+        <v>501</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>482</v>
+        <v>502</v>
       </c>
       <c r="E5" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/457","JEP 457")</f>
@@ -10137,10 +10375,10 @@
         <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>483</v>
+        <v>503</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>114</v>
@@ -10156,13 +10394,13 @@
         <v>15</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>484</v>
+        <v>504</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>485</v>
+        <v>505</v>
       </c>
       <c r="E7" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/461","JEP 461")</f>
@@ -10175,13 +10413,13 @@
         <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>256</v>
+        <v>287</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>486</v>
+        <v>217</v>
       </c>
       <c r="E8" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/423","JEP 423")</f>
@@ -10194,13 +10432,13 @@
         <v>15</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>375</v>
+        <v>405</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>487</v>
+        <v>506</v>
       </c>
       <c r="E9" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/447","JEP 447")</f>
@@ -10213,13 +10451,13 @@
         <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>375</v>
+        <v>405</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>488</v>
+        <v>507</v>
       </c>
       <c r="E10" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/456","JEP 456")</f>
@@ -10232,13 +10470,13 @@
         <v>15</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>375</v>
+        <v>405</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>489</v>
+        <v>508</v>
       </c>
       <c r="E11" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/459","JEP 459")</f>
@@ -10251,13 +10489,13 @@
         <v>15</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>375</v>
+        <v>405</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>490</v>
+        <v>509</v>
       </c>
       <c r="E12" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/463","JEP 463")</f>
@@ -10270,13 +10508,13 @@
         <v>15</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>325</v>
+        <v>356</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>345</v>
+        <v>376</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>491</v>
+        <v>510</v>
       </c>
       <c r="E13" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/458","JEP 458")</f>
@@ -10289,13 +10527,13 @@
         <v>16</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>221</v>
+        <v>252</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>492</v>
+        <v>511</v>
       </c>
       <c r="E14" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/469","JEP 469")</f>
@@ -10308,13 +10546,13 @@
         <v>16</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>221</v>
+        <v>252</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>493</v>
+        <v>512</v>
       </c>
       <c r="E15" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/471","JEP 471")</f>
@@ -10327,13 +10565,13 @@
         <v>16</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>221</v>
+        <v>252</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>494</v>
+        <v>513</v>
       </c>
       <c r="E16" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/480","JEP 480")</f>
@@ -10346,13 +10584,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>221</v>
+        <v>252</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>495</v>
+        <v>514</v>
       </c>
       <c r="E17" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/481","JEP 481")</f>
@@ -10365,13 +10603,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>481</v>
+        <v>501</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>496</v>
+        <v>515</v>
       </c>
       <c r="E18" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/466","JEP 466")</f>
@@ -10384,13 +10622,13 @@
         <v>16</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>256</v>
+        <v>287</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>497</v>
+        <v>219</v>
       </c>
       <c r="E19" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/474","JEP 474")</f>
@@ -10403,13 +10641,13 @@
         <v>16</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>375</v>
+        <v>405</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>498</v>
+        <v>516</v>
       </c>
       <c r="E20" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/455","JEP 455")</f>
@@ -10422,13 +10660,13 @@
         <v>16</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>375</v>
+        <v>405</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>499</v>
+        <v>517</v>
       </c>
       <c r="E21" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/476","JEP 476")</f>
@@ -10441,13 +10679,13 @@
         <v>16</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>375</v>
+        <v>405</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>500</v>
+        <v>518</v>
       </c>
       <c r="E22" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/477","JEP 477")</f>
@@ -10460,13 +10698,13 @@
         <v>16</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>375</v>
+        <v>405</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>501</v>
+        <v>519</v>
       </c>
       <c r="E23" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/482","JEP 482")</f>
@@ -10479,13 +10717,13 @@
         <v>16</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>325</v>
+        <v>356</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>337</v>
+        <v>368</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>502</v>
+        <v>520</v>
       </c>
       <c r="E24" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/467","JEP 467")</f>
@@ -10500,7 +10738,7 @@
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3" t="s">
-        <v>503</v>
+        <v>521</v>
       </c>
       <c r="E25" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/473","JEP 473")</f>
@@ -10513,10 +10751,10 @@
         <v>17</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>221</v>
+        <v>252</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>162</v>
@@ -10532,13 +10770,13 @@
         <v>17</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>221</v>
+        <v>252</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>504</v>
+        <v>522</v>
       </c>
       <c r="E27" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/487","JEP 487")</f>
@@ -10551,13 +10789,13 @@
         <v>17</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>221</v>
+        <v>252</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="E28" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/489","JEP 489")</f>
@@ -10570,10 +10808,10 @@
         <v>17</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>221</v>
+        <v>252</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>170</v>
@@ -10589,13 +10827,13 @@
         <v>17</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>221</v>
+        <v>252</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>506</v>
+        <v>524</v>
       </c>
       <c r="E30" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/499","JEP 499")</f>
@@ -10608,10 +10846,10 @@
         <v>17</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>481</v>
+        <v>501</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>152</v>
@@ -10627,10 +10865,10 @@
         <v>17</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>484</v>
+        <v>504</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>156</v>
@@ -10646,10 +10884,10 @@
         <v>17</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>243</v>
+        <v>274</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>164</v>
@@ -10665,10 +10903,10 @@
         <v>17</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>243</v>
+        <v>274</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>168</v>
@@ -10684,13 +10922,13 @@
         <v>17</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>249</v>
+        <v>280</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>507</v>
+        <v>525</v>
       </c>
       <c r="E35" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/478","JEP 478")</f>
@@ -10703,10 +10941,10 @@
         <v>17</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>249</v>
+        <v>280</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>166</v>
@@ -10722,13 +10960,13 @@
         <v>17</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>256</v>
+        <v>287</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>508</v>
+        <v>526</v>
       </c>
       <c r="E37" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/404","JEP 404")</f>
@@ -10741,13 +10979,13 @@
         <v>17</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>256</v>
+        <v>287</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>509</v>
+        <v>224</v>
       </c>
       <c r="E38" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/490","JEP 490")</f>
@@ -10760,13 +10998,13 @@
         <v>17</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>510</v>
+        <v>222</v>
       </c>
       <c r="E39" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/475","JEP 475")</f>
@@ -10779,13 +11017,13 @@
         <v>17</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>408</v>
+        <v>430</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>511</v>
+        <v>527</v>
       </c>
       <c r="E40" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/479","JEP 479")</f>
@@ -10798,13 +11036,13 @@
         <v>17</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>408</v>
+        <v>430</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>512</v>
+        <v>528</v>
       </c>
       <c r="E41" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/501","JEP 501")</f>
@@ -10817,13 +11055,13 @@
         <v>17</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>276</v>
+        <v>307</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>513</v>
+        <v>529</v>
       </c>
       <c r="E42" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/450","JEP 450")</f>
@@ -10836,13 +11074,13 @@
         <v>17</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>276</v>
+        <v>307</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>514</v>
+        <v>530</v>
       </c>
       <c r="E43" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/483","JEP 483")</f>
@@ -10855,13 +11093,13 @@
         <v>17</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>276</v>
+        <v>307</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>515</v>
+        <v>531</v>
       </c>
       <c r="E44" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/491","JEP 491")</f>
@@ -10874,13 +11112,13 @@
         <v>17</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>375</v>
+        <v>405</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>516</v>
+        <v>532</v>
       </c>
       <c r="E45" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/488","JEP 488")</f>
@@ -10893,13 +11131,13 @@
         <v>17</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>375</v>
+        <v>405</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>517</v>
+        <v>533</v>
       </c>
       <c r="E46" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/492","JEP 492")</f>
@@ -10912,13 +11150,13 @@
         <v>17</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>375</v>
+        <v>405</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>518</v>
+        <v>534</v>
       </c>
       <c r="E47" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/494","JEP 494")</f>
@@ -10931,13 +11169,13 @@
         <v>17</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>375</v>
+        <v>405</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>519</v>
+        <v>535</v>
       </c>
       <c r="E48" s="5" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/495","JEP 495")</f>
@@ -10950,13 +11188,13 @@
         <v>17</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>325</v>
+        <v>356</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>341</v>
+        <v>372</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>520</v>
+        <v>536</v>
       </c>
       <c r="E49" s="7" t="str">
         <f>HYPERLINK("https://openjdk.org/jeps/493","JEP 493")</f>
